--- a/Collections/EURO/Andorra/#EURO#Andorra#Regular#[2014-present]#circulation_quality%varieties.xlsx
+++ b/Collections/EURO/Andorra/#EURO#Andorra#Regular#[2014-present]#circulation_quality%varieties.xlsx
@@ -5,11 +5,11 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\aleksey.ilyushin\Documents\GitHub\CoinCollection\Collections\Евро\Andorra\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\aleksey.ilyushin\Documents\GitHub\CoinCollection\Collections\EURO\Andorra\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12300" activeTab="8"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12300" activeTab="7"/>
   </bookViews>
   <sheets>
     <sheet name="1cent" sheetId="4" r:id="rId1"/>
@@ -624,7 +624,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="316" uniqueCount="58">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="394" uniqueCount="60">
   <si>
     <t>-</t>
   </si>
@@ -647,9 +647,6 @@
     <t>Subtype_2</t>
   </si>
   <si>
-    <t>Copper plated Steel</t>
-  </si>
-  <si>
     <t>1cent</t>
   </si>
   <si>
@@ -662,9 +659,6 @@
     <t>10cents</t>
   </si>
   <si>
-    <t>Brass</t>
-  </si>
-  <si>
     <t>20cents</t>
   </si>
   <si>
@@ -674,9 +668,6 @@
     <t>1€</t>
   </si>
   <si>
-    <t>Bi-Metallic</t>
-  </si>
-  <si>
     <t>№</t>
   </si>
   <si>
@@ -798,6 +789,21 @@
   </si>
   <si>
     <t>High convenience set of tables table of actual coins with photos</t>
+  </si>
+  <si>
+    <t>Obv: Without mint symbol</t>
+  </si>
+  <si>
+    <t>Obv: Pyrenean chamois</t>
+  </si>
+  <si>
+    <t>Obv: Sant Martí de la Cortinada</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Obv: Casa de la Vall </t>
+  </si>
+  <si>
+    <t>Rev: new map of Europe</t>
   </si>
 </sst>
 </file>
@@ -1073,7 +1079,7 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="41">
+  <cellXfs count="42">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -1187,6 +1193,9 @@
       <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
     </xf>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="3" fontId="3" fillId="3" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
     </xf>
   </cellXfs>
@@ -1745,7 +1754,7 @@
       <pane xSplit="9" ySplit="2" topLeftCell="J3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="H1" sqref="H1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="D13" sqref="D13"/>
+      <selection pane="bottomRight" activeCell="C11" sqref="C11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.35"/>
@@ -1775,7 +1784,7 @@
       </c>
       <c r="F1" s="28"/>
       <c r="G1" s="29" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="H1" s="30"/>
       <c r="I1" s="2"/>
@@ -1790,16 +1799,16 @@
         <v>6</v>
       </c>
       <c r="E2" s="8" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="F2" s="8" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="G2" s="19" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="H2" s="19" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="I2" s="2"/>
     </row>
@@ -1808,12 +1817,14 @@
         <v>2014</v>
       </c>
       <c r="B3" s="10" t="s">
-        <v>7</v>
-      </c>
-      <c r="C3" s="11"/>
+        <v>56</v>
+      </c>
+      <c r="C3" s="41" t="s">
+        <v>55</v>
+      </c>
       <c r="D3" s="11"/>
       <c r="E3" s="12" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="F3" s="7" t="s">
         <v>0</v>
@@ -1834,15 +1845,17 @@
         <v>2015</v>
       </c>
       <c r="B4" s="10" t="s">
-        <v>7</v>
-      </c>
-      <c r="C4" s="11"/>
+        <v>56</v>
+      </c>
+      <c r="C4" s="41" t="s">
+        <v>55</v>
+      </c>
       <c r="D4" s="11"/>
       <c r="E4" s="7" t="s">
         <v>0</v>
       </c>
       <c r="F4" s="21" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="G4" s="1" t="s">
         <v>0</v>
@@ -1860,12 +1873,14 @@
         <v>2016</v>
       </c>
       <c r="B5" s="10" t="s">
-        <v>7</v>
-      </c>
-      <c r="C5" s="11"/>
+        <v>56</v>
+      </c>
+      <c r="C5" s="41" t="s">
+        <v>55</v>
+      </c>
       <c r="D5" s="11"/>
       <c r="E5" s="21" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="F5" s="7" t="s">
         <v>0</v>
@@ -1886,15 +1901,17 @@
         <v>2017</v>
       </c>
       <c r="B6" s="10" t="s">
-        <v>7</v>
-      </c>
-      <c r="C6" s="11"/>
+        <v>56</v>
+      </c>
+      <c r="C6" s="41" t="s">
+        <v>55</v>
+      </c>
       <c r="D6" s="11"/>
       <c r="E6" s="7" t="s">
         <v>0</v>
       </c>
       <c r="F6" s="12" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="G6" s="1" t="s">
         <v>0</v>
@@ -1912,12 +1929,14 @@
         <v>2018</v>
       </c>
       <c r="B7" s="10" t="s">
-        <v>7</v>
-      </c>
-      <c r="C7" s="11"/>
+        <v>56</v>
+      </c>
+      <c r="C7" s="41" t="s">
+        <v>55</v>
+      </c>
       <c r="D7" s="11"/>
       <c r="E7" s="12" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="F7" s="7" t="s">
         <v>0</v>
@@ -1938,12 +1957,14 @@
         <v>2019</v>
       </c>
       <c r="B8" s="10" t="s">
-        <v>7</v>
-      </c>
-      <c r="C8" s="11"/>
+        <v>56</v>
+      </c>
+      <c r="C8" s="41" t="s">
+        <v>55</v>
+      </c>
       <c r="D8" s="11"/>
       <c r="E8" s="21" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="F8" s="7" t="s">
         <v>0</v>
@@ -1969,7 +1990,7 @@
       <formula>NOT(ISERROR(SEARCH(("*-"),(G3))))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="G3 G7">
+  <conditionalFormatting sqref="G7 G3">
     <cfRule type="colorScale" priority="20">
       <colorScale>
         <cfvo type="formula" val="0"/>
@@ -2131,7 +2152,7 @@
       <pane xSplit="9" ySplit="2" topLeftCell="K3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="H1" sqref="H1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="B14" sqref="A1:XFD1048576"/>
+      <selection pane="bottomRight" activeCell="B3" sqref="B3:C8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.35"/>
@@ -2161,7 +2182,7 @@
       </c>
       <c r="F1" s="28"/>
       <c r="G1" s="29" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="H1" s="30"/>
       <c r="I1" s="2"/>
@@ -2176,16 +2197,16 @@
         <v>6</v>
       </c>
       <c r="E2" s="8" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="F2" s="8" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="G2" s="19" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="H2" s="19" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="I2" s="2"/>
     </row>
@@ -2194,12 +2215,14 @@
         <v>2014</v>
       </c>
       <c r="B3" s="10" t="s">
-        <v>7</v>
-      </c>
-      <c r="C3" s="5"/>
+        <v>56</v>
+      </c>
+      <c r="C3" s="41" t="s">
+        <v>55</v>
+      </c>
       <c r="D3" s="5"/>
       <c r="E3" s="12" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="F3" s="7" t="s">
         <v>0</v>
@@ -2220,15 +2243,17 @@
         <v>2015</v>
       </c>
       <c r="B4" s="10" t="s">
-        <v>7</v>
-      </c>
-      <c r="C4" s="5"/>
+        <v>56</v>
+      </c>
+      <c r="C4" s="41" t="s">
+        <v>55</v>
+      </c>
       <c r="D4" s="5"/>
       <c r="E4" s="7" t="s">
         <v>0</v>
       </c>
       <c r="F4" s="21" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="G4" s="1" t="s">
         <v>0</v>
@@ -2246,12 +2271,14 @@
         <v>2016</v>
       </c>
       <c r="B5" s="10" t="s">
-        <v>7</v>
-      </c>
-      <c r="C5" s="5"/>
+        <v>56</v>
+      </c>
+      <c r="C5" s="41" t="s">
+        <v>55</v>
+      </c>
       <c r="D5" s="5"/>
       <c r="E5" s="21" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="F5" s="7" t="s">
         <v>0</v>
@@ -2272,15 +2299,17 @@
         <v>2017</v>
       </c>
       <c r="B6" s="10" t="s">
-        <v>7</v>
-      </c>
-      <c r="C6" s="5"/>
+        <v>56</v>
+      </c>
+      <c r="C6" s="41" t="s">
+        <v>55</v>
+      </c>
       <c r="D6" s="5"/>
       <c r="E6" s="7" t="s">
         <v>0</v>
       </c>
       <c r="F6" s="12" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="G6" s="1" t="s">
         <v>0</v>
@@ -2298,12 +2327,14 @@
         <v>2018</v>
       </c>
       <c r="B7" s="10" t="s">
-        <v>7</v>
-      </c>
-      <c r="C7" s="5"/>
+        <v>56</v>
+      </c>
+      <c r="C7" s="41" t="s">
+        <v>55</v>
+      </c>
       <c r="D7" s="5"/>
       <c r="E7" s="12" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="F7" s="7" t="s">
         <v>0</v>
@@ -2324,12 +2355,14 @@
         <v>2019</v>
       </c>
       <c r="B8" s="10" t="s">
-        <v>7</v>
-      </c>
-      <c r="C8" s="11"/>
+        <v>56</v>
+      </c>
+      <c r="C8" s="41" t="s">
+        <v>55</v>
+      </c>
       <c r="D8" s="11"/>
       <c r="E8" s="21" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="F8" s="7" t="s">
         <v>0</v>
@@ -2379,7 +2412,7 @@
       <formula>NOT(ISERROR(SEARCH(("*-"),(G3))))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="G3 G7">
+  <conditionalFormatting sqref="G7 G3">
     <cfRule type="colorScale" priority="18">
       <colorScale>
         <cfvo type="formula" val="0"/>
@@ -2527,7 +2560,7 @@
       <pane xSplit="9" ySplit="2" topLeftCell="J3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="J1" sqref="J1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="E14" sqref="A1:XFD1048576"/>
+      <selection pane="bottomRight" activeCell="B3" sqref="B3:C8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.35"/>
@@ -2557,7 +2590,7 @@
       </c>
       <c r="F1" s="28"/>
       <c r="G1" s="29" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="H1" s="30"/>
       <c r="I1" s="2"/>
@@ -2572,16 +2605,16 @@
         <v>6</v>
       </c>
       <c r="E2" s="8" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="F2" s="8" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="G2" s="19" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="H2" s="19" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="I2" s="2"/>
     </row>
@@ -2590,12 +2623,14 @@
         <v>2014</v>
       </c>
       <c r="B3" s="10" t="s">
-        <v>7</v>
-      </c>
-      <c r="C3" s="5"/>
+        <v>56</v>
+      </c>
+      <c r="C3" s="41" t="s">
+        <v>55</v>
+      </c>
       <c r="D3" s="5"/>
       <c r="E3" s="12" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="F3" s="7" t="s">
         <v>0</v>
@@ -2616,15 +2651,17 @@
         <v>2015</v>
       </c>
       <c r="B4" s="10" t="s">
-        <v>7</v>
-      </c>
-      <c r="C4" s="5"/>
+        <v>56</v>
+      </c>
+      <c r="C4" s="41" t="s">
+        <v>55</v>
+      </c>
       <c r="D4" s="5"/>
       <c r="E4" s="7" t="s">
         <v>0</v>
       </c>
       <c r="F4" s="21" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="G4" s="1" t="s">
         <v>0</v>
@@ -2642,12 +2679,14 @@
         <v>2016</v>
       </c>
       <c r="B5" s="10" t="s">
-        <v>7</v>
-      </c>
-      <c r="C5" s="5"/>
+        <v>56</v>
+      </c>
+      <c r="C5" s="41" t="s">
+        <v>55</v>
+      </c>
       <c r="D5" s="5"/>
       <c r="E5" s="21" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="F5" s="7" t="s">
         <v>0</v>
@@ -2668,15 +2707,17 @@
         <v>2017</v>
       </c>
       <c r="B6" s="10" t="s">
-        <v>7</v>
-      </c>
-      <c r="C6" s="5"/>
+        <v>56</v>
+      </c>
+      <c r="C6" s="41" t="s">
+        <v>55</v>
+      </c>
       <c r="D6" s="5"/>
       <c r="E6" s="7" t="s">
         <v>0</v>
       </c>
       <c r="F6" s="12" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="G6" s="1" t="s">
         <v>0</v>
@@ -2694,12 +2735,14 @@
         <v>2018</v>
       </c>
       <c r="B7" s="10" t="s">
-        <v>7</v>
-      </c>
-      <c r="C7" s="5"/>
+        <v>56</v>
+      </c>
+      <c r="C7" s="41" t="s">
+        <v>55</v>
+      </c>
       <c r="D7" s="5"/>
       <c r="E7" s="12" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="F7" s="7" t="s">
         <v>0</v>
@@ -2720,12 +2763,14 @@
         <v>2019</v>
       </c>
       <c r="B8" s="10" t="s">
-        <v>7</v>
-      </c>
-      <c r="C8" s="11"/>
+        <v>56</v>
+      </c>
+      <c r="C8" s="41" t="s">
+        <v>55</v>
+      </c>
       <c r="D8" s="11"/>
       <c r="E8" s="21" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="F8" s="7" t="s">
         <v>0</v>
@@ -2770,7 +2815,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="G3 G7">
+  <conditionalFormatting sqref="G7 G3">
     <cfRule type="colorScale" priority="17">
       <colorScale>
         <cfvo type="formula" val="0"/>
@@ -2902,7 +2947,7 @@
       <pane xSplit="9" ySplit="2" topLeftCell="J3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="H1" sqref="H1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="F16" sqref="A1:XFD1048576"/>
+      <selection pane="bottomRight" activeCell="D3" sqref="D3:D8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.35"/>
@@ -2932,7 +2977,7 @@
       </c>
       <c r="F1" s="36"/>
       <c r="G1" s="37" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="H1" s="38"/>
       <c r="I1" s="2"/>
@@ -2947,16 +2992,16 @@
         <v>6</v>
       </c>
       <c r="E2" s="8" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="F2" s="8" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="G2" s="19" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="H2" s="19" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="I2" s="2"/>
     </row>
@@ -2964,13 +3009,17 @@
       <c r="A3" s="9">
         <v>2014</v>
       </c>
-      <c r="B3" s="8" t="s">
-        <v>12</v>
-      </c>
-      <c r="C3" s="5"/>
-      <c r="D3" s="5"/>
+      <c r="B3" s="10" t="s">
+        <v>57</v>
+      </c>
+      <c r="C3" s="41" t="s">
+        <v>55</v>
+      </c>
+      <c r="D3" s="11" t="s">
+        <v>59</v>
+      </c>
       <c r="E3" s="12" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="F3" s="7" t="s">
         <v>0</v>
@@ -2990,16 +3039,20 @@
       <c r="A4" s="9">
         <v>2015</v>
       </c>
-      <c r="B4" s="8" t="s">
-        <v>12</v>
-      </c>
-      <c r="C4" s="5"/>
-      <c r="D4" s="5"/>
+      <c r="B4" s="10" t="s">
+        <v>57</v>
+      </c>
+      <c r="C4" s="41" t="s">
+        <v>55</v>
+      </c>
+      <c r="D4" s="11" t="s">
+        <v>59</v>
+      </c>
       <c r="E4" s="7" t="s">
         <v>0</v>
       </c>
       <c r="F4" s="21" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="G4" s="1" t="s">
         <v>0</v>
@@ -3016,13 +3069,17 @@
       <c r="A5" s="9">
         <v>2016</v>
       </c>
-      <c r="B5" s="8" t="s">
-        <v>12</v>
-      </c>
-      <c r="C5" s="5"/>
-      <c r="D5" s="5"/>
+      <c r="B5" s="10" t="s">
+        <v>57</v>
+      </c>
+      <c r="C5" s="41" t="s">
+        <v>55</v>
+      </c>
+      <c r="D5" s="11" t="s">
+        <v>59</v>
+      </c>
       <c r="E5" s="21" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="F5" s="7" t="s">
         <v>0</v>
@@ -3042,16 +3099,20 @@
       <c r="A6" s="9">
         <v>2017</v>
       </c>
-      <c r="B6" s="8" t="s">
-        <v>12</v>
-      </c>
-      <c r="C6" s="5"/>
-      <c r="D6" s="5"/>
+      <c r="B6" s="10" t="s">
+        <v>57</v>
+      </c>
+      <c r="C6" s="41" t="s">
+        <v>55</v>
+      </c>
+      <c r="D6" s="11" t="s">
+        <v>59</v>
+      </c>
       <c r="E6" s="7" t="s">
         <v>0</v>
       </c>
       <c r="F6" s="12" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="G6" s="1" t="s">
         <v>0</v>
@@ -3068,13 +3129,17 @@
       <c r="A7" s="9">
         <v>2018</v>
       </c>
-      <c r="B7" s="8" t="s">
-        <v>12</v>
-      </c>
-      <c r="C7" s="5"/>
-      <c r="D7" s="5"/>
+      <c r="B7" s="10" t="s">
+        <v>57</v>
+      </c>
+      <c r="C7" s="41" t="s">
+        <v>55</v>
+      </c>
+      <c r="D7" s="11" t="s">
+        <v>59</v>
+      </c>
       <c r="E7" s="12" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="F7" s="7" t="s">
         <v>0</v>
@@ -3094,13 +3159,17 @@
       <c r="A8" s="9">
         <v>2019</v>
       </c>
-      <c r="B8" s="8" t="s">
-        <v>12</v>
-      </c>
-      <c r="C8" s="11"/>
-      <c r="D8" s="11"/>
+      <c r="B8" s="10" t="s">
+        <v>57</v>
+      </c>
+      <c r="C8" s="41" t="s">
+        <v>55</v>
+      </c>
+      <c r="D8" s="11" t="s">
+        <v>59</v>
+      </c>
       <c r="E8" s="21" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="F8" s="7" t="s">
         <v>0</v>
@@ -3145,7 +3214,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="G3 G7">
+  <conditionalFormatting sqref="G7 G3">
     <cfRule type="colorScale" priority="11">
       <colorScale>
         <cfvo type="formula" val="0"/>
@@ -3277,7 +3346,7 @@
       <pane xSplit="9" ySplit="2" topLeftCell="J3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="H1" sqref="H1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="D18" sqref="A1:XFD1048576"/>
+      <selection pane="bottomRight" activeCell="D3" sqref="D3:D8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.35"/>
@@ -3307,7 +3376,7 @@
       </c>
       <c r="F1" s="28"/>
       <c r="G1" s="29" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="H1" s="30"/>
       <c r="I1" s="2"/>
@@ -3322,16 +3391,16 @@
         <v>6</v>
       </c>
       <c r="E2" s="8" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="F2" s="8" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="G2" s="19" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="H2" s="19" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="I2" s="2"/>
     </row>
@@ -3339,13 +3408,17 @@
       <c r="A3" s="9">
         <v>2014</v>
       </c>
-      <c r="B3" s="8" t="s">
-        <v>12</v>
-      </c>
-      <c r="C3" s="5"/>
-      <c r="D3" s="5"/>
+      <c r="B3" s="10" t="s">
+        <v>57</v>
+      </c>
+      <c r="C3" s="41" t="s">
+        <v>55</v>
+      </c>
+      <c r="D3" s="11" t="s">
+        <v>59</v>
+      </c>
       <c r="E3" s="12" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="F3" s="7" t="s">
         <v>0</v>
@@ -3365,16 +3438,20 @@
       <c r="A4" s="9">
         <v>2015</v>
       </c>
-      <c r="B4" s="8" t="s">
-        <v>12</v>
-      </c>
-      <c r="C4" s="5"/>
-      <c r="D4" s="5"/>
+      <c r="B4" s="10" t="s">
+        <v>57</v>
+      </c>
+      <c r="C4" s="41" t="s">
+        <v>55</v>
+      </c>
+      <c r="D4" s="11" t="s">
+        <v>59</v>
+      </c>
       <c r="E4" s="7" t="s">
         <v>0</v>
       </c>
       <c r="F4" s="21" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="G4" s="1" t="s">
         <v>0</v>
@@ -3391,13 +3468,17 @@
       <c r="A5" s="9">
         <v>2016</v>
       </c>
-      <c r="B5" s="8" t="s">
-        <v>12</v>
-      </c>
-      <c r="C5" s="5"/>
-      <c r="D5" s="5"/>
+      <c r="B5" s="10" t="s">
+        <v>57</v>
+      </c>
+      <c r="C5" s="41" t="s">
+        <v>55</v>
+      </c>
+      <c r="D5" s="11" t="s">
+        <v>59</v>
+      </c>
       <c r="E5" s="21" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="F5" s="7" t="s">
         <v>0</v>
@@ -3417,16 +3498,20 @@
       <c r="A6" s="9">
         <v>2017</v>
       </c>
-      <c r="B6" s="8" t="s">
-        <v>12</v>
-      </c>
-      <c r="C6" s="5"/>
-      <c r="D6" s="5"/>
+      <c r="B6" s="10" t="s">
+        <v>57</v>
+      </c>
+      <c r="C6" s="41" t="s">
+        <v>55</v>
+      </c>
+      <c r="D6" s="11" t="s">
+        <v>59</v>
+      </c>
       <c r="E6" s="7" t="s">
         <v>0</v>
       </c>
       <c r="F6" s="12" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="G6" s="1" t="s">
         <v>0</v>
@@ -3443,13 +3528,17 @@
       <c r="A7" s="9">
         <v>2018</v>
       </c>
-      <c r="B7" s="8" t="s">
-        <v>12</v>
-      </c>
-      <c r="C7" s="5"/>
-      <c r="D7" s="5"/>
+      <c r="B7" s="10" t="s">
+        <v>57</v>
+      </c>
+      <c r="C7" s="41" t="s">
+        <v>55</v>
+      </c>
+      <c r="D7" s="11" t="s">
+        <v>59</v>
+      </c>
       <c r="E7" s="12" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="F7" s="7" t="s">
         <v>0</v>
@@ -3469,13 +3558,17 @@
       <c r="A8" s="9">
         <v>2019</v>
       </c>
-      <c r="B8" s="8" t="s">
-        <v>12</v>
-      </c>
-      <c r="C8" s="5"/>
-      <c r="D8" s="11"/>
+      <c r="B8" s="10" t="s">
+        <v>57</v>
+      </c>
+      <c r="C8" s="41" t="s">
+        <v>55</v>
+      </c>
+      <c r="D8" s="11" t="s">
+        <v>59</v>
+      </c>
       <c r="E8" s="21" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="F8" s="7" t="s">
         <v>0</v>
@@ -3520,7 +3613,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="G3 G7">
+  <conditionalFormatting sqref="G7 G3">
     <cfRule type="colorScale" priority="11">
       <colorScale>
         <cfvo type="formula" val="0"/>
@@ -3652,7 +3745,7 @@
       <pane xSplit="9" ySplit="2" topLeftCell="J3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="H1" sqref="H1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="F14" sqref="A1:XFD1048576"/>
+      <selection pane="bottomRight" activeCell="D3" sqref="D3:D8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.35"/>
@@ -3682,7 +3775,7 @@
       </c>
       <c r="F1" s="28"/>
       <c r="G1" s="29" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="H1" s="30"/>
       <c r="I1" s="2"/>
@@ -3697,16 +3790,16 @@
         <v>6</v>
       </c>
       <c r="E2" s="8" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="F2" s="8" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="G2" s="19" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="H2" s="19" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="I2" s="2"/>
     </row>
@@ -3714,13 +3807,17 @@
       <c r="A3" s="9">
         <v>2014</v>
       </c>
-      <c r="B3" s="8" t="s">
-        <v>12</v>
-      </c>
-      <c r="C3" s="5"/>
-      <c r="D3" s="5"/>
+      <c r="B3" s="10" t="s">
+        <v>57</v>
+      </c>
+      <c r="C3" s="41" t="s">
+        <v>55</v>
+      </c>
+      <c r="D3" s="11" t="s">
+        <v>59</v>
+      </c>
       <c r="E3" s="12" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="F3" s="7" t="s">
         <v>0</v>
@@ -3740,16 +3837,20 @@
       <c r="A4" s="9">
         <v>2015</v>
       </c>
-      <c r="B4" s="8" t="s">
-        <v>12</v>
-      </c>
-      <c r="C4" s="5"/>
-      <c r="D4" s="5"/>
+      <c r="B4" s="10" t="s">
+        <v>57</v>
+      </c>
+      <c r="C4" s="41" t="s">
+        <v>55</v>
+      </c>
+      <c r="D4" s="11" t="s">
+        <v>59</v>
+      </c>
       <c r="E4" s="7" t="s">
         <v>0</v>
       </c>
       <c r="F4" s="21" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="G4" s="1" t="s">
         <v>0</v>
@@ -3766,13 +3867,17 @@
       <c r="A5" s="9">
         <v>2016</v>
       </c>
-      <c r="B5" s="8" t="s">
-        <v>12</v>
-      </c>
-      <c r="C5" s="5"/>
-      <c r="D5" s="5"/>
+      <c r="B5" s="10" t="s">
+        <v>57</v>
+      </c>
+      <c r="C5" s="41" t="s">
+        <v>55</v>
+      </c>
+      <c r="D5" s="11" t="s">
+        <v>59</v>
+      </c>
       <c r="E5" s="21" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="F5" s="7" t="s">
         <v>0</v>
@@ -3792,16 +3897,20 @@
       <c r="A6" s="9">
         <v>2017</v>
       </c>
-      <c r="B6" s="8" t="s">
-        <v>12</v>
-      </c>
-      <c r="C6" s="5"/>
-      <c r="D6" s="5"/>
+      <c r="B6" s="10" t="s">
+        <v>57</v>
+      </c>
+      <c r="C6" s="41" t="s">
+        <v>55</v>
+      </c>
+      <c r="D6" s="11" t="s">
+        <v>59</v>
+      </c>
       <c r="E6" s="7" t="s">
         <v>0</v>
       </c>
       <c r="F6" s="12" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="G6" s="1" t="s">
         <v>0</v>
@@ -3818,13 +3927,17 @@
       <c r="A7" s="9">
         <v>2018</v>
       </c>
-      <c r="B7" s="8" t="s">
-        <v>12</v>
-      </c>
-      <c r="C7" s="5"/>
-      <c r="D7" s="5"/>
+      <c r="B7" s="10" t="s">
+        <v>57</v>
+      </c>
+      <c r="C7" s="41" t="s">
+        <v>55</v>
+      </c>
+      <c r="D7" s="11" t="s">
+        <v>59</v>
+      </c>
       <c r="E7" s="12" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="F7" s="7" t="s">
         <v>0</v>
@@ -3844,13 +3957,17 @@
       <c r="A8" s="9">
         <v>2019</v>
       </c>
-      <c r="B8" s="8" t="s">
-        <v>12</v>
-      </c>
-      <c r="C8" s="5"/>
-      <c r="D8" s="11"/>
+      <c r="B8" s="10" t="s">
+        <v>57</v>
+      </c>
+      <c r="C8" s="41" t="s">
+        <v>55</v>
+      </c>
+      <c r="D8" s="11" t="s">
+        <v>59</v>
+      </c>
       <c r="E8" s="21" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="F8" s="7" t="s">
         <v>0</v>
@@ -3895,7 +4012,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="G3 G7">
+  <conditionalFormatting sqref="G7 G3">
     <cfRule type="colorScale" priority="11">
       <colorScale>
         <cfvo type="formula" val="0"/>
@@ -4027,7 +4144,7 @@
       <pane xSplit="9" ySplit="2" topLeftCell="J3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="H1" sqref="H1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="D16" sqref="A1:XFD1048576"/>
+      <selection pane="bottomRight" activeCell="D3" sqref="D3:D8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.35"/>
@@ -4057,7 +4174,7 @@
       </c>
       <c r="F1" s="28"/>
       <c r="G1" s="39" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="H1" s="40"/>
       <c r="I1" s="2"/>
@@ -4072,16 +4189,16 @@
         <v>6</v>
       </c>
       <c r="E2" s="8" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="F2" s="8" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="G2" s="19" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="H2" s="19" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="I2" s="2"/>
     </row>
@@ -4090,12 +4207,16 @@
         <v>2014</v>
       </c>
       <c r="B3" s="10" t="s">
-        <v>16</v>
-      </c>
-      <c r="C3" s="11"/>
-      <c r="D3" s="11"/>
+        <v>58</v>
+      </c>
+      <c r="C3" s="41" t="s">
+        <v>55</v>
+      </c>
+      <c r="D3" s="11" t="s">
+        <v>59</v>
+      </c>
       <c r="E3" s="12" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="F3" s="7" t="s">
         <v>0</v>
@@ -4116,15 +4237,19 @@
         <v>2015</v>
       </c>
       <c r="B4" s="10" t="s">
-        <v>16</v>
-      </c>
-      <c r="C4" s="11"/>
-      <c r="D4" s="11"/>
+        <v>58</v>
+      </c>
+      <c r="C4" s="41" t="s">
+        <v>55</v>
+      </c>
+      <c r="D4" s="11" t="s">
+        <v>59</v>
+      </c>
       <c r="E4" s="7" t="s">
         <v>0</v>
       </c>
       <c r="F4" s="21" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="G4" s="1" t="s">
         <v>0</v>
@@ -4142,12 +4267,16 @@
         <v>2016</v>
       </c>
       <c r="B5" s="10" t="s">
-        <v>16</v>
-      </c>
-      <c r="C5" s="11"/>
-      <c r="D5" s="11"/>
+        <v>58</v>
+      </c>
+      <c r="C5" s="41" t="s">
+        <v>55</v>
+      </c>
+      <c r="D5" s="11" t="s">
+        <v>59</v>
+      </c>
       <c r="E5" s="12" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="F5" s="7" t="s">
         <v>0</v>
@@ -4168,15 +4297,19 @@
         <v>2017</v>
       </c>
       <c r="B6" s="10" t="s">
-        <v>16</v>
-      </c>
-      <c r="C6" s="11"/>
-      <c r="D6" s="11"/>
+        <v>58</v>
+      </c>
+      <c r="C6" s="41" t="s">
+        <v>55</v>
+      </c>
+      <c r="D6" s="11" t="s">
+        <v>59</v>
+      </c>
       <c r="E6" s="7" t="s">
         <v>0</v>
       </c>
       <c r="F6" s="12" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="G6" s="1" t="s">
         <v>0</v>
@@ -4194,12 +4327,16 @@
         <v>2018</v>
       </c>
       <c r="B7" s="10" t="s">
-        <v>16</v>
-      </c>
-      <c r="C7" s="11"/>
-      <c r="D7" s="11"/>
+        <v>58</v>
+      </c>
+      <c r="C7" s="41" t="s">
+        <v>55</v>
+      </c>
+      <c r="D7" s="11" t="s">
+        <v>59</v>
+      </c>
       <c r="E7" s="21" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="F7" s="7" t="s">
         <v>0</v>
@@ -4220,12 +4357,16 @@
         <v>2019</v>
       </c>
       <c r="B8" s="10" t="s">
-        <v>16</v>
-      </c>
-      <c r="C8" s="11"/>
-      <c r="D8" s="11"/>
+        <v>58</v>
+      </c>
+      <c r="C8" s="41" t="s">
+        <v>55</v>
+      </c>
+      <c r="D8" s="11" t="s">
+        <v>59</v>
+      </c>
       <c r="E8" s="21" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="F8" s="7" t="s">
         <v>0</v>
@@ -4270,7 +4411,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="G3 G7">
+  <conditionalFormatting sqref="G7 G3">
     <cfRule type="colorScale" priority="12">
       <colorScale>
         <cfvo type="formula" val="0"/>
@@ -4410,11 +4551,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I8"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="9" ySplit="2" topLeftCell="J3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="H1" sqref="H1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="D21" sqref="A1:XFD1048576"/>
+      <selection pane="bottomRight" activeCell="D12" sqref="D12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.35"/>
@@ -4444,7 +4585,7 @@
       </c>
       <c r="F1" s="28"/>
       <c r="G1" s="39" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
       <c r="H1" s="40"/>
       <c r="I1" s="2"/>
@@ -4459,16 +4600,16 @@
         <v>6</v>
       </c>
       <c r="E2" s="8" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="F2" s="8" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="G2" s="19" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="H2" s="19" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="I2" s="2"/>
     </row>
@@ -4477,12 +4618,16 @@
         <v>2014</v>
       </c>
       <c r="B3" s="10" t="s">
-        <v>16</v>
-      </c>
-      <c r="C3" s="11"/>
-      <c r="D3" s="11"/>
+        <v>58</v>
+      </c>
+      <c r="C3" s="41" t="s">
+        <v>55</v>
+      </c>
+      <c r="D3" s="11" t="s">
+        <v>59</v>
+      </c>
       <c r="E3" s="12" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="F3" s="7" t="s">
         <v>0</v>
@@ -4503,15 +4648,19 @@
         <v>2015</v>
       </c>
       <c r="B4" s="10" t="s">
-        <v>16</v>
-      </c>
-      <c r="C4" s="11"/>
-      <c r="D4" s="11"/>
+        <v>58</v>
+      </c>
+      <c r="C4" s="41" t="s">
+        <v>55</v>
+      </c>
+      <c r="D4" s="11" t="s">
+        <v>59</v>
+      </c>
       <c r="E4" s="7" t="s">
         <v>0</v>
       </c>
       <c r="F4" s="12" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="G4" s="1" t="s">
         <v>0</v>
@@ -4529,12 +4678,16 @@
         <v>2016</v>
       </c>
       <c r="B5" s="10" t="s">
-        <v>16</v>
-      </c>
-      <c r="C5" s="11"/>
-      <c r="D5" s="11"/>
+        <v>58</v>
+      </c>
+      <c r="C5" s="41" t="s">
+        <v>55</v>
+      </c>
+      <c r="D5" s="11" t="s">
+        <v>59</v>
+      </c>
       <c r="E5" s="21" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="F5" s="7" t="s">
         <v>0</v>
@@ -4555,15 +4708,19 @@
         <v>2017</v>
       </c>
       <c r="B6" s="10" t="s">
-        <v>16</v>
-      </c>
-      <c r="C6" s="11"/>
-      <c r="D6" s="11"/>
+        <v>58</v>
+      </c>
+      <c r="C6" s="41" t="s">
+        <v>55</v>
+      </c>
+      <c r="D6" s="11" t="s">
+        <v>59</v>
+      </c>
       <c r="E6" s="7" t="s">
         <v>0</v>
       </c>
       <c r="F6" s="12" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="G6" s="1" t="s">
         <v>0</v>
@@ -4581,12 +4738,16 @@
         <v>2018</v>
       </c>
       <c r="B7" s="10" t="s">
-        <v>16</v>
-      </c>
-      <c r="C7" s="11"/>
-      <c r="D7" s="11"/>
+        <v>58</v>
+      </c>
+      <c r="C7" s="41" t="s">
+        <v>55</v>
+      </c>
+      <c r="D7" s="11" t="s">
+        <v>59</v>
+      </c>
       <c r="E7" s="12" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="F7" s="7" t="s">
         <v>0</v>
@@ -4607,12 +4768,16 @@
         <v>2019</v>
       </c>
       <c r="B8" s="10" t="s">
-        <v>16</v>
-      </c>
-      <c r="C8" s="11"/>
-      <c r="D8" s="11"/>
+        <v>58</v>
+      </c>
+      <c r="C8" s="41" t="s">
+        <v>55</v>
+      </c>
+      <c r="D8" s="11" t="s">
+        <v>59</v>
+      </c>
       <c r="E8" s="21" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="F8" s="7" t="s">
         <v>0</v>
@@ -4657,7 +4822,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="G3 G7">
+  <conditionalFormatting sqref="G7 G3">
     <cfRule type="colorScale" priority="14">
       <colorScale>
         <cfvo type="formula" val="0"/>
@@ -4821,11 +4986,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C7"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <pane xSplit="3" ySplit="1" topLeftCell="D2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="D1" sqref="D1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="C14" sqref="C14"/>
+      <selection pane="bottomRight" activeCell="B6" sqref="B6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.35"/>
@@ -4837,13 +5002,13 @@
   <sheetData>
     <row r="1" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A1" s="13" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="B1" s="14" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="C1" s="15" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
     </row>
     <row r="2" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.35">
@@ -4851,10 +5016,10 @@
         <v>1</v>
       </c>
       <c r="B2" s="17" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="C2" s="18" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
     </row>
     <row r="3" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.35">
@@ -4862,10 +5027,10 @@
         <v>2</v>
       </c>
       <c r="B3" s="17" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="C3" s="18" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
     </row>
     <row r="4" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.35">
@@ -4873,10 +5038,10 @@
         <v>3</v>
       </c>
       <c r="B4" s="17" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="C4" s="18" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
     </row>
     <row r="5" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.35">
@@ -4884,10 +5049,10 @@
         <v>4</v>
       </c>
       <c r="B5" s="17" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="C5" s="18" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
     </row>
     <row r="6" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.35">
@@ -4895,10 +5060,10 @@
         <v>5</v>
       </c>
       <c r="B6" s="17" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
       <c r="C6" s="22" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
     </row>
     <row r="7" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.35">
@@ -4906,10 +5071,10 @@
         <v>6</v>
       </c>
       <c r="B7" s="17" t="s">
+        <v>51</v>
+      </c>
+      <c r="C7" s="22" t="s">
         <v>54</v>
-      </c>
-      <c r="C7" s="22" t="s">
-        <v>57</v>
       </c>
     </row>
   </sheetData>

--- a/Collections/EURO/Andorra/#EURO#Andorra#Regular#[2014-present]#circulation_quality%varieties.xlsx
+++ b/Collections/EURO/Andorra/#EURO#Andorra#Regular#[2014-present]#circulation_quality%varieties.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="164011"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24131"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\aleksey.ilyushin\Documents\GitHub\CoinCollection\Collections\EURO\Andorra\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\CoinCollection\Collections\EURO\Andorra\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{728FA530-FD03-4664-9586-A7A7A0BAC5B8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12300" activeTab="7"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="6" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="1cent" sheetId="4" r:id="rId1"/>
@@ -22,7 +23,7 @@
     <sheet name="2€" sheetId="12" r:id="rId8"/>
     <sheet name="Links" sheetId="6" r:id="rId9"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -32,12 +33,12 @@
 </file>
 
 <file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
-<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
   <authors>
     <author>Пользователь Windows</author>
   </authors>
   <commentList>
-    <comment ref="E2" authorId="0" shapeId="0">
+    <comment ref="E2" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000001000000}">
       <text>
         <r>
           <rPr>
@@ -53,7 +54,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="F2" authorId="0" shapeId="0">
+    <comment ref="F2" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000002000000}">
       <text>
         <r>
           <rPr>
@@ -69,7 +70,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="G2" authorId="0" shapeId="0">
+    <comment ref="G2" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000003000000}">
       <text>
         <r>
           <rPr>
@@ -85,7 +86,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="H2" authorId="0" shapeId="0">
+    <comment ref="H2" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000004000000}">
       <text>
         <r>
           <rPr>
@@ -106,12 +107,12 @@
 </file>
 
 <file path=xl/comments2.xml><?xml version="1.0" encoding="utf-8"?>
-<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
   <authors>
     <author>Пользователь Windows</author>
   </authors>
   <commentList>
-    <comment ref="E2" authorId="0" shapeId="0">
+    <comment ref="E2" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0100-000001000000}">
       <text>
         <r>
           <rPr>
@@ -127,7 +128,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="F2" authorId="0" shapeId="0">
+    <comment ref="F2" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0100-000002000000}">
       <text>
         <r>
           <rPr>
@@ -143,7 +144,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="G2" authorId="0" shapeId="0">
+    <comment ref="G2" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0100-000003000000}">
       <text>
         <r>
           <rPr>
@@ -159,7 +160,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="H2" authorId="0" shapeId="0">
+    <comment ref="H2" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0100-000004000000}">
       <text>
         <r>
           <rPr>
@@ -180,12 +181,12 @@
 </file>
 
 <file path=xl/comments3.xml><?xml version="1.0" encoding="utf-8"?>
-<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
   <authors>
     <author>Пользователь Windows</author>
   </authors>
   <commentList>
-    <comment ref="E2" authorId="0" shapeId="0">
+    <comment ref="E2" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0200-000001000000}">
       <text>
         <r>
           <rPr>
@@ -201,7 +202,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="F2" authorId="0" shapeId="0">
+    <comment ref="F2" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0200-000002000000}">
       <text>
         <r>
           <rPr>
@@ -217,7 +218,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="G2" authorId="0" shapeId="0">
+    <comment ref="G2" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0200-000003000000}">
       <text>
         <r>
           <rPr>
@@ -233,7 +234,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="H2" authorId="0" shapeId="0">
+    <comment ref="H2" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0200-000004000000}">
       <text>
         <r>
           <rPr>
@@ -254,12 +255,12 @@
 </file>
 
 <file path=xl/comments4.xml><?xml version="1.0" encoding="utf-8"?>
-<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
   <authors>
     <author>Пользователь Windows</author>
   </authors>
   <commentList>
-    <comment ref="E2" authorId="0" shapeId="0">
+    <comment ref="E2" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0300-000001000000}">
       <text>
         <r>
           <rPr>
@@ -275,7 +276,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="F2" authorId="0" shapeId="0">
+    <comment ref="F2" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0300-000002000000}">
       <text>
         <r>
           <rPr>
@@ -291,7 +292,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="G2" authorId="0" shapeId="0">
+    <comment ref="G2" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0300-000003000000}">
       <text>
         <r>
           <rPr>
@@ -307,7 +308,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="H2" authorId="0" shapeId="0">
+    <comment ref="H2" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0300-000004000000}">
       <text>
         <r>
           <rPr>
@@ -328,12 +329,12 @@
 </file>
 
 <file path=xl/comments5.xml><?xml version="1.0" encoding="utf-8"?>
-<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
   <authors>
     <author>Пользователь Windows</author>
   </authors>
   <commentList>
-    <comment ref="E2" authorId="0" shapeId="0">
+    <comment ref="E2" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0400-000001000000}">
       <text>
         <r>
           <rPr>
@@ -349,7 +350,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="F2" authorId="0" shapeId="0">
+    <comment ref="F2" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0400-000002000000}">
       <text>
         <r>
           <rPr>
@@ -365,7 +366,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="G2" authorId="0" shapeId="0">
+    <comment ref="G2" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0400-000003000000}">
       <text>
         <r>
           <rPr>
@@ -381,7 +382,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="H2" authorId="0" shapeId="0">
+    <comment ref="H2" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0400-000004000000}">
       <text>
         <r>
           <rPr>
@@ -402,12 +403,12 @@
 </file>
 
 <file path=xl/comments6.xml><?xml version="1.0" encoding="utf-8"?>
-<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
   <authors>
     <author>Пользователь Windows</author>
   </authors>
   <commentList>
-    <comment ref="E2" authorId="0" shapeId="0">
+    <comment ref="E2" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0500-000001000000}">
       <text>
         <r>
           <rPr>
@@ -423,7 +424,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="F2" authorId="0" shapeId="0">
+    <comment ref="F2" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0500-000002000000}">
       <text>
         <r>
           <rPr>
@@ -439,7 +440,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="G2" authorId="0" shapeId="0">
+    <comment ref="G2" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0500-000003000000}">
       <text>
         <r>
           <rPr>
@@ -455,7 +456,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="H2" authorId="0" shapeId="0">
+    <comment ref="H2" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0500-000004000000}">
       <text>
         <r>
           <rPr>
@@ -476,12 +477,12 @@
 </file>
 
 <file path=xl/comments7.xml><?xml version="1.0" encoding="utf-8"?>
-<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
   <authors>
     <author>Пользователь Windows</author>
   </authors>
   <commentList>
-    <comment ref="E2" authorId="0" shapeId="0">
+    <comment ref="E2" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0600-000001000000}">
       <text>
         <r>
           <rPr>
@@ -497,7 +498,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="F2" authorId="0" shapeId="0">
+    <comment ref="F2" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0600-000002000000}">
       <text>
         <r>
           <rPr>
@@ -513,7 +514,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="G2" authorId="0" shapeId="0">
+    <comment ref="G2" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0600-000003000000}">
       <text>
         <r>
           <rPr>
@@ -529,7 +530,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="H2" authorId="0" shapeId="0">
+    <comment ref="H2" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0600-000004000000}">
       <text>
         <r>
           <rPr>
@@ -550,12 +551,12 @@
 </file>
 
 <file path=xl/comments8.xml><?xml version="1.0" encoding="utf-8"?>
-<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
   <authors>
     <author>Пользователь Windows</author>
   </authors>
   <commentList>
-    <comment ref="E2" authorId="0" shapeId="0">
+    <comment ref="E2" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0700-000001000000}">
       <text>
         <r>
           <rPr>
@@ -571,7 +572,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="F2" authorId="0" shapeId="0">
+    <comment ref="F2" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0700-000002000000}">
       <text>
         <r>
           <rPr>
@@ -587,7 +588,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="G2" authorId="0" shapeId="0">
+    <comment ref="G2" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0700-000003000000}">
       <text>
         <r>
           <rPr>
@@ -603,7 +604,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="H2" authorId="0" shapeId="0">
+    <comment ref="H2" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0700-000004000000}">
       <text>
         <r>
           <rPr>
@@ -624,7 +625,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="394" uniqueCount="60">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="436" uniqueCount="72">
   <si>
     <t>-</t>
   </si>
@@ -804,13 +805,49 @@
   </si>
   <si>
     <t>Rev: new map of Europe</t>
+  </si>
+  <si>
+    <t>12.000</t>
+  </si>
+  <si>
+    <t>2.462.000</t>
+  </si>
+  <si>
+    <t>1.742.000</t>
+  </si>
+  <si>
+    <t>2.115.000</t>
+  </si>
+  <si>
+    <t>1.625.000</t>
+  </si>
+  <si>
+    <t>872.000</t>
+  </si>
+  <si>
+    <t>187.000</t>
+  </si>
+  <si>
+    <t>1.585.000</t>
+  </si>
+  <si>
+    <t>945.000</t>
+  </si>
+  <si>
+    <t>752.000</t>
+  </si>
+  <si>
+    <t>1.512.000</t>
+  </si>
+  <si>
+    <t>1.073.310</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="8" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="9" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
@@ -866,6 +903,12 @@
       <family val="2"/>
       <charset val="204"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="8"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="204"/>
     </font>
   </fonts>
   <fills count="7">
@@ -1141,6 +1184,9 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="3" fontId="3" fillId="3" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
     <xf numFmtId="0" fontId="6" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1195,25 +1241,13 @@
     <xf numFmtId="49" fontId="0" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
     </xf>
-    <xf numFmtId="3" fontId="3" fillId="3" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="Гиперссылка" xfId="2" builtinId="8"/>
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
-    <cellStyle name="Обычный 2" xfId="1"/>
+    <cellStyle name="Обычный 2" xfId="1" xr:uid="{00000000-0005-0000-0000-000002000000}"/>
   </cellStyles>
-  <dxfs count="32">
-    <dxf>
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
+  <dxfs count="61">
     <dxf>
       <fill>
         <patternFill patternType="solid">
@@ -1445,6 +1479,247 @@
           <bgColor rgb="FF9BE5FF"/>
         </patternFill>
       </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FF9BE5FF"/>
+          <bgColor rgb="FF9BE5FF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FF9BE5FF"/>
+          <bgColor rgb="FF9BE5FF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FF9BE5FF"/>
+          <bgColor rgb="FF9BE5FF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FF9BE5FF"/>
+          <bgColor rgb="FF9BE5FF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FF9BE5FF"/>
+          <bgColor rgb="FF9BE5FF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FF9BE5FF"/>
+          <bgColor rgb="FF9BE5FF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FF9BE5FF"/>
+          <bgColor rgb="FF9BE5FF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FF9BE5FF"/>
+          <bgColor rgb="FF9BE5FF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FF9BE5FF"/>
+          <bgColor rgb="FF9BE5FF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FF9BE5FF"/>
+          <bgColor rgb="FF9BE5FF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FF9BE5FF"/>
+          <bgColor rgb="FF9BE5FF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FF9BE5FF"/>
+          <bgColor rgb="FF9BE5FF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FF9BE5FF"/>
+          <bgColor rgb="FF9BE5FF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FF9BE5FF"/>
+          <bgColor rgb="FF9BE5FF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FF9BE5FF"/>
+          <bgColor rgb="FF9BE5FF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FF9BE5FF"/>
+          <bgColor rgb="FF9BE5FF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FF9BE5FF"/>
+          <bgColor rgb="FF9BE5FF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FF9BE5FF"/>
+          <bgColor rgb="FF9BE5FF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FF9BE5FF"/>
+          <bgColor rgb="FF9BE5FF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FF9BE5FF"/>
+          <bgColor rgb="FF9BE5FF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FF9BE5FF"/>
+          <bgColor rgb="FF9BE5FF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FF9BE5FF"/>
+          <bgColor rgb="FF9BE5FF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FF9BE5FF"/>
+          <bgColor rgb="FF9BE5FF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FF9BE5FF"/>
+          <bgColor rgb="FF9BE5FF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FF9BE5FF"/>
+          <bgColor rgb="FF9BE5FF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FF9BE5FF"/>
+          <bgColor rgb="FF9BE5FF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FF9BE5FF"/>
+          <bgColor rgb="FF9BE5FF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FF9BE5FF"/>
+          <bgColor rgb="FF9BE5FF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FF9BE5FF"/>
+          <bgColor rgb="FF9BE5FF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
   </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -1470,16 +1745,16 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="2" name="Таблица4" displayName="Таблица4" ref="A1:C7" totalsRowShown="0">
-  <autoFilter ref="A1:C7">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Таблица4" displayName="Таблица4" ref="A1:C7" totalsRowShown="0">
+  <autoFilter ref="A1:C7" xr:uid="{00000000-0009-0000-0100-000002000000}">
     <filterColumn colId="0" hiddenButton="1"/>
     <filterColumn colId="1" hiddenButton="1"/>
     <filterColumn colId="2" hiddenButton="1"/>
   </autoFilter>
   <tableColumns count="3">
-    <tableColumn id="1" name="№" dataDxfId="2"/>
-    <tableColumn id="2" name="Link" dataDxfId="1" dataCellStyle="Гиперссылка"/>
-    <tableColumn id="3" name="Description (single table, table set, mintage, prices):" dataDxfId="0"/>
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" name="№" dataDxfId="60"/>
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0000-000002000000}" name="Link" dataDxfId="59" dataCellStyle="Гиперссылка"/>
+    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0000-000003000000}" name="Description (single table, table set, mintage, prices):" dataDxfId="58"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium9" showFirstColumn="1" showLastColumn="0" showRowStripes="0" showColumnStripes="0"/>
 </table>
@@ -1747,51 +2022,51 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:I8"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:I9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="9" ySplit="2" topLeftCell="J3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="H1" sqref="H1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="C11" sqref="C11"/>
+      <selection pane="bottomRight" activeCell="I4" sqref="I4:I9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="5.453125" style="4" customWidth="1"/>
-    <col min="2" max="2" width="24.81640625" style="4" customWidth="1"/>
-    <col min="3" max="3" width="36.7265625" style="4" customWidth="1"/>
-    <col min="4" max="4" width="24.81640625" style="4" customWidth="1"/>
-    <col min="5" max="6" width="12.453125" style="4" customWidth="1"/>
-    <col min="7" max="8" width="3.81640625" style="4" customWidth="1"/>
-    <col min="9" max="9" width="13.7265625" style="4" customWidth="1"/>
+    <col min="1" max="1" width="5.42578125" style="4" customWidth="1"/>
+    <col min="2" max="2" width="24.85546875" style="4" customWidth="1"/>
+    <col min="3" max="3" width="36.7109375" style="4" customWidth="1"/>
+    <col min="4" max="4" width="24.85546875" style="4" customWidth="1"/>
+    <col min="5" max="6" width="12.42578125" style="4" customWidth="1"/>
+    <col min="7" max="8" width="3.85546875" style="4" customWidth="1"/>
+    <col min="9" max="9" width="13.7109375" style="4" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A1" s="23" t="s">
+    <row r="1" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="24" t="s">
         <v>1</v>
       </c>
-      <c r="B1" s="23" t="s">
+      <c r="B1" s="24" t="s">
         <v>2</v>
       </c>
-      <c r="C1" s="25" t="s">
+      <c r="C1" s="26" t="s">
         <v>3</v>
       </c>
-      <c r="D1" s="26"/>
-      <c r="E1" s="27" t="s">
+      <c r="D1" s="27"/>
+      <c r="E1" s="28" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="28"/>
-      <c r="G1" s="29" t="s">
+      <c r="F1" s="29"/>
+      <c r="G1" s="30" t="s">
         <v>7</v>
       </c>
-      <c r="H1" s="30"/>
+      <c r="H1" s="31"/>
       <c r="I1" s="2"/>
     </row>
-    <row r="2" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A2" s="24"/>
-      <c r="B2" s="24"/>
+    <row r="2" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="25"/>
+      <c r="B2" s="25"/>
       <c r="C2" s="6" t="s">
         <v>5</v>
       </c>
@@ -1812,14 +2087,14 @@
       </c>
       <c r="I2" s="2"/>
     </row>
-    <row r="3" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="9">
         <v>2014</v>
       </c>
       <c r="B3" s="10" t="s">
         <v>56</v>
       </c>
-      <c r="C3" s="41" t="s">
+      <c r="C3" s="23" t="s">
         <v>55</v>
       </c>
       <c r="D3" s="11"/>
@@ -1840,14 +2115,14 @@
         <v/>
       </c>
     </row>
-    <row r="4" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="9">
         <v>2015</v>
       </c>
       <c r="B4" s="10" t="s">
         <v>56</v>
       </c>
-      <c r="C4" s="41" t="s">
+      <c r="C4" s="23" t="s">
         <v>55</v>
       </c>
       <c r="D4" s="11"/>
@@ -1864,18 +2139,18 @@
         <v>0</v>
       </c>
       <c r="I4" s="3" t="str">
-        <f t="shared" ref="I4:I7" si="0">IF(OR(AND(G4&gt;1,G4&lt;&gt;"-"),AND(H4&gt;1,H4&lt;&gt;"-")),"Can exchange","")</f>
+        <f t="shared" ref="I4:I9" si="0">IF(OR(AND(G4&gt;1,G4&lt;&gt;"-"),AND(H4&gt;1,H4&lt;&gt;"-")),"Can exchange","")</f>
         <v/>
       </c>
     </row>
-    <row r="5" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="9">
         <v>2016</v>
       </c>
       <c r="B5" s="10" t="s">
         <v>56</v>
       </c>
-      <c r="C5" s="41" t="s">
+      <c r="C5" s="23" t="s">
         <v>55</v>
       </c>
       <c r="D5" s="11"/>
@@ -1896,14 +2171,14 @@
         <v/>
       </c>
     </row>
-    <row r="6" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="9">
         <v>2017</v>
       </c>
       <c r="B6" s="10" t="s">
         <v>56</v>
       </c>
-      <c r="C6" s="41" t="s">
+      <c r="C6" s="23" t="s">
         <v>55</v>
       </c>
       <c r="D6" s="11"/>
@@ -1924,14 +2199,14 @@
         <v/>
       </c>
     </row>
-    <row r="7" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="9">
         <v>2018</v>
       </c>
       <c r="B7" s="10" t="s">
         <v>56</v>
       </c>
-      <c r="C7" s="41" t="s">
+      <c r="C7" s="23" t="s">
         <v>55</v>
       </c>
       <c r="D7" s="11"/>
@@ -1952,30 +2227,61 @@
         <v/>
       </c>
     </row>
-    <row r="8" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="9">
         <v>2019</v>
       </c>
       <c r="B8" s="10" t="s">
         <v>56</v>
       </c>
-      <c r="C8" s="41" t="s">
+      <c r="C8" s="23" t="s">
         <v>55</v>
       </c>
       <c r="D8" s="11"/>
-      <c r="E8" s="21" t="s">
-        <v>49</v>
-      </c>
-      <c r="F8" s="7" t="s">
-        <v>0</v>
+      <c r="E8" s="7" t="s">
+        <v>0</v>
+      </c>
+      <c r="F8" s="12" t="s">
+        <v>61</v>
       </c>
       <c r="G8" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="H8" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="I8" s="3"/>
+      <c r="H8" s="20">
+        <v>0</v>
+      </c>
+      <c r="I8" s="3" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="9" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A9" s="9">
+        <v>2020</v>
+      </c>
+      <c r="B9" s="10" t="s">
+        <v>56</v>
+      </c>
+      <c r="C9" s="23" t="s">
+        <v>55</v>
+      </c>
+      <c r="D9" s="11"/>
+      <c r="E9" s="7" t="s">
+        <v>0</v>
+      </c>
+      <c r="F9" s="21" t="s">
+        <v>60</v>
+      </c>
+      <c r="G9" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="H9" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="I9" s="3" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
     </row>
   </sheetData>
   <mergeCells count="5">
@@ -1985,12 +2291,115 @@
     <mergeCell ref="E1:F1"/>
     <mergeCell ref="G1:H1"/>
   </mergeCells>
+  <phoneticPr fontId="8" type="noConversion"/>
   <conditionalFormatting sqref="G3 G7">
-    <cfRule type="containsText" dxfId="31" priority="19" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="47" priority="33" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(G3))))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="G7 G3">
+  <conditionalFormatting sqref="G3 G7">
+    <cfRule type="colorScale" priority="34">
+      <colorScale>
+        <cfvo type="formula" val="0"/>
+        <cfvo type="formula" val="1"/>
+        <cfvo type="formula" val="10"/>
+        <color rgb="FFFF9F9F"/>
+        <color rgb="FFD1E0B2"/>
+        <color rgb="FF00B050"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H6">
+    <cfRule type="containsText" dxfId="46" priority="29" operator="containsText" text="*-">
+      <formula>NOT(ISERROR(SEARCH(("*-"),(H6))))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H6">
+    <cfRule type="colorScale" priority="30">
+      <colorScale>
+        <cfvo type="formula" val="0"/>
+        <cfvo type="formula" val="1"/>
+        <cfvo type="formula" val="10"/>
+        <color rgb="FFFF9F9F"/>
+        <color rgb="FFD1E0B2"/>
+        <color rgb="FF00B050"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H3">
+    <cfRule type="containsText" dxfId="45" priority="27" operator="containsText" text="*-">
+      <formula>NOT(ISERROR(SEARCH(("*-"),(H3))))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H3">
+    <cfRule type="colorScale" priority="28">
+      <colorScale>
+        <cfvo type="formula" val="0"/>
+        <cfvo type="formula" val="1"/>
+        <cfvo type="formula" val="10"/>
+        <color rgb="FFFF9F9F"/>
+        <color rgb="FFD1E0B2"/>
+        <color rgb="FF00B050"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G4:G5">
+    <cfRule type="containsText" dxfId="44" priority="25" operator="containsText" text="*-">
+      <formula>NOT(ISERROR(SEARCH(("*-"),(G4))))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G4:G5">
+    <cfRule type="colorScale" priority="26">
+      <colorScale>
+        <cfvo type="formula" val="0"/>
+        <cfvo type="formula" val="1"/>
+        <cfvo type="formula" val="10"/>
+        <color rgb="FFFF9F9F"/>
+        <color rgb="FFD1E0B2"/>
+        <color rgb="FF00B050"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H4:H5">
+    <cfRule type="containsText" dxfId="43" priority="23" operator="containsText" text="*-">
+      <formula>NOT(ISERROR(SEARCH(("*-"),(H4))))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H4:H5">
+    <cfRule type="colorScale" priority="24">
+      <colorScale>
+        <cfvo type="formula" val="0"/>
+        <cfvo type="formula" val="1"/>
+        <cfvo type="formula" val="10"/>
+        <color rgb="FFFF9F9F"/>
+        <color rgb="FFD1E0B2"/>
+        <color rgb="FF00B050"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G6">
+    <cfRule type="containsText" dxfId="42" priority="21" operator="containsText" text="*-">
+      <formula>NOT(ISERROR(SEARCH(("*-"),(G6))))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G6">
+    <cfRule type="colorScale" priority="22">
+      <colorScale>
+        <cfvo type="formula" val="0"/>
+        <cfvo type="formula" val="1"/>
+        <cfvo type="formula" val="10"/>
+        <color rgb="FFFF9F9F"/>
+        <color rgb="FFD1E0B2"/>
+        <color rgb="FF00B050"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H7">
+    <cfRule type="containsText" dxfId="41" priority="19" operator="containsText" text="*-">
+      <formula>NOT(ISERROR(SEARCH(("*-"),(H7))))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H7">
     <cfRule type="colorScale" priority="20">
       <colorScale>
         <cfvo type="formula" val="0"/>
@@ -2002,29 +2411,29 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H6">
-    <cfRule type="containsText" dxfId="30" priority="15" operator="containsText" text="*-">
-      <formula>NOT(ISERROR(SEARCH(("*-"),(H6))))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="H6">
-    <cfRule type="colorScale" priority="16">
-      <colorScale>
-        <cfvo type="formula" val="0"/>
-        <cfvo type="formula" val="1"/>
-        <cfvo type="formula" val="10"/>
-        <color rgb="FFFF9F9F"/>
-        <color rgb="FFD1E0B2"/>
-        <color rgb="FF00B050"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="H3">
-    <cfRule type="containsText" dxfId="29" priority="13" operator="containsText" text="*-">
-      <formula>NOT(ISERROR(SEARCH(("*-"),(H3))))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="H3">
+  <conditionalFormatting sqref="H9">
+    <cfRule type="containsText" dxfId="40" priority="11" operator="containsText" text="*-">
+      <formula>NOT(ISERROR(SEARCH(("*-"),(H9))))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H9">
+    <cfRule type="colorScale" priority="12">
+      <colorScale>
+        <cfvo type="formula" val="0"/>
+        <cfvo type="formula" val="1"/>
+        <cfvo type="formula" val="10"/>
+        <color rgb="FFFF9F9F"/>
+        <color rgb="FFD1E0B2"/>
+        <color rgb="FF00B050"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G9">
+    <cfRule type="containsText" dxfId="39" priority="13" operator="containsText" text="*-">
+      <formula>NOT(ISERROR(SEARCH(("*-"),(G9))))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G9">
     <cfRule type="colorScale" priority="14">
       <colorScale>
         <cfvo type="formula" val="0"/>
@@ -2036,64 +2445,13 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="G4:G5">
-    <cfRule type="containsText" dxfId="28" priority="11" operator="containsText" text="*-">
-      <formula>NOT(ISERROR(SEARCH(("*-"),(G4))))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="G4:G5">
-    <cfRule type="colorScale" priority="12">
-      <colorScale>
-        <cfvo type="formula" val="0"/>
-        <cfvo type="formula" val="1"/>
-        <cfvo type="formula" val="10"/>
-        <color rgb="FFFF9F9F"/>
-        <color rgb="FFD1E0B2"/>
-        <color rgb="FF00B050"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="H4:H5">
-    <cfRule type="containsText" dxfId="27" priority="9" operator="containsText" text="*-">
-      <formula>NOT(ISERROR(SEARCH(("*-"),(H4))))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="H4:H5">
-    <cfRule type="colorScale" priority="10">
-      <colorScale>
-        <cfvo type="formula" val="0"/>
-        <cfvo type="formula" val="1"/>
-        <cfvo type="formula" val="10"/>
-        <color rgb="FFFF9F9F"/>
-        <color rgb="FFD1E0B2"/>
-        <color rgb="FF00B050"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="G6">
-    <cfRule type="containsText" dxfId="26" priority="7" operator="containsText" text="*-">
-      <formula>NOT(ISERROR(SEARCH(("*-"),(G6))))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="G6">
-    <cfRule type="colorScale" priority="8">
-      <colorScale>
-        <cfvo type="formula" val="0"/>
-        <cfvo type="formula" val="1"/>
-        <cfvo type="formula" val="10"/>
-        <color rgb="FFFF9F9F"/>
-        <color rgb="FFD1E0B2"/>
-        <color rgb="FF00B050"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="H7">
-    <cfRule type="containsText" dxfId="25" priority="5" operator="containsText" text="*-">
-      <formula>NOT(ISERROR(SEARCH(("*-"),(H7))))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="H7">
-    <cfRule type="colorScale" priority="6">
+  <conditionalFormatting sqref="H8">
+    <cfRule type="containsText" dxfId="38" priority="3" operator="containsText" text="*-">
+      <formula>NOT(ISERROR(SEARCH(("*-"),(H8))))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H8">
+    <cfRule type="colorScale" priority="4">
       <colorScale>
         <cfvo type="formula" val="0"/>
         <cfvo type="formula" val="1"/>
@@ -2105,28 +2463,11 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G8">
-    <cfRule type="containsText" dxfId="24" priority="3" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="37" priority="1" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(G8))))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G8">
-    <cfRule type="colorScale" priority="4">
-      <colorScale>
-        <cfvo type="formula" val="0"/>
-        <cfvo type="formula" val="1"/>
-        <cfvo type="formula" val="10"/>
-        <color rgb="FFFF9F9F"/>
-        <color rgb="FFD1E0B2"/>
-        <color rgb="FF00B050"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="H8">
-    <cfRule type="containsText" dxfId="23" priority="1" operator="containsText" text="*-">
-      <formula>NOT(ISERROR(SEARCH(("*-"),(H8))))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="H8">
     <cfRule type="colorScale" priority="2">
       <colorScale>
         <cfvo type="formula" val="0"/>
@@ -2145,51 +2486,51 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:I8"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+  <dimension ref="A1:I9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="9" ySplit="2" topLeftCell="K3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="H1" sqref="H1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="B3" sqref="B3:C8"/>
+      <selection pane="bottomRight" activeCell="I4" sqref="I4:I9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="5.453125" style="4" customWidth="1"/>
-    <col min="2" max="2" width="24.81640625" style="4" customWidth="1"/>
-    <col min="3" max="3" width="36.7265625" style="4" customWidth="1"/>
-    <col min="4" max="4" width="24.81640625" style="4" customWidth="1"/>
-    <col min="5" max="6" width="12.453125" style="4" customWidth="1"/>
-    <col min="7" max="8" width="3.81640625" style="4" customWidth="1"/>
-    <col min="9" max="9" width="13.7265625" style="4" customWidth="1"/>
+    <col min="1" max="1" width="5.42578125" style="4" customWidth="1"/>
+    <col min="2" max="2" width="24.85546875" style="4" customWidth="1"/>
+    <col min="3" max="3" width="36.7109375" style="4" customWidth="1"/>
+    <col min="4" max="4" width="24.85546875" style="4" customWidth="1"/>
+    <col min="5" max="6" width="12.42578125" style="4" customWidth="1"/>
+    <col min="7" max="8" width="3.85546875" style="4" customWidth="1"/>
+    <col min="9" max="9" width="13.7109375" style="4" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A1" s="23" t="s">
+    <row r="1" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="24" t="s">
         <v>1</v>
       </c>
-      <c r="B1" s="23" t="s">
+      <c r="B1" s="24" t="s">
         <v>2</v>
       </c>
-      <c r="C1" s="25" t="s">
+      <c r="C1" s="26" t="s">
         <v>3</v>
       </c>
-      <c r="D1" s="26"/>
-      <c r="E1" s="27" t="s">
+      <c r="D1" s="27"/>
+      <c r="E1" s="28" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="28"/>
-      <c r="G1" s="29" t="s">
+      <c r="F1" s="29"/>
+      <c r="G1" s="30" t="s">
         <v>8</v>
       </c>
-      <c r="H1" s="30"/>
+      <c r="H1" s="31"/>
       <c r="I1" s="2"/>
     </row>
-    <row r="2" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A2" s="24"/>
-      <c r="B2" s="24"/>
+    <row r="2" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="25"/>
+      <c r="B2" s="25"/>
       <c r="C2" s="6" t="s">
         <v>5</v>
       </c>
@@ -2210,14 +2551,14 @@
       </c>
       <c r="I2" s="2"/>
     </row>
-    <row r="3" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="9">
         <v>2014</v>
       </c>
       <c r="B3" s="10" t="s">
         <v>56</v>
       </c>
-      <c r="C3" s="41" t="s">
+      <c r="C3" s="23" t="s">
         <v>55</v>
       </c>
       <c r="D3" s="5"/>
@@ -2238,14 +2579,478 @@
         <v/>
       </c>
     </row>
-    <row r="4" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="9">
         <v>2015</v>
       </c>
       <c r="B4" s="10" t="s">
         <v>56</v>
       </c>
-      <c r="C4" s="41" t="s">
+      <c r="C4" s="23" t="s">
+        <v>55</v>
+      </c>
+      <c r="D4" s="5"/>
+      <c r="E4" s="7" t="s">
+        <v>0</v>
+      </c>
+      <c r="F4" s="21" t="s">
+        <v>26</v>
+      </c>
+      <c r="G4" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="H4" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="I4" s="3" t="str">
+        <f t="shared" ref="I4:I9" si="0">IF(OR(AND(G4&gt;1,G4&lt;&gt;"-"),AND(H4&gt;1,H4&lt;&gt;"-")),"Can exchange","")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="5" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="9">
+        <v>2016</v>
+      </c>
+      <c r="B5" s="10" t="s">
+        <v>56</v>
+      </c>
+      <c r="C5" s="23" t="s">
+        <v>55</v>
+      </c>
+      <c r="D5" s="5"/>
+      <c r="E5" s="21" t="s">
+        <v>27</v>
+      </c>
+      <c r="F5" s="7" t="s">
+        <v>0</v>
+      </c>
+      <c r="G5" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="H5" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="I5" s="3" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="6" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="9">
+        <v>2017</v>
+      </c>
+      <c r="B6" s="10" t="s">
+        <v>56</v>
+      </c>
+      <c r="C6" s="23" t="s">
+        <v>55</v>
+      </c>
+      <c r="D6" s="5"/>
+      <c r="E6" s="7" t="s">
+        <v>0</v>
+      </c>
+      <c r="F6" s="12" t="s">
+        <v>32</v>
+      </c>
+      <c r="G6" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="H6" s="20">
+        <v>0</v>
+      </c>
+      <c r="I6" s="3" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="7" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="9">
+        <v>2018</v>
+      </c>
+      <c r="B7" s="10" t="s">
+        <v>56</v>
+      </c>
+      <c r="C7" s="23" t="s">
+        <v>55</v>
+      </c>
+      <c r="D7" s="5"/>
+      <c r="E7" s="12" t="s">
+        <v>31</v>
+      </c>
+      <c r="F7" s="7" t="s">
+        <v>0</v>
+      </c>
+      <c r="G7" s="20">
+        <v>0</v>
+      </c>
+      <c r="H7" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="I7" s="3" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="8" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A8" s="9">
+        <v>2019</v>
+      </c>
+      <c r="B8" s="10" t="s">
+        <v>56</v>
+      </c>
+      <c r="C8" s="23" t="s">
+        <v>55</v>
+      </c>
+      <c r="D8" s="11"/>
+      <c r="E8" s="7" t="s">
+        <v>0</v>
+      </c>
+      <c r="F8" s="12" t="s">
+        <v>62</v>
+      </c>
+      <c r="G8" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="H8" s="20">
+        <v>0</v>
+      </c>
+      <c r="I8" s="3" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="9" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A9" s="9">
+        <v>2020</v>
+      </c>
+      <c r="B9" s="10" t="s">
+        <v>56</v>
+      </c>
+      <c r="C9" s="23" t="s">
+        <v>55</v>
+      </c>
+      <c r="D9" s="5"/>
+      <c r="E9" s="7" t="s">
+        <v>0</v>
+      </c>
+      <c r="F9" s="21" t="s">
+        <v>60</v>
+      </c>
+      <c r="G9" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="H9" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="I9" s="3" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="5">
+    <mergeCell ref="A1:A2"/>
+    <mergeCell ref="B1:B2"/>
+    <mergeCell ref="C1:D1"/>
+    <mergeCell ref="E1:F1"/>
+    <mergeCell ref="G1:H1"/>
+  </mergeCells>
+  <phoneticPr fontId="8" type="noConversion"/>
+  <conditionalFormatting sqref="G6">
+    <cfRule type="colorScale" priority="18">
+      <colorScale>
+        <cfvo type="formula" val="0"/>
+        <cfvo type="formula" val="1"/>
+        <cfvo type="formula" val="10"/>
+        <color rgb="FFFF9F9F"/>
+        <color rgb="FFD1E0B2"/>
+        <color rgb="FF00B050"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H7">
+    <cfRule type="colorScale" priority="16">
+      <colorScale>
+        <cfvo type="formula" val="0"/>
+        <cfvo type="formula" val="1"/>
+        <cfvo type="formula" val="10"/>
+        <color rgb="FFFF9F9F"/>
+        <color rgb="FFD1E0B2"/>
+        <color rgb="FF00B050"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G3 G7">
+    <cfRule type="containsText" dxfId="36" priority="27" operator="containsText" text="*-">
+      <formula>NOT(ISERROR(SEARCH(("*-"),(G3))))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G3 G7">
+    <cfRule type="colorScale" priority="28">
+      <colorScale>
+        <cfvo type="formula" val="0"/>
+        <cfvo type="formula" val="1"/>
+        <cfvo type="formula" val="10"/>
+        <color rgb="FFFF9F9F"/>
+        <color rgb="FFD1E0B2"/>
+        <color rgb="FF00B050"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H6">
+    <cfRule type="containsText" dxfId="35" priority="25" operator="containsText" text="*-">
+      <formula>NOT(ISERROR(SEARCH(("*-"),(H6))))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H6">
+    <cfRule type="colorScale" priority="26">
+      <colorScale>
+        <cfvo type="formula" val="0"/>
+        <cfvo type="formula" val="1"/>
+        <cfvo type="formula" val="10"/>
+        <color rgb="FFFF9F9F"/>
+        <color rgb="FFD1E0B2"/>
+        <color rgb="FF00B050"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H3">
+    <cfRule type="containsText" dxfId="34" priority="23" operator="containsText" text="*-">
+      <formula>NOT(ISERROR(SEARCH(("*-"),(H3))))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H3">
+    <cfRule type="colorScale" priority="24">
+      <colorScale>
+        <cfvo type="formula" val="0"/>
+        <cfvo type="formula" val="1"/>
+        <cfvo type="formula" val="10"/>
+        <color rgb="FFFF9F9F"/>
+        <color rgb="FFD1E0B2"/>
+        <color rgb="FF00B050"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G4:G5">
+    <cfRule type="containsText" dxfId="33" priority="21" operator="containsText" text="*-">
+      <formula>NOT(ISERROR(SEARCH(("*-"),(G4))))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G4:G5">
+    <cfRule type="colorScale" priority="22">
+      <colorScale>
+        <cfvo type="formula" val="0"/>
+        <cfvo type="formula" val="1"/>
+        <cfvo type="formula" val="10"/>
+        <color rgb="FFFF9F9F"/>
+        <color rgb="FFD1E0B2"/>
+        <color rgb="FF00B050"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H4:H5">
+    <cfRule type="containsText" dxfId="32" priority="19" operator="containsText" text="*-">
+      <formula>NOT(ISERROR(SEARCH(("*-"),(H4))))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H4:H5">
+    <cfRule type="colorScale" priority="20">
+      <colorScale>
+        <cfvo type="formula" val="0"/>
+        <cfvo type="formula" val="1"/>
+        <cfvo type="formula" val="10"/>
+        <color rgb="FFFF9F9F"/>
+        <color rgb="FFD1E0B2"/>
+        <color rgb="FF00B050"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G6">
+    <cfRule type="containsText" dxfId="31" priority="17" operator="containsText" text="*-">
+      <formula>NOT(ISERROR(SEARCH(("*-"),(G6))))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H7">
+    <cfRule type="containsText" dxfId="30" priority="15" operator="containsText" text="*-">
+      <formula>NOT(ISERROR(SEARCH(("*-"),(H7))))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H8">
+    <cfRule type="colorScale" priority="4">
+      <colorScale>
+        <cfvo type="formula" val="0"/>
+        <cfvo type="formula" val="1"/>
+        <cfvo type="formula" val="10"/>
+        <color rgb="FFFF9F9F"/>
+        <color rgb="FFD1E0B2"/>
+        <color rgb="FF00B050"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G9">
+    <cfRule type="colorScale" priority="8">
+      <colorScale>
+        <cfvo type="formula" val="0"/>
+        <cfvo type="formula" val="1"/>
+        <cfvo type="formula" val="10"/>
+        <color rgb="FFFF9F9F"/>
+        <color rgb="FFD1E0B2"/>
+        <color rgb="FF00B050"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G9">
+    <cfRule type="containsText" dxfId="29" priority="7" operator="containsText" text="*-">
+      <formula>NOT(ISERROR(SEARCH(("*-"),(G9))))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H9">
+    <cfRule type="containsText" dxfId="28" priority="5" operator="containsText" text="*-">
+      <formula>NOT(ISERROR(SEARCH(("*-"),(H9))))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H9">
+    <cfRule type="colorScale" priority="6">
+      <colorScale>
+        <cfvo type="formula" val="0"/>
+        <cfvo type="formula" val="1"/>
+        <cfvo type="formula" val="10"/>
+        <color rgb="FFFF9F9F"/>
+        <color rgb="FFD1E0B2"/>
+        <color rgb="FF00B050"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H8">
+    <cfRule type="containsText" dxfId="27" priority="3" operator="containsText" text="*-">
+      <formula>NOT(ISERROR(SEARCH(("*-"),(H8))))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G8">
+    <cfRule type="colorScale" priority="2">
+      <colorScale>
+        <cfvo type="formula" val="0"/>
+        <cfvo type="formula" val="1"/>
+        <cfvo type="formula" val="10"/>
+        <color rgb="FFFF9F9F"/>
+        <color rgb="FFD1E0B2"/>
+        <color rgb="FF00B050"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G8">
+    <cfRule type="containsText" dxfId="26" priority="1" operator="containsText" text="*-">
+      <formula>NOT(ISERROR(SEARCH(("*-"),(G8))))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <legacyDrawing r:id="rId2"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
+  <dimension ref="A1:I9"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <pane xSplit="9" ySplit="2" topLeftCell="J3" activePane="bottomRight" state="frozen"/>
+      <selection pane="topRight" activeCell="J1" sqref="J1"/>
+      <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
+      <selection pane="bottomRight" activeCell="E10" sqref="E10"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="5.42578125" style="4" customWidth="1"/>
+    <col min="2" max="2" width="24.85546875" style="4" customWidth="1"/>
+    <col min="3" max="3" width="36.7109375" style="4" customWidth="1"/>
+    <col min="4" max="4" width="24.85546875" style="4" customWidth="1"/>
+    <col min="5" max="6" width="12.42578125" style="4" customWidth="1"/>
+    <col min="7" max="8" width="3.85546875" style="4" customWidth="1"/>
+    <col min="9" max="9" width="13.7109375" style="4" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="24" t="s">
+        <v>1</v>
+      </c>
+      <c r="B1" s="24" t="s">
+        <v>2</v>
+      </c>
+      <c r="C1" s="26" t="s">
+        <v>3</v>
+      </c>
+      <c r="D1" s="27"/>
+      <c r="E1" s="28" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="29"/>
+      <c r="G1" s="30" t="s">
+        <v>9</v>
+      </c>
+      <c r="H1" s="31"/>
+      <c r="I1" s="2"/>
+    </row>
+    <row r="2" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="25"/>
+      <c r="B2" s="25"/>
+      <c r="C2" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="D2" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="E2" s="8" t="s">
+        <v>24</v>
+      </c>
+      <c r="F2" s="8" t="s">
+        <v>25</v>
+      </c>
+      <c r="G2" s="19" t="s">
+        <v>24</v>
+      </c>
+      <c r="H2" s="19" t="s">
+        <v>25</v>
+      </c>
+      <c r="I2" s="2"/>
+    </row>
+    <row r="3" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="9">
+        <v>2014</v>
+      </c>
+      <c r="B3" s="10" t="s">
+        <v>56</v>
+      </c>
+      <c r="C3" s="23" t="s">
+        <v>55</v>
+      </c>
+      <c r="D3" s="5"/>
+      <c r="E3" s="12" t="s">
+        <v>33</v>
+      </c>
+      <c r="F3" s="7" t="s">
+        <v>0</v>
+      </c>
+      <c r="G3" s="20">
+        <v>0</v>
+      </c>
+      <c r="H3" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="I3" s="3" t="str">
+        <f>IF(OR(AND(G3&gt;1,G3&lt;&gt;"-"),AND(H3&gt;1,H3&lt;&gt;"-")),"Can exchange","")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="4" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="9">
+        <v>2015</v>
+      </c>
+      <c r="B4" s="10" t="s">
+        <v>56</v>
+      </c>
+      <c r="C4" s="23" t="s">
         <v>55</v>
       </c>
       <c r="D4" s="5"/>
@@ -2266,14 +3071,14 @@
         <v/>
       </c>
     </row>
-    <row r="5" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="9">
         <v>2016</v>
       </c>
       <c r="B5" s="10" t="s">
         <v>56</v>
       </c>
-      <c r="C5" s="41" t="s">
+      <c r="C5" s="23" t="s">
         <v>55</v>
       </c>
       <c r="D5" s="5"/>
@@ -2294,14 +3099,14 @@
         <v/>
       </c>
     </row>
-    <row r="6" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="9">
         <v>2017</v>
       </c>
       <c r="B6" s="10" t="s">
         <v>56</v>
       </c>
-      <c r="C6" s="41" t="s">
+      <c r="C6" s="23" t="s">
         <v>55</v>
       </c>
       <c r="D6" s="5"/>
@@ -2309,7 +3114,7 @@
         <v>0</v>
       </c>
       <c r="F6" s="12" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="G6" s="1" t="s">
         <v>0</v>
@@ -2322,19 +3127,19 @@
         <v/>
       </c>
     </row>
-    <row r="7" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="9">
         <v>2018</v>
       </c>
       <c r="B7" s="10" t="s">
         <v>56</v>
       </c>
-      <c r="C7" s="41" t="s">
+      <c r="C7" s="23" t="s">
         <v>55</v>
       </c>
       <c r="D7" s="5"/>
       <c r="E7" s="12" t="s">
-        <v>31</v>
+        <v>35</v>
       </c>
       <c r="F7" s="7" t="s">
         <v>0</v>
@@ -2350,30 +3155,54 @@
         <v/>
       </c>
     </row>
-    <row r="8" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="9">
         <v>2019</v>
       </c>
       <c r="B8" s="10" t="s">
         <v>56</v>
       </c>
-      <c r="C8" s="41" t="s">
+      <c r="C8" s="23" t="s">
         <v>55</v>
       </c>
       <c r="D8" s="11"/>
-      <c r="E8" s="21" t="s">
-        <v>49</v>
-      </c>
-      <c r="F8" s="7" t="s">
-        <v>0</v>
+      <c r="E8" s="7" t="s">
+        <v>0</v>
+      </c>
+      <c r="F8" s="12" t="s">
+        <v>63</v>
       </c>
       <c r="G8" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="H8" s="1" t="s">
+      <c r="H8" s="20">
         <v>0</v>
       </c>
       <c r="I8" s="3"/>
+    </row>
+    <row r="9" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A9" s="9">
+        <v>2020</v>
+      </c>
+      <c r="B9" s="10" t="s">
+        <v>56</v>
+      </c>
+      <c r="C9" s="23" t="s">
+        <v>55</v>
+      </c>
+      <c r="D9" s="11"/>
+      <c r="E9" s="7" t="s">
+        <v>0</v>
+      </c>
+      <c r="F9" s="21" t="s">
+        <v>60</v>
+      </c>
+      <c r="G9" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="H9" s="1" t="s">
+        <v>0</v>
+      </c>
     </row>
   </sheetData>
   <mergeCells count="5">
@@ -2384,6 +3213,90 @@
     <mergeCell ref="G1:H1"/>
   </mergeCells>
   <conditionalFormatting sqref="G6">
+    <cfRule type="colorScale" priority="12">
+      <colorScale>
+        <cfvo type="formula" val="0"/>
+        <cfvo type="formula" val="1"/>
+        <cfvo type="formula" val="10"/>
+        <color rgb="FFFF9F9F"/>
+        <color rgb="FFD1E0B2"/>
+        <color rgb="FF00B050"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H7">
+    <cfRule type="colorScale" priority="10">
+      <colorScale>
+        <cfvo type="formula" val="0"/>
+        <cfvo type="formula" val="1"/>
+        <cfvo type="formula" val="10"/>
+        <color rgb="FFFF9F9F"/>
+        <color rgb="FFD1E0B2"/>
+        <color rgb="FF00B050"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G3 G7">
+    <cfRule type="colorScale" priority="22">
+      <colorScale>
+        <cfvo type="formula" val="0"/>
+        <cfvo type="formula" val="1"/>
+        <cfvo type="formula" val="10"/>
+        <color rgb="FFFF9F9F"/>
+        <color rgb="FFD1E0B2"/>
+        <color rgb="FF00B050"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H6">
+    <cfRule type="colorScale" priority="20">
+      <colorScale>
+        <cfvo type="formula" val="0"/>
+        <cfvo type="formula" val="1"/>
+        <cfvo type="formula" val="10"/>
+        <color rgb="FFFF9F9F"/>
+        <color rgb="FFD1E0B2"/>
+        <color rgb="FF00B050"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H3">
+    <cfRule type="colorScale" priority="18">
+      <colorScale>
+        <cfvo type="formula" val="0"/>
+        <cfvo type="formula" val="1"/>
+        <cfvo type="formula" val="10"/>
+        <color rgb="FFFF9F9F"/>
+        <color rgb="FFD1E0B2"/>
+        <color rgb="FF00B050"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G4:G5">
+    <cfRule type="colorScale" priority="16">
+      <colorScale>
+        <cfvo type="formula" val="0"/>
+        <cfvo type="formula" val="1"/>
+        <cfvo type="formula" val="10"/>
+        <color rgb="FFFF9F9F"/>
+        <color rgb="FFD1E0B2"/>
+        <color rgb="FF00B050"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H4:H5">
+    <cfRule type="colorScale" priority="14">
+      <colorScale>
+        <cfvo type="formula" val="0"/>
+        <cfvo type="formula" val="1"/>
+        <cfvo type="formula" val="10"/>
+        <color rgb="FFFF9F9F"/>
+        <color rgb="FFD1E0B2"/>
+        <color rgb="FF00B050"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G8">
     <cfRule type="colorScale" priority="8">
       <colorScale>
         <cfvo type="formula" val="0"/>
@@ -2395,115 +3308,20 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H7">
-    <cfRule type="colorScale" priority="6">
-      <colorScale>
-        <cfvo type="formula" val="0"/>
-        <cfvo type="formula" val="1"/>
-        <cfvo type="formula" val="10"/>
-        <color rgb="FFFF9F9F"/>
-        <color rgb="FFD1E0B2"/>
-        <color rgb="FF00B050"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="G3 G7">
-    <cfRule type="containsText" dxfId="22" priority="17" operator="containsText" text="*-">
-      <formula>NOT(ISERROR(SEARCH(("*-"),(G3))))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="G7 G3">
-    <cfRule type="colorScale" priority="18">
-      <colorScale>
-        <cfvo type="formula" val="0"/>
-        <cfvo type="formula" val="1"/>
-        <cfvo type="formula" val="10"/>
-        <color rgb="FFFF9F9F"/>
-        <color rgb="FFD1E0B2"/>
-        <color rgb="FF00B050"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="H6">
-    <cfRule type="containsText" dxfId="21" priority="15" operator="containsText" text="*-">
-      <formula>NOT(ISERROR(SEARCH(("*-"),(H6))))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="H6">
-    <cfRule type="colorScale" priority="16">
-      <colorScale>
-        <cfvo type="formula" val="0"/>
-        <cfvo type="formula" val="1"/>
-        <cfvo type="formula" val="10"/>
-        <color rgb="FFFF9F9F"/>
-        <color rgb="FFD1E0B2"/>
-        <color rgb="FF00B050"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="H3">
-    <cfRule type="containsText" dxfId="20" priority="13" operator="containsText" text="*-">
-      <formula>NOT(ISERROR(SEARCH(("*-"),(H3))))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="H3">
-    <cfRule type="colorScale" priority="14">
-      <colorScale>
-        <cfvo type="formula" val="0"/>
-        <cfvo type="formula" val="1"/>
-        <cfvo type="formula" val="10"/>
-        <color rgb="FFFF9F9F"/>
-        <color rgb="FFD1E0B2"/>
-        <color rgb="FF00B050"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="G4:G5">
-    <cfRule type="containsText" dxfId="19" priority="11" operator="containsText" text="*-">
-      <formula>NOT(ISERROR(SEARCH(("*-"),(G4))))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="G4:G5">
-    <cfRule type="colorScale" priority="12">
-      <colorScale>
-        <cfvo type="formula" val="0"/>
-        <cfvo type="formula" val="1"/>
-        <cfvo type="formula" val="10"/>
-        <color rgb="FFFF9F9F"/>
-        <color rgb="FFD1E0B2"/>
-        <color rgb="FF00B050"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="H4:H5">
-    <cfRule type="containsText" dxfId="18" priority="9" operator="containsText" text="*-">
-      <formula>NOT(ISERROR(SEARCH(("*-"),(H4))))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="H4:H5">
-    <cfRule type="colorScale" priority="10">
-      <colorScale>
-        <cfvo type="formula" val="0"/>
-        <cfvo type="formula" val="1"/>
-        <cfvo type="formula" val="10"/>
-        <color rgb="FFFF9F9F"/>
-        <color rgb="FFD1E0B2"/>
-        <color rgb="FF00B050"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="G6">
-    <cfRule type="containsText" dxfId="17" priority="7" operator="containsText" text="*-">
-      <formula>NOT(ISERROR(SEARCH(("*-"),(G6))))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="H7">
-    <cfRule type="containsText" dxfId="16" priority="5" operator="containsText" text="*-">
-      <formula>NOT(ISERROR(SEARCH(("*-"),(H7))))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="G8">
-    <cfRule type="colorScale" priority="4">
+  <conditionalFormatting sqref="G9">
+    <cfRule type="colorScale" priority="5">
+      <colorScale>
+        <cfvo type="formula" val="0"/>
+        <cfvo type="formula" val="1"/>
+        <cfvo type="formula" val="10"/>
+        <color rgb="FFFF9F9F"/>
+        <color rgb="FFD1E0B2"/>
+        <color rgb="FF00B050"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H9">
+    <cfRule type="colorScale" priority="3">
       <colorScale>
         <cfvo type="formula" val="0"/>
         <cfvo type="formula" val="1"/>
@@ -2533,7 +3351,21 @@
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{78C0D931-6437-407d-A8EE-F0AAD7539E65}">
       <x14:conditionalFormattings>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="containsText" priority="3" operator="containsText" text="*-" id="{F2DD5C4D-81E4-4881-B5DB-7170050385FE}">
+          <x14:cfRule type="containsText" priority="21" operator="containsText" text="*-" id="{694EFF47-226F-4C34-ADD6-D4D9FC296915}">
+            <xm:f>NOT(ISERROR(SEARCH(("*-"),('2cents'!G3))))</xm:f>
+            <x14:dxf>
+              <fill>
+                <patternFill patternType="solid">
+                  <fgColor rgb="FF9BE5FF"/>
+                  <bgColor rgb="FF9BE5FF"/>
+                </patternFill>
+              </fill>
+            </x14:dxf>
+          </x14:cfRule>
+          <xm:sqref>G3:H7 H8</xm:sqref>
+        </x14:conditionalFormatting>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="containsText" priority="7" operator="containsText" text="*-" id="{FD7DBBF9-0739-44C0-85AC-8B870BD7A54C}">
             <xm:f>NOT(ISERROR(SEARCH(("*-"),('1cent'!G8))))</xm:f>
             <x14:dxf>
               <fill>
@@ -2544,7 +3376,7 @@
               </fill>
             </x14:dxf>
           </x14:cfRule>
-          <xm:sqref>G8:H8</xm:sqref>
+          <xm:sqref>G8 G9:H9</xm:sqref>
         </x14:conditionalFormatting>
       </x14:conditionalFormattings>
     </ext>
@@ -2552,52 +3384,52 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:I8"/>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
+  <dimension ref="A1:I9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="9" ySplit="2" topLeftCell="J3" activePane="bottomRight" state="frozen"/>
-      <selection pane="topRight" activeCell="J1" sqref="J1"/>
+      <selection pane="topRight" activeCell="H1" sqref="H1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="B3" sqref="B3:C8"/>
+      <selection pane="bottomRight" activeCell="I3" sqref="I3:I9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="5.453125" style="4" customWidth="1"/>
-    <col min="2" max="2" width="24.81640625" style="4" customWidth="1"/>
-    <col min="3" max="3" width="36.7265625" style="4" customWidth="1"/>
-    <col min="4" max="4" width="24.81640625" style="4" customWidth="1"/>
-    <col min="5" max="6" width="12.453125" style="4" customWidth="1"/>
-    <col min="7" max="8" width="3.81640625" style="4" customWidth="1"/>
-    <col min="9" max="9" width="13.7265625" style="4" customWidth="1"/>
+    <col min="1" max="1" width="5.42578125" style="4" customWidth="1"/>
+    <col min="2" max="2" width="24.85546875" style="4" customWidth="1"/>
+    <col min="3" max="3" width="36.7109375" style="4" customWidth="1"/>
+    <col min="4" max="4" width="24.85546875" style="4" customWidth="1"/>
+    <col min="5" max="6" width="12.42578125" style="4" customWidth="1"/>
+    <col min="7" max="8" width="3.85546875" style="4" customWidth="1"/>
+    <col min="9" max="9" width="13.7109375" style="4" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A1" s="23" t="s">
+    <row r="1" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="32" t="s">
         <v>1</v>
       </c>
-      <c r="B1" s="23" t="s">
+      <c r="B1" s="34" t="s">
         <v>2</v>
       </c>
-      <c r="C1" s="25" t="s">
+      <c r="C1" s="26" t="s">
         <v>3</v>
       </c>
-      <c r="D1" s="26"/>
-      <c r="E1" s="27" t="s">
+      <c r="D1" s="36"/>
+      <c r="E1" s="28" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="28"/>
-      <c r="G1" s="29" t="s">
-        <v>9</v>
-      </c>
-      <c r="H1" s="30"/>
+      <c r="F1" s="37"/>
+      <c r="G1" s="38" t="s">
+        <v>10</v>
+      </c>
+      <c r="H1" s="39"/>
       <c r="I1" s="2"/>
     </row>
-    <row r="2" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A2" s="24"/>
-      <c r="B2" s="24"/>
+    <row r="2" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="33"/>
+      <c r="B2" s="35"/>
       <c r="C2" s="6" t="s">
         <v>5</v>
       </c>
@@ -2618,17 +3450,19 @@
       </c>
       <c r="I2" s="2"/>
     </row>
-    <row r="3" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="9">
         <v>2014</v>
       </c>
       <c r="B3" s="10" t="s">
-        <v>56</v>
-      </c>
-      <c r="C3" s="41" t="s">
+        <v>57</v>
+      </c>
+      <c r="C3" s="23" t="s">
         <v>55</v>
       </c>
-      <c r="D3" s="5"/>
+      <c r="D3" s="11" t="s">
+        <v>59</v>
+      </c>
       <c r="E3" s="12" t="s">
         <v>33</v>
       </c>
@@ -2646,17 +3480,19 @@
         <v/>
       </c>
     </row>
-    <row r="4" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="9">
         <v>2015</v>
       </c>
       <c r="B4" s="10" t="s">
-        <v>56</v>
-      </c>
-      <c r="C4" s="41" t="s">
+        <v>57</v>
+      </c>
+      <c r="C4" s="23" t="s">
         <v>55</v>
       </c>
-      <c r="D4" s="5"/>
+      <c r="D4" s="11" t="s">
+        <v>59</v>
+      </c>
       <c r="E4" s="7" t="s">
         <v>0</v>
       </c>
@@ -2670,21 +3506,23 @@
         <v>0</v>
       </c>
       <c r="I4" s="3" t="str">
-        <f t="shared" ref="I4:I7" si="0">IF(OR(AND(G4&gt;1,G4&lt;&gt;"-"),AND(H4&gt;1,H4&lt;&gt;"-")),"Can exchange","")</f>
+        <f t="shared" ref="I4:I9" si="0">IF(OR(AND(G4&gt;1,G4&lt;&gt;"-"),AND(H4&gt;1,H4&lt;&gt;"-")),"Can exchange","")</f>
         <v/>
       </c>
     </row>
-    <row r="5" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="9">
         <v>2016</v>
       </c>
       <c r="B5" s="10" t="s">
-        <v>56</v>
-      </c>
-      <c r="C5" s="41" t="s">
+        <v>57</v>
+      </c>
+      <c r="C5" s="23" t="s">
         <v>55</v>
       </c>
-      <c r="D5" s="5"/>
+      <c r="D5" s="11" t="s">
+        <v>59</v>
+      </c>
       <c r="E5" s="21" t="s">
         <v>27</v>
       </c>
@@ -2702,22 +3540,24 @@
         <v/>
       </c>
     </row>
-    <row r="6" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="9">
         <v>2017</v>
       </c>
       <c r="B6" s="10" t="s">
-        <v>56</v>
-      </c>
-      <c r="C6" s="41" t="s">
+        <v>57</v>
+      </c>
+      <c r="C6" s="23" t="s">
         <v>55</v>
       </c>
-      <c r="D6" s="5"/>
+      <c r="D6" s="11" t="s">
+        <v>59</v>
+      </c>
       <c r="E6" s="7" t="s">
         <v>0</v>
       </c>
       <c r="F6" s="12" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="G6" s="1" t="s">
         <v>0</v>
@@ -2730,19 +3570,21 @@
         <v/>
       </c>
     </row>
-    <row r="7" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="9">
         <v>2018</v>
       </c>
       <c r="B7" s="10" t="s">
-        <v>56</v>
-      </c>
-      <c r="C7" s="41" t="s">
+        <v>57</v>
+      </c>
+      <c r="C7" s="23" t="s">
         <v>55</v>
       </c>
-      <c r="D7" s="5"/>
+      <c r="D7" s="11" t="s">
+        <v>59</v>
+      </c>
       <c r="E7" s="12" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="F7" s="7" t="s">
         <v>0</v>
@@ -2758,30 +3600,523 @@
         <v/>
       </c>
     </row>
-    <row r="8" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="9">
         <v>2019</v>
       </c>
       <c r="B8" s="10" t="s">
-        <v>56</v>
-      </c>
-      <c r="C8" s="41" t="s">
+        <v>57</v>
+      </c>
+      <c r="C8" s="23" t="s">
         <v>55</v>
       </c>
-      <c r="D8" s="11"/>
-      <c r="E8" s="21" t="s">
-        <v>49</v>
-      </c>
-      <c r="F8" s="7" t="s">
-        <v>0</v>
+      <c r="D8" s="11" t="s">
+        <v>59</v>
+      </c>
+      <c r="E8" s="7" t="s">
+        <v>0</v>
+      </c>
+      <c r="F8" s="12" t="s">
+        <v>64</v>
       </c>
       <c r="G8" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="H8" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="I8" s="3"/>
+      <c r="H8" s="20">
+        <v>0</v>
+      </c>
+      <c r="I8" s="3" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="9" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A9" s="9">
+        <v>2020</v>
+      </c>
+      <c r="B9" s="10" t="s">
+        <v>57</v>
+      </c>
+      <c r="C9" s="23" t="s">
+        <v>55</v>
+      </c>
+      <c r="D9" s="11" t="s">
+        <v>59</v>
+      </c>
+      <c r="E9" s="7" t="s">
+        <v>0</v>
+      </c>
+      <c r="F9" s="12" t="s">
+        <v>65</v>
+      </c>
+      <c r="G9" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="H9" s="20">
+        <v>0</v>
+      </c>
+      <c r="I9" s="3" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="5">
+    <mergeCell ref="A1:A2"/>
+    <mergeCell ref="B1:B2"/>
+    <mergeCell ref="C1:D1"/>
+    <mergeCell ref="E1:F1"/>
+    <mergeCell ref="G1:H1"/>
+  </mergeCells>
+  <conditionalFormatting sqref="G6 H9">
+    <cfRule type="colorScale" priority="16">
+      <colorScale>
+        <cfvo type="formula" val="0"/>
+        <cfvo type="formula" val="1"/>
+        <cfvo type="formula" val="10"/>
+        <color rgb="FFFF9F9F"/>
+        <color rgb="FFD1E0B2"/>
+        <color rgb="FF00B050"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H7">
+    <cfRule type="colorScale" priority="15">
+      <colorScale>
+        <cfvo type="formula" val="0"/>
+        <cfvo type="formula" val="1"/>
+        <cfvo type="formula" val="10"/>
+        <color rgb="FFFF9F9F"/>
+        <color rgb="FFD1E0B2"/>
+        <color rgb="FF00B050"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G3 G7">
+    <cfRule type="colorScale" priority="22">
+      <colorScale>
+        <cfvo type="formula" val="0"/>
+        <cfvo type="formula" val="1"/>
+        <cfvo type="formula" val="10"/>
+        <color rgb="FFFF9F9F"/>
+        <color rgb="FFD1E0B2"/>
+        <color rgb="FF00B050"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H6">
+    <cfRule type="colorScale" priority="20">
+      <colorScale>
+        <cfvo type="formula" val="0"/>
+        <cfvo type="formula" val="1"/>
+        <cfvo type="formula" val="10"/>
+        <color rgb="FFFF9F9F"/>
+        <color rgb="FFD1E0B2"/>
+        <color rgb="FF00B050"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H3">
+    <cfRule type="colorScale" priority="19">
+      <colorScale>
+        <cfvo type="formula" val="0"/>
+        <cfvo type="formula" val="1"/>
+        <cfvo type="formula" val="10"/>
+        <color rgb="FFFF9F9F"/>
+        <color rgb="FFD1E0B2"/>
+        <color rgb="FF00B050"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G4:G5">
+    <cfRule type="colorScale" priority="18">
+      <colorScale>
+        <cfvo type="formula" val="0"/>
+        <cfvo type="formula" val="1"/>
+        <cfvo type="formula" val="10"/>
+        <color rgb="FFFF9F9F"/>
+        <color rgb="FFD1E0B2"/>
+        <color rgb="FF00B050"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H4:H5">
+    <cfRule type="colorScale" priority="17">
+      <colorScale>
+        <cfvo type="formula" val="0"/>
+        <cfvo type="formula" val="1"/>
+        <cfvo type="formula" val="10"/>
+        <color rgb="FFFF9F9F"/>
+        <color rgb="FFD1E0B2"/>
+        <color rgb="FF00B050"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G8">
+    <cfRule type="colorScale" priority="14">
+      <colorScale>
+        <cfvo type="formula" val="0"/>
+        <cfvo type="formula" val="1"/>
+        <cfvo type="formula" val="10"/>
+        <color rgb="FFFF9F9F"/>
+        <color rgb="FFD1E0B2"/>
+        <color rgb="FF00B050"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H8">
+    <cfRule type="colorScale" priority="8">
+      <colorScale>
+        <cfvo type="formula" val="0"/>
+        <cfvo type="formula" val="1"/>
+        <cfvo type="formula" val="10"/>
+        <color rgb="FFFF9F9F"/>
+        <color rgb="FFD1E0B2"/>
+        <color rgb="FF00B050"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G9">
+    <cfRule type="colorScale" priority="2">
+      <colorScale>
+        <cfvo type="formula" val="0"/>
+        <cfvo type="formula" val="1"/>
+        <cfvo type="formula" val="10"/>
+        <color rgb="FFFF9F9F"/>
+        <color rgb="FFD1E0B2"/>
+        <color rgb="FF00B050"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <legacyDrawing r:id="rId2"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{78C0D931-6437-407d-A8EE-F0AAD7539E65}">
+      <x14:conditionalFormattings>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="containsText" priority="21" operator="containsText" text="*-" id="{7AEA8373-1E3A-4AB0-BD1F-047F0EDE497B}">
+            <xm:f>NOT(ISERROR(SEARCH(("*-"),('2cents'!G3))))</xm:f>
+            <x14:dxf>
+              <fill>
+                <patternFill patternType="solid">
+                  <fgColor rgb="FF9BE5FF"/>
+                  <bgColor rgb="FF9BE5FF"/>
+                </patternFill>
+              </fill>
+            </x14:dxf>
+          </x14:cfRule>
+          <xm:sqref>G3:H7 H8</xm:sqref>
+        </x14:conditionalFormatting>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="containsText" priority="13" operator="containsText" text="*-" id="{BA77CDF5-8944-4594-8A93-4EFF876490C0}">
+            <xm:f>NOT(ISERROR(SEARCH(("*-"),('1cent'!G8))))</xm:f>
+            <x14:dxf>
+              <fill>
+                <patternFill patternType="solid">
+                  <fgColor rgb="FF9BE5FF"/>
+                  <bgColor rgb="FF9BE5FF"/>
+                </patternFill>
+              </fill>
+            </x14:dxf>
+          </x14:cfRule>
+          <xm:sqref>G8:G9</xm:sqref>
+        </x14:conditionalFormatting>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="containsText" priority="45" operator="containsText" text="*-" id="{5478E032-6183-4945-B914-8244D77F9DC4}">
+            <xm:f>NOT(ISERROR(SEARCH(("*-"),('2cents'!H10))))</xm:f>
+            <x14:dxf>
+              <fill>
+                <patternFill patternType="solid">
+                  <fgColor rgb="FF9BE5FF"/>
+                  <bgColor rgb="FF9BE5FF"/>
+                </patternFill>
+              </fill>
+            </x14:dxf>
+          </x14:cfRule>
+          <xm:sqref>H9</xm:sqref>
+        </x14:conditionalFormatting>
+      </x14:conditionalFormattings>
+    </ext>
+  </extLst>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
+  <dimension ref="A1:I9"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <pane xSplit="9" ySplit="2" topLeftCell="J3" activePane="bottomRight" state="frozen"/>
+      <selection pane="topRight" activeCell="H1" sqref="H1"/>
+      <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
+      <selection pane="bottomRight" activeCell="I3" sqref="I3:I9"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="5.42578125" style="4" customWidth="1"/>
+    <col min="2" max="2" width="24.85546875" style="4" customWidth="1"/>
+    <col min="3" max="3" width="36.7109375" style="4" customWidth="1"/>
+    <col min="4" max="4" width="24.85546875" style="4" customWidth="1"/>
+    <col min="5" max="6" width="12.42578125" style="4" customWidth="1"/>
+    <col min="7" max="8" width="3.85546875" style="4" customWidth="1"/>
+    <col min="9" max="9" width="13.7109375" style="4" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="24" t="s">
+        <v>1</v>
+      </c>
+      <c r="B1" s="24" t="s">
+        <v>2</v>
+      </c>
+      <c r="C1" s="26" t="s">
+        <v>3</v>
+      </c>
+      <c r="D1" s="27"/>
+      <c r="E1" s="28" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="29"/>
+      <c r="G1" s="30" t="s">
+        <v>11</v>
+      </c>
+      <c r="H1" s="31"/>
+      <c r="I1" s="2"/>
+    </row>
+    <row r="2" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="25"/>
+      <c r="B2" s="25"/>
+      <c r="C2" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="D2" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="E2" s="8" t="s">
+        <v>24</v>
+      </c>
+      <c r="F2" s="8" t="s">
+        <v>25</v>
+      </c>
+      <c r="G2" s="19" t="s">
+        <v>24</v>
+      </c>
+      <c r="H2" s="19" t="s">
+        <v>25</v>
+      </c>
+      <c r="I2" s="2"/>
+    </row>
+    <row r="3" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="9">
+        <v>2014</v>
+      </c>
+      <c r="B3" s="10" t="s">
+        <v>57</v>
+      </c>
+      <c r="C3" s="23" t="s">
+        <v>55</v>
+      </c>
+      <c r="D3" s="11" t="s">
+        <v>59</v>
+      </c>
+      <c r="E3" s="12" t="s">
+        <v>33</v>
+      </c>
+      <c r="F3" s="7" t="s">
+        <v>0</v>
+      </c>
+      <c r="G3" s="20">
+        <v>0</v>
+      </c>
+      <c r="H3" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="I3" s="3" t="str">
+        <f>IF(OR(AND(G3&gt;1,G3&lt;&gt;"-"),AND(H3&gt;1,H3&lt;&gt;"-")),"Can exchange","")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="4" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="9">
+        <v>2015</v>
+      </c>
+      <c r="B4" s="10" t="s">
+        <v>57</v>
+      </c>
+      <c r="C4" s="23" t="s">
+        <v>55</v>
+      </c>
+      <c r="D4" s="11" t="s">
+        <v>59</v>
+      </c>
+      <c r="E4" s="7" t="s">
+        <v>0</v>
+      </c>
+      <c r="F4" s="21" t="s">
+        <v>26</v>
+      </c>
+      <c r="G4" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="H4" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="I4" s="3" t="str">
+        <f t="shared" ref="I4:I9" si="0">IF(OR(AND(G4&gt;1,G4&lt;&gt;"-"),AND(H4&gt;1,H4&lt;&gt;"-")),"Can exchange","")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="5" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="9">
+        <v>2016</v>
+      </c>
+      <c r="B5" s="10" t="s">
+        <v>57</v>
+      </c>
+      <c r="C5" s="23" t="s">
+        <v>55</v>
+      </c>
+      <c r="D5" s="11" t="s">
+        <v>59</v>
+      </c>
+      <c r="E5" s="21" t="s">
+        <v>27</v>
+      </c>
+      <c r="F5" s="7" t="s">
+        <v>0</v>
+      </c>
+      <c r="G5" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="H5" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="I5" s="3" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="6" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="9">
+        <v>2017</v>
+      </c>
+      <c r="B6" s="10" t="s">
+        <v>57</v>
+      </c>
+      <c r="C6" s="23" t="s">
+        <v>55</v>
+      </c>
+      <c r="D6" s="11" t="s">
+        <v>59</v>
+      </c>
+      <c r="E6" s="7" t="s">
+        <v>0</v>
+      </c>
+      <c r="F6" s="12" t="s">
+        <v>38</v>
+      </c>
+      <c r="G6" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="H6" s="20">
+        <v>0</v>
+      </c>
+      <c r="I6" s="3" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="7" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="9">
+        <v>2018</v>
+      </c>
+      <c r="B7" s="10" t="s">
+        <v>57</v>
+      </c>
+      <c r="C7" s="23" t="s">
+        <v>55</v>
+      </c>
+      <c r="D7" s="11" t="s">
+        <v>59</v>
+      </c>
+      <c r="E7" s="12" t="s">
+        <v>39</v>
+      </c>
+      <c r="F7" s="7" t="s">
+        <v>0</v>
+      </c>
+      <c r="G7" s="20">
+        <v>0</v>
+      </c>
+      <c r="H7" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="I7" s="3" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="8" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A8" s="9">
+        <v>2019</v>
+      </c>
+      <c r="B8" s="10" t="s">
+        <v>57</v>
+      </c>
+      <c r="C8" s="23" t="s">
+        <v>55</v>
+      </c>
+      <c r="D8" s="11" t="s">
+        <v>59</v>
+      </c>
+      <c r="E8" s="7" t="s">
+        <v>0</v>
+      </c>
+      <c r="F8" s="12" t="s">
+        <v>67</v>
+      </c>
+      <c r="G8" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="H8" s="20">
+        <v>0</v>
+      </c>
+      <c r="I8" s="3" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="9" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A9" s="9">
+        <v>2018</v>
+      </c>
+      <c r="B9" s="10" t="s">
+        <v>57</v>
+      </c>
+      <c r="C9" s="23" t="s">
+        <v>55</v>
+      </c>
+      <c r="D9" s="11" t="s">
+        <v>59</v>
+      </c>
+      <c r="E9" s="7" t="s">
+        <v>0</v>
+      </c>
+      <c r="F9" s="12" t="s">
+        <v>66</v>
+      </c>
+      <c r="G9" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="H9" s="20">
+        <v>0</v>
+      </c>
+      <c r="I9" s="3" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
     </row>
   </sheetData>
   <mergeCells count="5">
@@ -2792,7 +4127,7 @@
     <mergeCell ref="G1:H1"/>
   </mergeCells>
   <conditionalFormatting sqref="G6">
-    <cfRule type="colorScale" priority="7">
+    <cfRule type="colorScale" priority="14">
       <colorScale>
         <cfvo type="formula" val="0"/>
         <cfvo type="formula" val="1"/>
@@ -2804,6 +4139,102 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H7">
+    <cfRule type="colorScale" priority="13">
+      <colorScale>
+        <cfvo type="formula" val="0"/>
+        <cfvo type="formula" val="1"/>
+        <cfvo type="formula" val="10"/>
+        <color rgb="FFFF9F9F"/>
+        <color rgb="FFD1E0B2"/>
+        <color rgb="FF00B050"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G3 G7">
+    <cfRule type="colorScale" priority="20">
+      <colorScale>
+        <cfvo type="formula" val="0"/>
+        <cfvo type="formula" val="1"/>
+        <cfvo type="formula" val="10"/>
+        <color rgb="FFFF9F9F"/>
+        <color rgb="FFD1E0B2"/>
+        <color rgb="FF00B050"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H6">
+    <cfRule type="colorScale" priority="18">
+      <colorScale>
+        <cfvo type="formula" val="0"/>
+        <cfvo type="formula" val="1"/>
+        <cfvo type="formula" val="10"/>
+        <color rgb="FFFF9F9F"/>
+        <color rgb="FFD1E0B2"/>
+        <color rgb="FF00B050"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H3">
+    <cfRule type="colorScale" priority="17">
+      <colorScale>
+        <cfvo type="formula" val="0"/>
+        <cfvo type="formula" val="1"/>
+        <cfvo type="formula" val="10"/>
+        <color rgb="FFFF9F9F"/>
+        <color rgb="FFD1E0B2"/>
+        <color rgb="FF00B050"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G4:G5">
+    <cfRule type="colorScale" priority="16">
+      <colorScale>
+        <cfvo type="formula" val="0"/>
+        <cfvo type="formula" val="1"/>
+        <cfvo type="formula" val="10"/>
+        <color rgb="FFFF9F9F"/>
+        <color rgb="FFD1E0B2"/>
+        <color rgb="FF00B050"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H4:H5">
+    <cfRule type="colorScale" priority="15">
+      <colorScale>
+        <cfvo type="formula" val="0"/>
+        <cfvo type="formula" val="1"/>
+        <cfvo type="formula" val="10"/>
+        <color rgb="FFFF9F9F"/>
+        <color rgb="FFD1E0B2"/>
+        <color rgb="FF00B050"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G8">
+    <cfRule type="colorScale" priority="12">
+      <colorScale>
+        <cfvo type="formula" val="0"/>
+        <cfvo type="formula" val="1"/>
+        <cfvo type="formula" val="10"/>
+        <color rgb="FFFF9F9F"/>
+        <color rgb="FFD1E0B2"/>
+        <color rgb="FF00B050"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H9">
+    <cfRule type="colorScale" priority="3">
+      <colorScale>
+        <cfvo type="formula" val="0"/>
+        <cfvo type="formula" val="1"/>
+        <cfvo type="formula" val="10"/>
+        <color rgb="FFFF9F9F"/>
+        <color rgb="FFD1E0B2"/>
+        <color rgb="FF00B050"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H8">
     <cfRule type="colorScale" priority="5">
       <colorScale>
         <cfvo type="formula" val="0"/>
@@ -2815,79 +4246,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="G7 G3">
-    <cfRule type="colorScale" priority="17">
-      <colorScale>
-        <cfvo type="formula" val="0"/>
-        <cfvo type="formula" val="1"/>
-        <cfvo type="formula" val="10"/>
-        <color rgb="FFFF9F9F"/>
-        <color rgb="FFD1E0B2"/>
-        <color rgb="FF00B050"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="H6">
-    <cfRule type="colorScale" priority="15">
-      <colorScale>
-        <cfvo type="formula" val="0"/>
-        <cfvo type="formula" val="1"/>
-        <cfvo type="formula" val="10"/>
-        <color rgb="FFFF9F9F"/>
-        <color rgb="FFD1E0B2"/>
-        <color rgb="FF00B050"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="H3">
-    <cfRule type="colorScale" priority="13">
-      <colorScale>
-        <cfvo type="formula" val="0"/>
-        <cfvo type="formula" val="1"/>
-        <cfvo type="formula" val="10"/>
-        <color rgb="FFFF9F9F"/>
-        <color rgb="FFD1E0B2"/>
-        <color rgb="FF00B050"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="G4:G5">
-    <cfRule type="colorScale" priority="11">
-      <colorScale>
-        <cfvo type="formula" val="0"/>
-        <cfvo type="formula" val="1"/>
-        <cfvo type="formula" val="10"/>
-        <color rgb="FFFF9F9F"/>
-        <color rgb="FFD1E0B2"/>
-        <color rgb="FF00B050"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="H4:H5">
-    <cfRule type="colorScale" priority="9">
-      <colorScale>
-        <cfvo type="formula" val="0"/>
-        <cfvo type="formula" val="1"/>
-        <cfvo type="formula" val="10"/>
-        <color rgb="FFFF9F9F"/>
-        <color rgb="FFD1E0B2"/>
-        <color rgb="FF00B050"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="G8">
-    <cfRule type="colorScale" priority="3">
-      <colorScale>
-        <cfvo type="formula" val="0"/>
-        <cfvo type="formula" val="1"/>
-        <cfvo type="formula" val="10"/>
-        <color rgb="FFFF9F9F"/>
-        <color rgb="FFD1E0B2"/>
-        <color rgb="FF00B050"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="H8">
+  <conditionalFormatting sqref="G9">
     <cfRule type="colorScale" priority="1">
       <colorScale>
         <cfvo type="formula" val="0"/>
@@ -2906,7 +4265,919 @@
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{78C0D931-6437-407d-A8EE-F0AAD7539E65}">
       <x14:conditionalFormattings>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="containsText" priority="16" operator="containsText" text="*-" id="{694EFF47-226F-4C34-ADD6-D4D9FC296915}">
+          <x14:cfRule type="containsText" priority="19" operator="containsText" text="*-" id="{326F7D04-CE51-45FD-98DB-0BF8E54ED395}">
+            <xm:f>NOT(ISERROR(SEARCH(("*-"),('2cents'!G3))))</xm:f>
+            <x14:dxf>
+              <fill>
+                <patternFill patternType="solid">
+                  <fgColor rgb="FF9BE5FF"/>
+                  <bgColor rgb="FF9BE5FF"/>
+                </patternFill>
+              </fill>
+            </x14:dxf>
+          </x14:cfRule>
+          <xm:sqref>G3:H7 H8 G9:H9</xm:sqref>
+        </x14:conditionalFormatting>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="containsText" priority="11" operator="containsText" text="*-" id="{D970F607-03B9-4591-9F2C-83A2C1AEBD36}">
+            <xm:f>NOT(ISERROR(SEARCH(("*-"),('1cent'!G8))))</xm:f>
+            <x14:dxf>
+              <fill>
+                <patternFill patternType="solid">
+                  <fgColor rgb="FF9BE5FF"/>
+                  <bgColor rgb="FF9BE5FF"/>
+                </patternFill>
+              </fill>
+            </x14:dxf>
+          </x14:cfRule>
+          <xm:sqref>G8</xm:sqref>
+        </x14:conditionalFormatting>
+      </x14:conditionalFormattings>
+    </ext>
+  </extLst>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
+  <dimension ref="A1:I9"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <pane xSplit="9" ySplit="2" topLeftCell="J3" activePane="bottomRight" state="frozen"/>
+      <selection pane="topRight" activeCell="H1" sqref="H1"/>
+      <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
+      <selection pane="bottomRight" activeCell="I5" sqref="I5"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="5.42578125" style="4" customWidth="1"/>
+    <col min="2" max="2" width="24.85546875" style="4" customWidth="1"/>
+    <col min="3" max="3" width="36.7109375" style="4" customWidth="1"/>
+    <col min="4" max="4" width="24.85546875" style="4" customWidth="1"/>
+    <col min="5" max="6" width="12.42578125" style="4" customWidth="1"/>
+    <col min="7" max="8" width="3.85546875" style="4" customWidth="1"/>
+    <col min="9" max="9" width="13.7109375" style="4" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="24" t="s">
+        <v>1</v>
+      </c>
+      <c r="B1" s="24" t="s">
+        <v>2</v>
+      </c>
+      <c r="C1" s="26" t="s">
+        <v>3</v>
+      </c>
+      <c r="D1" s="27"/>
+      <c r="E1" s="28" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="29"/>
+      <c r="G1" s="30" t="s">
+        <v>12</v>
+      </c>
+      <c r="H1" s="31"/>
+      <c r="I1" s="2"/>
+    </row>
+    <row r="2" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="25"/>
+      <c r="B2" s="25"/>
+      <c r="C2" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="D2" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="E2" s="8" t="s">
+        <v>24</v>
+      </c>
+      <c r="F2" s="8" t="s">
+        <v>25</v>
+      </c>
+      <c r="G2" s="19" t="s">
+        <v>24</v>
+      </c>
+      <c r="H2" s="19" t="s">
+        <v>25</v>
+      </c>
+      <c r="I2" s="2"/>
+    </row>
+    <row r="3" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="9">
+        <v>2014</v>
+      </c>
+      <c r="B3" s="10" t="s">
+        <v>57</v>
+      </c>
+      <c r="C3" s="23" t="s">
+        <v>55</v>
+      </c>
+      <c r="D3" s="11" t="s">
+        <v>59</v>
+      </c>
+      <c r="E3" s="12" t="s">
+        <v>40</v>
+      </c>
+      <c r="F3" s="7" t="s">
+        <v>0</v>
+      </c>
+      <c r="G3" s="20">
+        <v>0</v>
+      </c>
+      <c r="H3" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="I3" s="3" t="str">
+        <f>IF(OR(AND(G3&gt;1,G3&lt;&gt;"-"),AND(H3&gt;1,H3&lt;&gt;"-")),"Can exchange","")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="4" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="9">
+        <v>2015</v>
+      </c>
+      <c r="B4" s="10" t="s">
+        <v>57</v>
+      </c>
+      <c r="C4" s="23" t="s">
+        <v>55</v>
+      </c>
+      <c r="D4" s="11" t="s">
+        <v>59</v>
+      </c>
+      <c r="E4" s="7" t="s">
+        <v>0</v>
+      </c>
+      <c r="F4" s="21" t="s">
+        <v>26</v>
+      </c>
+      <c r="G4" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="H4" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="I4" s="3" t="str">
+        <f t="shared" ref="I4:I9" si="0">IF(OR(AND(G4&gt;1,G4&lt;&gt;"-"),AND(H4&gt;1,H4&lt;&gt;"-")),"Can exchange","")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="5" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="9">
+        <v>2016</v>
+      </c>
+      <c r="B5" s="10" t="s">
+        <v>57</v>
+      </c>
+      <c r="C5" s="23" t="s">
+        <v>55</v>
+      </c>
+      <c r="D5" s="11" t="s">
+        <v>59</v>
+      </c>
+      <c r="E5" s="21" t="s">
+        <v>27</v>
+      </c>
+      <c r="F5" s="7" t="s">
+        <v>0</v>
+      </c>
+      <c r="G5" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="H5" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="I5" s="3" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="6" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="9">
+        <v>2017</v>
+      </c>
+      <c r="B6" s="10" t="s">
+        <v>57</v>
+      </c>
+      <c r="C6" s="23" t="s">
+        <v>55</v>
+      </c>
+      <c r="D6" s="11" t="s">
+        <v>59</v>
+      </c>
+      <c r="E6" s="7" t="s">
+        <v>0</v>
+      </c>
+      <c r="F6" s="12" t="s">
+        <v>41</v>
+      </c>
+      <c r="G6" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="H6" s="20">
+        <v>0</v>
+      </c>
+      <c r="I6" s="3" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="7" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="9">
+        <v>2018</v>
+      </c>
+      <c r="B7" s="10" t="s">
+        <v>57</v>
+      </c>
+      <c r="C7" s="23" t="s">
+        <v>55</v>
+      </c>
+      <c r="D7" s="11" t="s">
+        <v>59</v>
+      </c>
+      <c r="E7" s="12" t="s">
+        <v>42</v>
+      </c>
+      <c r="F7" s="7" t="s">
+        <v>0</v>
+      </c>
+      <c r="G7" s="20">
+        <v>0</v>
+      </c>
+      <c r="H7" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="I7" s="3" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="8" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A8" s="9">
+        <v>2019</v>
+      </c>
+      <c r="B8" s="10" t="s">
+        <v>57</v>
+      </c>
+      <c r="C8" s="23" t="s">
+        <v>55</v>
+      </c>
+      <c r="D8" s="11" t="s">
+        <v>59</v>
+      </c>
+      <c r="E8" s="7" t="s">
+        <v>0</v>
+      </c>
+      <c r="F8" s="12" t="s">
+        <v>68</v>
+      </c>
+      <c r="G8" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="H8" s="20">
+        <v>0</v>
+      </c>
+      <c r="I8" s="3" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="9" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A9" s="9">
+        <v>2020</v>
+      </c>
+      <c r="B9" s="10" t="s">
+        <v>57</v>
+      </c>
+      <c r="C9" s="23" t="s">
+        <v>55</v>
+      </c>
+      <c r="D9" s="11" t="s">
+        <v>59</v>
+      </c>
+      <c r="E9" s="7" t="s">
+        <v>0</v>
+      </c>
+      <c r="F9" s="12" t="s">
+        <v>69</v>
+      </c>
+      <c r="G9" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="H9" s="20">
+        <v>0</v>
+      </c>
+      <c r="I9" s="3" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="5">
+    <mergeCell ref="A1:A2"/>
+    <mergeCell ref="B1:B2"/>
+    <mergeCell ref="C1:D1"/>
+    <mergeCell ref="E1:F1"/>
+    <mergeCell ref="G1:H1"/>
+  </mergeCells>
+  <conditionalFormatting sqref="G6">
+    <cfRule type="colorScale" priority="14">
+      <colorScale>
+        <cfvo type="formula" val="0"/>
+        <cfvo type="formula" val="1"/>
+        <cfvo type="formula" val="10"/>
+        <color rgb="FFFF9F9F"/>
+        <color rgb="FFD1E0B2"/>
+        <color rgb="FF00B050"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H7">
+    <cfRule type="colorScale" priority="13">
+      <colorScale>
+        <cfvo type="formula" val="0"/>
+        <cfvo type="formula" val="1"/>
+        <cfvo type="formula" val="10"/>
+        <color rgb="FFFF9F9F"/>
+        <color rgb="FFD1E0B2"/>
+        <color rgb="FF00B050"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G3 G7">
+    <cfRule type="colorScale" priority="20">
+      <colorScale>
+        <cfvo type="formula" val="0"/>
+        <cfvo type="formula" val="1"/>
+        <cfvo type="formula" val="10"/>
+        <color rgb="FFFF9F9F"/>
+        <color rgb="FFD1E0B2"/>
+        <color rgb="FF00B050"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H6">
+    <cfRule type="colorScale" priority="18">
+      <colorScale>
+        <cfvo type="formula" val="0"/>
+        <cfvo type="formula" val="1"/>
+        <cfvo type="formula" val="10"/>
+        <color rgb="FFFF9F9F"/>
+        <color rgb="FFD1E0B2"/>
+        <color rgb="FF00B050"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H3">
+    <cfRule type="colorScale" priority="17">
+      <colorScale>
+        <cfvo type="formula" val="0"/>
+        <cfvo type="formula" val="1"/>
+        <cfvo type="formula" val="10"/>
+        <color rgb="FFFF9F9F"/>
+        <color rgb="FFD1E0B2"/>
+        <color rgb="FF00B050"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G4:G5">
+    <cfRule type="colorScale" priority="16">
+      <colorScale>
+        <cfvo type="formula" val="0"/>
+        <cfvo type="formula" val="1"/>
+        <cfvo type="formula" val="10"/>
+        <color rgb="FFFF9F9F"/>
+        <color rgb="FFD1E0B2"/>
+        <color rgb="FF00B050"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H4:H5">
+    <cfRule type="colorScale" priority="15">
+      <colorScale>
+        <cfvo type="formula" val="0"/>
+        <cfvo type="formula" val="1"/>
+        <cfvo type="formula" val="10"/>
+        <color rgb="FFFF9F9F"/>
+        <color rgb="FFD1E0B2"/>
+        <color rgb="FF00B050"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G8">
+    <cfRule type="colorScale" priority="12">
+      <colorScale>
+        <cfvo type="formula" val="0"/>
+        <cfvo type="formula" val="1"/>
+        <cfvo type="formula" val="10"/>
+        <color rgb="FFFF9F9F"/>
+        <color rgb="FFD1E0B2"/>
+        <color rgb="FF00B050"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H9">
+    <cfRule type="colorScale" priority="3">
+      <colorScale>
+        <cfvo type="formula" val="0"/>
+        <cfvo type="formula" val="1"/>
+        <cfvo type="formula" val="10"/>
+        <color rgb="FFFF9F9F"/>
+        <color rgb="FFD1E0B2"/>
+        <color rgb="FF00B050"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H8">
+    <cfRule type="colorScale" priority="5">
+      <colorScale>
+        <cfvo type="formula" val="0"/>
+        <cfvo type="formula" val="1"/>
+        <cfvo type="formula" val="10"/>
+        <color rgb="FFFF9F9F"/>
+        <color rgb="FFD1E0B2"/>
+        <color rgb="FF00B050"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G9">
+    <cfRule type="colorScale" priority="2">
+      <colorScale>
+        <cfvo type="formula" val="0"/>
+        <cfvo type="formula" val="1"/>
+        <cfvo type="formula" val="10"/>
+        <color rgb="FFFF9F9F"/>
+        <color rgb="FFD1E0B2"/>
+        <color rgb="FF00B050"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <legacyDrawing r:id="rId2"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{78C0D931-6437-407d-A8EE-F0AAD7539E65}">
+      <x14:conditionalFormattings>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="containsText" priority="19" operator="containsText" text="*-" id="{E5365921-B2DC-45EB-A6DD-757F3A3E2D52}">
+            <xm:f>NOT(ISERROR(SEARCH(("*-"),('2cents'!G3))))</xm:f>
+            <x14:dxf>
+              <fill>
+                <patternFill patternType="solid">
+                  <fgColor rgb="FF9BE5FF"/>
+                  <bgColor rgb="FF9BE5FF"/>
+                </patternFill>
+              </fill>
+            </x14:dxf>
+          </x14:cfRule>
+          <xm:sqref>G3:H7 H8:H9</xm:sqref>
+        </x14:conditionalFormatting>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="containsText" priority="11" operator="containsText" text="*-" id="{8AD0E4CB-0C61-4876-8F81-9B1AF1DE1B7D}">
+            <xm:f>NOT(ISERROR(SEARCH(("*-"),('1cent'!G8))))</xm:f>
+            <x14:dxf>
+              <fill>
+                <patternFill patternType="solid">
+                  <fgColor rgb="FF9BE5FF"/>
+                  <bgColor rgb="FF9BE5FF"/>
+                </patternFill>
+              </fill>
+            </x14:dxf>
+          </x14:cfRule>
+          <xm:sqref>G8:G9</xm:sqref>
+        </x14:conditionalFormatting>
+      </x14:conditionalFormattings>
+    </ext>
+  </extLst>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
+  <dimension ref="A1:I9"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane xSplit="9" ySplit="2" topLeftCell="J3" activePane="bottomRight" state="frozen"/>
+      <selection pane="topRight" activeCell="H1" sqref="H1"/>
+      <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
+      <selection pane="bottomRight" activeCell="C22" sqref="C22"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="5.42578125" style="4" customWidth="1"/>
+    <col min="2" max="2" width="24.85546875" style="4" customWidth="1"/>
+    <col min="3" max="3" width="36.7109375" style="4" customWidth="1"/>
+    <col min="4" max="4" width="24.85546875" style="4" customWidth="1"/>
+    <col min="5" max="6" width="12.42578125" style="4" customWidth="1"/>
+    <col min="7" max="8" width="3.85546875" style="4" customWidth="1"/>
+    <col min="9" max="9" width="13.7109375" style="4" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="24" t="s">
+        <v>1</v>
+      </c>
+      <c r="B1" s="24" t="s">
+        <v>2</v>
+      </c>
+      <c r="C1" s="26" t="s">
+        <v>3</v>
+      </c>
+      <c r="D1" s="27"/>
+      <c r="E1" s="28" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="29"/>
+      <c r="G1" s="40" t="s">
+        <v>13</v>
+      </c>
+      <c r="H1" s="41"/>
+      <c r="I1" s="2"/>
+    </row>
+    <row r="2" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="25"/>
+      <c r="B2" s="25"/>
+      <c r="C2" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="D2" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="E2" s="8" t="s">
+        <v>24</v>
+      </c>
+      <c r="F2" s="8" t="s">
+        <v>25</v>
+      </c>
+      <c r="G2" s="19" t="s">
+        <v>24</v>
+      </c>
+      <c r="H2" s="19" t="s">
+        <v>25</v>
+      </c>
+      <c r="I2" s="2"/>
+    </row>
+    <row r="3" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="9">
+        <v>2014</v>
+      </c>
+      <c r="B3" s="10" t="s">
+        <v>58</v>
+      </c>
+      <c r="C3" s="23" t="s">
+        <v>55</v>
+      </c>
+      <c r="D3" s="11" t="s">
+        <v>59</v>
+      </c>
+      <c r="E3" s="12" t="s">
+        <v>43</v>
+      </c>
+      <c r="F3" s="7" t="s">
+        <v>0</v>
+      </c>
+      <c r="G3" s="20">
+        <v>0</v>
+      </c>
+      <c r="H3" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="I3" s="3" t="str">
+        <f>IF(OR(AND(G3&gt;1,G3&lt;&gt;"-"),AND(H3&gt;1,H3&lt;&gt;"-")),"Can exchange","")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="4" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="9">
+        <v>2015</v>
+      </c>
+      <c r="B4" s="10" t="s">
+        <v>58</v>
+      </c>
+      <c r="C4" s="23" t="s">
+        <v>55</v>
+      </c>
+      <c r="D4" s="11" t="s">
+        <v>59</v>
+      </c>
+      <c r="E4" s="7" t="s">
+        <v>0</v>
+      </c>
+      <c r="F4" s="21" t="s">
+        <v>26</v>
+      </c>
+      <c r="G4" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="H4" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="I4" s="3" t="str">
+        <f t="shared" ref="I4:I9" si="0">IF(OR(AND(G4&gt;1,G4&lt;&gt;"-"),AND(H4&gt;1,H4&lt;&gt;"-")),"Can exchange","")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="5" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="9">
+        <v>2016</v>
+      </c>
+      <c r="B5" s="10" t="s">
+        <v>58</v>
+      </c>
+      <c r="C5" s="23" t="s">
+        <v>55</v>
+      </c>
+      <c r="D5" s="11" t="s">
+        <v>59</v>
+      </c>
+      <c r="E5" s="12" t="s">
+        <v>44</v>
+      </c>
+      <c r="F5" s="7" t="s">
+        <v>0</v>
+      </c>
+      <c r="G5" s="20">
+        <v>0</v>
+      </c>
+      <c r="H5" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="I5" s="3" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="6" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="9">
+        <v>2017</v>
+      </c>
+      <c r="B6" s="10" t="s">
+        <v>58</v>
+      </c>
+      <c r="C6" s="23" t="s">
+        <v>55</v>
+      </c>
+      <c r="D6" s="11" t="s">
+        <v>59</v>
+      </c>
+      <c r="E6" s="7" t="s">
+        <v>0</v>
+      </c>
+      <c r="F6" s="12" t="s">
+        <v>41</v>
+      </c>
+      <c r="G6" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="H6" s="20">
+        <v>0</v>
+      </c>
+      <c r="I6" s="3" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="7" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="9">
+        <v>2018</v>
+      </c>
+      <c r="B7" s="10" t="s">
+        <v>58</v>
+      </c>
+      <c r="C7" s="23" t="s">
+        <v>55</v>
+      </c>
+      <c r="D7" s="11" t="s">
+        <v>59</v>
+      </c>
+      <c r="E7" s="21" t="s">
+        <v>45</v>
+      </c>
+      <c r="F7" s="7" t="s">
+        <v>0</v>
+      </c>
+      <c r="G7" s="20">
+        <v>0</v>
+      </c>
+      <c r="H7" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="I7" s="3" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="8" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A8" s="9">
+        <v>2019</v>
+      </c>
+      <c r="B8" s="10" t="s">
+        <v>58</v>
+      </c>
+      <c r="C8" s="23" t="s">
+        <v>55</v>
+      </c>
+      <c r="D8" s="11" t="s">
+        <v>59</v>
+      </c>
+      <c r="E8" s="7" t="s">
+        <v>0</v>
+      </c>
+      <c r="F8" s="21" t="s">
+        <v>49</v>
+      </c>
+      <c r="G8" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="H8" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="I8" s="3" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="9" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A9" s="9">
+        <v>2020</v>
+      </c>
+      <c r="B9" s="10" t="s">
+        <v>58</v>
+      </c>
+      <c r="C9" s="23" t="s">
+        <v>55</v>
+      </c>
+      <c r="D9" s="11" t="s">
+        <v>59</v>
+      </c>
+      <c r="E9" s="7" t="s">
+        <v>0</v>
+      </c>
+      <c r="F9" s="21" t="s">
+        <v>60</v>
+      </c>
+      <c r="G9" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="H9" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="I9" s="3" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="5">
+    <mergeCell ref="A1:A2"/>
+    <mergeCell ref="B1:B2"/>
+    <mergeCell ref="C1:D1"/>
+    <mergeCell ref="E1:F1"/>
+    <mergeCell ref="G1:H1"/>
+  </mergeCells>
+  <conditionalFormatting sqref="G6 H8">
+    <cfRule type="colorScale" priority="21">
+      <colorScale>
+        <cfvo type="formula" val="0"/>
+        <cfvo type="formula" val="1"/>
+        <cfvo type="formula" val="10"/>
+        <color rgb="FFFF9F9F"/>
+        <color rgb="FFD1E0B2"/>
+        <color rgb="FF00B050"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H7">
+    <cfRule type="colorScale" priority="20">
+      <colorScale>
+        <cfvo type="formula" val="0"/>
+        <cfvo type="formula" val="1"/>
+        <cfvo type="formula" val="10"/>
+        <color rgb="FFFF9F9F"/>
+        <color rgb="FFD1E0B2"/>
+        <color rgb="FF00B050"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G3 G7">
+    <cfRule type="colorScale" priority="27">
+      <colorScale>
+        <cfvo type="formula" val="0"/>
+        <cfvo type="formula" val="1"/>
+        <cfvo type="formula" val="10"/>
+        <color rgb="FFFF9F9F"/>
+        <color rgb="FFD1E0B2"/>
+        <color rgb="FF00B050"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H6">
+    <cfRule type="colorScale" priority="25">
+      <colorScale>
+        <cfvo type="formula" val="0"/>
+        <cfvo type="formula" val="1"/>
+        <cfvo type="formula" val="10"/>
+        <color rgb="FFFF9F9F"/>
+        <color rgb="FFD1E0B2"/>
+        <color rgb="FF00B050"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H3">
+    <cfRule type="colorScale" priority="24">
+      <colorScale>
+        <cfvo type="formula" val="0"/>
+        <cfvo type="formula" val="1"/>
+        <cfvo type="formula" val="10"/>
+        <color rgb="FFFF9F9F"/>
+        <color rgb="FFD1E0B2"/>
+        <color rgb="FF00B050"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G4:G5">
+    <cfRule type="colorScale" priority="23">
+      <colorScale>
+        <cfvo type="formula" val="0"/>
+        <cfvo type="formula" val="1"/>
+        <cfvo type="formula" val="10"/>
+        <color rgb="FFFF9F9F"/>
+        <color rgb="FFD1E0B2"/>
+        <color rgb="FF00B050"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H4:H5">
+    <cfRule type="colorScale" priority="22">
+      <colorScale>
+        <cfvo type="formula" val="0"/>
+        <cfvo type="formula" val="1"/>
+        <cfvo type="formula" val="10"/>
+        <color rgb="FFFF9F9F"/>
+        <color rgb="FFD1E0B2"/>
+        <color rgb="FF00B050"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G5">
+    <cfRule type="colorScale" priority="19">
+      <colorScale>
+        <cfvo type="formula" val="0"/>
+        <cfvo type="formula" val="1"/>
+        <cfvo type="formula" val="10"/>
+        <color rgb="FFFF9F9F"/>
+        <color rgb="FFD1E0B2"/>
+        <color rgb="FF00B050"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G8">
+    <cfRule type="colorScale" priority="9">
+      <colorScale>
+        <cfvo type="formula" val="0"/>
+        <cfvo type="formula" val="1"/>
+        <cfvo type="formula" val="10"/>
+        <color rgb="FFFF9F9F"/>
+        <color rgb="FFD1E0B2"/>
+        <color rgb="FF00B050"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H9">
+    <cfRule type="colorScale" priority="3">
+      <colorScale>
+        <cfvo type="formula" val="0"/>
+        <cfvo type="formula" val="1"/>
+        <cfvo type="formula" val="10"/>
+        <color rgb="FFFF9F9F"/>
+        <color rgb="FFD1E0B2"/>
+        <color rgb="FF00B050"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G9">
+    <cfRule type="colorScale" priority="1">
+      <colorScale>
+        <cfvo type="formula" val="0"/>
+        <cfvo type="formula" val="1"/>
+        <cfvo type="formula" val="10"/>
+        <color rgb="FFFF9F9F"/>
+        <color rgb="FFD1E0B2"/>
+        <color rgb="FF00B050"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <legacyDrawing r:id="rId2"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{78C0D931-6437-407d-A8EE-F0AAD7539E65}">
+      <x14:conditionalFormattings>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="containsText" priority="26" operator="containsText" text="*-" id="{0DC7A5EC-971A-4EDC-8CE5-1619DEA4F9BD}">
             <xm:f>NOT(ISERROR(SEARCH(("*-"),('2cents'!G3))))</xm:f>
             <x14:dxf>
               <fill>
@@ -2920,8 +5191,8 @@
           <xm:sqref>G3:H7</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="containsText" priority="2" operator="containsText" text="*-" id="{FD7DBBF9-0739-44C0-85AC-8B870BD7A54C}">
-            <xm:f>NOT(ISERROR(SEARCH(("*-"),('1cent'!G8))))</xm:f>
+          <x14:cfRule type="containsText" priority="10" operator="containsText" text="*-" id="{218E0F86-BC28-424E-997C-7EAC9B6476ED}">
+            <xm:f>NOT(ISERROR(SEARCH(("*-"),('2cents'!G9))))</xm:f>
             <x14:dxf>
               <fill>
                 <patternFill patternType="solid">
@@ -2933,58 +5204,86 @@
           </x14:cfRule>
           <xm:sqref>G8:H8</xm:sqref>
         </x14:conditionalFormatting>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="containsText" priority="4" operator="containsText" text="*-" id="{2CBFF8CB-FFA4-4CA8-B291-0F130A7DB6F3}">
+            <xm:f>NOT(ISERROR(SEARCH(("*-"),('2cents'!H9))))</xm:f>
+            <x14:dxf>
+              <fill>
+                <patternFill patternType="solid">
+                  <fgColor rgb="FF9BE5FF"/>
+                  <bgColor rgb="FF9BE5FF"/>
+                </patternFill>
+              </fill>
+            </x14:dxf>
+          </x14:cfRule>
+          <xm:sqref>H9</xm:sqref>
+        </x14:conditionalFormatting>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="containsText" priority="2" operator="containsText" text="*-" id="{302857DC-45DD-446E-A573-BD0BA47DFF4E}">
+            <xm:f>NOT(ISERROR(SEARCH(("*-"),('2cents'!G9))))</xm:f>
+            <x14:dxf>
+              <fill>
+                <patternFill patternType="solid">
+                  <fgColor rgb="FF9BE5FF"/>
+                  <bgColor rgb="FF9BE5FF"/>
+                </patternFill>
+              </fill>
+            </x14:dxf>
+          </x14:cfRule>
+          <xm:sqref>G9</xm:sqref>
+        </x14:conditionalFormatting>
       </x14:conditionalFormattings>
     </ext>
   </extLst>
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:I8"/>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0700-000000000000}">
+  <dimension ref="A1:I9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="9" ySplit="2" topLeftCell="J3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="H1" sqref="H1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="D3" sqref="D3:D8"/>
+      <selection pane="bottomRight" activeCell="F12" sqref="F12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="5.453125" style="4" customWidth="1"/>
-    <col min="2" max="2" width="24.81640625" style="4" customWidth="1"/>
-    <col min="3" max="3" width="36.7265625" style="4" customWidth="1"/>
-    <col min="4" max="4" width="24.81640625" style="4" customWidth="1"/>
-    <col min="5" max="6" width="12.453125" style="4" customWidth="1"/>
-    <col min="7" max="8" width="3.81640625" style="4" customWidth="1"/>
-    <col min="9" max="9" width="13.7265625" style="4" customWidth="1"/>
+    <col min="1" max="1" width="5.42578125" style="4" customWidth="1"/>
+    <col min="2" max="2" width="24.85546875" style="4" customWidth="1"/>
+    <col min="3" max="3" width="36.7109375" style="4" customWidth="1"/>
+    <col min="4" max="4" width="24.85546875" style="4" customWidth="1"/>
+    <col min="5" max="6" width="12.42578125" style="4" customWidth="1"/>
+    <col min="7" max="8" width="3.85546875" style="4" customWidth="1"/>
+    <col min="9" max="9" width="13.7109375" style="4" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A1" s="31" t="s">
+    <row r="1" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="24" t="s">
         <v>1</v>
       </c>
-      <c r="B1" s="33" t="s">
+      <c r="B1" s="24" t="s">
         <v>2</v>
       </c>
-      <c r="C1" s="25" t="s">
+      <c r="C1" s="26" t="s">
         <v>3</v>
       </c>
-      <c r="D1" s="35"/>
-      <c r="E1" s="27" t="s">
+      <c r="D1" s="27"/>
+      <c r="E1" s="28" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="36"/>
-      <c r="G1" s="37" t="s">
-        <v>10</v>
-      </c>
-      <c r="H1" s="38"/>
+      <c r="F1" s="29"/>
+      <c r="G1" s="40" t="s">
+        <v>50</v>
+      </c>
+      <c r="H1" s="41"/>
       <c r="I1" s="2"/>
     </row>
-    <row r="2" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A2" s="32"/>
-      <c r="B2" s="34"/>
+    <row r="2" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="25"/>
+      <c r="B2" s="25"/>
       <c r="C2" s="6" t="s">
         <v>5</v>
       </c>
@@ -3005,21 +5304,21 @@
       </c>
       <c r="I2" s="2"/>
     </row>
-    <row r="3" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="9">
         <v>2014</v>
       </c>
       <c r="B3" s="10" t="s">
-        <v>57</v>
-      </c>
-      <c r="C3" s="41" t="s">
+        <v>58</v>
+      </c>
+      <c r="C3" s="23" t="s">
         <v>55</v>
       </c>
       <c r="D3" s="11" t="s">
         <v>59</v>
       </c>
       <c r="E3" s="12" t="s">
-        <v>33</v>
+        <v>40</v>
       </c>
       <c r="F3" s="7" t="s">
         <v>0</v>
@@ -3035,14 +5334,14 @@
         <v/>
       </c>
     </row>
-    <row r="4" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="9">
         <v>2015</v>
       </c>
       <c r="B4" s="10" t="s">
-        <v>57</v>
-      </c>
-      <c r="C4" s="41" t="s">
+        <v>58</v>
+      </c>
+      <c r="C4" s="23" t="s">
         <v>55</v>
       </c>
       <c r="D4" s="11" t="s">
@@ -3051,28 +5350,28 @@
       <c r="E4" s="7" t="s">
         <v>0</v>
       </c>
-      <c r="F4" s="21" t="s">
-        <v>26</v>
+      <c r="F4" s="12" t="s">
+        <v>46</v>
       </c>
       <c r="G4" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="H4" s="1" t="s">
+      <c r="H4" s="20">
         <v>0</v>
       </c>
       <c r="I4" s="3" t="str">
-        <f t="shared" ref="I4:I7" si="0">IF(OR(AND(G4&gt;1,G4&lt;&gt;"-"),AND(H4&gt;1,H4&lt;&gt;"-")),"Can exchange","")</f>
+        <f t="shared" ref="I4:I9" si="0">IF(OR(AND(G4&gt;1,G4&lt;&gt;"-"),AND(H4&gt;1,H4&lt;&gt;"-")),"Can exchange","")</f>
         <v/>
       </c>
     </row>
-    <row r="5" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="9">
         <v>2016</v>
       </c>
       <c r="B5" s="10" t="s">
-        <v>57</v>
-      </c>
-      <c r="C5" s="41" t="s">
+        <v>58</v>
+      </c>
+      <c r="C5" s="23" t="s">
         <v>55</v>
       </c>
       <c r="D5" s="11" t="s">
@@ -3084,7 +5383,7 @@
       <c r="F5" s="7" t="s">
         <v>0</v>
       </c>
-      <c r="G5" s="1" t="s">
+      <c r="G5" s="20">
         <v>0</v>
       </c>
       <c r="H5" s="1" t="s">
@@ -3095,14 +5394,14 @@
         <v/>
       </c>
     </row>
-    <row r="6" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="9">
         <v>2017</v>
       </c>
       <c r="B6" s="10" t="s">
-        <v>57</v>
-      </c>
-      <c r="C6" s="41" t="s">
+        <v>58</v>
+      </c>
+      <c r="C6" s="23" t="s">
         <v>55</v>
       </c>
       <c r="D6" s="11" t="s">
@@ -3112,7 +5411,7 @@
         <v>0</v>
       </c>
       <c r="F6" s="12" t="s">
-        <v>36</v>
+        <v>47</v>
       </c>
       <c r="G6" s="1" t="s">
         <v>0</v>
@@ -3125,21 +5424,21 @@
         <v/>
       </c>
     </row>
-    <row r="7" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="9">
         <v>2018</v>
       </c>
       <c r="B7" s="10" t="s">
-        <v>57</v>
-      </c>
-      <c r="C7" s="41" t="s">
+        <v>58</v>
+      </c>
+      <c r="C7" s="23" t="s">
         <v>55</v>
       </c>
       <c r="D7" s="11" t="s">
         <v>59</v>
       </c>
       <c r="E7" s="12" t="s">
-        <v>37</v>
+        <v>48</v>
       </c>
       <c r="F7" s="7" t="s">
         <v>0</v>
@@ -3155,42 +5454,207 @@
         <v/>
       </c>
     </row>
-    <row r="8" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="9">
         <v>2019</v>
       </c>
       <c r="B8" s="10" t="s">
-        <v>57</v>
-      </c>
-      <c r="C8" s="41" t="s">
+        <v>58</v>
+      </c>
+      <c r="C8" s="23" t="s">
         <v>55</v>
       </c>
       <c r="D8" s="11" t="s">
         <v>59</v>
       </c>
-      <c r="E8" s="21" t="s">
-        <v>49</v>
-      </c>
-      <c r="F8" s="7" t="s">
-        <v>0</v>
+      <c r="E8" s="7" t="s">
+        <v>0</v>
+      </c>
+      <c r="F8" s="12" t="s">
+        <v>71</v>
       </c>
       <c r="G8" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="H8" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="I8" s="3"/>
+      <c r="H8" s="20">
+        <v>0</v>
+      </c>
+      <c r="I8" s="3" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="9" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A9" s="9">
+        <v>2018</v>
+      </c>
+      <c r="B9" s="10" t="s">
+        <v>58</v>
+      </c>
+      <c r="C9" s="23" t="s">
+        <v>55</v>
+      </c>
+      <c r="D9" s="11" t="s">
+        <v>59</v>
+      </c>
+      <c r="E9" s="7" t="s">
+        <v>0</v>
+      </c>
+      <c r="F9" s="12" t="s">
+        <v>70</v>
+      </c>
+      <c r="G9" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="H9" s="20">
+        <v>0</v>
+      </c>
+      <c r="I9" s="3" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
     </row>
   </sheetData>
   <mergeCells count="5">
+    <mergeCell ref="E1:F1"/>
+    <mergeCell ref="G1:H1"/>
     <mergeCell ref="A1:A2"/>
     <mergeCell ref="B1:B2"/>
     <mergeCell ref="C1:D1"/>
-    <mergeCell ref="E1:F1"/>
-    <mergeCell ref="G1:H1"/>
   </mergeCells>
   <conditionalFormatting sqref="G6">
+    <cfRule type="colorScale" priority="19">
+      <colorScale>
+        <cfvo type="formula" val="0"/>
+        <cfvo type="formula" val="1"/>
+        <cfvo type="formula" val="10"/>
+        <color rgb="FFFF9F9F"/>
+        <color rgb="FFD1E0B2"/>
+        <color rgb="FF00B050"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H7">
+    <cfRule type="colorScale" priority="18">
+      <colorScale>
+        <cfvo type="formula" val="0"/>
+        <cfvo type="formula" val="1"/>
+        <cfvo type="formula" val="10"/>
+        <color rgb="FFFF9F9F"/>
+        <color rgb="FFD1E0B2"/>
+        <color rgb="FF00B050"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G3 G7">
+    <cfRule type="colorScale" priority="25">
+      <colorScale>
+        <cfvo type="formula" val="0"/>
+        <cfvo type="formula" val="1"/>
+        <cfvo type="formula" val="10"/>
+        <color rgb="FFFF9F9F"/>
+        <color rgb="FFD1E0B2"/>
+        <color rgb="FF00B050"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H6">
+    <cfRule type="colorScale" priority="23">
+      <colorScale>
+        <cfvo type="formula" val="0"/>
+        <cfvo type="formula" val="1"/>
+        <cfvo type="formula" val="10"/>
+        <color rgb="FFFF9F9F"/>
+        <color rgb="FFD1E0B2"/>
+        <color rgb="FF00B050"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H3">
+    <cfRule type="colorScale" priority="22">
+      <colorScale>
+        <cfvo type="formula" val="0"/>
+        <cfvo type="formula" val="1"/>
+        <cfvo type="formula" val="10"/>
+        <color rgb="FFFF9F9F"/>
+        <color rgb="FFD1E0B2"/>
+        <color rgb="FF00B050"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G4:G5">
+    <cfRule type="colorScale" priority="21">
+      <colorScale>
+        <cfvo type="formula" val="0"/>
+        <cfvo type="formula" val="1"/>
+        <cfvo type="formula" val="10"/>
+        <color rgb="FFFF9F9F"/>
+        <color rgb="FFD1E0B2"/>
+        <color rgb="FF00B050"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H4:H5">
+    <cfRule type="colorScale" priority="20">
+      <colorScale>
+        <cfvo type="formula" val="0"/>
+        <cfvo type="formula" val="1"/>
+        <cfvo type="formula" val="10"/>
+        <color rgb="FFFF9F9F"/>
+        <color rgb="FFD1E0B2"/>
+        <color rgb="FF00B050"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G5">
+    <cfRule type="colorScale" priority="17">
+      <colorScale>
+        <cfvo type="formula" val="0"/>
+        <cfvo type="formula" val="1"/>
+        <cfvo type="formula" val="10"/>
+        <color rgb="FFFF9F9F"/>
+        <color rgb="FFD1E0B2"/>
+        <color rgb="FF00B050"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H4">
+    <cfRule type="colorScale" priority="16">
+      <colorScale>
+        <cfvo type="formula" val="0"/>
+        <cfvo type="formula" val="1"/>
+        <cfvo type="formula" val="10"/>
+        <color rgb="FFFF9F9F"/>
+        <color rgb="FFD1E0B2"/>
+        <color rgb="FF00B050"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H4">
+    <cfRule type="colorScale" priority="15">
+      <colorScale>
+        <cfvo type="formula" val="0"/>
+        <cfvo type="formula" val="1"/>
+        <cfvo type="formula" val="10"/>
+        <color rgb="FFFF9F9F"/>
+        <color rgb="FFD1E0B2"/>
+        <color rgb="FF00B050"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G8">
+    <cfRule type="colorScale" priority="14">
+      <colorScale>
+        <cfvo type="formula" val="0"/>
+        <cfvo type="formula" val="1"/>
+        <cfvo type="formula" val="10"/>
+        <color rgb="FFFF9F9F"/>
+        <color rgb="FFD1E0B2"/>
+        <color rgb="FF00B050"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H8">
     <cfRule type="colorScale" priority="5">
       <colorScale>
         <cfvo type="formula" val="0"/>
@@ -3202,79 +5666,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H7">
-    <cfRule type="colorScale" priority="4">
-      <colorScale>
-        <cfvo type="formula" val="0"/>
-        <cfvo type="formula" val="1"/>
-        <cfvo type="formula" val="10"/>
-        <color rgb="FFFF9F9F"/>
-        <color rgb="FFD1E0B2"/>
-        <color rgb="FF00B050"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="G7 G3">
-    <cfRule type="colorScale" priority="11">
-      <colorScale>
-        <cfvo type="formula" val="0"/>
-        <cfvo type="formula" val="1"/>
-        <cfvo type="formula" val="10"/>
-        <color rgb="FFFF9F9F"/>
-        <color rgb="FFD1E0B2"/>
-        <color rgb="FF00B050"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="H6">
-    <cfRule type="colorScale" priority="9">
-      <colorScale>
-        <cfvo type="formula" val="0"/>
-        <cfvo type="formula" val="1"/>
-        <cfvo type="formula" val="10"/>
-        <color rgb="FFFF9F9F"/>
-        <color rgb="FFD1E0B2"/>
-        <color rgb="FF00B050"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="H3">
-    <cfRule type="colorScale" priority="8">
-      <colorScale>
-        <cfvo type="formula" val="0"/>
-        <cfvo type="formula" val="1"/>
-        <cfvo type="formula" val="10"/>
-        <color rgb="FFFF9F9F"/>
-        <color rgb="FFD1E0B2"/>
-        <color rgb="FF00B050"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="G4:G5">
-    <cfRule type="colorScale" priority="7">
-      <colorScale>
-        <cfvo type="formula" val="0"/>
-        <cfvo type="formula" val="1"/>
-        <cfvo type="formula" val="10"/>
-        <color rgb="FFFF9F9F"/>
-        <color rgb="FFD1E0B2"/>
-        <color rgb="FF00B050"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="H4:H5">
-    <cfRule type="colorScale" priority="6">
-      <colorScale>
-        <cfvo type="formula" val="0"/>
-        <cfvo type="formula" val="1"/>
-        <cfvo type="formula" val="10"/>
-        <color rgb="FFFF9F9F"/>
-        <color rgb="FFD1E0B2"/>
-        <color rgb="FF00B050"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="G8">
+  <conditionalFormatting sqref="H9">
     <cfRule type="colorScale" priority="3">
       <colorScale>
         <cfvo type="formula" val="0"/>
@@ -3286,8 +5678,8 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H8">
-    <cfRule type="colorScale" priority="1">
+  <conditionalFormatting sqref="G9">
+    <cfRule type="colorScale" priority="2">
       <colorScale>
         <cfvo type="formula" val="0"/>
         <cfvo type="formula" val="1"/>
@@ -3305,7 +5697,7 @@
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{78C0D931-6437-407d-A8EE-F0AAD7539E65}">
       <x14:conditionalFormattings>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="containsText" priority="10" operator="containsText" text="*-" id="{7AEA8373-1E3A-4AB0-BD1F-047F0EDE497B}">
+          <x14:cfRule type="containsText" priority="24" operator="containsText" text="*-" id="{04D89F84-3BA3-483A-AA4E-B60F8837EE70}">
             <xm:f>NOT(ISERROR(SEARCH(("*-"),('2cents'!G3))))</xm:f>
             <x14:dxf>
               <fill>
@@ -3319,7 +5711,7 @@
           <xm:sqref>G3:H7</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="containsText" priority="2" operator="containsText" text="*-" id="{BA77CDF5-8944-4594-8A93-4EFF876490C0}">
+          <x14:cfRule type="containsText" priority="13" operator="containsText" text="*-" id="{E867007A-7BF4-486C-95A8-13206CAF972C}">
             <xm:f>NOT(ISERROR(SEARCH(("*-"),('1cent'!G8))))</xm:f>
             <x14:dxf>
               <fill>
@@ -3330,382 +5722,11 @@
               </fill>
             </x14:dxf>
           </x14:cfRule>
-          <xm:sqref>G8:H8</xm:sqref>
+          <xm:sqref>G8</xm:sqref>
         </x14:conditionalFormatting>
-      </x14:conditionalFormattings>
-    </ext>
-  </extLst>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:I8"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <pane xSplit="9" ySplit="2" topLeftCell="J3" activePane="bottomRight" state="frozen"/>
-      <selection pane="topRight" activeCell="H1" sqref="H1"/>
-      <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="D3" sqref="D3:D8"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.35"/>
-  <cols>
-    <col min="1" max="1" width="5.453125" style="4" customWidth="1"/>
-    <col min="2" max="2" width="24.81640625" style="4" customWidth="1"/>
-    <col min="3" max="3" width="36.7265625" style="4" customWidth="1"/>
-    <col min="4" max="4" width="24.81640625" style="4" customWidth="1"/>
-    <col min="5" max="6" width="12.453125" style="4" customWidth="1"/>
-    <col min="7" max="8" width="3.81640625" style="4" customWidth="1"/>
-    <col min="9" max="9" width="13.7265625" style="4" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A1" s="23" t="s">
-        <v>1</v>
-      </c>
-      <c r="B1" s="23" t="s">
-        <v>2</v>
-      </c>
-      <c r="C1" s="25" t="s">
-        <v>3</v>
-      </c>
-      <c r="D1" s="26"/>
-      <c r="E1" s="27" t="s">
-        <v>4</v>
-      </c>
-      <c r="F1" s="28"/>
-      <c r="G1" s="29" t="s">
-        <v>11</v>
-      </c>
-      <c r="H1" s="30"/>
-      <c r="I1" s="2"/>
-    </row>
-    <row r="2" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A2" s="24"/>
-      <c r="B2" s="24"/>
-      <c r="C2" s="6" t="s">
-        <v>5</v>
-      </c>
-      <c r="D2" s="6" t="s">
-        <v>6</v>
-      </c>
-      <c r="E2" s="8" t="s">
-        <v>24</v>
-      </c>
-      <c r="F2" s="8" t="s">
-        <v>25</v>
-      </c>
-      <c r="G2" s="19" t="s">
-        <v>24</v>
-      </c>
-      <c r="H2" s="19" t="s">
-        <v>25</v>
-      </c>
-      <c r="I2" s="2"/>
-    </row>
-    <row r="3" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A3" s="9">
-        <v>2014</v>
-      </c>
-      <c r="B3" s="10" t="s">
-        <v>57</v>
-      </c>
-      <c r="C3" s="41" t="s">
-        <v>55</v>
-      </c>
-      <c r="D3" s="11" t="s">
-        <v>59</v>
-      </c>
-      <c r="E3" s="12" t="s">
-        <v>33</v>
-      </c>
-      <c r="F3" s="7" t="s">
-        <v>0</v>
-      </c>
-      <c r="G3" s="20">
-        <v>0</v>
-      </c>
-      <c r="H3" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="I3" s="3" t="str">
-        <f>IF(OR(AND(G3&gt;1,G3&lt;&gt;"-"),AND(H3&gt;1,H3&lt;&gt;"-")),"Can exchange","")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="4" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A4" s="9">
-        <v>2015</v>
-      </c>
-      <c r="B4" s="10" t="s">
-        <v>57</v>
-      </c>
-      <c r="C4" s="41" t="s">
-        <v>55</v>
-      </c>
-      <c r="D4" s="11" t="s">
-        <v>59</v>
-      </c>
-      <c r="E4" s="7" t="s">
-        <v>0</v>
-      </c>
-      <c r="F4" s="21" t="s">
-        <v>26</v>
-      </c>
-      <c r="G4" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="H4" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="I4" s="3" t="str">
-        <f t="shared" ref="I4:I7" si="0">IF(OR(AND(G4&gt;1,G4&lt;&gt;"-"),AND(H4&gt;1,H4&lt;&gt;"-")),"Can exchange","")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="5" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A5" s="9">
-        <v>2016</v>
-      </c>
-      <c r="B5" s="10" t="s">
-        <v>57</v>
-      </c>
-      <c r="C5" s="41" t="s">
-        <v>55</v>
-      </c>
-      <c r="D5" s="11" t="s">
-        <v>59</v>
-      </c>
-      <c r="E5" s="21" t="s">
-        <v>27</v>
-      </c>
-      <c r="F5" s="7" t="s">
-        <v>0</v>
-      </c>
-      <c r="G5" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="H5" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="I5" s="3" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-    </row>
-    <row r="6" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A6" s="9">
-        <v>2017</v>
-      </c>
-      <c r="B6" s="10" t="s">
-        <v>57</v>
-      </c>
-      <c r="C6" s="41" t="s">
-        <v>55</v>
-      </c>
-      <c r="D6" s="11" t="s">
-        <v>59</v>
-      </c>
-      <c r="E6" s="7" t="s">
-        <v>0</v>
-      </c>
-      <c r="F6" s="12" t="s">
-        <v>38</v>
-      </c>
-      <c r="G6" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="H6" s="20">
-        <v>0</v>
-      </c>
-      <c r="I6" s="3" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-    </row>
-    <row r="7" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A7" s="9">
-        <v>2018</v>
-      </c>
-      <c r="B7" s="10" t="s">
-        <v>57</v>
-      </c>
-      <c r="C7" s="41" t="s">
-        <v>55</v>
-      </c>
-      <c r="D7" s="11" t="s">
-        <v>59</v>
-      </c>
-      <c r="E7" s="12" t="s">
-        <v>39</v>
-      </c>
-      <c r="F7" s="7" t="s">
-        <v>0</v>
-      </c>
-      <c r="G7" s="20">
-        <v>0</v>
-      </c>
-      <c r="H7" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="I7" s="3" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-    </row>
-    <row r="8" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A8" s="9">
-        <v>2019</v>
-      </c>
-      <c r="B8" s="10" t="s">
-        <v>57</v>
-      </c>
-      <c r="C8" s="41" t="s">
-        <v>55</v>
-      </c>
-      <c r="D8" s="11" t="s">
-        <v>59</v>
-      </c>
-      <c r="E8" s="21" t="s">
-        <v>49</v>
-      </c>
-      <c r="F8" s="7" t="s">
-        <v>0</v>
-      </c>
-      <c r="G8" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="H8" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="I8" s="3"/>
-    </row>
-  </sheetData>
-  <mergeCells count="5">
-    <mergeCell ref="A1:A2"/>
-    <mergeCell ref="B1:B2"/>
-    <mergeCell ref="C1:D1"/>
-    <mergeCell ref="E1:F1"/>
-    <mergeCell ref="G1:H1"/>
-  </mergeCells>
-  <conditionalFormatting sqref="G6">
-    <cfRule type="colorScale" priority="5">
-      <colorScale>
-        <cfvo type="formula" val="0"/>
-        <cfvo type="formula" val="1"/>
-        <cfvo type="formula" val="10"/>
-        <color rgb="FFFF9F9F"/>
-        <color rgb="FFD1E0B2"/>
-        <color rgb="FF00B050"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="H7">
-    <cfRule type="colorScale" priority="4">
-      <colorScale>
-        <cfvo type="formula" val="0"/>
-        <cfvo type="formula" val="1"/>
-        <cfvo type="formula" val="10"/>
-        <color rgb="FFFF9F9F"/>
-        <color rgb="FFD1E0B2"/>
-        <color rgb="FF00B050"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="G7 G3">
-    <cfRule type="colorScale" priority="11">
-      <colorScale>
-        <cfvo type="formula" val="0"/>
-        <cfvo type="formula" val="1"/>
-        <cfvo type="formula" val="10"/>
-        <color rgb="FFFF9F9F"/>
-        <color rgb="FFD1E0B2"/>
-        <color rgb="FF00B050"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="H6">
-    <cfRule type="colorScale" priority="9">
-      <colorScale>
-        <cfvo type="formula" val="0"/>
-        <cfvo type="formula" val="1"/>
-        <cfvo type="formula" val="10"/>
-        <color rgb="FFFF9F9F"/>
-        <color rgb="FFD1E0B2"/>
-        <color rgb="FF00B050"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="H3">
-    <cfRule type="colorScale" priority="8">
-      <colorScale>
-        <cfvo type="formula" val="0"/>
-        <cfvo type="formula" val="1"/>
-        <cfvo type="formula" val="10"/>
-        <color rgb="FFFF9F9F"/>
-        <color rgb="FFD1E0B2"/>
-        <color rgb="FF00B050"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="G4:G5">
-    <cfRule type="colorScale" priority="7">
-      <colorScale>
-        <cfvo type="formula" val="0"/>
-        <cfvo type="formula" val="1"/>
-        <cfvo type="formula" val="10"/>
-        <color rgb="FFFF9F9F"/>
-        <color rgb="FFD1E0B2"/>
-        <color rgb="FF00B050"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="H4:H5">
-    <cfRule type="colorScale" priority="6">
-      <colorScale>
-        <cfvo type="formula" val="0"/>
-        <cfvo type="formula" val="1"/>
-        <cfvo type="formula" val="10"/>
-        <color rgb="FFFF9F9F"/>
-        <color rgb="FFD1E0B2"/>
-        <color rgb="FF00B050"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="G8">
-    <cfRule type="colorScale" priority="3">
-      <colorScale>
-        <cfvo type="formula" val="0"/>
-        <cfvo type="formula" val="1"/>
-        <cfvo type="formula" val="10"/>
-        <color rgb="FFFF9F9F"/>
-        <color rgb="FFD1E0B2"/>
-        <color rgb="FF00B050"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="H8">
-    <cfRule type="colorScale" priority="1">
-      <colorScale>
-        <cfvo type="formula" val="0"/>
-        <cfvo type="formula" val="1"/>
-        <cfvo type="formula" val="10"/>
-        <color rgb="FFFF9F9F"/>
-        <color rgb="FFD1E0B2"/>
-        <color rgb="FF00B050"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
-  <legacyDrawing r:id="rId2"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{78C0D931-6437-407d-A8EE-F0AAD7539E65}">
-      <x14:conditionalFormattings>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="containsText" priority="10" operator="containsText" text="*-" id="{326F7D04-CE51-45FD-98DB-0BF8E54ED395}">
-            <xm:f>NOT(ISERROR(SEARCH(("*-"),('2cents'!G3))))</xm:f>
+          <x14:cfRule type="containsText" priority="6" operator="containsText" text="*-" id="{3AEC8CF6-C82A-4A7A-9992-9E2112331739}">
+            <xm:f>NOT(ISERROR(SEARCH(("*-"),('2cents'!H8))))</xm:f>
             <x14:dxf>
               <fill>
                 <patternFill patternType="solid">
@@ -3715,11 +5736,11 @@
               </fill>
             </x14:dxf>
           </x14:cfRule>
-          <xm:sqref>G3:H7</xm:sqref>
+          <xm:sqref>H8</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="containsText" priority="2" operator="containsText" text="*-" id="{D970F607-03B9-4591-9F2C-83A2C1AEBD36}">
-            <xm:f>NOT(ISERROR(SEARCH(("*-"),('1cent'!G8))))</xm:f>
+          <x14:cfRule type="containsText" priority="4" operator="containsText" text="*-" id="{9AD19DD5-0172-4B5E-A70F-024D8D61FC0D}">
+            <xm:f>NOT(ISERROR(SEARCH(("*-"),('2cents'!H9))))</xm:f>
             <x14:dxf>
               <fill>
                 <patternFill patternType="solid">
@@ -3729,382 +5750,11 @@
               </fill>
             </x14:dxf>
           </x14:cfRule>
-          <xm:sqref>G8:H8</xm:sqref>
+          <xm:sqref>H9</xm:sqref>
         </x14:conditionalFormatting>
-      </x14:conditionalFormattings>
-    </ext>
-  </extLst>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:I8"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <pane xSplit="9" ySplit="2" topLeftCell="J3" activePane="bottomRight" state="frozen"/>
-      <selection pane="topRight" activeCell="H1" sqref="H1"/>
-      <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="D3" sqref="D3:D8"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.35"/>
-  <cols>
-    <col min="1" max="1" width="5.453125" style="4" customWidth="1"/>
-    <col min="2" max="2" width="24.81640625" style="4" customWidth="1"/>
-    <col min="3" max="3" width="36.7265625" style="4" customWidth="1"/>
-    <col min="4" max="4" width="24.81640625" style="4" customWidth="1"/>
-    <col min="5" max="6" width="12.453125" style="4" customWidth="1"/>
-    <col min="7" max="8" width="3.81640625" style="4" customWidth="1"/>
-    <col min="9" max="9" width="13.7265625" style="4" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A1" s="23" t="s">
-        <v>1</v>
-      </c>
-      <c r="B1" s="23" t="s">
-        <v>2</v>
-      </c>
-      <c r="C1" s="25" t="s">
-        <v>3</v>
-      </c>
-      <c r="D1" s="26"/>
-      <c r="E1" s="27" t="s">
-        <v>4</v>
-      </c>
-      <c r="F1" s="28"/>
-      <c r="G1" s="29" t="s">
-        <v>12</v>
-      </c>
-      <c r="H1" s="30"/>
-      <c r="I1" s="2"/>
-    </row>
-    <row r="2" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A2" s="24"/>
-      <c r="B2" s="24"/>
-      <c r="C2" s="6" t="s">
-        <v>5</v>
-      </c>
-      <c r="D2" s="6" t="s">
-        <v>6</v>
-      </c>
-      <c r="E2" s="8" t="s">
-        <v>24</v>
-      </c>
-      <c r="F2" s="8" t="s">
-        <v>25</v>
-      </c>
-      <c r="G2" s="19" t="s">
-        <v>24</v>
-      </c>
-      <c r="H2" s="19" t="s">
-        <v>25</v>
-      </c>
-      <c r="I2" s="2"/>
-    </row>
-    <row r="3" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A3" s="9">
-        <v>2014</v>
-      </c>
-      <c r="B3" s="10" t="s">
-        <v>57</v>
-      </c>
-      <c r="C3" s="41" t="s">
-        <v>55</v>
-      </c>
-      <c r="D3" s="11" t="s">
-        <v>59</v>
-      </c>
-      <c r="E3" s="12" t="s">
-        <v>40</v>
-      </c>
-      <c r="F3" s="7" t="s">
-        <v>0</v>
-      </c>
-      <c r="G3" s="20">
-        <v>0</v>
-      </c>
-      <c r="H3" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="I3" s="3" t="str">
-        <f>IF(OR(AND(G3&gt;1,G3&lt;&gt;"-"),AND(H3&gt;1,H3&lt;&gt;"-")),"Can exchange","")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="4" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A4" s="9">
-        <v>2015</v>
-      </c>
-      <c r="B4" s="10" t="s">
-        <v>57</v>
-      </c>
-      <c r="C4" s="41" t="s">
-        <v>55</v>
-      </c>
-      <c r="D4" s="11" t="s">
-        <v>59</v>
-      </c>
-      <c r="E4" s="7" t="s">
-        <v>0</v>
-      </c>
-      <c r="F4" s="21" t="s">
-        <v>26</v>
-      </c>
-      <c r="G4" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="H4" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="I4" s="3" t="str">
-        <f t="shared" ref="I4:I7" si="0">IF(OR(AND(G4&gt;1,G4&lt;&gt;"-"),AND(H4&gt;1,H4&lt;&gt;"-")),"Can exchange","")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="5" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A5" s="9">
-        <v>2016</v>
-      </c>
-      <c r="B5" s="10" t="s">
-        <v>57</v>
-      </c>
-      <c r="C5" s="41" t="s">
-        <v>55</v>
-      </c>
-      <c r="D5" s="11" t="s">
-        <v>59</v>
-      </c>
-      <c r="E5" s="21" t="s">
-        <v>27</v>
-      </c>
-      <c r="F5" s="7" t="s">
-        <v>0</v>
-      </c>
-      <c r="G5" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="H5" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="I5" s="3" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-    </row>
-    <row r="6" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A6" s="9">
-        <v>2017</v>
-      </c>
-      <c r="B6" s="10" t="s">
-        <v>57</v>
-      </c>
-      <c r="C6" s="41" t="s">
-        <v>55</v>
-      </c>
-      <c r="D6" s="11" t="s">
-        <v>59</v>
-      </c>
-      <c r="E6" s="7" t="s">
-        <v>0</v>
-      </c>
-      <c r="F6" s="12" t="s">
-        <v>41</v>
-      </c>
-      <c r="G6" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="H6" s="20">
-        <v>0</v>
-      </c>
-      <c r="I6" s="3" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-    </row>
-    <row r="7" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A7" s="9">
-        <v>2018</v>
-      </c>
-      <c r="B7" s="10" t="s">
-        <v>57</v>
-      </c>
-      <c r="C7" s="41" t="s">
-        <v>55</v>
-      </c>
-      <c r="D7" s="11" t="s">
-        <v>59</v>
-      </c>
-      <c r="E7" s="12" t="s">
-        <v>42</v>
-      </c>
-      <c r="F7" s="7" t="s">
-        <v>0</v>
-      </c>
-      <c r="G7" s="20">
-        <v>0</v>
-      </c>
-      <c r="H7" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="I7" s="3" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-    </row>
-    <row r="8" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A8" s="9">
-        <v>2019</v>
-      </c>
-      <c r="B8" s="10" t="s">
-        <v>57</v>
-      </c>
-      <c r="C8" s="41" t="s">
-        <v>55</v>
-      </c>
-      <c r="D8" s="11" t="s">
-        <v>59</v>
-      </c>
-      <c r="E8" s="21" t="s">
-        <v>49</v>
-      </c>
-      <c r="F8" s="7" t="s">
-        <v>0</v>
-      </c>
-      <c r="G8" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="H8" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="I8" s="3"/>
-    </row>
-  </sheetData>
-  <mergeCells count="5">
-    <mergeCell ref="A1:A2"/>
-    <mergeCell ref="B1:B2"/>
-    <mergeCell ref="C1:D1"/>
-    <mergeCell ref="E1:F1"/>
-    <mergeCell ref="G1:H1"/>
-  </mergeCells>
-  <conditionalFormatting sqref="G6">
-    <cfRule type="colorScale" priority="5">
-      <colorScale>
-        <cfvo type="formula" val="0"/>
-        <cfvo type="formula" val="1"/>
-        <cfvo type="formula" val="10"/>
-        <color rgb="FFFF9F9F"/>
-        <color rgb="FFD1E0B2"/>
-        <color rgb="FF00B050"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="H7">
-    <cfRule type="colorScale" priority="4">
-      <colorScale>
-        <cfvo type="formula" val="0"/>
-        <cfvo type="formula" val="1"/>
-        <cfvo type="formula" val="10"/>
-        <color rgb="FFFF9F9F"/>
-        <color rgb="FFD1E0B2"/>
-        <color rgb="FF00B050"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="G7 G3">
-    <cfRule type="colorScale" priority="11">
-      <colorScale>
-        <cfvo type="formula" val="0"/>
-        <cfvo type="formula" val="1"/>
-        <cfvo type="formula" val="10"/>
-        <color rgb="FFFF9F9F"/>
-        <color rgb="FFD1E0B2"/>
-        <color rgb="FF00B050"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="H6">
-    <cfRule type="colorScale" priority="9">
-      <colorScale>
-        <cfvo type="formula" val="0"/>
-        <cfvo type="formula" val="1"/>
-        <cfvo type="formula" val="10"/>
-        <color rgb="FFFF9F9F"/>
-        <color rgb="FFD1E0B2"/>
-        <color rgb="FF00B050"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="H3">
-    <cfRule type="colorScale" priority="8">
-      <colorScale>
-        <cfvo type="formula" val="0"/>
-        <cfvo type="formula" val="1"/>
-        <cfvo type="formula" val="10"/>
-        <color rgb="FFFF9F9F"/>
-        <color rgb="FFD1E0B2"/>
-        <color rgb="FF00B050"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="G4:G5">
-    <cfRule type="colorScale" priority="7">
-      <colorScale>
-        <cfvo type="formula" val="0"/>
-        <cfvo type="formula" val="1"/>
-        <cfvo type="formula" val="10"/>
-        <color rgb="FFFF9F9F"/>
-        <color rgb="FFD1E0B2"/>
-        <color rgb="FF00B050"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="H4:H5">
-    <cfRule type="colorScale" priority="6">
-      <colorScale>
-        <cfvo type="formula" val="0"/>
-        <cfvo type="formula" val="1"/>
-        <cfvo type="formula" val="10"/>
-        <color rgb="FFFF9F9F"/>
-        <color rgb="FFD1E0B2"/>
-        <color rgb="FF00B050"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="G8">
-    <cfRule type="colorScale" priority="3">
-      <colorScale>
-        <cfvo type="formula" val="0"/>
-        <cfvo type="formula" val="1"/>
-        <cfvo type="formula" val="10"/>
-        <color rgb="FFFF9F9F"/>
-        <color rgb="FFD1E0B2"/>
-        <color rgb="FF00B050"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="H8">
-    <cfRule type="colorScale" priority="1">
-      <colorScale>
-        <cfvo type="formula" val="0"/>
-        <cfvo type="formula" val="1"/>
-        <cfvo type="formula" val="10"/>
-        <color rgb="FFFF9F9F"/>
-        <color rgb="FFD1E0B2"/>
-        <color rgb="FF00B050"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
-  <legacyDrawing r:id="rId2"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{78C0D931-6437-407d-A8EE-F0AAD7539E65}">
-      <x14:conditionalFormattings>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="containsText" priority="10" operator="containsText" text="*-" id="{E5365921-B2DC-45EB-A6DD-757F3A3E2D52}">
-            <xm:f>NOT(ISERROR(SEARCH(("*-"),('2cents'!G3))))</xm:f>
+          <x14:cfRule type="containsText" priority="1" operator="containsText" text="*-" id="{53F55DA2-1E89-426D-9086-FA18C4976410}">
+            <xm:f>NOT(ISERROR(SEARCH(("*-"),('1cent'!G9))))</xm:f>
             <x14:dxf>
               <fill>
                 <patternFill patternType="solid">
@@ -4114,867 +5764,7 @@
               </fill>
             </x14:dxf>
           </x14:cfRule>
-          <xm:sqref>G3:H7</xm:sqref>
-        </x14:conditionalFormatting>
-        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="containsText" priority="2" operator="containsText" text="*-" id="{8AD0E4CB-0C61-4876-8F81-9B1AF1DE1B7D}">
-            <xm:f>NOT(ISERROR(SEARCH(("*-"),('1cent'!G8))))</xm:f>
-            <x14:dxf>
-              <fill>
-                <patternFill patternType="solid">
-                  <fgColor rgb="FF9BE5FF"/>
-                  <bgColor rgb="FF9BE5FF"/>
-                </patternFill>
-              </fill>
-            </x14:dxf>
-          </x14:cfRule>
-          <xm:sqref>G8:H8</xm:sqref>
-        </x14:conditionalFormatting>
-      </x14:conditionalFormattings>
-    </ext>
-  </extLst>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:I8"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <pane xSplit="9" ySplit="2" topLeftCell="J3" activePane="bottomRight" state="frozen"/>
-      <selection pane="topRight" activeCell="H1" sqref="H1"/>
-      <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="D3" sqref="D3:D8"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.35"/>
-  <cols>
-    <col min="1" max="1" width="5.453125" style="4" customWidth="1"/>
-    <col min="2" max="2" width="24.81640625" style="4" customWidth="1"/>
-    <col min="3" max="3" width="36.7265625" style="4" customWidth="1"/>
-    <col min="4" max="4" width="24.81640625" style="4" customWidth="1"/>
-    <col min="5" max="6" width="12.453125" style="4" customWidth="1"/>
-    <col min="7" max="8" width="3.81640625" style="4" customWidth="1"/>
-    <col min="9" max="9" width="13.7265625" style="4" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A1" s="23" t="s">
-        <v>1</v>
-      </c>
-      <c r="B1" s="23" t="s">
-        <v>2</v>
-      </c>
-      <c r="C1" s="25" t="s">
-        <v>3</v>
-      </c>
-      <c r="D1" s="26"/>
-      <c r="E1" s="27" t="s">
-        <v>4</v>
-      </c>
-      <c r="F1" s="28"/>
-      <c r="G1" s="39" t="s">
-        <v>13</v>
-      </c>
-      <c r="H1" s="40"/>
-      <c r="I1" s="2"/>
-    </row>
-    <row r="2" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A2" s="24"/>
-      <c r="B2" s="24"/>
-      <c r="C2" s="6" t="s">
-        <v>5</v>
-      </c>
-      <c r="D2" s="6" t="s">
-        <v>6</v>
-      </c>
-      <c r="E2" s="8" t="s">
-        <v>24</v>
-      </c>
-      <c r="F2" s="8" t="s">
-        <v>25</v>
-      </c>
-      <c r="G2" s="19" t="s">
-        <v>24</v>
-      </c>
-      <c r="H2" s="19" t="s">
-        <v>25</v>
-      </c>
-      <c r="I2" s="2"/>
-    </row>
-    <row r="3" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A3" s="9">
-        <v>2014</v>
-      </c>
-      <c r="B3" s="10" t="s">
-        <v>58</v>
-      </c>
-      <c r="C3" s="41" t="s">
-        <v>55</v>
-      </c>
-      <c r="D3" s="11" t="s">
-        <v>59</v>
-      </c>
-      <c r="E3" s="12" t="s">
-        <v>43</v>
-      </c>
-      <c r="F3" s="7" t="s">
-        <v>0</v>
-      </c>
-      <c r="G3" s="20">
-        <v>0</v>
-      </c>
-      <c r="H3" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="I3" s="3" t="str">
-        <f>IF(OR(AND(G3&gt;1,G3&lt;&gt;"-"),AND(H3&gt;1,H3&lt;&gt;"-")),"Can exchange","")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="4" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A4" s="9">
-        <v>2015</v>
-      </c>
-      <c r="B4" s="10" t="s">
-        <v>58</v>
-      </c>
-      <c r="C4" s="41" t="s">
-        <v>55</v>
-      </c>
-      <c r="D4" s="11" t="s">
-        <v>59</v>
-      </c>
-      <c r="E4" s="7" t="s">
-        <v>0</v>
-      </c>
-      <c r="F4" s="21" t="s">
-        <v>26</v>
-      </c>
-      <c r="G4" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="H4" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="I4" s="3" t="str">
-        <f t="shared" ref="I4:I7" si="0">IF(OR(AND(G4&gt;1,G4&lt;&gt;"-"),AND(H4&gt;1,H4&lt;&gt;"-")),"Can exchange","")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="5" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A5" s="9">
-        <v>2016</v>
-      </c>
-      <c r="B5" s="10" t="s">
-        <v>58</v>
-      </c>
-      <c r="C5" s="41" t="s">
-        <v>55</v>
-      </c>
-      <c r="D5" s="11" t="s">
-        <v>59</v>
-      </c>
-      <c r="E5" s="12" t="s">
-        <v>44</v>
-      </c>
-      <c r="F5" s="7" t="s">
-        <v>0</v>
-      </c>
-      <c r="G5" s="20">
-        <v>0</v>
-      </c>
-      <c r="H5" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="I5" s="3" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-    </row>
-    <row r="6" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A6" s="9">
-        <v>2017</v>
-      </c>
-      <c r="B6" s="10" t="s">
-        <v>58</v>
-      </c>
-      <c r="C6" s="41" t="s">
-        <v>55</v>
-      </c>
-      <c r="D6" s="11" t="s">
-        <v>59</v>
-      </c>
-      <c r="E6" s="7" t="s">
-        <v>0</v>
-      </c>
-      <c r="F6" s="12" t="s">
-        <v>41</v>
-      </c>
-      <c r="G6" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="H6" s="20">
-        <v>0</v>
-      </c>
-      <c r="I6" s="3" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-    </row>
-    <row r="7" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A7" s="9">
-        <v>2018</v>
-      </c>
-      <c r="B7" s="10" t="s">
-        <v>58</v>
-      </c>
-      <c r="C7" s="41" t="s">
-        <v>55</v>
-      </c>
-      <c r="D7" s="11" t="s">
-        <v>59</v>
-      </c>
-      <c r="E7" s="21" t="s">
-        <v>45</v>
-      </c>
-      <c r="F7" s="7" t="s">
-        <v>0</v>
-      </c>
-      <c r="G7" s="20">
-        <v>0</v>
-      </c>
-      <c r="H7" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="I7" s="3" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-    </row>
-    <row r="8" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A8" s="9">
-        <v>2019</v>
-      </c>
-      <c r="B8" s="10" t="s">
-        <v>58</v>
-      </c>
-      <c r="C8" s="41" t="s">
-        <v>55</v>
-      </c>
-      <c r="D8" s="11" t="s">
-        <v>59</v>
-      </c>
-      <c r="E8" s="21" t="s">
-        <v>49</v>
-      </c>
-      <c r="F8" s="7" t="s">
-        <v>0</v>
-      </c>
-      <c r="G8" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="H8" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="I8" s="3"/>
-    </row>
-  </sheetData>
-  <mergeCells count="5">
-    <mergeCell ref="A1:A2"/>
-    <mergeCell ref="B1:B2"/>
-    <mergeCell ref="C1:D1"/>
-    <mergeCell ref="E1:F1"/>
-    <mergeCell ref="G1:H1"/>
-  </mergeCells>
-  <conditionalFormatting sqref="G6">
-    <cfRule type="colorScale" priority="6">
-      <colorScale>
-        <cfvo type="formula" val="0"/>
-        <cfvo type="formula" val="1"/>
-        <cfvo type="formula" val="10"/>
-        <color rgb="FFFF9F9F"/>
-        <color rgb="FFD1E0B2"/>
-        <color rgb="FF00B050"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="H7">
-    <cfRule type="colorScale" priority="5">
-      <colorScale>
-        <cfvo type="formula" val="0"/>
-        <cfvo type="formula" val="1"/>
-        <cfvo type="formula" val="10"/>
-        <color rgb="FFFF9F9F"/>
-        <color rgb="FFD1E0B2"/>
-        <color rgb="FF00B050"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="G7 G3">
-    <cfRule type="colorScale" priority="12">
-      <colorScale>
-        <cfvo type="formula" val="0"/>
-        <cfvo type="formula" val="1"/>
-        <cfvo type="formula" val="10"/>
-        <color rgb="FFFF9F9F"/>
-        <color rgb="FFD1E0B2"/>
-        <color rgb="FF00B050"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="H6">
-    <cfRule type="colorScale" priority="10">
-      <colorScale>
-        <cfvo type="formula" val="0"/>
-        <cfvo type="formula" val="1"/>
-        <cfvo type="formula" val="10"/>
-        <color rgb="FFFF9F9F"/>
-        <color rgb="FFD1E0B2"/>
-        <color rgb="FF00B050"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="H3">
-    <cfRule type="colorScale" priority="9">
-      <colorScale>
-        <cfvo type="formula" val="0"/>
-        <cfvo type="formula" val="1"/>
-        <cfvo type="formula" val="10"/>
-        <color rgb="FFFF9F9F"/>
-        <color rgb="FFD1E0B2"/>
-        <color rgb="FF00B050"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="G4:G5">
-    <cfRule type="colorScale" priority="8">
-      <colorScale>
-        <cfvo type="formula" val="0"/>
-        <cfvo type="formula" val="1"/>
-        <cfvo type="formula" val="10"/>
-        <color rgb="FFFF9F9F"/>
-        <color rgb="FFD1E0B2"/>
-        <color rgb="FF00B050"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="H4:H5">
-    <cfRule type="colorScale" priority="7">
-      <colorScale>
-        <cfvo type="formula" val="0"/>
-        <cfvo type="formula" val="1"/>
-        <cfvo type="formula" val="10"/>
-        <color rgb="FFFF9F9F"/>
-        <color rgb="FFD1E0B2"/>
-        <color rgb="FF00B050"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="G5">
-    <cfRule type="colorScale" priority="4">
-      <colorScale>
-        <cfvo type="formula" val="0"/>
-        <cfvo type="formula" val="1"/>
-        <cfvo type="formula" val="10"/>
-        <color rgb="FFFF9F9F"/>
-        <color rgb="FFD1E0B2"/>
-        <color rgb="FF00B050"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="G8">
-    <cfRule type="colorScale" priority="3">
-      <colorScale>
-        <cfvo type="formula" val="0"/>
-        <cfvo type="formula" val="1"/>
-        <cfvo type="formula" val="10"/>
-        <color rgb="FFFF9F9F"/>
-        <color rgb="FFD1E0B2"/>
-        <color rgb="FF00B050"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="H8">
-    <cfRule type="colorScale" priority="1">
-      <colorScale>
-        <cfvo type="formula" val="0"/>
-        <cfvo type="formula" val="1"/>
-        <cfvo type="formula" val="10"/>
-        <color rgb="FFFF9F9F"/>
-        <color rgb="FFD1E0B2"/>
-        <color rgb="FF00B050"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
-  <legacyDrawing r:id="rId2"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{78C0D931-6437-407d-A8EE-F0AAD7539E65}">
-      <x14:conditionalFormattings>
-        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="containsText" priority="11" operator="containsText" text="*-" id="{0DC7A5EC-971A-4EDC-8CE5-1619DEA4F9BD}">
-            <xm:f>NOT(ISERROR(SEARCH(("*-"),('2cents'!G3))))</xm:f>
-            <x14:dxf>
-              <fill>
-                <patternFill patternType="solid">
-                  <fgColor rgb="FF9BE5FF"/>
-                  <bgColor rgb="FF9BE5FF"/>
-                </patternFill>
-              </fill>
-            </x14:dxf>
-          </x14:cfRule>
-          <xm:sqref>G3:H7</xm:sqref>
-        </x14:conditionalFormatting>
-        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="containsText" priority="2" operator="containsText" text="*-" id="{F565A579-43FE-4095-8082-A8C344DE5169}">
-            <xm:f>NOT(ISERROR(SEARCH(("*-"),('1cent'!G8))))</xm:f>
-            <x14:dxf>
-              <fill>
-                <patternFill patternType="solid">
-                  <fgColor rgb="FF9BE5FF"/>
-                  <bgColor rgb="FF9BE5FF"/>
-                </patternFill>
-              </fill>
-            </x14:dxf>
-          </x14:cfRule>
-          <xm:sqref>G8:H8</xm:sqref>
-        </x14:conditionalFormatting>
-      </x14:conditionalFormattings>
-    </ext>
-  </extLst>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:I8"/>
-  <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="9" ySplit="2" topLeftCell="J3" activePane="bottomRight" state="frozen"/>
-      <selection pane="topRight" activeCell="H1" sqref="H1"/>
-      <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="D12" sqref="D12"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.35"/>
-  <cols>
-    <col min="1" max="1" width="5.453125" style="4" customWidth="1"/>
-    <col min="2" max="2" width="24.81640625" style="4" customWidth="1"/>
-    <col min="3" max="3" width="36.7265625" style="4" customWidth="1"/>
-    <col min="4" max="4" width="24.81640625" style="4" customWidth="1"/>
-    <col min="5" max="6" width="12.453125" style="4" customWidth="1"/>
-    <col min="7" max="8" width="3.81640625" style="4" customWidth="1"/>
-    <col min="9" max="9" width="13.7265625" style="4" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A1" s="23" t="s">
-        <v>1</v>
-      </c>
-      <c r="B1" s="23" t="s">
-        <v>2</v>
-      </c>
-      <c r="C1" s="25" t="s">
-        <v>3</v>
-      </c>
-      <c r="D1" s="26"/>
-      <c r="E1" s="27" t="s">
-        <v>4</v>
-      </c>
-      <c r="F1" s="28"/>
-      <c r="G1" s="39" t="s">
-        <v>50</v>
-      </c>
-      <c r="H1" s="40"/>
-      <c r="I1" s="2"/>
-    </row>
-    <row r="2" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A2" s="24"/>
-      <c r="B2" s="24"/>
-      <c r="C2" s="6" t="s">
-        <v>5</v>
-      </c>
-      <c r="D2" s="6" t="s">
-        <v>6</v>
-      </c>
-      <c r="E2" s="8" t="s">
-        <v>24</v>
-      </c>
-      <c r="F2" s="8" t="s">
-        <v>25</v>
-      </c>
-      <c r="G2" s="19" t="s">
-        <v>24</v>
-      </c>
-      <c r="H2" s="19" t="s">
-        <v>25</v>
-      </c>
-      <c r="I2" s="2"/>
-    </row>
-    <row r="3" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A3" s="9">
-        <v>2014</v>
-      </c>
-      <c r="B3" s="10" t="s">
-        <v>58</v>
-      </c>
-      <c r="C3" s="41" t="s">
-        <v>55</v>
-      </c>
-      <c r="D3" s="11" t="s">
-        <v>59</v>
-      </c>
-      <c r="E3" s="12" t="s">
-        <v>40</v>
-      </c>
-      <c r="F3" s="7" t="s">
-        <v>0</v>
-      </c>
-      <c r="G3" s="20">
-        <v>0</v>
-      </c>
-      <c r="H3" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="I3" s="3" t="str">
-        <f>IF(OR(AND(G3&gt;1,G3&lt;&gt;"-"),AND(H3&gt;1,H3&lt;&gt;"-")),"Can exchange","")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="4" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A4" s="9">
-        <v>2015</v>
-      </c>
-      <c r="B4" s="10" t="s">
-        <v>58</v>
-      </c>
-      <c r="C4" s="41" t="s">
-        <v>55</v>
-      </c>
-      <c r="D4" s="11" t="s">
-        <v>59</v>
-      </c>
-      <c r="E4" s="7" t="s">
-        <v>0</v>
-      </c>
-      <c r="F4" s="12" t="s">
-        <v>46</v>
-      </c>
-      <c r="G4" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="H4" s="20">
-        <v>0</v>
-      </c>
-      <c r="I4" s="3" t="str">
-        <f t="shared" ref="I4:I7" si="0">IF(OR(AND(G4&gt;1,G4&lt;&gt;"-"),AND(H4&gt;1,H4&lt;&gt;"-")),"Can exchange","")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="5" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A5" s="9">
-        <v>2016</v>
-      </c>
-      <c r="B5" s="10" t="s">
-        <v>58</v>
-      </c>
-      <c r="C5" s="41" t="s">
-        <v>55</v>
-      </c>
-      <c r="D5" s="11" t="s">
-        <v>59</v>
-      </c>
-      <c r="E5" s="21" t="s">
-        <v>27</v>
-      </c>
-      <c r="F5" s="7" t="s">
-        <v>0</v>
-      </c>
-      <c r="G5" s="20">
-        <v>0</v>
-      </c>
-      <c r="H5" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="I5" s="3" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-    </row>
-    <row r="6" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A6" s="9">
-        <v>2017</v>
-      </c>
-      <c r="B6" s="10" t="s">
-        <v>58</v>
-      </c>
-      <c r="C6" s="41" t="s">
-        <v>55</v>
-      </c>
-      <c r="D6" s="11" t="s">
-        <v>59</v>
-      </c>
-      <c r="E6" s="7" t="s">
-        <v>0</v>
-      </c>
-      <c r="F6" s="12" t="s">
-        <v>47</v>
-      </c>
-      <c r="G6" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="H6" s="20">
-        <v>0</v>
-      </c>
-      <c r="I6" s="3" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-    </row>
-    <row r="7" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A7" s="9">
-        <v>2018</v>
-      </c>
-      <c r="B7" s="10" t="s">
-        <v>58</v>
-      </c>
-      <c r="C7" s="41" t="s">
-        <v>55</v>
-      </c>
-      <c r="D7" s="11" t="s">
-        <v>59</v>
-      </c>
-      <c r="E7" s="12" t="s">
-        <v>48</v>
-      </c>
-      <c r="F7" s="7" t="s">
-        <v>0</v>
-      </c>
-      <c r="G7" s="20">
-        <v>0</v>
-      </c>
-      <c r="H7" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="I7" s="3" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-    </row>
-    <row r="8" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A8" s="9">
-        <v>2019</v>
-      </c>
-      <c r="B8" s="10" t="s">
-        <v>58</v>
-      </c>
-      <c r="C8" s="41" t="s">
-        <v>55</v>
-      </c>
-      <c r="D8" s="11" t="s">
-        <v>59</v>
-      </c>
-      <c r="E8" s="21" t="s">
-        <v>49</v>
-      </c>
-      <c r="F8" s="7" t="s">
-        <v>0</v>
-      </c>
-      <c r="G8" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="H8" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="I8" s="3"/>
-    </row>
-  </sheetData>
-  <mergeCells count="5">
-    <mergeCell ref="E1:F1"/>
-    <mergeCell ref="G1:H1"/>
-    <mergeCell ref="A1:A2"/>
-    <mergeCell ref="B1:B2"/>
-    <mergeCell ref="C1:D1"/>
-  </mergeCells>
-  <conditionalFormatting sqref="G6">
-    <cfRule type="colorScale" priority="8">
-      <colorScale>
-        <cfvo type="formula" val="0"/>
-        <cfvo type="formula" val="1"/>
-        <cfvo type="formula" val="10"/>
-        <color rgb="FFFF9F9F"/>
-        <color rgb="FFD1E0B2"/>
-        <color rgb="FF00B050"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="H7">
-    <cfRule type="colorScale" priority="7">
-      <colorScale>
-        <cfvo type="formula" val="0"/>
-        <cfvo type="formula" val="1"/>
-        <cfvo type="formula" val="10"/>
-        <color rgb="FFFF9F9F"/>
-        <color rgb="FFD1E0B2"/>
-        <color rgb="FF00B050"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="G7 G3">
-    <cfRule type="colorScale" priority="14">
-      <colorScale>
-        <cfvo type="formula" val="0"/>
-        <cfvo type="formula" val="1"/>
-        <cfvo type="formula" val="10"/>
-        <color rgb="FFFF9F9F"/>
-        <color rgb="FFD1E0B2"/>
-        <color rgb="FF00B050"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="H6">
-    <cfRule type="colorScale" priority="12">
-      <colorScale>
-        <cfvo type="formula" val="0"/>
-        <cfvo type="formula" val="1"/>
-        <cfvo type="formula" val="10"/>
-        <color rgb="FFFF9F9F"/>
-        <color rgb="FFD1E0B2"/>
-        <color rgb="FF00B050"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="H3">
-    <cfRule type="colorScale" priority="11">
-      <colorScale>
-        <cfvo type="formula" val="0"/>
-        <cfvo type="formula" val="1"/>
-        <cfvo type="formula" val="10"/>
-        <color rgb="FFFF9F9F"/>
-        <color rgb="FFD1E0B2"/>
-        <color rgb="FF00B050"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="G4:G5">
-    <cfRule type="colorScale" priority="10">
-      <colorScale>
-        <cfvo type="formula" val="0"/>
-        <cfvo type="formula" val="1"/>
-        <cfvo type="formula" val="10"/>
-        <color rgb="FFFF9F9F"/>
-        <color rgb="FFD1E0B2"/>
-        <color rgb="FF00B050"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="H4:H5">
-    <cfRule type="colorScale" priority="9">
-      <colorScale>
-        <cfvo type="formula" val="0"/>
-        <cfvo type="formula" val="1"/>
-        <cfvo type="formula" val="10"/>
-        <color rgb="FFFF9F9F"/>
-        <color rgb="FFD1E0B2"/>
-        <color rgb="FF00B050"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="G5">
-    <cfRule type="colorScale" priority="6">
-      <colorScale>
-        <cfvo type="formula" val="0"/>
-        <cfvo type="formula" val="1"/>
-        <cfvo type="formula" val="10"/>
-        <color rgb="FFFF9F9F"/>
-        <color rgb="FFD1E0B2"/>
-        <color rgb="FF00B050"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="H4">
-    <cfRule type="colorScale" priority="5">
-      <colorScale>
-        <cfvo type="formula" val="0"/>
-        <cfvo type="formula" val="1"/>
-        <cfvo type="formula" val="10"/>
-        <color rgb="FFFF9F9F"/>
-        <color rgb="FFD1E0B2"/>
-        <color rgb="FF00B050"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="H4">
-    <cfRule type="colorScale" priority="4">
-      <colorScale>
-        <cfvo type="formula" val="0"/>
-        <cfvo type="formula" val="1"/>
-        <cfvo type="formula" val="10"/>
-        <color rgb="FFFF9F9F"/>
-        <color rgb="FFD1E0B2"/>
-        <color rgb="FF00B050"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="G8">
-    <cfRule type="colorScale" priority="3">
-      <colorScale>
-        <cfvo type="formula" val="0"/>
-        <cfvo type="formula" val="1"/>
-        <cfvo type="formula" val="10"/>
-        <color rgb="FFFF9F9F"/>
-        <color rgb="FFD1E0B2"/>
-        <color rgb="FF00B050"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="H8">
-    <cfRule type="colorScale" priority="1">
-      <colorScale>
-        <cfvo type="formula" val="0"/>
-        <cfvo type="formula" val="1"/>
-        <cfvo type="formula" val="10"/>
-        <color rgb="FFFF9F9F"/>
-        <color rgb="FFD1E0B2"/>
-        <color rgb="FF00B050"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
-  <legacyDrawing r:id="rId2"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{78C0D931-6437-407d-A8EE-F0AAD7539E65}">
-      <x14:conditionalFormattings>
-        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="containsText" priority="13" operator="containsText" text="*-" id="{04D89F84-3BA3-483A-AA4E-B60F8837EE70}">
-            <xm:f>NOT(ISERROR(SEARCH(("*-"),('2cents'!G3))))</xm:f>
-            <x14:dxf>
-              <fill>
-                <patternFill patternType="solid">
-                  <fgColor rgb="FF9BE5FF"/>
-                  <bgColor rgb="FF9BE5FF"/>
-                </patternFill>
-              </fill>
-            </x14:dxf>
-          </x14:cfRule>
-          <xm:sqref>G3:H7</xm:sqref>
-        </x14:conditionalFormatting>
-        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="containsText" priority="2" operator="containsText" text="*-" id="{E867007A-7BF4-486C-95A8-13206CAF972C}">
-            <xm:f>NOT(ISERROR(SEARCH(("*-"),('1cent'!G8))))</xm:f>
-            <x14:dxf>
-              <fill>
-                <patternFill patternType="solid">
-                  <fgColor rgb="FF9BE5FF"/>
-                  <bgColor rgb="FF9BE5FF"/>
-                </patternFill>
-              </fill>
-            </x14:dxf>
-          </x14:cfRule>
-          <xm:sqref>G8:H8</xm:sqref>
+          <xm:sqref>G9</xm:sqref>
         </x14:conditionalFormatting>
       </x14:conditionalFormattings>
     </ext>
@@ -4983,7 +5773,7 @@
 </file>
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0800-000000000000}">
   <dimension ref="A1:C7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -4993,14 +5783,14 @@
       <selection pane="bottomRight" activeCell="B6" sqref="B6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="4.81640625" customWidth="1"/>
-    <col min="2" max="2" width="16.26953125" customWidth="1"/>
-    <col min="3" max="3" width="61.81640625" customWidth="1"/>
+    <col min="1" max="1" width="4.85546875" customWidth="1"/>
+    <col min="2" max="2" width="16.28515625" customWidth="1"/>
+    <col min="3" max="3" width="61.85546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="13" t="s">
         <v>14</v>
       </c>
@@ -5011,7 +5801,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="2" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="16">
         <v>1</v>
       </c>
@@ -5022,7 +5812,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="3" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="16">
         <v>2</v>
       </c>
@@ -5033,7 +5823,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="4" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="16">
         <v>3</v>
       </c>
@@ -5044,7 +5834,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="5" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="16">
         <v>4</v>
       </c>
@@ -5055,7 +5845,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="6" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="16">
         <v>5</v>
       </c>
@@ -5066,7 +5856,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="7" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="16">
         <v>6</v>
       </c>
@@ -5079,12 +5869,12 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="B2" r:id="rId1"/>
-    <hyperlink ref="B3" r:id="rId2"/>
-    <hyperlink ref="B4" r:id="rId3"/>
-    <hyperlink ref="B5" r:id="rId4"/>
-    <hyperlink ref="B7" r:id="rId5"/>
-    <hyperlink ref="B6" r:id="rId6"/>
+    <hyperlink ref="B2" r:id="rId1" xr:uid="{00000000-0004-0000-0800-000000000000}"/>
+    <hyperlink ref="B3" r:id="rId2" xr:uid="{00000000-0004-0000-0800-000001000000}"/>
+    <hyperlink ref="B4" r:id="rId3" xr:uid="{00000000-0004-0000-0800-000002000000}"/>
+    <hyperlink ref="B5" r:id="rId4" xr:uid="{00000000-0004-0000-0800-000003000000}"/>
+    <hyperlink ref="B7" r:id="rId5" xr:uid="{00000000-0004-0000-0800-000004000000}"/>
+    <hyperlink ref="B6" r:id="rId6" xr:uid="{00000000-0004-0000-0800-000005000000}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId7"/>

--- a/Collections/EURO/Andorra/#EURO#Andorra#Regular#[2014-present]#circulation_quality%varieties.xlsx
+++ b/Collections/EURO/Andorra/#EURO#Andorra#Regular#[2014-present]#circulation_quality%varieties.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24131"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24332"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\CoinCollection\Collections\EURO\Andorra\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Lord_Alexator\Documents\CoinCollection\Collections\EURO\Andorra\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{728FA530-FD03-4664-9586-A7A7A0BAC5B8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3F49A1A4-C61E-4D06-9BA1-FD9409C12A97}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="6" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="38620" windowHeight="21220" activeTab="7" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="1cent" sheetId="4" r:id="rId1"/>
@@ -27,6 +27,15 @@
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
+    </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
@@ -625,7 +634,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="436" uniqueCount="72">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="553" uniqueCount="84">
   <si>
     <t>-</t>
   </si>
@@ -837,17 +846,56 @@
     <t>752.000</t>
   </si>
   <si>
-    <t>1.512.000</t>
-  </si>
-  <si>
     <t>1.073.310</t>
+  </si>
+  <si>
+    <t>210.500</t>
+  </si>
+  <si>
+    <t>710.500</t>
+  </si>
+  <si>
+    <t>10.500</t>
+  </si>
+  <si>
+    <t>1.410.500</t>
+  </si>
+  <si>
+    <t>1.430.500</t>
+  </si>
+  <si>
+    <t>610.500</t>
+  </si>
+  <si>
+    <t>60.500</t>
+  </si>
+  <si>
+    <t>1.485.000</t>
+  </si>
+  <si>
+    <t>460.500</t>
+  </si>
+  <si>
+    <t>410.500</t>
+  </si>
+  <si>
+    <t>390.500</t>
+  </si>
+  <si>
+    <t>1.718.500</t>
+  </si>
+  <si>
+    <t>2.085.750</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="9" x14ac:knownFonts="1">
+  <numFmts count="1">
+    <numFmt numFmtId="164" formatCode="#,##0\ [$€-1];[Red]\-#,##0\ [$€-1]"/>
+  </numFmts>
+  <fonts count="10" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
@@ -909,6 +957,10 @@
       <name val="Calibri"/>
       <family val="2"/>
       <charset val="204"/>
+    </font>
+    <font>
+      <sz val="8"/>
+      <name val="Calibri"/>
     </font>
   </fonts>
   <fills count="7">
@@ -1122,7 +1174,7 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="42">
+  <cellXfs count="43">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -1187,6 +1239,7 @@
     <xf numFmtId="3" fontId="3" fillId="3" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
     </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="6" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1247,463 +1300,7 @@
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
     <cellStyle name="Обычный 2" xfId="1" xr:uid="{00000000-0005-0000-0000-000002000000}"/>
   </cellStyles>
-  <dxfs count="61">
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FF9BE5FF"/>
-          <bgColor rgb="FF9BE5FF"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FF9BE5FF"/>
-          <bgColor rgb="FF9BE5FF"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FF9BE5FF"/>
-          <bgColor rgb="FF9BE5FF"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FF9BE5FF"/>
-          <bgColor rgb="FF9BE5FF"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FF9BE5FF"/>
-          <bgColor rgb="FF9BE5FF"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FF9BE5FF"/>
-          <bgColor rgb="FF9BE5FF"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FF9BE5FF"/>
-          <bgColor rgb="FF9BE5FF"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FF9BE5FF"/>
-          <bgColor rgb="FF9BE5FF"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FF9BE5FF"/>
-          <bgColor rgb="FF9BE5FF"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FF9BE5FF"/>
-          <bgColor rgb="FF9BE5FF"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FF9BE5FF"/>
-          <bgColor rgb="FF9BE5FF"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FF9BE5FF"/>
-          <bgColor rgb="FF9BE5FF"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FF9BE5FF"/>
-          <bgColor rgb="FF9BE5FF"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FF9BE5FF"/>
-          <bgColor rgb="FF9BE5FF"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FF9BE5FF"/>
-          <bgColor rgb="FF9BE5FF"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FF9BE5FF"/>
-          <bgColor rgb="FF9BE5FF"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FF9BE5FF"/>
-          <bgColor rgb="FF9BE5FF"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FF9BE5FF"/>
-          <bgColor rgb="FF9BE5FF"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FF9BE5FF"/>
-          <bgColor rgb="FF9BE5FF"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FF9BE5FF"/>
-          <bgColor rgb="FF9BE5FF"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FF9BE5FF"/>
-          <bgColor rgb="FF9BE5FF"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FF9BE5FF"/>
-          <bgColor rgb="FF9BE5FF"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FF9BE5FF"/>
-          <bgColor rgb="FF9BE5FF"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FF9BE5FF"/>
-          <bgColor rgb="FF9BE5FF"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FF9BE5FF"/>
-          <bgColor rgb="FF9BE5FF"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FF9BE5FF"/>
-          <bgColor rgb="FF9BE5FF"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FF9BE5FF"/>
-          <bgColor rgb="FF9BE5FF"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FF9BE5FF"/>
-          <bgColor rgb="FF9BE5FF"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FF9BE5FF"/>
-          <bgColor rgb="FF9BE5FF"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FF9BE5FF"/>
-          <bgColor rgb="FF9BE5FF"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FF9BE5FF"/>
-          <bgColor rgb="FF9BE5FF"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FF9BE5FF"/>
-          <bgColor rgb="FF9BE5FF"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FF9BE5FF"/>
-          <bgColor rgb="FF9BE5FF"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FF9BE5FF"/>
-          <bgColor rgb="FF9BE5FF"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FF9BE5FF"/>
-          <bgColor rgb="FF9BE5FF"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FF9BE5FF"/>
-          <bgColor rgb="FF9BE5FF"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FF9BE5FF"/>
-          <bgColor rgb="FF9BE5FF"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FF9BE5FF"/>
-          <bgColor rgb="FF9BE5FF"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FF9BE5FF"/>
-          <bgColor rgb="FF9BE5FF"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FF9BE5FF"/>
-          <bgColor rgb="FF9BE5FF"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FF9BE5FF"/>
-          <bgColor rgb="FF9BE5FF"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FF9BE5FF"/>
-          <bgColor rgb="FF9BE5FF"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FF9BE5FF"/>
-          <bgColor rgb="FF9BE5FF"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FF9BE5FF"/>
-          <bgColor rgb="FF9BE5FF"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FF9BE5FF"/>
-          <bgColor rgb="FF9BE5FF"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FF9BE5FF"/>
-          <bgColor rgb="FF9BE5FF"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FF9BE5FF"/>
-          <bgColor rgb="FF9BE5FF"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FF9BE5FF"/>
-          <bgColor rgb="FF9BE5FF"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FF9BE5FF"/>
-          <bgColor rgb="FF9BE5FF"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FF9BE5FF"/>
-          <bgColor rgb="FF9BE5FF"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FF9BE5FF"/>
-          <bgColor rgb="FF9BE5FF"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FF9BE5FF"/>
-          <bgColor rgb="FF9BE5FF"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FF9BE5FF"/>
-          <bgColor rgb="FF9BE5FF"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FF9BE5FF"/>
-          <bgColor rgb="FF9BE5FF"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FF9BE5FF"/>
-          <bgColor rgb="FF9BE5FF"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FF9BE5FF"/>
-          <bgColor rgb="FF9BE5FF"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FF9BE5FF"/>
-          <bgColor rgb="FF9BE5FF"/>
-        </patternFill>
-      </fill>
-    </dxf>
+  <dxfs count="84">
     <dxf>
       <fill>
         <patternFill patternType="solid">
@@ -1720,6 +1317,646 @@
     </dxf>
     <dxf>
       <alignment vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FF9BE5FF"/>
+          <bgColor rgb="FF9BE5FF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FF9BE5FF"/>
+          <bgColor rgb="FF9BE5FF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FF9BE5FF"/>
+          <bgColor rgb="FF9BE5FF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FF9BE5FF"/>
+          <bgColor rgb="FF9BE5FF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FF9BE5FF"/>
+          <bgColor rgb="FF9BE5FF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FF9BE5FF"/>
+          <bgColor rgb="FF9BE5FF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FF9BE5FF"/>
+          <bgColor rgb="FF9BE5FF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FF9BE5FF"/>
+          <bgColor rgb="FF9BE5FF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FF9BE5FF"/>
+          <bgColor rgb="FF9BE5FF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FF9BE5FF"/>
+          <bgColor rgb="FF9BE5FF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FF9BE5FF"/>
+          <bgColor rgb="FF9BE5FF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FF9BE5FF"/>
+          <bgColor rgb="FF9BE5FF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FF9BE5FF"/>
+          <bgColor rgb="FF9BE5FF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FF9BE5FF"/>
+          <bgColor rgb="FF9BE5FF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FF9BE5FF"/>
+          <bgColor rgb="FF9BE5FF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FF9BE5FF"/>
+          <bgColor rgb="FF9BE5FF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FF9BE5FF"/>
+          <bgColor rgb="FF9BE5FF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FF9BE5FF"/>
+          <bgColor rgb="FF9BE5FF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FF9BE5FF"/>
+          <bgColor rgb="FF9BE5FF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FF9BE5FF"/>
+          <bgColor rgb="FF9BE5FF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FF9BE5FF"/>
+          <bgColor rgb="FF9BE5FF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FF9BE5FF"/>
+          <bgColor rgb="FF9BE5FF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FF9BE5FF"/>
+          <bgColor rgb="FF9BE5FF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FF9BE5FF"/>
+          <bgColor rgb="FF9BE5FF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FF9BE5FF"/>
+          <bgColor rgb="FF9BE5FF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FF9BE5FF"/>
+          <bgColor rgb="FF9BE5FF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FF9BE5FF"/>
+          <bgColor rgb="FF9BE5FF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FF9BE5FF"/>
+          <bgColor rgb="FF9BE5FF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FF9BE5FF"/>
+          <bgColor rgb="FF9BE5FF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FF9BE5FF"/>
+          <bgColor rgb="FF9BE5FF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FF9BE5FF"/>
+          <bgColor rgb="FF9BE5FF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FF9BE5FF"/>
+          <bgColor rgb="FF9BE5FF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FF9BE5FF"/>
+          <bgColor rgb="FF9BE5FF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FF9BE5FF"/>
+          <bgColor rgb="FF9BE5FF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FF9BE5FF"/>
+          <bgColor rgb="FF9BE5FF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FF9BE5FF"/>
+          <bgColor rgb="FF9BE5FF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FF9BE5FF"/>
+          <bgColor rgb="FF9BE5FF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FF9BE5FF"/>
+          <bgColor rgb="FF9BE5FF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FF9BE5FF"/>
+          <bgColor rgb="FF9BE5FF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FF9BE5FF"/>
+          <bgColor rgb="FF9BE5FF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FF9BE5FF"/>
+          <bgColor rgb="FF9BE5FF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FF9BE5FF"/>
+          <bgColor rgb="FF9BE5FF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FF9BE5FF"/>
+          <bgColor rgb="FF9BE5FF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FF9BE5FF"/>
+          <bgColor rgb="FF9BE5FF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FF9BE5FF"/>
+          <bgColor rgb="FF9BE5FF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FF9BE5FF"/>
+          <bgColor rgb="FF9BE5FF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FF9BE5FF"/>
+          <bgColor rgb="FF9BE5FF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FF9BE5FF"/>
+          <bgColor rgb="FF9BE5FF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FF9BE5FF"/>
+          <bgColor rgb="FF9BE5FF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FF9BE5FF"/>
+          <bgColor rgb="FF9BE5FF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FF9BE5FF"/>
+          <bgColor rgb="FF9BE5FF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FF9BE5FF"/>
+          <bgColor rgb="FF9BE5FF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FF9BE5FF"/>
+          <bgColor rgb="FF9BE5FF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FF9BE5FF"/>
+          <bgColor rgb="FF9BE5FF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FF9BE5FF"/>
+          <bgColor rgb="FF9BE5FF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FF9BE5FF"/>
+          <bgColor rgb="FF9BE5FF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FF9BE5FF"/>
+          <bgColor rgb="FF9BE5FF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FF9BE5FF"/>
+          <bgColor rgb="FF9BE5FF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FF9BE5FF"/>
+          <bgColor rgb="FF9BE5FF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FF9BE5FF"/>
+          <bgColor rgb="FF9BE5FF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FF9BE5FF"/>
+          <bgColor rgb="FF9BE5FF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FF9BE5FF"/>
+          <bgColor rgb="FF9BE5FF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FF9BE5FF"/>
+          <bgColor rgb="FF9BE5FF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FF9BE5FF"/>
+          <bgColor rgb="FF9BE5FF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FF9BE5FF"/>
+          <bgColor rgb="FF9BE5FF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FF9BE5FF"/>
+          <bgColor rgb="FF9BE5FF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FF9BE5FF"/>
+          <bgColor rgb="FF9BE5FF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FF9BE5FF"/>
+          <bgColor rgb="FF9BE5FF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FF9BE5FF"/>
+          <bgColor rgb="FF9BE5FF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FF9BE5FF"/>
+          <bgColor rgb="FF9BE5FF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FF9BE5FF"/>
+          <bgColor rgb="FF9BE5FF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FF9BE5FF"/>
+          <bgColor rgb="FF9BE5FF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FF9BE5FF"/>
+          <bgColor rgb="FF9BE5FF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FF9BE5FF"/>
+          <bgColor rgb="FF9BE5FF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FF9BE5FF"/>
+          <bgColor rgb="FF9BE5FF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FF9BE5FF"/>
+          <bgColor rgb="FF9BE5FF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FF9BE5FF"/>
+          <bgColor rgb="FF9BE5FF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FF9BE5FF"/>
+          <bgColor rgb="FF9BE5FF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FF9BE5FF"/>
+          <bgColor rgb="FF9BE5FF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FF9BE5FF"/>
+          <bgColor rgb="FF9BE5FF"/>
+        </patternFill>
+      </fill>
     </dxf>
   </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -1752,9 +1989,9 @@
     <filterColumn colId="2" hiddenButton="1"/>
   </autoFilter>
   <tableColumns count="3">
-    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" name="№" dataDxfId="60"/>
-    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0000-000002000000}" name="Link" dataDxfId="59" dataCellStyle="Гиперссылка"/>
-    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0000-000003000000}" name="Description (single table, table set, mintage, prices):" dataDxfId="58"/>
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" name="№" dataDxfId="3"/>
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0000-000002000000}" name="Link" dataDxfId="2" dataCellStyle="Гиперссылка"/>
+    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0000-000003000000}" name="Description (single table, table set, mintage, prices):" dataDxfId="1"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium9" showFirstColumn="1" showLastColumn="0" showRowStripes="0" showColumnStripes="0"/>
 </table>
@@ -2023,50 +2260,50 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:I9"/>
+  <dimension ref="A1:I12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="9" ySplit="2" topLeftCell="J3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="H1" sqref="H1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="I4" sqref="I4:I9"/>
+      <selection pane="bottomRight" activeCell="F9" sqref="F9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="5.42578125" style="4" customWidth="1"/>
-    <col min="2" max="2" width="24.85546875" style="4" customWidth="1"/>
-    <col min="3" max="3" width="36.7109375" style="4" customWidth="1"/>
-    <col min="4" max="4" width="24.85546875" style="4" customWidth="1"/>
-    <col min="5" max="6" width="12.42578125" style="4" customWidth="1"/>
-    <col min="7" max="8" width="3.85546875" style="4" customWidth="1"/>
-    <col min="9" max="9" width="13.7109375" style="4" customWidth="1"/>
+    <col min="1" max="1" width="5.453125" style="4" customWidth="1"/>
+    <col min="2" max="2" width="24.81640625" style="4" customWidth="1"/>
+    <col min="3" max="3" width="36.7265625" style="4" customWidth="1"/>
+    <col min="4" max="4" width="24.81640625" style="4" customWidth="1"/>
+    <col min="5" max="6" width="12.453125" style="4" customWidth="1"/>
+    <col min="7" max="8" width="3.81640625" style="4" customWidth="1"/>
+    <col min="9" max="9" width="13.7265625" style="4" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="24" t="s">
+    <row r="1" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A1" s="25" t="s">
         <v>1</v>
       </c>
-      <c r="B1" s="24" t="s">
+      <c r="B1" s="25" t="s">
         <v>2</v>
       </c>
-      <c r="C1" s="26" t="s">
+      <c r="C1" s="27" t="s">
         <v>3</v>
       </c>
-      <c r="D1" s="27"/>
-      <c r="E1" s="28" t="s">
+      <c r="D1" s="28"/>
+      <c r="E1" s="29" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="29"/>
-      <c r="G1" s="30" t="s">
+      <c r="F1" s="30"/>
+      <c r="G1" s="31" t="s">
         <v>7</v>
       </c>
-      <c r="H1" s="31"/>
+      <c r="H1" s="32"/>
       <c r="I1" s="2"/>
     </row>
-    <row r="2" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="25"/>
-      <c r="B2" s="25"/>
+    <row r="2" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A2" s="26"/>
+      <c r="B2" s="26"/>
       <c r="C2" s="6" t="s">
         <v>5</v>
       </c>
@@ -2087,7 +2324,7 @@
       </c>
       <c r="I2" s="2"/>
     </row>
-    <row r="3" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A3" s="9">
         <v>2014</v>
       </c>
@@ -2115,7 +2352,7 @@
         <v/>
       </c>
     </row>
-    <row r="4" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A4" s="9">
         <v>2015</v>
       </c>
@@ -2135,7 +2372,7 @@
       <c r="G4" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="H4" s="1" t="s">
+      <c r="H4" s="20">
         <v>0</v>
       </c>
       <c r="I4" s="3" t="str">
@@ -2143,7 +2380,7 @@
         <v/>
       </c>
     </row>
-    <row r="5" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A5" s="9">
         <v>2016</v>
       </c>
@@ -2160,7 +2397,7 @@
       <c r="F5" s="7" t="s">
         <v>0</v>
       </c>
-      <c r="G5" s="1" t="s">
+      <c r="G5" s="20">
         <v>0</v>
       </c>
       <c r="H5" s="1" t="s">
@@ -2171,7 +2408,7 @@
         <v/>
       </c>
     </row>
-    <row r="6" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A6" s="9">
         <v>2017</v>
       </c>
@@ -2199,7 +2436,7 @@
         <v/>
       </c>
     </row>
-    <row r="7" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A7" s="9">
         <v>2018</v>
       </c>
@@ -2227,7 +2464,7 @@
         <v/>
       </c>
     </row>
-    <row r="8" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A8" s="9">
         <v>2019</v>
       </c>
@@ -2255,7 +2492,7 @@
         <v/>
       </c>
     </row>
-    <row r="9" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A9" s="9">
         <v>2020</v>
       </c>
@@ -2266,13 +2503,13 @@
         <v>55</v>
       </c>
       <c r="D9" s="11"/>
-      <c r="E9" s="7" t="s">
-        <v>0</v>
-      </c>
-      <c r="F9" s="21" t="s">
+      <c r="E9" s="21" t="s">
         <v>60</v>
       </c>
-      <c r="G9" s="1" t="s">
+      <c r="F9" s="7" t="s">
+        <v>0</v>
+      </c>
+      <c r="G9" s="20">
         <v>0</v>
       </c>
       <c r="H9" s="1" t="s">
@@ -2280,6 +2517,90 @@
       </c>
       <c r="I9" s="3" t="str">
         <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="10" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A10" s="9">
+        <v>2021</v>
+      </c>
+      <c r="B10" s="10" t="s">
+        <v>56</v>
+      </c>
+      <c r="C10" s="23" t="s">
+        <v>55</v>
+      </c>
+      <c r="D10" s="11"/>
+      <c r="E10" s="7" t="s">
+        <v>0</v>
+      </c>
+      <c r="F10" s="12" t="s">
+        <v>71</v>
+      </c>
+      <c r="G10" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="H10" s="1">
+        <v>0</v>
+      </c>
+      <c r="I10" s="3" t="str">
+        <f t="shared" ref="I10:I12" si="1">IF(OR(AND(G10&gt;1,G10&lt;&gt;"-"),AND(H10&gt;1,H10&lt;&gt;"-")),"Can exchange","")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="11" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A11" s="9">
+        <v>2022</v>
+      </c>
+      <c r="B11" s="10" t="s">
+        <v>56</v>
+      </c>
+      <c r="C11" s="23" t="s">
+        <v>55</v>
+      </c>
+      <c r="D11" s="11"/>
+      <c r="E11" s="12" t="s">
+        <v>72</v>
+      </c>
+      <c r="F11" s="7" t="s">
+        <v>0</v>
+      </c>
+      <c r="G11" s="1">
+        <v>0</v>
+      </c>
+      <c r="H11" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="I11" s="3" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+    </row>
+    <row r="12" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A12" s="9">
+        <v>2023</v>
+      </c>
+      <c r="B12" s="10" t="s">
+        <v>56</v>
+      </c>
+      <c r="C12" s="23" t="s">
+        <v>55</v>
+      </c>
+      <c r="D12" s="11"/>
+      <c r="E12" s="7" t="s">
+        <v>0</v>
+      </c>
+      <c r="F12" s="21" t="s">
+        <v>73</v>
+      </c>
+      <c r="G12" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="H12" s="20">
+        <v>0</v>
+      </c>
+      <c r="I12" s="3" t="str">
+        <f t="shared" si="1"/>
         <v/>
       </c>
     </row>
@@ -2293,11 +2614,96 @@
   </mergeCells>
   <phoneticPr fontId="8" type="noConversion"/>
   <conditionalFormatting sqref="G3 G7">
-    <cfRule type="containsText" dxfId="47" priority="33" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="83" priority="45" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(G3))))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="G3 G7">
+  <conditionalFormatting sqref="G7 G3">
+    <cfRule type="colorScale" priority="46">
+      <colorScale>
+        <cfvo type="formula" val="0"/>
+        <cfvo type="formula" val="1"/>
+        <cfvo type="formula" val="10"/>
+        <color rgb="FFFF9F9F"/>
+        <color rgb="FFD1E0B2"/>
+        <color rgb="FF00B050"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H6">
+    <cfRule type="containsText" dxfId="82" priority="41" operator="containsText" text="*-">
+      <formula>NOT(ISERROR(SEARCH(("*-"),(H6))))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H6">
+    <cfRule type="colorScale" priority="42">
+      <colorScale>
+        <cfvo type="formula" val="0"/>
+        <cfvo type="formula" val="1"/>
+        <cfvo type="formula" val="10"/>
+        <color rgb="FFFF9F9F"/>
+        <color rgb="FFD1E0B2"/>
+        <color rgb="FF00B050"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H3">
+    <cfRule type="containsText" dxfId="81" priority="39" operator="containsText" text="*-">
+      <formula>NOT(ISERROR(SEARCH(("*-"),(H3))))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H3">
+    <cfRule type="colorScale" priority="40">
+      <colorScale>
+        <cfvo type="formula" val="0"/>
+        <cfvo type="formula" val="1"/>
+        <cfvo type="formula" val="10"/>
+        <color rgb="FFFF9F9F"/>
+        <color rgb="FFD1E0B2"/>
+        <color rgb="FF00B050"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G4">
+    <cfRule type="containsText" dxfId="80" priority="37" operator="containsText" text="*-">
+      <formula>NOT(ISERROR(SEARCH(("*-"),(G4))))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G4">
+    <cfRule type="colorScale" priority="38">
+      <colorScale>
+        <cfvo type="formula" val="0"/>
+        <cfvo type="formula" val="1"/>
+        <cfvo type="formula" val="10"/>
+        <color rgb="FFFF9F9F"/>
+        <color rgb="FFD1E0B2"/>
+        <color rgb="FF00B050"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H5">
+    <cfRule type="containsText" dxfId="79" priority="35" operator="containsText" text="*-">
+      <formula>NOT(ISERROR(SEARCH(("*-"),(H5))))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H5">
+    <cfRule type="colorScale" priority="36">
+      <colorScale>
+        <cfvo type="formula" val="0"/>
+        <cfvo type="formula" val="1"/>
+        <cfvo type="formula" val="10"/>
+        <color rgb="FFFF9F9F"/>
+        <color rgb="FFD1E0B2"/>
+        <color rgb="FF00B050"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G6">
+    <cfRule type="containsText" dxfId="78" priority="33" operator="containsText" text="*-">
+      <formula>NOT(ISERROR(SEARCH(("*-"),(G6))))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G6">
     <cfRule type="colorScale" priority="34">
       <colorScale>
         <cfvo type="formula" val="0"/>
@@ -2309,46 +2715,46 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H6">
-    <cfRule type="containsText" dxfId="46" priority="29" operator="containsText" text="*-">
-      <formula>NOT(ISERROR(SEARCH(("*-"),(H6))))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="H6">
-    <cfRule type="colorScale" priority="30">
-      <colorScale>
-        <cfvo type="formula" val="0"/>
-        <cfvo type="formula" val="1"/>
-        <cfvo type="formula" val="10"/>
-        <color rgb="FFFF9F9F"/>
-        <color rgb="FFD1E0B2"/>
-        <color rgb="FF00B050"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="H3">
-    <cfRule type="containsText" dxfId="45" priority="27" operator="containsText" text="*-">
-      <formula>NOT(ISERROR(SEARCH(("*-"),(H3))))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="H3">
-    <cfRule type="colorScale" priority="28">
-      <colorScale>
-        <cfvo type="formula" val="0"/>
-        <cfvo type="formula" val="1"/>
-        <cfvo type="formula" val="10"/>
-        <color rgb="FFFF9F9F"/>
-        <color rgb="FFD1E0B2"/>
-        <color rgb="FF00B050"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="G4:G5">
-    <cfRule type="containsText" dxfId="44" priority="25" operator="containsText" text="*-">
-      <formula>NOT(ISERROR(SEARCH(("*-"),(G4))))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="G4:G5">
+  <conditionalFormatting sqref="H7">
+    <cfRule type="containsText" dxfId="77" priority="31" operator="containsText" text="*-">
+      <formula>NOT(ISERROR(SEARCH(("*-"),(H7))))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H7">
+    <cfRule type="colorScale" priority="32">
+      <colorScale>
+        <cfvo type="formula" val="0"/>
+        <cfvo type="formula" val="1"/>
+        <cfvo type="formula" val="10"/>
+        <color rgb="FFFF9F9F"/>
+        <color rgb="FFD1E0B2"/>
+        <color rgb="FF00B050"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H9:H10">
+    <cfRule type="containsText" dxfId="76" priority="23" operator="containsText" text="*-">
+      <formula>NOT(ISERROR(SEARCH(("*-"),(H9))))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H9:H10">
+    <cfRule type="colorScale" priority="24">
+      <colorScale>
+        <cfvo type="formula" val="0"/>
+        <cfvo type="formula" val="1"/>
+        <cfvo type="formula" val="10"/>
+        <color rgb="FFFF9F9F"/>
+        <color rgb="FFD1E0B2"/>
+        <color rgb="FF00B050"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G10 G12">
+    <cfRule type="containsText" dxfId="75" priority="25" operator="containsText" text="*-">
+      <formula>NOT(ISERROR(SEARCH(("*-"),(G10))))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G10 G12">
     <cfRule type="colorScale" priority="26">
       <colorScale>
         <cfvo type="formula" val="0"/>
@@ -2360,63 +2766,46 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H4:H5">
-    <cfRule type="containsText" dxfId="43" priority="23" operator="containsText" text="*-">
-      <formula>NOT(ISERROR(SEARCH(("*-"),(H4))))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="H4:H5">
-    <cfRule type="colorScale" priority="24">
-      <colorScale>
-        <cfvo type="formula" val="0"/>
-        <cfvo type="formula" val="1"/>
-        <cfvo type="formula" val="10"/>
-        <color rgb="FFFF9F9F"/>
-        <color rgb="FFD1E0B2"/>
-        <color rgb="FF00B050"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="G6">
-    <cfRule type="containsText" dxfId="42" priority="21" operator="containsText" text="*-">
-      <formula>NOT(ISERROR(SEARCH(("*-"),(G6))))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="G6">
-    <cfRule type="colorScale" priority="22">
-      <colorScale>
-        <cfvo type="formula" val="0"/>
-        <cfvo type="formula" val="1"/>
-        <cfvo type="formula" val="10"/>
-        <color rgb="FFFF9F9F"/>
-        <color rgb="FFD1E0B2"/>
-        <color rgb="FF00B050"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="H7">
-    <cfRule type="containsText" dxfId="41" priority="19" operator="containsText" text="*-">
-      <formula>NOT(ISERROR(SEARCH(("*-"),(H7))))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="H7">
-    <cfRule type="colorScale" priority="20">
-      <colorScale>
-        <cfvo type="formula" val="0"/>
-        <cfvo type="formula" val="1"/>
-        <cfvo type="formula" val="10"/>
-        <color rgb="FFFF9F9F"/>
-        <color rgb="FFD1E0B2"/>
-        <color rgb="FF00B050"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="H9">
-    <cfRule type="containsText" dxfId="40" priority="11" operator="containsText" text="*-">
-      <formula>NOT(ISERROR(SEARCH(("*-"),(H9))))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="H9">
+  <conditionalFormatting sqref="H8">
+    <cfRule type="containsText" dxfId="74" priority="15" operator="containsText" text="*-">
+      <formula>NOT(ISERROR(SEARCH(("*-"),(H8))))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H8">
+    <cfRule type="colorScale" priority="16">
+      <colorScale>
+        <cfvo type="formula" val="0"/>
+        <cfvo type="formula" val="1"/>
+        <cfvo type="formula" val="10"/>
+        <color rgb="FFFF9F9F"/>
+        <color rgb="FFD1E0B2"/>
+        <color rgb="FF00B050"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G8">
+    <cfRule type="containsText" dxfId="73" priority="13" operator="containsText" text="*-">
+      <formula>NOT(ISERROR(SEARCH(("*-"),(G8))))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G8">
+    <cfRule type="colorScale" priority="14">
+      <colorScale>
+        <cfvo type="formula" val="0"/>
+        <cfvo type="formula" val="1"/>
+        <cfvo type="formula" val="10"/>
+        <color rgb="FFFF9F9F"/>
+        <color rgb="FFD1E0B2"/>
+        <color rgb="FF00B050"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G11">
+    <cfRule type="containsText" dxfId="72" priority="11" operator="containsText" text="*-">
+      <formula>NOT(ISERROR(SEARCH(("*-"),(G11))))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G11">
     <cfRule type="colorScale" priority="12">
       <colorScale>
         <cfvo type="formula" val="0"/>
@@ -2428,47 +2817,61 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
+  <conditionalFormatting sqref="H11">
+    <cfRule type="containsText" dxfId="71" priority="9" operator="containsText" text="*-">
+      <formula>NOT(ISERROR(SEARCH(("*-"),(H11))))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H11">
+    <cfRule type="colorScale" priority="10">
+      <colorScale>
+        <cfvo type="formula" val="0"/>
+        <cfvo type="formula" val="1"/>
+        <cfvo type="formula" val="10"/>
+        <color rgb="FFFF9F9F"/>
+        <color rgb="FFD1E0B2"/>
+        <color rgb="FF00B050"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H12">
+    <cfRule type="colorScale" priority="7">
+      <colorScale>
+        <cfvo type="formula" val="0"/>
+        <cfvo type="formula" val="1"/>
+        <cfvo type="formula" val="10"/>
+        <color rgb="FFFF9F9F"/>
+        <color rgb="FFD1E0B2"/>
+        <color rgb="FF00B050"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
   <conditionalFormatting sqref="G9">
-    <cfRule type="containsText" dxfId="39" priority="13" operator="containsText" text="*-">
-      <formula>NOT(ISERROR(SEARCH(("*-"),(G9))))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="G9">
-    <cfRule type="colorScale" priority="14">
-      <colorScale>
-        <cfvo type="formula" val="0"/>
-        <cfvo type="formula" val="1"/>
-        <cfvo type="formula" val="10"/>
-        <color rgb="FFFF9F9F"/>
-        <color rgb="FFD1E0B2"/>
-        <color rgb="FF00B050"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="H8">
-    <cfRule type="containsText" dxfId="38" priority="3" operator="containsText" text="*-">
-      <formula>NOT(ISERROR(SEARCH(("*-"),(H8))))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="H8">
-    <cfRule type="colorScale" priority="4">
-      <colorScale>
-        <cfvo type="formula" val="0"/>
-        <cfvo type="formula" val="1"/>
-        <cfvo type="formula" val="10"/>
-        <color rgb="FFFF9F9F"/>
-        <color rgb="FFD1E0B2"/>
-        <color rgb="FF00B050"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="G8">
-    <cfRule type="containsText" dxfId="37" priority="1" operator="containsText" text="*-">
-      <formula>NOT(ISERROR(SEARCH(("*-"),(G8))))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="G8">
-    <cfRule type="colorScale" priority="2">
+    <cfRule type="colorScale" priority="5">
+      <colorScale>
+        <cfvo type="formula" val="0"/>
+        <cfvo type="formula" val="1"/>
+        <cfvo type="formula" val="10"/>
+        <color rgb="FFFF9F9F"/>
+        <color rgb="FFD1E0B2"/>
+        <color rgb="FF00B050"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G5">
+    <cfRule type="colorScale" priority="3">
+      <colorScale>
+        <cfvo type="formula" val="0"/>
+        <cfvo type="formula" val="1"/>
+        <cfvo type="formula" val="10"/>
+        <color rgb="FFFF9F9F"/>
+        <color rgb="FFD1E0B2"/>
+        <color rgb="FF00B050"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H4">
+    <cfRule type="colorScale" priority="1">
       <colorScale>
         <cfvo type="formula" val="0"/>
         <cfvo type="formula" val="1"/>
@@ -2482,55 +2885,117 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
   <legacyDrawing r:id="rId2"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{78C0D931-6437-407d-A8EE-F0AAD7539E65}">
+      <x14:conditionalFormattings>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="containsText" priority="8" operator="containsText" text="*-" id="{637DEDFE-8DF1-4024-8AF2-2E0340DC1C28}">
+            <xm:f>NOT(ISERROR(SEARCH(("*-"),('2cents'!H12))))</xm:f>
+            <x14:dxf>
+              <fill>
+                <patternFill patternType="solid">
+                  <fgColor rgb="FF9BE5FF"/>
+                  <bgColor rgb="FF9BE5FF"/>
+                </patternFill>
+              </fill>
+            </x14:dxf>
+          </x14:cfRule>
+          <xm:sqref>H12</xm:sqref>
+        </x14:conditionalFormatting>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="containsText" priority="6" operator="containsText" text="*-" id="{660F1D01-3FC2-4EBB-BCD0-07C61173FE53}">
+            <xm:f>NOT(ISERROR(SEARCH(("*-"),('2cents'!G9))))</xm:f>
+            <x14:dxf>
+              <fill>
+                <patternFill patternType="solid">
+                  <fgColor rgb="FF9BE5FF"/>
+                  <bgColor rgb="FF9BE5FF"/>
+                </patternFill>
+              </fill>
+            </x14:dxf>
+          </x14:cfRule>
+          <xm:sqref>G9</xm:sqref>
+        </x14:conditionalFormatting>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="containsText" priority="4" operator="containsText" text="*-" id="{CBF45C4B-F1F4-424C-B8F0-9CDE63039599}">
+            <xm:f>NOT(ISERROR(SEARCH(("*-"),('2cents'!G5))))</xm:f>
+            <x14:dxf>
+              <fill>
+                <patternFill patternType="solid">
+                  <fgColor rgb="FF9BE5FF"/>
+                  <bgColor rgb="FF9BE5FF"/>
+                </patternFill>
+              </fill>
+            </x14:dxf>
+          </x14:cfRule>
+          <xm:sqref>G5</xm:sqref>
+        </x14:conditionalFormatting>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="containsText" priority="2" operator="containsText" text="*-" id="{67F6C3C6-3C72-4A5F-9E64-C0466D9D8CD1}">
+            <xm:f>NOT(ISERROR(SEARCH(("*-"),('2cents'!H4))))</xm:f>
+            <x14:dxf>
+              <fill>
+                <patternFill patternType="solid">
+                  <fgColor rgb="FF9BE5FF"/>
+                  <bgColor rgb="FF9BE5FF"/>
+                </patternFill>
+              </fill>
+            </x14:dxf>
+          </x14:cfRule>
+          <xm:sqref>H4</xm:sqref>
+        </x14:conditionalFormatting>
+      </x14:conditionalFormattings>
+    </ext>
+  </extLst>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:I9"/>
+  <dimension ref="A1:I12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="9" ySplit="2" topLeftCell="K3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="H1" sqref="H1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="I4" sqref="I4:I9"/>
+      <selection pane="bottomRight" activeCell="F9" sqref="F9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="5.42578125" style="4" customWidth="1"/>
-    <col min="2" max="2" width="24.85546875" style="4" customWidth="1"/>
-    <col min="3" max="3" width="36.7109375" style="4" customWidth="1"/>
-    <col min="4" max="4" width="24.85546875" style="4" customWidth="1"/>
-    <col min="5" max="6" width="12.42578125" style="4" customWidth="1"/>
-    <col min="7" max="8" width="3.85546875" style="4" customWidth="1"/>
-    <col min="9" max="9" width="13.7109375" style="4" customWidth="1"/>
+    <col min="1" max="1" width="5.453125" style="4" customWidth="1"/>
+    <col min="2" max="2" width="24.81640625" style="4" customWidth="1"/>
+    <col min="3" max="3" width="36.7265625" style="4" customWidth="1"/>
+    <col min="4" max="4" width="24.81640625" style="4" customWidth="1"/>
+    <col min="5" max="6" width="12.453125" style="4" customWidth="1"/>
+    <col min="7" max="8" width="3.81640625" style="4" customWidth="1"/>
+    <col min="9" max="9" width="13.7265625" style="4" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="24" t="s">
+    <row r="1" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A1" s="25" t="s">
         <v>1</v>
       </c>
-      <c r="B1" s="24" t="s">
+      <c r="B1" s="25" t="s">
         <v>2</v>
       </c>
-      <c r="C1" s="26" t="s">
+      <c r="C1" s="27" t="s">
         <v>3</v>
       </c>
-      <c r="D1" s="27"/>
-      <c r="E1" s="28" t="s">
+      <c r="D1" s="28"/>
+      <c r="E1" s="29" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="29"/>
-      <c r="G1" s="30" t="s">
+      <c r="F1" s="30"/>
+      <c r="G1" s="31" t="s">
         <v>8</v>
       </c>
-      <c r="H1" s="31"/>
+      <c r="H1" s="32"/>
       <c r="I1" s="2"/>
     </row>
-    <row r="2" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="25"/>
-      <c r="B2" s="25"/>
+    <row r="2" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A2" s="26"/>
+      <c r="B2" s="26"/>
       <c r="C2" s="6" t="s">
         <v>5</v>
       </c>
@@ -2551,7 +3016,7 @@
       </c>
       <c r="I2" s="2"/>
     </row>
-    <row r="3" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A3" s="9">
         <v>2014</v>
       </c>
@@ -2579,7 +3044,7 @@
         <v/>
       </c>
     </row>
-    <row r="4" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A4" s="9">
         <v>2015</v>
       </c>
@@ -2599,7 +3064,7 @@
       <c r="G4" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="H4" s="1" t="s">
+      <c r="H4" s="20">
         <v>0</v>
       </c>
       <c r="I4" s="3" t="str">
@@ -2607,7 +3072,7 @@
         <v/>
       </c>
     </row>
-    <row r="5" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A5" s="9">
         <v>2016</v>
       </c>
@@ -2624,7 +3089,7 @@
       <c r="F5" s="7" t="s">
         <v>0</v>
       </c>
-      <c r="G5" s="1" t="s">
+      <c r="G5" s="20">
         <v>0</v>
       </c>
       <c r="H5" s="1" t="s">
@@ -2635,7 +3100,7 @@
         <v/>
       </c>
     </row>
-    <row r="6" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A6" s="9">
         <v>2017</v>
       </c>
@@ -2663,7 +3128,7 @@
         <v/>
       </c>
     </row>
-    <row r="7" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A7" s="9">
         <v>2018</v>
       </c>
@@ -2691,7 +3156,7 @@
         <v/>
       </c>
     </row>
-    <row r="8" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A8" s="9">
         <v>2019</v>
       </c>
@@ -2719,7 +3184,7 @@
         <v/>
       </c>
     </row>
-    <row r="9" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A9" s="9">
         <v>2020</v>
       </c>
@@ -2730,13 +3195,13 @@
         <v>55</v>
       </c>
       <c r="D9" s="5"/>
-      <c r="E9" s="7" t="s">
-        <v>0</v>
-      </c>
-      <c r="F9" s="21" t="s">
+      <c r="E9" s="21" t="s">
         <v>60</v>
       </c>
-      <c r="G9" s="1" t="s">
+      <c r="F9" s="7" t="s">
+        <v>0</v>
+      </c>
+      <c r="G9" s="20">
         <v>0</v>
       </c>
       <c r="H9" s="1" t="s">
@@ -2744,6 +3209,90 @@
       </c>
       <c r="I9" s="3" t="str">
         <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="10" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A10" s="9">
+        <v>2021</v>
+      </c>
+      <c r="B10" s="10" t="s">
+        <v>56</v>
+      </c>
+      <c r="C10" s="23" t="s">
+        <v>55</v>
+      </c>
+      <c r="D10" s="5"/>
+      <c r="E10" s="7" t="s">
+        <v>0</v>
+      </c>
+      <c r="F10" s="12" t="s">
+        <v>72</v>
+      </c>
+      <c r="G10" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="H10" s="20">
+        <v>0</v>
+      </c>
+      <c r="I10" s="3" t="str">
+        <f t="shared" ref="I10:I12" si="1">IF(OR(AND(G10&gt;1,G10&lt;&gt;"-"),AND(H10&gt;1,H10&lt;&gt;"-")),"Can exchange","")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="11" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A11" s="9">
+        <v>2022</v>
+      </c>
+      <c r="B11" s="10" t="s">
+        <v>56</v>
+      </c>
+      <c r="C11" s="23" t="s">
+        <v>55</v>
+      </c>
+      <c r="D11" s="5"/>
+      <c r="E11" s="12" t="s">
+        <v>79</v>
+      </c>
+      <c r="F11" s="7" t="s">
+        <v>0</v>
+      </c>
+      <c r="G11" s="20">
+        <v>0</v>
+      </c>
+      <c r="H11" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="I11" s="3" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+    </row>
+    <row r="12" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A12" s="9">
+        <v>2023</v>
+      </c>
+      <c r="B12" s="10" t="s">
+        <v>56</v>
+      </c>
+      <c r="C12" s="23" t="s">
+        <v>55</v>
+      </c>
+      <c r="D12" s="5"/>
+      <c r="E12" s="7" t="s">
+        <v>0</v>
+      </c>
+      <c r="F12" s="21" t="s">
+        <v>73</v>
+      </c>
+      <c r="G12" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="H12" s="20">
+        <v>0</v>
+      </c>
+      <c r="I12" s="3" t="str">
+        <f t="shared" si="1"/>
         <v/>
       </c>
     </row>
@@ -2757,6 +3306,176 @@
   </mergeCells>
   <phoneticPr fontId="8" type="noConversion"/>
   <conditionalFormatting sqref="G6">
+    <cfRule type="colorScale" priority="34">
+      <colorScale>
+        <cfvo type="formula" val="0"/>
+        <cfvo type="formula" val="1"/>
+        <cfvo type="formula" val="10"/>
+        <color rgb="FFFF9F9F"/>
+        <color rgb="FFD1E0B2"/>
+        <color rgb="FF00B050"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H7">
+    <cfRule type="colorScale" priority="32">
+      <colorScale>
+        <cfvo type="formula" val="0"/>
+        <cfvo type="formula" val="1"/>
+        <cfvo type="formula" val="10"/>
+        <color rgb="FFFF9F9F"/>
+        <color rgb="FFD1E0B2"/>
+        <color rgb="FF00B050"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G3 G7">
+    <cfRule type="containsText" dxfId="66" priority="43" operator="containsText" text="*-">
+      <formula>NOT(ISERROR(SEARCH(("*-"),(G3))))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G7 G3">
+    <cfRule type="colorScale" priority="44">
+      <colorScale>
+        <cfvo type="formula" val="0"/>
+        <cfvo type="formula" val="1"/>
+        <cfvo type="formula" val="10"/>
+        <color rgb="FFFF9F9F"/>
+        <color rgb="FFD1E0B2"/>
+        <color rgb="FF00B050"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H6">
+    <cfRule type="containsText" dxfId="65" priority="41" operator="containsText" text="*-">
+      <formula>NOT(ISERROR(SEARCH(("*-"),(H6))))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H6">
+    <cfRule type="colorScale" priority="42">
+      <colorScale>
+        <cfvo type="formula" val="0"/>
+        <cfvo type="formula" val="1"/>
+        <cfvo type="formula" val="10"/>
+        <color rgb="FFFF9F9F"/>
+        <color rgb="FFD1E0B2"/>
+        <color rgb="FF00B050"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H3">
+    <cfRule type="containsText" dxfId="64" priority="39" operator="containsText" text="*-">
+      <formula>NOT(ISERROR(SEARCH(("*-"),(H3))))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H3">
+    <cfRule type="colorScale" priority="40">
+      <colorScale>
+        <cfvo type="formula" val="0"/>
+        <cfvo type="formula" val="1"/>
+        <cfvo type="formula" val="10"/>
+        <color rgb="FFFF9F9F"/>
+        <color rgb="FFD1E0B2"/>
+        <color rgb="FF00B050"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G4">
+    <cfRule type="containsText" dxfId="63" priority="37" operator="containsText" text="*-">
+      <formula>NOT(ISERROR(SEARCH(("*-"),(G4))))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G4">
+    <cfRule type="colorScale" priority="38">
+      <colorScale>
+        <cfvo type="formula" val="0"/>
+        <cfvo type="formula" val="1"/>
+        <cfvo type="formula" val="10"/>
+        <color rgb="FFFF9F9F"/>
+        <color rgb="FFD1E0B2"/>
+        <color rgb="FF00B050"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H5">
+    <cfRule type="containsText" dxfId="62" priority="35" operator="containsText" text="*-">
+      <formula>NOT(ISERROR(SEARCH(("*-"),(H5))))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H5">
+    <cfRule type="colorScale" priority="36">
+      <colorScale>
+        <cfvo type="formula" val="0"/>
+        <cfvo type="formula" val="1"/>
+        <cfvo type="formula" val="10"/>
+        <color rgb="FFFF9F9F"/>
+        <color rgb="FFD1E0B2"/>
+        <color rgb="FF00B050"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G6">
+    <cfRule type="containsText" dxfId="61" priority="33" operator="containsText" text="*-">
+      <formula>NOT(ISERROR(SEARCH(("*-"),(G6))))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H7">
+    <cfRule type="containsText" dxfId="60" priority="31" operator="containsText" text="*-">
+      <formula>NOT(ISERROR(SEARCH(("*-"),(H7))))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H8">
+    <cfRule type="colorScale" priority="20">
+      <colorScale>
+        <cfvo type="formula" val="0"/>
+        <cfvo type="formula" val="1"/>
+        <cfvo type="formula" val="10"/>
+        <color rgb="FFFF9F9F"/>
+        <color rgb="FFD1E0B2"/>
+        <color rgb="FF00B050"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G12 G10">
+    <cfRule type="colorScale" priority="24">
+      <colorScale>
+        <cfvo type="formula" val="0"/>
+        <cfvo type="formula" val="1"/>
+        <cfvo type="formula" val="10"/>
+        <color rgb="FFFF9F9F"/>
+        <color rgb="FFD1E0B2"/>
+        <color rgb="FF00B050"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G10 G12">
+    <cfRule type="containsText" dxfId="59" priority="23" operator="containsText" text="*-">
+      <formula>NOT(ISERROR(SEARCH(("*-"),(G10))))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H9">
+    <cfRule type="containsText" dxfId="58" priority="21" operator="containsText" text="*-">
+      <formula>NOT(ISERROR(SEARCH(("*-"),(H9))))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H9">
+    <cfRule type="colorScale" priority="22">
+      <colorScale>
+        <cfvo type="formula" val="0"/>
+        <cfvo type="formula" val="1"/>
+        <cfvo type="formula" val="10"/>
+        <color rgb="FFFF9F9F"/>
+        <color rgb="FFD1E0B2"/>
+        <color rgb="FF00B050"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H8">
+    <cfRule type="containsText" dxfId="57" priority="19" operator="containsText" text="*-">
+      <formula>NOT(ISERROR(SEARCH(("*-"),(H8))))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G8">
     <cfRule type="colorScale" priority="18">
       <colorScale>
         <cfvo type="formula" val="0"/>
@@ -2768,7 +3487,12 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H7">
+  <conditionalFormatting sqref="G8">
+    <cfRule type="containsText" dxfId="56" priority="17" operator="containsText" text="*-">
+      <formula>NOT(ISERROR(SEARCH(("*-"),(G8))))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H10">
     <cfRule type="colorScale" priority="16">
       <colorScale>
         <cfvo type="formula" val="0"/>
@@ -2780,167 +3504,111 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="G3 G7">
-    <cfRule type="containsText" dxfId="36" priority="27" operator="containsText" text="*-">
-      <formula>NOT(ISERROR(SEARCH(("*-"),(G3))))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="G3 G7">
-    <cfRule type="colorScale" priority="28">
-      <colorScale>
-        <cfvo type="formula" val="0"/>
-        <cfvo type="formula" val="1"/>
-        <cfvo type="formula" val="10"/>
-        <color rgb="FFFF9F9F"/>
-        <color rgb="FFD1E0B2"/>
-        <color rgb="FF00B050"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="H6">
-    <cfRule type="containsText" dxfId="35" priority="25" operator="containsText" text="*-">
-      <formula>NOT(ISERROR(SEARCH(("*-"),(H6))))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="H6">
-    <cfRule type="colorScale" priority="26">
-      <colorScale>
-        <cfvo type="formula" val="0"/>
-        <cfvo type="formula" val="1"/>
-        <cfvo type="formula" val="10"/>
-        <color rgb="FFFF9F9F"/>
-        <color rgb="FFD1E0B2"/>
-        <color rgb="FF00B050"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="H3">
-    <cfRule type="containsText" dxfId="34" priority="23" operator="containsText" text="*-">
-      <formula>NOT(ISERROR(SEARCH(("*-"),(H3))))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="H3">
-    <cfRule type="colorScale" priority="24">
-      <colorScale>
-        <cfvo type="formula" val="0"/>
-        <cfvo type="formula" val="1"/>
-        <cfvo type="formula" val="10"/>
-        <color rgb="FFFF9F9F"/>
-        <color rgb="FFD1E0B2"/>
-        <color rgb="FF00B050"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="G4:G5">
-    <cfRule type="containsText" dxfId="33" priority="21" operator="containsText" text="*-">
-      <formula>NOT(ISERROR(SEARCH(("*-"),(G4))))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="G4:G5">
-    <cfRule type="colorScale" priority="22">
-      <colorScale>
-        <cfvo type="formula" val="0"/>
-        <cfvo type="formula" val="1"/>
-        <cfvo type="formula" val="10"/>
-        <color rgb="FFFF9F9F"/>
-        <color rgb="FFD1E0B2"/>
-        <color rgb="FF00B050"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="H4:H5">
-    <cfRule type="containsText" dxfId="32" priority="19" operator="containsText" text="*-">
+  <conditionalFormatting sqref="H10">
+    <cfRule type="containsText" dxfId="55" priority="15" operator="containsText" text="*-">
+      <formula>NOT(ISERROR(SEARCH(("*-"),(H10))))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G11">
+    <cfRule type="colorScale" priority="12">
+      <colorScale>
+        <cfvo type="formula" val="0"/>
+        <cfvo type="formula" val="1"/>
+        <cfvo type="formula" val="10"/>
+        <color rgb="FFFF9F9F"/>
+        <color rgb="FFD1E0B2"/>
+        <color rgb="FF00B050"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G11">
+    <cfRule type="containsText" dxfId="54" priority="11" operator="containsText" text="*-">
+      <formula>NOT(ISERROR(SEARCH(("*-"),(G11))))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H11">
+    <cfRule type="colorScale" priority="10">
+      <colorScale>
+        <cfvo type="formula" val="0"/>
+        <cfvo type="formula" val="1"/>
+        <cfvo type="formula" val="10"/>
+        <color rgb="FFFF9F9F"/>
+        <color rgb="FFD1E0B2"/>
+        <color rgb="FF00B050"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H11">
+    <cfRule type="containsText" dxfId="53" priority="9" operator="containsText" text="*-">
+      <formula>NOT(ISERROR(SEARCH(("*-"),(H11))))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H12">
+    <cfRule type="colorScale" priority="7">
+      <colorScale>
+        <cfvo type="formula" val="0"/>
+        <cfvo type="formula" val="1"/>
+        <cfvo type="formula" val="10"/>
+        <color rgb="FFFF9F9F"/>
+        <color rgb="FFD1E0B2"/>
+        <color rgb="FF00B050"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H12">
+    <cfRule type="containsText" dxfId="52" priority="8" operator="containsText" text="*-">
+      <formula>NOT(ISERROR(SEARCH(("*-"),(H12))))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G9">
+    <cfRule type="colorScale" priority="5">
+      <colorScale>
+        <cfvo type="formula" val="0"/>
+        <cfvo type="formula" val="1"/>
+        <cfvo type="formula" val="10"/>
+        <color rgb="FFFF9F9F"/>
+        <color rgb="FFD1E0B2"/>
+        <color rgb="FF00B050"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G9">
+    <cfRule type="containsText" dxfId="51" priority="6" operator="containsText" text="*-">
+      <formula>NOT(ISERROR(SEARCH(("*-"),(G9))))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G5">
+    <cfRule type="colorScale" priority="3">
+      <colorScale>
+        <cfvo type="formula" val="0"/>
+        <cfvo type="formula" val="1"/>
+        <cfvo type="formula" val="10"/>
+        <color rgb="FFFF9F9F"/>
+        <color rgb="FFD1E0B2"/>
+        <color rgb="FF00B050"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G5">
+    <cfRule type="containsText" dxfId="50" priority="4" operator="containsText" text="*-">
+      <formula>NOT(ISERROR(SEARCH(("*-"),(G5))))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H4">
+    <cfRule type="colorScale" priority="1">
+      <colorScale>
+        <cfvo type="formula" val="0"/>
+        <cfvo type="formula" val="1"/>
+        <cfvo type="formula" val="10"/>
+        <color rgb="FFFF9F9F"/>
+        <color rgb="FFD1E0B2"/>
+        <color rgb="FF00B050"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H4">
+    <cfRule type="containsText" dxfId="49" priority="2" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(H4))))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="H4:H5">
-    <cfRule type="colorScale" priority="20">
-      <colorScale>
-        <cfvo type="formula" val="0"/>
-        <cfvo type="formula" val="1"/>
-        <cfvo type="formula" val="10"/>
-        <color rgb="FFFF9F9F"/>
-        <color rgb="FFD1E0B2"/>
-        <color rgb="FF00B050"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="G6">
-    <cfRule type="containsText" dxfId="31" priority="17" operator="containsText" text="*-">
-      <formula>NOT(ISERROR(SEARCH(("*-"),(G6))))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="H7">
-    <cfRule type="containsText" dxfId="30" priority="15" operator="containsText" text="*-">
-      <formula>NOT(ISERROR(SEARCH(("*-"),(H7))))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="H8">
-    <cfRule type="colorScale" priority="4">
-      <colorScale>
-        <cfvo type="formula" val="0"/>
-        <cfvo type="formula" val="1"/>
-        <cfvo type="formula" val="10"/>
-        <color rgb="FFFF9F9F"/>
-        <color rgb="FFD1E0B2"/>
-        <color rgb="FF00B050"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="G9">
-    <cfRule type="colorScale" priority="8">
-      <colorScale>
-        <cfvo type="formula" val="0"/>
-        <cfvo type="formula" val="1"/>
-        <cfvo type="formula" val="10"/>
-        <color rgb="FFFF9F9F"/>
-        <color rgb="FFD1E0B2"/>
-        <color rgb="FF00B050"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="G9">
-    <cfRule type="containsText" dxfId="29" priority="7" operator="containsText" text="*-">
-      <formula>NOT(ISERROR(SEARCH(("*-"),(G9))))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="H9">
-    <cfRule type="containsText" dxfId="28" priority="5" operator="containsText" text="*-">
-      <formula>NOT(ISERROR(SEARCH(("*-"),(H9))))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="H9">
-    <cfRule type="colorScale" priority="6">
-      <colorScale>
-        <cfvo type="formula" val="0"/>
-        <cfvo type="formula" val="1"/>
-        <cfvo type="formula" val="10"/>
-        <color rgb="FFFF9F9F"/>
-        <color rgb="FFD1E0B2"/>
-        <color rgb="FF00B050"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="H8">
-    <cfRule type="containsText" dxfId="27" priority="3" operator="containsText" text="*-">
-      <formula>NOT(ISERROR(SEARCH(("*-"),(H8))))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="G8">
-    <cfRule type="colorScale" priority="2">
-      <colorScale>
-        <cfvo type="formula" val="0"/>
-        <cfvo type="formula" val="1"/>
-        <cfvo type="formula" val="10"/>
-        <color rgb="FFFF9F9F"/>
-        <color rgb="FFD1E0B2"/>
-        <color rgb="FF00B050"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="G8">
-    <cfRule type="containsText" dxfId="26" priority="1" operator="containsText" text="*-">
-      <formula>NOT(ISERROR(SEARCH(("*-"),(G8))))</formula>
     </cfRule>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -2951,50 +3619,50 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
-  <dimension ref="A1:I9"/>
+  <dimension ref="A1:I12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="9" ySplit="2" topLeftCell="J3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="J1" sqref="J1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="E10" sqref="E10"/>
+      <selection pane="bottomRight" activeCell="F9" sqref="F9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="5.42578125" style="4" customWidth="1"/>
-    <col min="2" max="2" width="24.85546875" style="4" customWidth="1"/>
-    <col min="3" max="3" width="36.7109375" style="4" customWidth="1"/>
-    <col min="4" max="4" width="24.85546875" style="4" customWidth="1"/>
-    <col min="5" max="6" width="12.42578125" style="4" customWidth="1"/>
-    <col min="7" max="8" width="3.85546875" style="4" customWidth="1"/>
-    <col min="9" max="9" width="13.7109375" style="4" customWidth="1"/>
+    <col min="1" max="1" width="5.453125" style="4" customWidth="1"/>
+    <col min="2" max="2" width="24.81640625" style="4" customWidth="1"/>
+    <col min="3" max="3" width="36.7265625" style="4" customWidth="1"/>
+    <col min="4" max="4" width="24.81640625" style="4" customWidth="1"/>
+    <col min="5" max="6" width="12.453125" style="4" customWidth="1"/>
+    <col min="7" max="8" width="3.81640625" style="4" customWidth="1"/>
+    <col min="9" max="9" width="13.7265625" style="4" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="24" t="s">
+    <row r="1" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A1" s="25" t="s">
         <v>1</v>
       </c>
-      <c r="B1" s="24" t="s">
+      <c r="B1" s="25" t="s">
         <v>2</v>
       </c>
-      <c r="C1" s="26" t="s">
+      <c r="C1" s="27" t="s">
         <v>3</v>
       </c>
-      <c r="D1" s="27"/>
-      <c r="E1" s="28" t="s">
+      <c r="D1" s="28"/>
+      <c r="E1" s="29" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="29"/>
-      <c r="G1" s="30" t="s">
+      <c r="F1" s="30"/>
+      <c r="G1" s="31" t="s">
         <v>9</v>
       </c>
-      <c r="H1" s="31"/>
+      <c r="H1" s="32"/>
       <c r="I1" s="2"/>
     </row>
-    <row r="2" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="25"/>
-      <c r="B2" s="25"/>
+    <row r="2" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A2" s="26"/>
+      <c r="B2" s="26"/>
       <c r="C2" s="6" t="s">
         <v>5</v>
       </c>
@@ -3015,7 +3683,7 @@
       </c>
       <c r="I2" s="2"/>
     </row>
-    <row r="3" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A3" s="9">
         <v>2014</v>
       </c>
@@ -3043,7 +3711,7 @@
         <v/>
       </c>
     </row>
-    <row r="4" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A4" s="9">
         <v>2015</v>
       </c>
@@ -3063,7 +3731,7 @@
       <c r="G4" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="H4" s="1" t="s">
+      <c r="H4" s="20">
         <v>0</v>
       </c>
       <c r="I4" s="3" t="str">
@@ -3071,7 +3739,7 @@
         <v/>
       </c>
     </row>
-    <row r="5" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A5" s="9">
         <v>2016</v>
       </c>
@@ -3088,7 +3756,7 @@
       <c r="F5" s="7" t="s">
         <v>0</v>
       </c>
-      <c r="G5" s="1" t="s">
+      <c r="G5" s="20">
         <v>0</v>
       </c>
       <c r="H5" s="1" t="s">
@@ -3099,7 +3767,7 @@
         <v/>
       </c>
     </row>
-    <row r="6" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A6" s="9">
         <v>2017</v>
       </c>
@@ -3127,7 +3795,7 @@
         <v/>
       </c>
     </row>
-    <row r="7" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A7" s="9">
         <v>2018</v>
       </c>
@@ -3155,7 +3823,7 @@
         <v/>
       </c>
     </row>
-    <row r="8" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A8" s="9">
         <v>2019</v>
       </c>
@@ -3180,7 +3848,7 @@
       </c>
       <c r="I8" s="3"/>
     </row>
-    <row r="9" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A9" s="9">
         <v>2020</v>
       </c>
@@ -3191,16 +3859,88 @@
         <v>55</v>
       </c>
       <c r="D9" s="11"/>
-      <c r="E9" s="7" t="s">
-        <v>0</v>
-      </c>
-      <c r="F9" s="21" t="s">
+      <c r="E9" s="21" t="s">
         <v>60</v>
       </c>
-      <c r="G9" s="1" t="s">
+      <c r="F9" s="7" t="s">
+        <v>0</v>
+      </c>
+      <c r="G9" s="20">
         <v>0</v>
       </c>
       <c r="H9" s="1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A10" s="9">
+        <v>2021</v>
+      </c>
+      <c r="B10" s="10" t="s">
+        <v>56</v>
+      </c>
+      <c r="C10" s="23" t="s">
+        <v>55</v>
+      </c>
+      <c r="D10" s="11"/>
+      <c r="E10" s="7" t="s">
+        <v>0</v>
+      </c>
+      <c r="F10" s="21" t="s">
+        <v>73</v>
+      </c>
+      <c r="G10" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="H10" s="20">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A11" s="9">
+        <v>2022</v>
+      </c>
+      <c r="B11" s="10" t="s">
+        <v>56</v>
+      </c>
+      <c r="C11" s="23" t="s">
+        <v>55</v>
+      </c>
+      <c r="D11" s="11"/>
+      <c r="E11" s="12" t="s">
+        <v>80</v>
+      </c>
+      <c r="F11" s="7" t="s">
+        <v>0</v>
+      </c>
+      <c r="G11" s="20">
+        <v>0</v>
+      </c>
+      <c r="H11" s="1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A12" s="9">
+        <v>2023</v>
+      </c>
+      <c r="B12" s="10" t="s">
+        <v>56</v>
+      </c>
+      <c r="C12" s="23" t="s">
+        <v>55</v>
+      </c>
+      <c r="D12" s="11"/>
+      <c r="E12" s="7" t="s">
+        <v>0</v>
+      </c>
+      <c r="F12" s="21" t="s">
+        <v>73</v>
+      </c>
+      <c r="G12" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="H12" s="20">
         <v>0</v>
       </c>
     </row>
@@ -3212,8 +3952,9 @@
     <mergeCell ref="E1:F1"/>
     <mergeCell ref="G1:H1"/>
   </mergeCells>
+  <phoneticPr fontId="9" type="noConversion"/>
   <conditionalFormatting sqref="G6">
-    <cfRule type="colorScale" priority="12">
+    <cfRule type="colorScale" priority="30">
       <colorScale>
         <cfvo type="formula" val="0"/>
         <cfvo type="formula" val="1"/>
@@ -3225,7 +3966,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H7">
-    <cfRule type="colorScale" priority="10">
+    <cfRule type="colorScale" priority="28">
       <colorScale>
         <cfvo type="formula" val="0"/>
         <cfvo type="formula" val="1"/>
@@ -3237,7 +3978,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G3 G7">
-    <cfRule type="colorScale" priority="22">
+    <cfRule type="colorScale" priority="40">
       <colorScale>
         <cfvo type="formula" val="0"/>
         <cfvo type="formula" val="1"/>
@@ -3249,6 +3990,90 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H6">
+    <cfRule type="colorScale" priority="38">
+      <colorScale>
+        <cfvo type="formula" val="0"/>
+        <cfvo type="formula" val="1"/>
+        <cfvo type="formula" val="10"/>
+        <color rgb="FFFF9F9F"/>
+        <color rgb="FFD1E0B2"/>
+        <color rgb="FF00B050"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H3">
+    <cfRule type="colorScale" priority="36">
+      <colorScale>
+        <cfvo type="formula" val="0"/>
+        <cfvo type="formula" val="1"/>
+        <cfvo type="formula" val="10"/>
+        <color rgb="FFFF9F9F"/>
+        <color rgb="FFD1E0B2"/>
+        <color rgb="FF00B050"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G4">
+    <cfRule type="colorScale" priority="34">
+      <colorScale>
+        <cfvo type="formula" val="0"/>
+        <cfvo type="formula" val="1"/>
+        <cfvo type="formula" val="10"/>
+        <color rgb="FFFF9F9F"/>
+        <color rgb="FFD1E0B2"/>
+        <color rgb="FF00B050"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H5">
+    <cfRule type="colorScale" priority="32">
+      <colorScale>
+        <cfvo type="formula" val="0"/>
+        <cfvo type="formula" val="1"/>
+        <cfvo type="formula" val="10"/>
+        <color rgb="FFFF9F9F"/>
+        <color rgb="FFD1E0B2"/>
+        <color rgb="FF00B050"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G8">
+    <cfRule type="colorScale" priority="26">
+      <colorScale>
+        <cfvo type="formula" val="0"/>
+        <cfvo type="formula" val="1"/>
+        <cfvo type="formula" val="10"/>
+        <color rgb="FFFF9F9F"/>
+        <color rgb="FFD1E0B2"/>
+        <color rgb="FF00B050"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G10 G12">
+    <cfRule type="colorScale" priority="23">
+      <colorScale>
+        <cfvo type="formula" val="0"/>
+        <cfvo type="formula" val="1"/>
+        <cfvo type="formula" val="10"/>
+        <color rgb="FFFF9F9F"/>
+        <color rgb="FFD1E0B2"/>
+        <color rgb="FF00B050"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H9">
+    <cfRule type="colorScale" priority="21">
+      <colorScale>
+        <cfvo type="formula" val="0"/>
+        <cfvo type="formula" val="1"/>
+        <cfvo type="formula" val="10"/>
+        <color rgb="FFFF9F9F"/>
+        <color rgb="FFD1E0B2"/>
+        <color rgb="FF00B050"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H8">
     <cfRule type="colorScale" priority="20">
       <colorScale>
         <cfvo type="formula" val="0"/>
@@ -3260,44 +4085,56 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H3">
-    <cfRule type="colorScale" priority="18">
-      <colorScale>
-        <cfvo type="formula" val="0"/>
-        <cfvo type="formula" val="1"/>
-        <cfvo type="formula" val="10"/>
-        <color rgb="FFFF9F9F"/>
-        <color rgb="FFD1E0B2"/>
-        <color rgb="FF00B050"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="G4:G5">
-    <cfRule type="colorScale" priority="16">
-      <colorScale>
-        <cfvo type="formula" val="0"/>
-        <cfvo type="formula" val="1"/>
-        <cfvo type="formula" val="10"/>
-        <color rgb="FFFF9F9F"/>
-        <color rgb="FFD1E0B2"/>
-        <color rgb="FF00B050"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="H4:H5">
-    <cfRule type="colorScale" priority="14">
-      <colorScale>
-        <cfvo type="formula" val="0"/>
-        <cfvo type="formula" val="1"/>
-        <cfvo type="formula" val="10"/>
-        <color rgb="FFFF9F9F"/>
-        <color rgb="FFD1E0B2"/>
-        <color rgb="FF00B050"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="G8">
-    <cfRule type="colorScale" priority="8">
+  <conditionalFormatting sqref="G11">
+    <cfRule type="colorScale" priority="15">
+      <colorScale>
+        <cfvo type="formula" val="0"/>
+        <cfvo type="formula" val="1"/>
+        <cfvo type="formula" val="10"/>
+        <color rgb="FFFF9F9F"/>
+        <color rgb="FFD1E0B2"/>
+        <color rgb="FF00B050"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H11">
+    <cfRule type="colorScale" priority="13">
+      <colorScale>
+        <cfvo type="formula" val="0"/>
+        <cfvo type="formula" val="1"/>
+        <cfvo type="formula" val="10"/>
+        <color rgb="FFFF9F9F"/>
+        <color rgb="FFD1E0B2"/>
+        <color rgb="FF00B050"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H4">
+    <cfRule type="colorScale" priority="9">
+      <colorScale>
+        <cfvo type="formula" val="0"/>
+        <cfvo type="formula" val="1"/>
+        <cfvo type="formula" val="10"/>
+        <color rgb="FFFF9F9F"/>
+        <color rgb="FFD1E0B2"/>
+        <color rgb="FF00B050"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G5">
+    <cfRule type="colorScale" priority="7">
+      <colorScale>
+        <cfvo type="formula" val="0"/>
+        <cfvo type="formula" val="1"/>
+        <cfvo type="formula" val="10"/>
+        <color rgb="FFFF9F9F"/>
+        <color rgb="FFD1E0B2"/>
+        <color rgb="FF00B050"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H10">
+    <cfRule type="colorScale" priority="5">
       <colorScale>
         <cfvo type="formula" val="0"/>
         <cfvo type="formula" val="1"/>
@@ -3309,18 +4146,6 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G9">
-    <cfRule type="colorScale" priority="5">
-      <colorScale>
-        <cfvo type="formula" val="0"/>
-        <cfvo type="formula" val="1"/>
-        <cfvo type="formula" val="10"/>
-        <color rgb="FFFF9F9F"/>
-        <color rgb="FFD1E0B2"/>
-        <color rgb="FF00B050"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="H9">
     <cfRule type="colorScale" priority="3">
       <colorScale>
         <cfvo type="formula" val="0"/>
@@ -3332,8 +4157,8 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H8">
-    <cfRule type="colorScale" priority="2">
+  <conditionalFormatting sqref="H12">
+    <cfRule type="colorScale" priority="1">
       <colorScale>
         <cfvo type="formula" val="0"/>
         <cfvo type="formula" val="1"/>
@@ -3351,7 +4176,7 @@
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{78C0D931-6437-407d-A8EE-F0AAD7539E65}">
       <x14:conditionalFormattings>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="containsText" priority="21" operator="containsText" text="*-" id="{694EFF47-226F-4C34-ADD6-D4D9FC296915}">
+          <x14:cfRule type="containsText" priority="39" operator="containsText" text="*-" id="{694EFF47-226F-4C34-ADD6-D4D9FC296915}">
             <xm:f>NOT(ISERROR(SEARCH(("*-"),('2cents'!G3))))</xm:f>
             <x14:dxf>
               <fill>
@@ -3362,10 +4187,10 @@
               </fill>
             </x14:dxf>
           </x14:cfRule>
-          <xm:sqref>G3:H7 H8</xm:sqref>
+          <xm:sqref>G3:H3 H8 G6:H7 G4 H5</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="containsText" priority="7" operator="containsText" text="*-" id="{FD7DBBF9-0739-44C0-85AC-8B870BD7A54C}">
+          <x14:cfRule type="containsText" priority="25" operator="containsText" text="*-" id="{FD7DBBF9-0739-44C0-85AC-8B870BD7A54C}">
             <xm:f>NOT(ISERROR(SEARCH(("*-"),('1cent'!G8))))</xm:f>
             <x14:dxf>
               <fill>
@@ -3376,7 +4201,105 @@
               </fill>
             </x14:dxf>
           </x14:cfRule>
-          <xm:sqref>G8 G9:H9</xm:sqref>
+          <xm:sqref>G8 H9 G12 G10</xm:sqref>
+        </x14:conditionalFormatting>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="containsText" priority="16" operator="containsText" text="*-" id="{B8204363-47DE-49F5-A1B4-06A2334976FC}">
+            <xm:f>NOT(ISERROR(SEARCH(("*-"),('2cents'!G11))))</xm:f>
+            <x14:dxf>
+              <fill>
+                <patternFill patternType="solid">
+                  <fgColor rgb="FF9BE5FF"/>
+                  <bgColor rgb="FF9BE5FF"/>
+                </patternFill>
+              </fill>
+            </x14:dxf>
+          </x14:cfRule>
+          <xm:sqref>G11</xm:sqref>
+        </x14:conditionalFormatting>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="containsText" priority="14" operator="containsText" text="*-" id="{EC526AB2-E411-48DD-891A-D06220948FBC}">
+            <xm:f>NOT(ISERROR(SEARCH(("*-"),('1cent'!H11))))</xm:f>
+            <x14:dxf>
+              <fill>
+                <patternFill patternType="solid">
+                  <fgColor rgb="FF9BE5FF"/>
+                  <bgColor rgb="FF9BE5FF"/>
+                </patternFill>
+              </fill>
+            </x14:dxf>
+          </x14:cfRule>
+          <xm:sqref>H11</xm:sqref>
+        </x14:conditionalFormatting>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="containsText" priority="10" operator="containsText" text="*-" id="{8F3BB3D6-31B2-4101-B9DC-C097FDB7E09B}">
+            <xm:f>NOT(ISERROR(SEARCH(("*-"),('2cents'!H4))))</xm:f>
+            <x14:dxf>
+              <fill>
+                <patternFill patternType="solid">
+                  <fgColor rgb="FF9BE5FF"/>
+                  <bgColor rgb="FF9BE5FF"/>
+                </patternFill>
+              </fill>
+            </x14:dxf>
+          </x14:cfRule>
+          <xm:sqref>H4</xm:sqref>
+        </x14:conditionalFormatting>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="containsText" priority="8" operator="containsText" text="*-" id="{5130BACB-6A61-4454-9C0E-83A055B29F01}">
+            <xm:f>NOT(ISERROR(SEARCH(("*-"),('2cents'!G5))))</xm:f>
+            <x14:dxf>
+              <fill>
+                <patternFill patternType="solid">
+                  <fgColor rgb="FF9BE5FF"/>
+                  <bgColor rgb="FF9BE5FF"/>
+                </patternFill>
+              </fill>
+            </x14:dxf>
+          </x14:cfRule>
+          <xm:sqref>G5</xm:sqref>
+        </x14:conditionalFormatting>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="containsText" priority="6" operator="containsText" text="*-" id="{7BD2154F-C4EB-423C-A412-B8117AA9F028}">
+            <xm:f>NOT(ISERROR(SEARCH(("*-"),('2cents'!H10))))</xm:f>
+            <x14:dxf>
+              <fill>
+                <patternFill patternType="solid">
+                  <fgColor rgb="FF9BE5FF"/>
+                  <bgColor rgb="FF9BE5FF"/>
+                </patternFill>
+              </fill>
+            </x14:dxf>
+          </x14:cfRule>
+          <xm:sqref>H10</xm:sqref>
+        </x14:conditionalFormatting>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="containsText" priority="4" operator="containsText" text="*-" id="{6E883CA6-5797-479D-912C-B73EFFAA4FCF}">
+            <xm:f>NOT(ISERROR(SEARCH(("*-"),('2cents'!G9))))</xm:f>
+            <x14:dxf>
+              <fill>
+                <patternFill patternType="solid">
+                  <fgColor rgb="FF9BE5FF"/>
+                  <bgColor rgb="FF9BE5FF"/>
+                </patternFill>
+              </fill>
+            </x14:dxf>
+          </x14:cfRule>
+          <xm:sqref>G9</xm:sqref>
+        </x14:conditionalFormatting>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="containsText" priority="2" operator="containsText" text="*-" id="{5F87C5C6-3895-4D01-B715-C564411A5494}">
+            <xm:f>NOT(ISERROR(SEARCH(("*-"),('2cents'!H12))))</xm:f>
+            <x14:dxf>
+              <fill>
+                <patternFill patternType="solid">
+                  <fgColor rgb="FF9BE5FF"/>
+                  <bgColor rgb="FF9BE5FF"/>
+                </patternFill>
+              </fill>
+            </x14:dxf>
+          </x14:cfRule>
+          <xm:sqref>H12</xm:sqref>
         </x14:conditionalFormatting>
       </x14:conditionalFormattings>
     </ext>
@@ -3386,50 +4309,50 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
-  <dimension ref="A1:I9"/>
+  <dimension ref="A1:I12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="9" ySplit="2" topLeftCell="J3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="H1" sqref="H1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="I3" sqref="I3:I9"/>
+      <selection pane="bottomRight" activeCell="F9" sqref="F9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="5.42578125" style="4" customWidth="1"/>
-    <col min="2" max="2" width="24.85546875" style="4" customWidth="1"/>
-    <col min="3" max="3" width="36.7109375" style="4" customWidth="1"/>
-    <col min="4" max="4" width="24.85546875" style="4" customWidth="1"/>
-    <col min="5" max="6" width="12.42578125" style="4" customWidth="1"/>
-    <col min="7" max="8" width="3.85546875" style="4" customWidth="1"/>
-    <col min="9" max="9" width="13.7109375" style="4" customWidth="1"/>
+    <col min="1" max="1" width="5.453125" style="4" customWidth="1"/>
+    <col min="2" max="2" width="24.81640625" style="4" customWidth="1"/>
+    <col min="3" max="3" width="36.7265625" style="4" customWidth="1"/>
+    <col min="4" max="4" width="24.81640625" style="4" customWidth="1"/>
+    <col min="5" max="6" width="12.453125" style="4" customWidth="1"/>
+    <col min="7" max="8" width="3.81640625" style="4" customWidth="1"/>
+    <col min="9" max="9" width="13.7265625" style="4" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="32" t="s">
+    <row r="1" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A1" s="33" t="s">
         <v>1</v>
       </c>
-      <c r="B1" s="34" t="s">
+      <c r="B1" s="35" t="s">
         <v>2</v>
       </c>
-      <c r="C1" s="26" t="s">
+      <c r="C1" s="27" t="s">
         <v>3</v>
       </c>
-      <c r="D1" s="36"/>
-      <c r="E1" s="28" t="s">
+      <c r="D1" s="37"/>
+      <c r="E1" s="29" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="37"/>
-      <c r="G1" s="38" t="s">
+      <c r="F1" s="38"/>
+      <c r="G1" s="39" t="s">
         <v>10</v>
       </c>
-      <c r="H1" s="39"/>
+      <c r="H1" s="40"/>
       <c r="I1" s="2"/>
     </row>
-    <row r="2" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="33"/>
-      <c r="B2" s="35"/>
+    <row r="2" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A2" s="34"/>
+      <c r="B2" s="36"/>
       <c r="C2" s="6" t="s">
         <v>5</v>
       </c>
@@ -3450,7 +4373,7 @@
       </c>
       <c r="I2" s="2"/>
     </row>
-    <row r="3" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A3" s="9">
         <v>2014</v>
       </c>
@@ -3480,7 +4403,7 @@
         <v/>
       </c>
     </row>
-    <row r="4" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A4" s="9">
         <v>2015</v>
       </c>
@@ -3502,7 +4425,7 @@
       <c r="G4" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="H4" s="1" t="s">
+      <c r="H4" s="20">
         <v>0</v>
       </c>
       <c r="I4" s="3" t="str">
@@ -3510,7 +4433,7 @@
         <v/>
       </c>
     </row>
-    <row r="5" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A5" s="9">
         <v>2016</v>
       </c>
@@ -3529,7 +4452,7 @@
       <c r="F5" s="7" t="s">
         <v>0</v>
       </c>
-      <c r="G5" s="1" t="s">
+      <c r="G5" s="20">
         <v>0</v>
       </c>
       <c r="H5" s="1" t="s">
@@ -3540,7 +4463,7 @@
         <v/>
       </c>
     </row>
-    <row r="6" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A6" s="9">
         <v>2017</v>
       </c>
@@ -3570,7 +4493,7 @@
         <v/>
       </c>
     </row>
-    <row r="7" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A7" s="9">
         <v>2018</v>
       </c>
@@ -3600,7 +4523,7 @@
         <v/>
       </c>
     </row>
-    <row r="8" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A8" s="9">
         <v>2019</v>
       </c>
@@ -3630,7 +4553,7 @@
         <v/>
       </c>
     </row>
-    <row r="9" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A9" s="9">
         <v>2020</v>
       </c>
@@ -3643,20 +4566,110 @@
       <c r="D9" s="11" t="s">
         <v>59</v>
       </c>
-      <c r="E9" s="7" t="s">
-        <v>0</v>
-      </c>
-      <c r="F9" s="12" t="s">
+      <c r="E9" s="12" t="s">
         <v>65</v>
       </c>
-      <c r="G9" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="H9" s="20">
+      <c r="F9" s="7" t="s">
+        <v>0</v>
+      </c>
+      <c r="G9" s="20">
+        <v>0</v>
+      </c>
+      <c r="H9" s="1" t="s">
         <v>0</v>
       </c>
       <c r="I9" s="3" t="str">
         <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="10" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A10" s="9">
+        <v>2021</v>
+      </c>
+      <c r="B10" s="10" t="s">
+        <v>57</v>
+      </c>
+      <c r="C10" s="23" t="s">
+        <v>55</v>
+      </c>
+      <c r="D10" s="11" t="s">
+        <v>59</v>
+      </c>
+      <c r="E10" s="7" t="s">
+        <v>0</v>
+      </c>
+      <c r="F10" s="12" t="s">
+        <v>74</v>
+      </c>
+      <c r="G10" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="H10" s="20">
+        <v>0</v>
+      </c>
+      <c r="I10" s="3" t="str">
+        <f t="shared" ref="I10:I12" si="1">IF(OR(AND(G10&gt;1,G10&lt;&gt;"-"),AND(H10&gt;1,H10&lt;&gt;"-")),"Can exchange","")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="11" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A11" s="9">
+        <v>2022</v>
+      </c>
+      <c r="B11" s="10" t="s">
+        <v>57</v>
+      </c>
+      <c r="C11" s="23" t="s">
+        <v>55</v>
+      </c>
+      <c r="D11" s="11" t="s">
+        <v>59</v>
+      </c>
+      <c r="E11" s="12" t="s">
+        <v>72</v>
+      </c>
+      <c r="F11" s="7" t="s">
+        <v>0</v>
+      </c>
+      <c r="G11" s="20">
+        <v>0</v>
+      </c>
+      <c r="H11" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="I11" s="3" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+    </row>
+    <row r="12" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A12" s="9">
+        <v>2023</v>
+      </c>
+      <c r="B12" s="10" t="s">
+        <v>57</v>
+      </c>
+      <c r="C12" s="23" t="s">
+        <v>55</v>
+      </c>
+      <c r="D12" s="11" t="s">
+        <v>59</v>
+      </c>
+      <c r="E12" s="7" t="s">
+        <v>0</v>
+      </c>
+      <c r="F12" s="21" t="s">
+        <v>73</v>
+      </c>
+      <c r="G12" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="H12" s="20">
+        <v>0</v>
+      </c>
+      <c r="I12" s="3" t="str">
+        <f t="shared" si="1"/>
         <v/>
       </c>
     </row>
@@ -3668,8 +4681,9 @@
     <mergeCell ref="E1:F1"/>
     <mergeCell ref="G1:H1"/>
   </mergeCells>
-  <conditionalFormatting sqref="G6 H9">
-    <cfRule type="colorScale" priority="16">
+  <phoneticPr fontId="9" type="noConversion"/>
+  <conditionalFormatting sqref="G6">
+    <cfRule type="colorScale" priority="32">
       <colorScale>
         <cfvo type="formula" val="0"/>
         <cfvo type="formula" val="1"/>
@@ -3681,7 +4695,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H7">
-    <cfRule type="colorScale" priority="15">
+    <cfRule type="colorScale" priority="31">
       <colorScale>
         <cfvo type="formula" val="0"/>
         <cfvo type="formula" val="1"/>
@@ -3693,7 +4707,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G3 G7">
-    <cfRule type="colorScale" priority="22">
+    <cfRule type="colorScale" priority="38">
       <colorScale>
         <cfvo type="formula" val="0"/>
         <cfvo type="formula" val="1"/>
@@ -3705,7 +4719,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H6">
-    <cfRule type="colorScale" priority="20">
+    <cfRule type="colorScale" priority="36">
       <colorScale>
         <cfvo type="formula" val="0"/>
         <cfvo type="formula" val="1"/>
@@ -3717,54 +4731,102 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H3">
-    <cfRule type="colorScale" priority="19">
-      <colorScale>
-        <cfvo type="formula" val="0"/>
-        <cfvo type="formula" val="1"/>
-        <cfvo type="formula" val="10"/>
-        <color rgb="FFFF9F9F"/>
-        <color rgb="FFD1E0B2"/>
-        <color rgb="FF00B050"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="G4:G5">
-    <cfRule type="colorScale" priority="18">
-      <colorScale>
-        <cfvo type="formula" val="0"/>
-        <cfvo type="formula" val="1"/>
-        <cfvo type="formula" val="10"/>
-        <color rgb="FFFF9F9F"/>
-        <color rgb="FFD1E0B2"/>
-        <color rgb="FF00B050"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="H4:H5">
-    <cfRule type="colorScale" priority="17">
-      <colorScale>
-        <cfvo type="formula" val="0"/>
-        <cfvo type="formula" val="1"/>
-        <cfvo type="formula" val="10"/>
-        <color rgb="FFFF9F9F"/>
-        <color rgb="FFD1E0B2"/>
-        <color rgb="FF00B050"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="G8">
-    <cfRule type="colorScale" priority="14">
-      <colorScale>
-        <cfvo type="formula" val="0"/>
-        <cfvo type="formula" val="1"/>
-        <cfvo type="formula" val="10"/>
-        <color rgb="FFFF9F9F"/>
-        <color rgb="FFD1E0B2"/>
-        <color rgb="FF00B050"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="H8">
+    <cfRule type="colorScale" priority="35">
+      <colorScale>
+        <cfvo type="formula" val="0"/>
+        <cfvo type="formula" val="1"/>
+        <cfvo type="formula" val="10"/>
+        <color rgb="FFFF9F9F"/>
+        <color rgb="FFD1E0B2"/>
+        <color rgb="FF00B050"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G4">
+    <cfRule type="colorScale" priority="34">
+      <colorScale>
+        <cfvo type="formula" val="0"/>
+        <cfvo type="formula" val="1"/>
+        <cfvo type="formula" val="10"/>
+        <color rgb="FFFF9F9F"/>
+        <color rgb="FFD1E0B2"/>
+        <color rgb="FF00B050"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H5">
+    <cfRule type="colorScale" priority="33">
+      <colorScale>
+        <cfvo type="formula" val="0"/>
+        <cfvo type="formula" val="1"/>
+        <cfvo type="formula" val="10"/>
+        <color rgb="FFFF9F9F"/>
+        <color rgb="FFD1E0B2"/>
+        <color rgb="FF00B050"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G10 G8 G12">
+    <cfRule type="colorScale" priority="30">
+      <colorScale>
+        <cfvo type="formula" val="0"/>
+        <cfvo type="formula" val="1"/>
+        <cfvo type="formula" val="10"/>
+        <color rgb="FFFF9F9F"/>
+        <color rgb="FFD1E0B2"/>
+        <color rgb="FF00B050"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H10 H8">
+    <cfRule type="colorScale" priority="24">
+      <colorScale>
+        <cfvo type="formula" val="0"/>
+        <cfvo type="formula" val="1"/>
+        <cfvo type="formula" val="10"/>
+        <color rgb="FFFF9F9F"/>
+        <color rgb="FFD1E0B2"/>
+        <color rgb="FF00B050"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G11">
+    <cfRule type="colorScale" priority="13">
+      <colorScale>
+        <cfvo type="formula" val="0"/>
+        <cfvo type="formula" val="1"/>
+        <cfvo type="formula" val="10"/>
+        <color rgb="FFFF9F9F"/>
+        <color rgb="FFD1E0B2"/>
+        <color rgb="FF00B050"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H11">
+    <cfRule type="colorScale" priority="12">
+      <colorScale>
+        <cfvo type="formula" val="0"/>
+        <cfvo type="formula" val="1"/>
+        <cfvo type="formula" val="10"/>
+        <color rgb="FFFF9F9F"/>
+        <color rgb="FFD1E0B2"/>
+        <color rgb="FF00B050"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G9">
+    <cfRule type="colorScale" priority="9">
+      <colorScale>
+        <cfvo type="formula" val="0"/>
+        <cfvo type="formula" val="1"/>
+        <cfvo type="formula" val="10"/>
+        <color rgb="FFFF9F9F"/>
+        <color rgb="FFD1E0B2"/>
+        <color rgb="FF00B050"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H9">
     <cfRule type="colorScale" priority="8">
       <colorScale>
         <cfvo type="formula" val="0"/>
@@ -3776,8 +4838,32 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="G9">
-    <cfRule type="colorScale" priority="2">
+  <conditionalFormatting sqref="H12">
+    <cfRule type="colorScale" priority="5">
+      <colorScale>
+        <cfvo type="formula" val="0"/>
+        <cfvo type="formula" val="1"/>
+        <cfvo type="formula" val="10"/>
+        <color rgb="FFFF9F9F"/>
+        <color rgb="FFD1E0B2"/>
+        <color rgb="FF00B050"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G5">
+    <cfRule type="colorScale" priority="3">
+      <colorScale>
+        <cfvo type="formula" val="0"/>
+        <cfvo type="formula" val="1"/>
+        <cfvo type="formula" val="10"/>
+        <color rgb="FFFF9F9F"/>
+        <color rgb="FFD1E0B2"/>
+        <color rgb="FF00B050"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H4">
+    <cfRule type="colorScale" priority="1">
       <colorScale>
         <cfvo type="formula" val="0"/>
         <cfvo type="formula" val="1"/>
@@ -3795,7 +4881,7 @@
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{78C0D931-6437-407d-A8EE-F0AAD7539E65}">
       <x14:conditionalFormattings>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="containsText" priority="21" operator="containsText" text="*-" id="{7AEA8373-1E3A-4AB0-BD1F-047F0EDE497B}">
+          <x14:cfRule type="containsText" priority="37" operator="containsText" text="*-" id="{7AEA8373-1E3A-4AB0-BD1F-047F0EDE497B}">
             <xm:f>NOT(ISERROR(SEARCH(("*-"),('2cents'!G3))))</xm:f>
             <x14:dxf>
               <fill>
@@ -3806,10 +4892,10 @@
               </fill>
             </x14:dxf>
           </x14:cfRule>
-          <xm:sqref>G3:H7 H8</xm:sqref>
+          <xm:sqref>G3:H3 H8 H10 G6:H7 H5 G4</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="containsText" priority="13" operator="containsText" text="*-" id="{BA77CDF5-8944-4594-8A93-4EFF876490C0}">
+          <x14:cfRule type="containsText" priority="29" operator="containsText" text="*-" id="{BA77CDF5-8944-4594-8A93-4EFF876490C0}">
             <xm:f>NOT(ISERROR(SEARCH(("*-"),('1cent'!G8))))</xm:f>
             <x14:dxf>
               <fill>
@@ -3820,11 +4906,53 @@
               </fill>
             </x14:dxf>
           </x14:cfRule>
-          <xm:sqref>G8:G9</xm:sqref>
+          <xm:sqref>G8 G12 G10</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="containsText" priority="45" operator="containsText" text="*-" id="{5478E032-6183-4945-B914-8244D77F9DC4}">
-            <xm:f>NOT(ISERROR(SEARCH(("*-"),('2cents'!H10))))</xm:f>
+          <x14:cfRule type="containsText" priority="14" operator="containsText" text="*-" id="{EC0E372E-6D0B-4B76-BBA3-AD34923437ED}">
+            <xm:f>NOT(ISERROR(SEARCH(("*-"),('2cents'!G12))))</xm:f>
+            <x14:dxf>
+              <fill>
+                <patternFill patternType="solid">
+                  <fgColor rgb="FF9BE5FF"/>
+                  <bgColor rgb="FF9BE5FF"/>
+                </patternFill>
+              </fill>
+            </x14:dxf>
+          </x14:cfRule>
+          <xm:sqref>G11</xm:sqref>
+        </x14:conditionalFormatting>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="containsText" priority="11" operator="containsText" text="*-" id="{5A01CDC1-4AB2-43BD-9881-FCB426CF1756}">
+            <xm:f>NOT(ISERROR(SEARCH(("*-"),('1cent'!H11))))</xm:f>
+            <x14:dxf>
+              <fill>
+                <patternFill patternType="solid">
+                  <fgColor rgb="FF9BE5FF"/>
+                  <bgColor rgb="FF9BE5FF"/>
+                </patternFill>
+              </fill>
+            </x14:dxf>
+          </x14:cfRule>
+          <xm:sqref>H11</xm:sqref>
+        </x14:conditionalFormatting>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="containsText" priority="10" operator="containsText" text="*-" id="{E01B750B-AB4B-4A13-B00A-F61268396490}">
+            <xm:f>NOT(ISERROR(SEARCH(("*-"),('2cents'!G10))))</xm:f>
+            <x14:dxf>
+              <fill>
+                <patternFill patternType="solid">
+                  <fgColor rgb="FF9BE5FF"/>
+                  <bgColor rgb="FF9BE5FF"/>
+                </patternFill>
+              </fill>
+            </x14:dxf>
+          </x14:cfRule>
+          <xm:sqref>G9</xm:sqref>
+        </x14:conditionalFormatting>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="containsText" priority="7" operator="containsText" text="*-" id="{8A09440F-1458-487F-A2ED-4CFEB45053F0}">
+            <xm:f>NOT(ISERROR(SEARCH(("*-"),('1cent'!H9))))</xm:f>
             <x14:dxf>
               <fill>
                 <patternFill patternType="solid">
@@ -3836,6 +4964,48 @@
           </x14:cfRule>
           <xm:sqref>H9</xm:sqref>
         </x14:conditionalFormatting>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="containsText" priority="6" operator="containsText" text="*-" id="{12576070-9B21-4E43-9F37-615F0C7C0F99}">
+            <xm:f>NOT(ISERROR(SEARCH(("*-"),('2cents'!H12))))</xm:f>
+            <x14:dxf>
+              <fill>
+                <patternFill patternType="solid">
+                  <fgColor rgb="FF9BE5FF"/>
+                  <bgColor rgb="FF9BE5FF"/>
+                </patternFill>
+              </fill>
+            </x14:dxf>
+          </x14:cfRule>
+          <xm:sqref>H12</xm:sqref>
+        </x14:conditionalFormatting>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="containsText" priority="4" operator="containsText" text="*-" id="{8BF39A68-95C3-4BF4-932F-8298EA55534A}">
+            <xm:f>NOT(ISERROR(SEARCH(("*-"),('2cents'!G5))))</xm:f>
+            <x14:dxf>
+              <fill>
+                <patternFill patternType="solid">
+                  <fgColor rgb="FF9BE5FF"/>
+                  <bgColor rgb="FF9BE5FF"/>
+                </patternFill>
+              </fill>
+            </x14:dxf>
+          </x14:cfRule>
+          <xm:sqref>G5</xm:sqref>
+        </x14:conditionalFormatting>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="containsText" priority="2" operator="containsText" text="*-" id="{9BC73525-29BC-4FDC-9478-7332E54B143C}">
+            <xm:f>NOT(ISERROR(SEARCH(("*-"),('2cents'!H4))))</xm:f>
+            <x14:dxf>
+              <fill>
+                <patternFill patternType="solid">
+                  <fgColor rgb="FF9BE5FF"/>
+                  <bgColor rgb="FF9BE5FF"/>
+                </patternFill>
+              </fill>
+            </x14:dxf>
+          </x14:cfRule>
+          <xm:sqref>H4</xm:sqref>
+        </x14:conditionalFormatting>
       </x14:conditionalFormattings>
     </ext>
   </extLst>
@@ -3844,50 +5014,50 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
-  <dimension ref="A1:I9"/>
+  <dimension ref="A1:I12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="9" ySplit="2" topLeftCell="J3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="H1" sqref="H1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="I3" sqref="I3:I9"/>
+      <selection pane="bottomRight" activeCell="F15" sqref="F15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="5.42578125" style="4" customWidth="1"/>
-    <col min="2" max="2" width="24.85546875" style="4" customWidth="1"/>
-    <col min="3" max="3" width="36.7109375" style="4" customWidth="1"/>
-    <col min="4" max="4" width="24.85546875" style="4" customWidth="1"/>
-    <col min="5" max="6" width="12.42578125" style="4" customWidth="1"/>
-    <col min="7" max="8" width="3.85546875" style="4" customWidth="1"/>
-    <col min="9" max="9" width="13.7109375" style="4" customWidth="1"/>
+    <col min="1" max="1" width="5.453125" style="4" customWidth="1"/>
+    <col min="2" max="2" width="24.81640625" style="4" customWidth="1"/>
+    <col min="3" max="3" width="36.7265625" style="4" customWidth="1"/>
+    <col min="4" max="4" width="24.81640625" style="4" customWidth="1"/>
+    <col min="5" max="6" width="12.453125" style="4" customWidth="1"/>
+    <col min="7" max="8" width="3.81640625" style="4" customWidth="1"/>
+    <col min="9" max="9" width="13.7265625" style="4" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="24" t="s">
+    <row r="1" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A1" s="25" t="s">
         <v>1</v>
       </c>
-      <c r="B1" s="24" t="s">
+      <c r="B1" s="25" t="s">
         <v>2</v>
       </c>
-      <c r="C1" s="26" t="s">
+      <c r="C1" s="27" t="s">
         <v>3</v>
       </c>
-      <c r="D1" s="27"/>
-      <c r="E1" s="28" t="s">
+      <c r="D1" s="28"/>
+      <c r="E1" s="29" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="29"/>
-      <c r="G1" s="30" t="s">
+      <c r="F1" s="30"/>
+      <c r="G1" s="31" t="s">
         <v>11</v>
       </c>
-      <c r="H1" s="31"/>
+      <c r="H1" s="32"/>
       <c r="I1" s="2"/>
     </row>
-    <row r="2" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="25"/>
-      <c r="B2" s="25"/>
+    <row r="2" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A2" s="26"/>
+      <c r="B2" s="26"/>
       <c r="C2" s="6" t="s">
         <v>5</v>
       </c>
@@ -3908,7 +5078,7 @@
       </c>
       <c r="I2" s="2"/>
     </row>
-    <row r="3" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A3" s="9">
         <v>2014</v>
       </c>
@@ -3938,7 +5108,7 @@
         <v/>
       </c>
     </row>
-    <row r="4" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A4" s="9">
         <v>2015</v>
       </c>
@@ -3960,7 +5130,7 @@
       <c r="G4" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="H4" s="1" t="s">
+      <c r="H4" s="20">
         <v>0</v>
       </c>
       <c r="I4" s="3" t="str">
@@ -3968,7 +5138,7 @@
         <v/>
       </c>
     </row>
-    <row r="5" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A5" s="9">
         <v>2016</v>
       </c>
@@ -3987,7 +5157,7 @@
       <c r="F5" s="7" t="s">
         <v>0</v>
       </c>
-      <c r="G5" s="1" t="s">
+      <c r="G5" s="20">
         <v>0</v>
       </c>
       <c r="H5" s="1" t="s">
@@ -3998,7 +5168,7 @@
         <v/>
       </c>
     </row>
-    <row r="6" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A6" s="9">
         <v>2017</v>
       </c>
@@ -4028,7 +5198,7 @@
         <v/>
       </c>
     </row>
-    <row r="7" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A7" s="9">
         <v>2018</v>
       </c>
@@ -4058,7 +5228,7 @@
         <v/>
       </c>
     </row>
-    <row r="8" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A8" s="9">
         <v>2019</v>
       </c>
@@ -4088,9 +5258,9 @@
         <v/>
       </c>
     </row>
-    <row r="9" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A9" s="9">
-        <v>2018</v>
+        <v>2020</v>
       </c>
       <c r="B9" s="10" t="s">
         <v>57</v>
@@ -4101,20 +5271,110 @@
       <c r="D9" s="11" t="s">
         <v>59</v>
       </c>
-      <c r="E9" s="7" t="s">
-        <v>0</v>
-      </c>
-      <c r="F9" s="12" t="s">
+      <c r="E9" s="12" t="s">
         <v>66</v>
       </c>
-      <c r="G9" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="H9" s="20">
+      <c r="F9" s="7" t="s">
+        <v>0</v>
+      </c>
+      <c r="G9" s="20">
+        <v>0</v>
+      </c>
+      <c r="H9" s="1" t="s">
         <v>0</v>
       </c>
       <c r="I9" s="3" t="str">
         <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="10" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A10" s="9">
+        <v>2021</v>
+      </c>
+      <c r="B10" s="10" t="s">
+        <v>57</v>
+      </c>
+      <c r="C10" s="23" t="s">
+        <v>55</v>
+      </c>
+      <c r="D10" s="11" t="s">
+        <v>59</v>
+      </c>
+      <c r="E10" s="7" t="s">
+        <v>0</v>
+      </c>
+      <c r="F10" s="12" t="s">
+        <v>75</v>
+      </c>
+      <c r="G10" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="H10" s="20">
+        <v>0</v>
+      </c>
+      <c r="I10" s="3" t="str">
+        <f t="shared" ref="I10:I12" si="1">IF(OR(AND(G10&gt;1,G10&lt;&gt;"-"),AND(H10&gt;1,H10&lt;&gt;"-")),"Can exchange","")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="11" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A11" s="9">
+        <v>2022</v>
+      </c>
+      <c r="B11" s="10" t="s">
+        <v>57</v>
+      </c>
+      <c r="C11" s="23" t="s">
+        <v>55</v>
+      </c>
+      <c r="D11" s="11" t="s">
+        <v>59</v>
+      </c>
+      <c r="E11" s="12" t="s">
+        <v>72</v>
+      </c>
+      <c r="F11" s="7" t="s">
+        <v>0</v>
+      </c>
+      <c r="G11" s="20">
+        <v>0</v>
+      </c>
+      <c r="H11" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="I11" s="3" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+    </row>
+    <row r="12" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A12" s="9">
+        <v>2023</v>
+      </c>
+      <c r="B12" s="10" t="s">
+        <v>57</v>
+      </c>
+      <c r="C12" s="23" t="s">
+        <v>55</v>
+      </c>
+      <c r="D12" s="11" t="s">
+        <v>59</v>
+      </c>
+      <c r="E12" s="7" t="s">
+        <v>0</v>
+      </c>
+      <c r="F12" s="21" t="s">
+        <v>73</v>
+      </c>
+      <c r="G12" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="H12" s="20">
+        <v>0</v>
+      </c>
+      <c r="I12" s="3" t="str">
+        <f t="shared" si="1"/>
         <v/>
       </c>
     </row>
@@ -4126,8 +5386,9 @@
     <mergeCell ref="E1:F1"/>
     <mergeCell ref="G1:H1"/>
   </mergeCells>
+  <phoneticPr fontId="9" type="noConversion"/>
   <conditionalFormatting sqref="G6">
-    <cfRule type="colorScale" priority="14">
+    <cfRule type="colorScale" priority="28">
       <colorScale>
         <cfvo type="formula" val="0"/>
         <cfvo type="formula" val="1"/>
@@ -4139,19 +5400,19 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H7">
-    <cfRule type="colorScale" priority="13">
-      <colorScale>
-        <cfvo type="formula" val="0"/>
-        <cfvo type="formula" val="1"/>
-        <cfvo type="formula" val="10"/>
-        <color rgb="FFFF9F9F"/>
-        <color rgb="FFD1E0B2"/>
-        <color rgb="FF00B050"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="G3 G7">
-    <cfRule type="colorScale" priority="20">
+    <cfRule type="colorScale" priority="27">
+      <colorScale>
+        <cfvo type="formula" val="0"/>
+        <cfvo type="formula" val="1"/>
+        <cfvo type="formula" val="10"/>
+        <color rgb="FFFF9F9F"/>
+        <color rgb="FFD1E0B2"/>
+        <color rgb="FF00B050"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G7 G3">
+    <cfRule type="colorScale" priority="34">
       <colorScale>
         <cfvo type="formula" val="0"/>
         <cfvo type="formula" val="1"/>
@@ -4163,7 +5424,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H6">
-    <cfRule type="colorScale" priority="18">
+    <cfRule type="colorScale" priority="32">
       <colorScale>
         <cfvo type="formula" val="0"/>
         <cfvo type="formula" val="1"/>
@@ -4175,30 +5436,66 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H3">
-    <cfRule type="colorScale" priority="17">
-      <colorScale>
-        <cfvo type="formula" val="0"/>
-        <cfvo type="formula" val="1"/>
-        <cfvo type="formula" val="10"/>
-        <color rgb="FFFF9F9F"/>
-        <color rgb="FFD1E0B2"/>
-        <color rgb="FF00B050"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="G4:G5">
-    <cfRule type="colorScale" priority="16">
-      <colorScale>
-        <cfvo type="formula" val="0"/>
-        <cfvo type="formula" val="1"/>
-        <cfvo type="formula" val="10"/>
-        <color rgb="FFFF9F9F"/>
-        <color rgb="FFD1E0B2"/>
-        <color rgb="FF00B050"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="H4:H5">
+    <cfRule type="colorScale" priority="31">
+      <colorScale>
+        <cfvo type="formula" val="0"/>
+        <cfvo type="formula" val="1"/>
+        <cfvo type="formula" val="10"/>
+        <color rgb="FFFF9F9F"/>
+        <color rgb="FFD1E0B2"/>
+        <color rgb="FF00B050"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G4">
+    <cfRule type="colorScale" priority="30">
+      <colorScale>
+        <cfvo type="formula" val="0"/>
+        <cfvo type="formula" val="1"/>
+        <cfvo type="formula" val="10"/>
+        <color rgb="FFFF9F9F"/>
+        <color rgb="FFD1E0B2"/>
+        <color rgb="FF00B050"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H5">
+    <cfRule type="colorScale" priority="29">
+      <colorScale>
+        <cfvo type="formula" val="0"/>
+        <cfvo type="formula" val="1"/>
+        <cfvo type="formula" val="10"/>
+        <color rgb="FFFF9F9F"/>
+        <color rgb="FFD1E0B2"/>
+        <color rgb="FF00B050"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G8 G10 G12">
+    <cfRule type="colorScale" priority="26">
+      <colorScale>
+        <cfvo type="formula" val="0"/>
+        <cfvo type="formula" val="1"/>
+        <cfvo type="formula" val="10"/>
+        <color rgb="FFFF9F9F"/>
+        <color rgb="FFD1E0B2"/>
+        <color rgb="FF00B050"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H10 H8">
+    <cfRule type="colorScale" priority="19">
+      <colorScale>
+        <cfvo type="formula" val="0"/>
+        <cfvo type="formula" val="1"/>
+        <cfvo type="formula" val="10"/>
+        <color rgb="FFFF9F9F"/>
+        <color rgb="FFD1E0B2"/>
+        <color rgb="FF00B050"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G11 G9">
     <cfRule type="colorScale" priority="15">
       <colorScale>
         <cfvo type="formula" val="0"/>
@@ -4210,7 +5507,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="G8">
+  <conditionalFormatting sqref="G11">
     <cfRule type="colorScale" priority="12">
       <colorScale>
         <cfvo type="formula" val="0"/>
@@ -4222,7 +5519,55 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
+  <conditionalFormatting sqref="H11">
+    <cfRule type="colorScale" priority="11">
+      <colorScale>
+        <cfvo type="formula" val="0"/>
+        <cfvo type="formula" val="1"/>
+        <cfvo type="formula" val="10"/>
+        <color rgb="FFFF9F9F"/>
+        <color rgb="FFD1E0B2"/>
+        <color rgb="FF00B050"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G9">
+    <cfRule type="colorScale" priority="9">
+      <colorScale>
+        <cfvo type="formula" val="0"/>
+        <cfvo type="formula" val="1"/>
+        <cfvo type="formula" val="10"/>
+        <color rgb="FFFF9F9F"/>
+        <color rgb="FFD1E0B2"/>
+        <color rgb="FF00B050"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
   <conditionalFormatting sqref="H9">
+    <cfRule type="colorScale" priority="8">
+      <colorScale>
+        <cfvo type="formula" val="0"/>
+        <cfvo type="formula" val="1"/>
+        <cfvo type="formula" val="10"/>
+        <color rgb="FFFF9F9F"/>
+        <color rgb="FFD1E0B2"/>
+        <color rgb="FF00B050"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H12">
+    <cfRule type="colorScale" priority="5">
+      <colorScale>
+        <cfvo type="formula" val="0"/>
+        <cfvo type="formula" val="1"/>
+        <cfvo type="formula" val="10"/>
+        <color rgb="FFFF9F9F"/>
+        <color rgb="FFD1E0B2"/>
+        <color rgb="FF00B050"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G5">
     <cfRule type="colorScale" priority="3">
       <colorScale>
         <cfvo type="formula" val="0"/>
@@ -4234,19 +5579,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H8">
-    <cfRule type="colorScale" priority="5">
-      <colorScale>
-        <cfvo type="formula" val="0"/>
-        <cfvo type="formula" val="1"/>
-        <cfvo type="formula" val="10"/>
-        <color rgb="FFFF9F9F"/>
-        <color rgb="FFD1E0B2"/>
-        <color rgb="FF00B050"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="G9">
+  <conditionalFormatting sqref="H4">
     <cfRule type="colorScale" priority="1">
       <colorScale>
         <cfvo type="formula" val="0"/>
@@ -4265,7 +5598,7 @@
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{78C0D931-6437-407d-A8EE-F0AAD7539E65}">
       <x14:conditionalFormattings>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="containsText" priority="19" operator="containsText" text="*-" id="{326F7D04-CE51-45FD-98DB-0BF8E54ED395}">
+          <x14:cfRule type="containsText" priority="33" operator="containsText" text="*-" id="{326F7D04-CE51-45FD-98DB-0BF8E54ED395}">
             <xm:f>NOT(ISERROR(SEARCH(("*-"),('2cents'!G3))))</xm:f>
             <x14:dxf>
               <fill>
@@ -4276,11 +5609,1483 @@
               </fill>
             </x14:dxf>
           </x14:cfRule>
-          <xm:sqref>G3:H7 H8 G9:H9</xm:sqref>
+          <xm:sqref>G3:H3 H8 H10 G11 G9 G6:H7 H5 G4</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="containsText" priority="11" operator="containsText" text="*-" id="{D970F607-03B9-4591-9F2C-83A2C1AEBD36}">
+          <x14:cfRule type="containsText" priority="25" operator="containsText" text="*-" id="{D970F607-03B9-4591-9F2C-83A2C1AEBD36}">
             <xm:f>NOT(ISERROR(SEARCH(("*-"),('1cent'!G8))))</xm:f>
+            <x14:dxf>
+              <fill>
+                <patternFill patternType="solid">
+                  <fgColor rgb="FF9BE5FF"/>
+                  <bgColor rgb="FF9BE5FF"/>
+                </patternFill>
+              </fill>
+            </x14:dxf>
+          </x14:cfRule>
+          <xm:sqref>G8 G10 G12</xm:sqref>
+        </x14:conditionalFormatting>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="containsText" priority="10" operator="containsText" text="*-" id="{5327C984-10F0-43B6-A770-E94AA0E616D1}">
+            <xm:f>NOT(ISERROR(SEARCH(("*-"),('1cent'!H11))))</xm:f>
+            <x14:dxf>
+              <fill>
+                <patternFill patternType="solid">
+                  <fgColor rgb="FF9BE5FF"/>
+                  <bgColor rgb="FF9BE5FF"/>
+                </patternFill>
+              </fill>
+            </x14:dxf>
+          </x14:cfRule>
+          <xm:sqref>H11</xm:sqref>
+        </x14:conditionalFormatting>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="containsText" priority="7" operator="containsText" text="*-" id="{8A98C01E-2FBD-45E2-8BD3-D891033F099D}">
+            <xm:f>NOT(ISERROR(SEARCH(("*-"),('1cent'!H9))))</xm:f>
+            <x14:dxf>
+              <fill>
+                <patternFill patternType="solid">
+                  <fgColor rgb="FF9BE5FF"/>
+                  <bgColor rgb="FF9BE5FF"/>
+                </patternFill>
+              </fill>
+            </x14:dxf>
+          </x14:cfRule>
+          <xm:sqref>H9</xm:sqref>
+        </x14:conditionalFormatting>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="containsText" priority="6" operator="containsText" text="*-" id="{65DB1F68-6AC1-4C20-A089-2207212105A6}">
+            <xm:f>NOT(ISERROR(SEARCH(("*-"),('2cents'!H12))))</xm:f>
+            <x14:dxf>
+              <fill>
+                <patternFill patternType="solid">
+                  <fgColor rgb="FF9BE5FF"/>
+                  <bgColor rgb="FF9BE5FF"/>
+                </patternFill>
+              </fill>
+            </x14:dxf>
+          </x14:cfRule>
+          <xm:sqref>H12</xm:sqref>
+        </x14:conditionalFormatting>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="containsText" priority="4" operator="containsText" text="*-" id="{4FE2423E-6F06-4FE7-A45C-2971C6636588}">
+            <xm:f>NOT(ISERROR(SEARCH(("*-"),('2cents'!G5))))</xm:f>
+            <x14:dxf>
+              <fill>
+                <patternFill patternType="solid">
+                  <fgColor rgb="FF9BE5FF"/>
+                  <bgColor rgb="FF9BE5FF"/>
+                </patternFill>
+              </fill>
+            </x14:dxf>
+          </x14:cfRule>
+          <xm:sqref>G5</xm:sqref>
+        </x14:conditionalFormatting>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="containsText" priority="2" operator="containsText" text="*-" id="{D83865BF-88D2-437A-9EC8-C81968ABADEC}">
+            <xm:f>NOT(ISERROR(SEARCH(("*-"),('2cents'!H4))))</xm:f>
+            <x14:dxf>
+              <fill>
+                <patternFill patternType="solid">
+                  <fgColor rgb="FF9BE5FF"/>
+                  <bgColor rgb="FF9BE5FF"/>
+                </patternFill>
+              </fill>
+            </x14:dxf>
+          </x14:cfRule>
+          <xm:sqref>H4</xm:sqref>
+        </x14:conditionalFormatting>
+      </x14:conditionalFormattings>
+    </ext>
+  </extLst>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
+  <dimension ref="A1:I12"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <pane xSplit="9" ySplit="2" topLeftCell="J3" activePane="bottomRight" state="frozen"/>
+      <selection pane="topRight" activeCell="H1" sqref="H1"/>
+      <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
+      <selection pane="bottomRight" activeCell="F9" sqref="F9"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="1" max="1" width="5.453125" style="4" customWidth="1"/>
+    <col min="2" max="2" width="24.81640625" style="4" customWidth="1"/>
+    <col min="3" max="3" width="36.7265625" style="4" customWidth="1"/>
+    <col min="4" max="4" width="24.81640625" style="4" customWidth="1"/>
+    <col min="5" max="6" width="12.453125" style="4" customWidth="1"/>
+    <col min="7" max="8" width="3.81640625" style="4" customWidth="1"/>
+    <col min="9" max="9" width="13.7265625" style="4" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A1" s="25" t="s">
+        <v>1</v>
+      </c>
+      <c r="B1" s="25" t="s">
+        <v>2</v>
+      </c>
+      <c r="C1" s="27" t="s">
+        <v>3</v>
+      </c>
+      <c r="D1" s="28"/>
+      <c r="E1" s="29" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="30"/>
+      <c r="G1" s="31" t="s">
+        <v>12</v>
+      </c>
+      <c r="H1" s="32"/>
+      <c r="I1" s="2"/>
+    </row>
+    <row r="2" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A2" s="26"/>
+      <c r="B2" s="26"/>
+      <c r="C2" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="D2" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="E2" s="8" t="s">
+        <v>24</v>
+      </c>
+      <c r="F2" s="8" t="s">
+        <v>25</v>
+      </c>
+      <c r="G2" s="19" t="s">
+        <v>24</v>
+      </c>
+      <c r="H2" s="19" t="s">
+        <v>25</v>
+      </c>
+      <c r="I2" s="2"/>
+    </row>
+    <row r="3" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A3" s="9">
+        <v>2014</v>
+      </c>
+      <c r="B3" s="10" t="s">
+        <v>57</v>
+      </c>
+      <c r="C3" s="23" t="s">
+        <v>55</v>
+      </c>
+      <c r="D3" s="11" t="s">
+        <v>59</v>
+      </c>
+      <c r="E3" s="12" t="s">
+        <v>40</v>
+      </c>
+      <c r="F3" s="7" t="s">
+        <v>0</v>
+      </c>
+      <c r="G3" s="20">
+        <v>0</v>
+      </c>
+      <c r="H3" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="I3" s="3" t="str">
+        <f>IF(OR(AND(G3&gt;1,G3&lt;&gt;"-"),AND(H3&gt;1,H3&lt;&gt;"-")),"Can exchange","")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="4" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A4" s="9">
+        <v>2015</v>
+      </c>
+      <c r="B4" s="10" t="s">
+        <v>57</v>
+      </c>
+      <c r="C4" s="23" t="s">
+        <v>55</v>
+      </c>
+      <c r="D4" s="11" t="s">
+        <v>59</v>
+      </c>
+      <c r="E4" s="7" t="s">
+        <v>0</v>
+      </c>
+      <c r="F4" s="21" t="s">
+        <v>26</v>
+      </c>
+      <c r="G4" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="H4" s="20">
+        <v>0</v>
+      </c>
+      <c r="I4" s="3" t="str">
+        <f t="shared" ref="I4:I9" si="0">IF(OR(AND(G4&gt;1,G4&lt;&gt;"-"),AND(H4&gt;1,H4&lt;&gt;"-")),"Can exchange","")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="5" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A5" s="9">
+        <v>2016</v>
+      </c>
+      <c r="B5" s="10" t="s">
+        <v>57</v>
+      </c>
+      <c r="C5" s="23" t="s">
+        <v>55</v>
+      </c>
+      <c r="D5" s="11" t="s">
+        <v>59</v>
+      </c>
+      <c r="E5" s="21" t="s">
+        <v>27</v>
+      </c>
+      <c r="F5" s="7" t="s">
+        <v>0</v>
+      </c>
+      <c r="G5" s="20">
+        <v>0</v>
+      </c>
+      <c r="H5" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="I5" s="3" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="6" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A6" s="9">
+        <v>2017</v>
+      </c>
+      <c r="B6" s="10" t="s">
+        <v>57</v>
+      </c>
+      <c r="C6" s="23" t="s">
+        <v>55</v>
+      </c>
+      <c r="D6" s="11" t="s">
+        <v>59</v>
+      </c>
+      <c r="E6" s="7" t="s">
+        <v>0</v>
+      </c>
+      <c r="F6" s="12" t="s">
+        <v>41</v>
+      </c>
+      <c r="G6" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="H6" s="20">
+        <v>0</v>
+      </c>
+      <c r="I6" s="3" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="7" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A7" s="9">
+        <v>2018</v>
+      </c>
+      <c r="B7" s="10" t="s">
+        <v>57</v>
+      </c>
+      <c r="C7" s="23" t="s">
+        <v>55</v>
+      </c>
+      <c r="D7" s="11" t="s">
+        <v>59</v>
+      </c>
+      <c r="E7" s="12" t="s">
+        <v>42</v>
+      </c>
+      <c r="F7" s="7" t="s">
+        <v>0</v>
+      </c>
+      <c r="G7" s="20">
+        <v>0</v>
+      </c>
+      <c r="H7" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="I7" s="3" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="8" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A8" s="9">
+        <v>2019</v>
+      </c>
+      <c r="B8" s="10" t="s">
+        <v>57</v>
+      </c>
+      <c r="C8" s="23" t="s">
+        <v>55</v>
+      </c>
+      <c r="D8" s="11" t="s">
+        <v>59</v>
+      </c>
+      <c r="E8" s="7" t="s">
+        <v>0</v>
+      </c>
+      <c r="F8" s="12" t="s">
+        <v>68</v>
+      </c>
+      <c r="G8" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="H8" s="20">
+        <v>0</v>
+      </c>
+      <c r="I8" s="3" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="9" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A9" s="9">
+        <v>2020</v>
+      </c>
+      <c r="B9" s="10" t="s">
+        <v>57</v>
+      </c>
+      <c r="C9" s="23" t="s">
+        <v>55</v>
+      </c>
+      <c r="D9" s="11" t="s">
+        <v>59</v>
+      </c>
+      <c r="E9" s="12" t="s">
+        <v>69</v>
+      </c>
+      <c r="F9" s="7" t="s">
+        <v>0</v>
+      </c>
+      <c r="G9" s="20">
+        <v>0</v>
+      </c>
+      <c r="H9" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="I9" s="3" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="10" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A10" s="9">
+        <v>2021</v>
+      </c>
+      <c r="B10" s="10" t="s">
+        <v>57</v>
+      </c>
+      <c r="C10" s="23" t="s">
+        <v>55</v>
+      </c>
+      <c r="D10" s="11" t="s">
+        <v>59</v>
+      </c>
+      <c r="E10" s="7" t="s">
+        <v>0</v>
+      </c>
+      <c r="F10" s="12" t="s">
+        <v>76</v>
+      </c>
+      <c r="G10" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="H10" s="20">
+        <v>0</v>
+      </c>
+      <c r="I10" s="3" t="str">
+        <f t="shared" ref="I10:I11" si="1">IF(OR(AND(G10&gt;1,G10&lt;&gt;"-"),AND(H10&gt;1,H10&lt;&gt;"-")),"Can exchange","")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="11" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A11" s="9">
+        <v>2022</v>
+      </c>
+      <c r="B11" s="10" t="s">
+        <v>57</v>
+      </c>
+      <c r="C11" s="23" t="s">
+        <v>55</v>
+      </c>
+      <c r="D11" s="11" t="s">
+        <v>59</v>
+      </c>
+      <c r="E11" s="12" t="s">
+        <v>81</v>
+      </c>
+      <c r="F11" s="7" t="s">
+        <v>0</v>
+      </c>
+      <c r="G11" s="20">
+        <v>0</v>
+      </c>
+      <c r="H11" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="I11" s="3" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+    </row>
+    <row r="12" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A12" s="9">
+        <v>2023</v>
+      </c>
+      <c r="B12" s="10" t="s">
+        <v>57</v>
+      </c>
+      <c r="C12" s="23" t="s">
+        <v>55</v>
+      </c>
+      <c r="D12" s="11" t="s">
+        <v>59</v>
+      </c>
+      <c r="E12" s="7" t="s">
+        <v>0</v>
+      </c>
+      <c r="F12" s="21" t="s">
+        <v>73</v>
+      </c>
+      <c r="G12" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="H12" s="20">
+        <v>0</v>
+      </c>
+      <c r="I12" s="3" t="str">
+        <f t="shared" ref="I12" si="2">IF(OR(AND(G12&gt;1,G12&lt;&gt;"-"),AND(H12&gt;1,H12&lt;&gt;"-")),"Can exchange","")</f>
+        <v/>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="5">
+    <mergeCell ref="A1:A2"/>
+    <mergeCell ref="B1:B2"/>
+    <mergeCell ref="C1:D1"/>
+    <mergeCell ref="E1:F1"/>
+    <mergeCell ref="G1:H1"/>
+  </mergeCells>
+  <phoneticPr fontId="9" type="noConversion"/>
+  <conditionalFormatting sqref="G6">
+    <cfRule type="colorScale" priority="34">
+      <colorScale>
+        <cfvo type="formula" val="0"/>
+        <cfvo type="formula" val="1"/>
+        <cfvo type="formula" val="10"/>
+        <color rgb="FFFF9F9F"/>
+        <color rgb="FFD1E0B2"/>
+        <color rgb="FF00B050"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H7">
+    <cfRule type="colorScale" priority="33">
+      <colorScale>
+        <cfvo type="formula" val="0"/>
+        <cfvo type="formula" val="1"/>
+        <cfvo type="formula" val="10"/>
+        <color rgb="FFFF9F9F"/>
+        <color rgb="FFD1E0B2"/>
+        <color rgb="FF00B050"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G7 G3">
+    <cfRule type="colorScale" priority="40">
+      <colorScale>
+        <cfvo type="formula" val="0"/>
+        <cfvo type="formula" val="1"/>
+        <cfvo type="formula" val="10"/>
+        <color rgb="FFFF9F9F"/>
+        <color rgb="FFD1E0B2"/>
+        <color rgb="FF00B050"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H6">
+    <cfRule type="colorScale" priority="38">
+      <colorScale>
+        <cfvo type="formula" val="0"/>
+        <cfvo type="formula" val="1"/>
+        <cfvo type="formula" val="10"/>
+        <color rgb="FFFF9F9F"/>
+        <color rgb="FFD1E0B2"/>
+        <color rgb="FF00B050"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H3">
+    <cfRule type="colorScale" priority="37">
+      <colorScale>
+        <cfvo type="formula" val="0"/>
+        <cfvo type="formula" val="1"/>
+        <cfvo type="formula" val="10"/>
+        <color rgb="FFFF9F9F"/>
+        <color rgb="FFD1E0B2"/>
+        <color rgb="FF00B050"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G4">
+    <cfRule type="colorScale" priority="36">
+      <colorScale>
+        <cfvo type="formula" val="0"/>
+        <cfvo type="formula" val="1"/>
+        <cfvo type="formula" val="10"/>
+        <color rgb="FFFF9F9F"/>
+        <color rgb="FFD1E0B2"/>
+        <color rgb="FF00B050"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H5">
+    <cfRule type="colorScale" priority="35">
+      <colorScale>
+        <cfvo type="formula" val="0"/>
+        <cfvo type="formula" val="1"/>
+        <cfvo type="formula" val="10"/>
+        <color rgb="FFFF9F9F"/>
+        <color rgb="FFD1E0B2"/>
+        <color rgb="FF00B050"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G8">
+    <cfRule type="colorScale" priority="32">
+      <colorScale>
+        <cfvo type="formula" val="0"/>
+        <cfvo type="formula" val="1"/>
+        <cfvo type="formula" val="10"/>
+        <color rgb="FFFF9F9F"/>
+        <color rgb="FFD1E0B2"/>
+        <color rgb="FF00B050"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H8">
+    <cfRule type="colorScale" priority="25">
+      <colorScale>
+        <cfvo type="formula" val="0"/>
+        <cfvo type="formula" val="1"/>
+        <cfvo type="formula" val="10"/>
+        <color rgb="FFFF9F9F"/>
+        <color rgb="FFD1E0B2"/>
+        <color rgb="FF00B050"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G12 G10">
+    <cfRule type="colorScale" priority="22">
+      <colorScale>
+        <cfvo type="formula" val="0"/>
+        <cfvo type="formula" val="1"/>
+        <cfvo type="formula" val="10"/>
+        <color rgb="FFFF9F9F"/>
+        <color rgb="FFD1E0B2"/>
+        <color rgb="FF00B050"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H10">
+    <cfRule type="colorScale" priority="17">
+      <colorScale>
+        <cfvo type="formula" val="0"/>
+        <cfvo type="formula" val="1"/>
+        <cfvo type="formula" val="10"/>
+        <color rgb="FFFF9F9F"/>
+        <color rgb="FFD1E0B2"/>
+        <color rgb="FF00B050"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G11">
+    <cfRule type="colorScale" priority="13">
+      <colorScale>
+        <cfvo type="formula" val="0"/>
+        <cfvo type="formula" val="1"/>
+        <cfvo type="formula" val="10"/>
+        <color rgb="FFFF9F9F"/>
+        <color rgb="FFD1E0B2"/>
+        <color rgb="FF00B050"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H11">
+    <cfRule type="colorScale" priority="11">
+      <colorScale>
+        <cfvo type="formula" val="0"/>
+        <cfvo type="formula" val="1"/>
+        <cfvo type="formula" val="10"/>
+        <color rgb="FFFF9F9F"/>
+        <color rgb="FFD1E0B2"/>
+        <color rgb="FF00B050"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G9">
+    <cfRule type="colorScale" priority="9">
+      <colorScale>
+        <cfvo type="formula" val="0"/>
+        <cfvo type="formula" val="1"/>
+        <cfvo type="formula" val="10"/>
+        <color rgb="FFFF9F9F"/>
+        <color rgb="FFD1E0B2"/>
+        <color rgb="FF00B050"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H9">
+    <cfRule type="colorScale" priority="7">
+      <colorScale>
+        <cfvo type="formula" val="0"/>
+        <cfvo type="formula" val="1"/>
+        <cfvo type="formula" val="10"/>
+        <color rgb="FFFF9F9F"/>
+        <color rgb="FFD1E0B2"/>
+        <color rgb="FF00B050"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H12">
+    <cfRule type="colorScale" priority="5">
+      <colorScale>
+        <cfvo type="formula" val="0"/>
+        <cfvo type="formula" val="1"/>
+        <cfvo type="formula" val="10"/>
+        <color rgb="FFFF9F9F"/>
+        <color rgb="FFD1E0B2"/>
+        <color rgb="FF00B050"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G5">
+    <cfRule type="colorScale" priority="3">
+      <colorScale>
+        <cfvo type="formula" val="0"/>
+        <cfvo type="formula" val="1"/>
+        <cfvo type="formula" val="10"/>
+        <color rgb="FFFF9F9F"/>
+        <color rgb="FFD1E0B2"/>
+        <color rgb="FF00B050"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H4">
+    <cfRule type="colorScale" priority="1">
+      <colorScale>
+        <cfvo type="formula" val="0"/>
+        <cfvo type="formula" val="1"/>
+        <cfvo type="formula" val="10"/>
+        <color rgb="FFFF9F9F"/>
+        <color rgb="FFD1E0B2"/>
+        <color rgb="FF00B050"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <legacyDrawing r:id="rId2"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{78C0D931-6437-407d-A8EE-F0AAD7539E65}">
+      <x14:conditionalFormattings>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="containsText" priority="39" operator="containsText" text="*-" id="{E5365921-B2DC-45EB-A6DD-757F3A3E2D52}">
+            <xm:f>NOT(ISERROR(SEARCH(("*-"),('2cents'!G3))))</xm:f>
+            <x14:dxf>
+              <fill>
+                <patternFill patternType="solid">
+                  <fgColor rgb="FF9BE5FF"/>
+                  <bgColor rgb="FF9BE5FF"/>
+                </patternFill>
+              </fill>
+            </x14:dxf>
+          </x14:cfRule>
+          <xm:sqref>G3:H3 H8 G6:H7 H5 G4</xm:sqref>
+        </x14:conditionalFormatting>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="containsText" priority="31" operator="containsText" text="*-" id="{8AD0E4CB-0C61-4876-8F81-9B1AF1DE1B7D}">
+            <xm:f>NOT(ISERROR(SEARCH(("*-"),('1cent'!G8))))</xm:f>
+            <x14:dxf>
+              <fill>
+                <patternFill patternType="solid">
+                  <fgColor rgb="FF9BE5FF"/>
+                  <bgColor rgb="FF9BE5FF"/>
+                </patternFill>
+              </fill>
+            </x14:dxf>
+          </x14:cfRule>
+          <xm:sqref>G8 G12 G10</xm:sqref>
+        </x14:conditionalFormatting>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="containsText" priority="18" operator="containsText" text="*-" id="{7FE30B39-3971-4C0D-B85F-1D89EA246896}">
+            <xm:f>NOT(ISERROR(SEARCH(("*-"),('2cents'!H10))))</xm:f>
+            <x14:dxf>
+              <fill>
+                <patternFill patternType="solid">
+                  <fgColor rgb="FF9BE5FF"/>
+                  <bgColor rgb="FF9BE5FF"/>
+                </patternFill>
+              </fill>
+            </x14:dxf>
+          </x14:cfRule>
+          <xm:sqref>H10</xm:sqref>
+        </x14:conditionalFormatting>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="containsText" priority="14" operator="containsText" text="*-" id="{B10FFB47-A5A6-4418-AE63-434FF9CC0893}">
+            <xm:f>NOT(ISERROR(SEARCH(("*-"),('2cents'!G11))))</xm:f>
+            <x14:dxf>
+              <fill>
+                <patternFill patternType="solid">
+                  <fgColor rgb="FF9BE5FF"/>
+                  <bgColor rgb="FF9BE5FF"/>
+                </patternFill>
+              </fill>
+            </x14:dxf>
+          </x14:cfRule>
+          <xm:sqref>G11</xm:sqref>
+        </x14:conditionalFormatting>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="containsText" priority="12" operator="containsText" text="*-" id="{F798817A-6369-431D-9B6C-A727C865D14A}">
+            <xm:f>NOT(ISERROR(SEARCH(("*-"),('1cent'!H11))))</xm:f>
+            <x14:dxf>
+              <fill>
+                <patternFill patternType="solid">
+                  <fgColor rgb="FF9BE5FF"/>
+                  <bgColor rgb="FF9BE5FF"/>
+                </patternFill>
+              </fill>
+            </x14:dxf>
+          </x14:cfRule>
+          <xm:sqref>H11</xm:sqref>
+        </x14:conditionalFormatting>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="containsText" priority="10" operator="containsText" text="*-" id="{985C18F9-4408-4A11-9FD5-F5CEC702D869}">
+            <xm:f>NOT(ISERROR(SEARCH(("*-"),('2cents'!G9))))</xm:f>
+            <x14:dxf>
+              <fill>
+                <patternFill patternType="solid">
+                  <fgColor rgb="FF9BE5FF"/>
+                  <bgColor rgb="FF9BE5FF"/>
+                </patternFill>
+              </fill>
+            </x14:dxf>
+          </x14:cfRule>
+          <xm:sqref>G9</xm:sqref>
+        </x14:conditionalFormatting>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="containsText" priority="8" operator="containsText" text="*-" id="{EDAD3E78-E6CC-4D11-8B0E-B6073F5D9E53}">
+            <xm:f>NOT(ISERROR(SEARCH(("*-"),('1cent'!H9))))</xm:f>
+            <x14:dxf>
+              <fill>
+                <patternFill patternType="solid">
+                  <fgColor rgb="FF9BE5FF"/>
+                  <bgColor rgb="FF9BE5FF"/>
+                </patternFill>
+              </fill>
+            </x14:dxf>
+          </x14:cfRule>
+          <xm:sqref>H9</xm:sqref>
+        </x14:conditionalFormatting>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="containsText" priority="6" operator="containsText" text="*-" id="{76655399-97E0-4BFC-B21E-3E7662403626}">
+            <xm:f>NOT(ISERROR(SEARCH(("*-"),('2cents'!H12))))</xm:f>
+            <x14:dxf>
+              <fill>
+                <patternFill patternType="solid">
+                  <fgColor rgb="FF9BE5FF"/>
+                  <bgColor rgb="FF9BE5FF"/>
+                </patternFill>
+              </fill>
+            </x14:dxf>
+          </x14:cfRule>
+          <xm:sqref>H12</xm:sqref>
+        </x14:conditionalFormatting>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="containsText" priority="4" operator="containsText" text="*-" id="{3A625F04-DD36-4974-B8AE-7B9FA53D126A}">
+            <xm:f>NOT(ISERROR(SEARCH(("*-"),('2cents'!G5))))</xm:f>
+            <x14:dxf>
+              <fill>
+                <patternFill patternType="solid">
+                  <fgColor rgb="FF9BE5FF"/>
+                  <bgColor rgb="FF9BE5FF"/>
+                </patternFill>
+              </fill>
+            </x14:dxf>
+          </x14:cfRule>
+          <xm:sqref>G5</xm:sqref>
+        </x14:conditionalFormatting>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="containsText" priority="2" operator="containsText" text="*-" id="{F3F89FA2-C095-4AF4-AADB-5CCD926A1C88}">
+            <xm:f>NOT(ISERROR(SEARCH(("*-"),('2cents'!H4))))</xm:f>
+            <x14:dxf>
+              <fill>
+                <patternFill patternType="solid">
+                  <fgColor rgb="FF9BE5FF"/>
+                  <bgColor rgb="FF9BE5FF"/>
+                </patternFill>
+              </fill>
+            </x14:dxf>
+          </x14:cfRule>
+          <xm:sqref>H4</xm:sqref>
+        </x14:conditionalFormatting>
+      </x14:conditionalFormattings>
+    </ext>
+  </extLst>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
+  <dimension ref="A1:I12"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <pane xSplit="9" ySplit="2" topLeftCell="J3" activePane="bottomRight" state="frozen"/>
+      <selection pane="topRight" activeCell="H1" sqref="H1"/>
+      <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
+      <selection pane="bottomRight" activeCell="G19" sqref="G19"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="1" max="1" width="5.453125" style="4" customWidth="1"/>
+    <col min="2" max="2" width="24.81640625" style="4" customWidth="1"/>
+    <col min="3" max="3" width="36.7265625" style="4" customWidth="1"/>
+    <col min="4" max="4" width="24.81640625" style="4" customWidth="1"/>
+    <col min="5" max="6" width="12.453125" style="4" customWidth="1"/>
+    <col min="7" max="8" width="3.81640625" style="4" customWidth="1"/>
+    <col min="9" max="9" width="13.7265625" style="4" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A1" s="25" t="s">
+        <v>1</v>
+      </c>
+      <c r="B1" s="25" t="s">
+        <v>2</v>
+      </c>
+      <c r="C1" s="27" t="s">
+        <v>3</v>
+      </c>
+      <c r="D1" s="28"/>
+      <c r="E1" s="29" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="30"/>
+      <c r="G1" s="41" t="s">
+        <v>13</v>
+      </c>
+      <c r="H1" s="42"/>
+      <c r="I1" s="2"/>
+    </row>
+    <row r="2" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A2" s="26"/>
+      <c r="B2" s="26"/>
+      <c r="C2" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="D2" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="E2" s="8" t="s">
+        <v>24</v>
+      </c>
+      <c r="F2" s="8" t="s">
+        <v>25</v>
+      </c>
+      <c r="G2" s="19" t="s">
+        <v>24</v>
+      </c>
+      <c r="H2" s="19" t="s">
+        <v>25</v>
+      </c>
+      <c r="I2" s="2"/>
+    </row>
+    <row r="3" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A3" s="9">
+        <v>2014</v>
+      </c>
+      <c r="B3" s="10" t="s">
+        <v>58</v>
+      </c>
+      <c r="C3" s="23" t="s">
+        <v>55</v>
+      </c>
+      <c r="D3" s="11" t="s">
+        <v>59</v>
+      </c>
+      <c r="E3" s="12" t="s">
+        <v>43</v>
+      </c>
+      <c r="F3" s="7" t="s">
+        <v>0</v>
+      </c>
+      <c r="G3" s="20">
+        <v>0</v>
+      </c>
+      <c r="H3" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="I3" s="3" t="str">
+        <f>IF(OR(AND(G3&gt;1,G3&lt;&gt;"-"),AND(H3&gt;1,H3&lt;&gt;"-")),"Can exchange","")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="4" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A4" s="9">
+        <v>2015</v>
+      </c>
+      <c r="B4" s="10" t="s">
+        <v>58</v>
+      </c>
+      <c r="C4" s="23" t="s">
+        <v>55</v>
+      </c>
+      <c r="D4" s="11" t="s">
+        <v>59</v>
+      </c>
+      <c r="E4" s="7" t="s">
+        <v>0</v>
+      </c>
+      <c r="F4" s="21" t="s">
+        <v>26</v>
+      </c>
+      <c r="G4" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="H4" s="20">
+        <v>0</v>
+      </c>
+      <c r="I4" s="3" t="str">
+        <f t="shared" ref="I4:I9" si="0">IF(OR(AND(G4&gt;1,G4&lt;&gt;"-"),AND(H4&gt;1,H4&lt;&gt;"-")),"Can exchange","")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="5" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A5" s="9">
+        <v>2016</v>
+      </c>
+      <c r="B5" s="10" t="s">
+        <v>58</v>
+      </c>
+      <c r="C5" s="23" t="s">
+        <v>55</v>
+      </c>
+      <c r="D5" s="11" t="s">
+        <v>59</v>
+      </c>
+      <c r="E5" s="12" t="s">
+        <v>44</v>
+      </c>
+      <c r="F5" s="7" t="s">
+        <v>0</v>
+      </c>
+      <c r="G5" s="20">
+        <v>0</v>
+      </c>
+      <c r="H5" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="I5" s="3" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="6" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A6" s="9">
+        <v>2017</v>
+      </c>
+      <c r="B6" s="10" t="s">
+        <v>58</v>
+      </c>
+      <c r="C6" s="23" t="s">
+        <v>55</v>
+      </c>
+      <c r="D6" s="11" t="s">
+        <v>59</v>
+      </c>
+      <c r="E6" s="7" t="s">
+        <v>0</v>
+      </c>
+      <c r="F6" s="12" t="s">
+        <v>41</v>
+      </c>
+      <c r="G6" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="H6" s="20">
+        <v>0</v>
+      </c>
+      <c r="I6" s="3" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="7" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A7" s="9">
+        <v>2018</v>
+      </c>
+      <c r="B7" s="10" t="s">
+        <v>58</v>
+      </c>
+      <c r="C7" s="23" t="s">
+        <v>55</v>
+      </c>
+      <c r="D7" s="11" t="s">
+        <v>59</v>
+      </c>
+      <c r="E7" s="21" t="s">
+        <v>45</v>
+      </c>
+      <c r="F7" s="7" t="s">
+        <v>0</v>
+      </c>
+      <c r="G7" s="20">
+        <v>0</v>
+      </c>
+      <c r="H7" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="I7" s="3" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="8" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A8" s="9">
+        <v>2019</v>
+      </c>
+      <c r="B8" s="10" t="s">
+        <v>58</v>
+      </c>
+      <c r="C8" s="23" t="s">
+        <v>55</v>
+      </c>
+      <c r="D8" s="11" t="s">
+        <v>59</v>
+      </c>
+      <c r="E8" s="7" t="s">
+        <v>0</v>
+      </c>
+      <c r="F8" s="21" t="s">
+        <v>49</v>
+      </c>
+      <c r="G8" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="H8" s="20">
+        <v>0</v>
+      </c>
+      <c r="I8" s="3" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="9" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A9" s="9">
+        <v>2020</v>
+      </c>
+      <c r="B9" s="10" t="s">
+        <v>58</v>
+      </c>
+      <c r="C9" s="23" t="s">
+        <v>55</v>
+      </c>
+      <c r="D9" s="11" t="s">
+        <v>59</v>
+      </c>
+      <c r="E9" s="21" t="s">
+        <v>60</v>
+      </c>
+      <c r="F9" s="7" t="s">
+        <v>0</v>
+      </c>
+      <c r="G9" s="20">
+        <v>0</v>
+      </c>
+      <c r="H9" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="I9" s="3" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="10" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A10" s="9">
+        <v>2021</v>
+      </c>
+      <c r="B10" s="10" t="s">
+        <v>58</v>
+      </c>
+      <c r="C10" s="23" t="s">
+        <v>55</v>
+      </c>
+      <c r="D10" s="11" t="s">
+        <v>59</v>
+      </c>
+      <c r="E10" s="7" t="s">
+        <v>0</v>
+      </c>
+      <c r="F10" s="21" t="s">
+        <v>77</v>
+      </c>
+      <c r="G10" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="H10" s="20">
+        <v>0</v>
+      </c>
+      <c r="I10" s="3" t="str">
+        <f t="shared" ref="I10:I12" si="1">IF(OR(AND(G10&gt;1,G10&lt;&gt;"-"),AND(H10&gt;1,H10&lt;&gt;"-")),"Can exchange","")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="11" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A11" s="9">
+        <v>2022</v>
+      </c>
+      <c r="B11" s="10" t="s">
+        <v>58</v>
+      </c>
+      <c r="C11" s="23" t="s">
+        <v>55</v>
+      </c>
+      <c r="D11" s="11" t="s">
+        <v>59</v>
+      </c>
+      <c r="E11" s="21" t="s">
+        <v>73</v>
+      </c>
+      <c r="F11" s="7" t="s">
+        <v>0</v>
+      </c>
+      <c r="G11" s="20">
+        <v>0</v>
+      </c>
+      <c r="H11" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="I11" s="3" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+    </row>
+    <row r="12" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A12" s="9">
+        <v>2023</v>
+      </c>
+      <c r="B12" s="10" t="s">
+        <v>58</v>
+      </c>
+      <c r="C12" s="23" t="s">
+        <v>55</v>
+      </c>
+      <c r="D12" s="11" t="s">
+        <v>59</v>
+      </c>
+      <c r="E12" s="7" t="s">
+        <v>0</v>
+      </c>
+      <c r="F12" s="21" t="s">
+        <v>73</v>
+      </c>
+      <c r="G12" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="H12" s="20">
+        <v>0</v>
+      </c>
+      <c r="I12" s="3" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="5">
+    <mergeCell ref="A1:A2"/>
+    <mergeCell ref="B1:B2"/>
+    <mergeCell ref="C1:D1"/>
+    <mergeCell ref="E1:F1"/>
+    <mergeCell ref="G1:H1"/>
+  </mergeCells>
+  <phoneticPr fontId="9" type="noConversion"/>
+  <conditionalFormatting sqref="G6">
+    <cfRule type="colorScale" priority="39">
+      <colorScale>
+        <cfvo type="formula" val="0"/>
+        <cfvo type="formula" val="1"/>
+        <cfvo type="formula" val="10"/>
+        <color rgb="FFFF9F9F"/>
+        <color rgb="FFD1E0B2"/>
+        <color rgb="FF00B050"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H7">
+    <cfRule type="colorScale" priority="38">
+      <colorScale>
+        <cfvo type="formula" val="0"/>
+        <cfvo type="formula" val="1"/>
+        <cfvo type="formula" val="10"/>
+        <color rgb="FFFF9F9F"/>
+        <color rgb="FFD1E0B2"/>
+        <color rgb="FF00B050"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G7 G3">
+    <cfRule type="colorScale" priority="45">
+      <colorScale>
+        <cfvo type="formula" val="0"/>
+        <cfvo type="formula" val="1"/>
+        <cfvo type="formula" val="10"/>
+        <color rgb="FFFF9F9F"/>
+        <color rgb="FFD1E0B2"/>
+        <color rgb="FF00B050"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H6">
+    <cfRule type="colorScale" priority="43">
+      <colorScale>
+        <cfvo type="formula" val="0"/>
+        <cfvo type="formula" val="1"/>
+        <cfvo type="formula" val="10"/>
+        <color rgb="FFFF9F9F"/>
+        <color rgb="FFD1E0B2"/>
+        <color rgb="FF00B050"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H3">
+    <cfRule type="colorScale" priority="42">
+      <colorScale>
+        <cfvo type="formula" val="0"/>
+        <cfvo type="formula" val="1"/>
+        <cfvo type="formula" val="10"/>
+        <color rgb="FFFF9F9F"/>
+        <color rgb="FFD1E0B2"/>
+        <color rgb="FF00B050"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G4:G5">
+    <cfRule type="colorScale" priority="41">
+      <colorScale>
+        <cfvo type="formula" val="0"/>
+        <cfvo type="formula" val="1"/>
+        <cfvo type="formula" val="10"/>
+        <color rgb="FFFF9F9F"/>
+        <color rgb="FFD1E0B2"/>
+        <color rgb="FF00B050"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H4:H5">
+    <cfRule type="colorScale" priority="40">
+      <colorScale>
+        <cfvo type="formula" val="0"/>
+        <cfvo type="formula" val="1"/>
+        <cfvo type="formula" val="10"/>
+        <color rgb="FFFF9F9F"/>
+        <color rgb="FFD1E0B2"/>
+        <color rgb="FF00B050"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G5">
+    <cfRule type="colorScale" priority="37">
+      <colorScale>
+        <cfvo type="formula" val="0"/>
+        <cfvo type="formula" val="1"/>
+        <cfvo type="formula" val="10"/>
+        <color rgb="FFFF9F9F"/>
+        <color rgb="FFD1E0B2"/>
+        <color rgb="FF00B050"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H9:H11">
+    <cfRule type="colorScale" priority="21">
+      <colorScale>
+        <cfvo type="formula" val="0"/>
+        <cfvo type="formula" val="1"/>
+        <cfvo type="formula" val="10"/>
+        <color rgb="FFFF9F9F"/>
+        <color rgb="FFD1E0B2"/>
+        <color rgb="FF00B050"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G9:G12">
+    <cfRule type="colorScale" priority="19">
+      <colorScale>
+        <cfvo type="formula" val="0"/>
+        <cfvo type="formula" val="1"/>
+        <cfvo type="formula" val="10"/>
+        <color rgb="FFFF9F9F"/>
+        <color rgb="FFD1E0B2"/>
+        <color rgb="FF00B050"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H8">
+    <cfRule type="colorScale" priority="13">
+      <colorScale>
+        <cfvo type="formula" val="0"/>
+        <cfvo type="formula" val="1"/>
+        <cfvo type="formula" val="10"/>
+        <color rgb="FFFF9F9F"/>
+        <color rgb="FFD1E0B2"/>
+        <color rgb="FF00B050"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G9">
+    <cfRule type="colorScale" priority="11">
+      <colorScale>
+        <cfvo type="formula" val="0"/>
+        <cfvo type="formula" val="1"/>
+        <cfvo type="formula" val="10"/>
+        <color rgb="FFFF9F9F"/>
+        <color rgb="FFD1E0B2"/>
+        <color rgb="FF00B050"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G11">
+    <cfRule type="colorScale" priority="10">
+      <colorScale>
+        <cfvo type="formula" val="0"/>
+        <cfvo type="formula" val="1"/>
+        <cfvo type="formula" val="10"/>
+        <color rgb="FFFF9F9F"/>
+        <color rgb="FFD1E0B2"/>
+        <color rgb="FF00B050"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H10">
+    <cfRule type="colorScale" priority="9">
+      <colorScale>
+        <cfvo type="formula" val="0"/>
+        <cfvo type="formula" val="1"/>
+        <cfvo type="formula" val="10"/>
+        <color rgb="FFFF9F9F"/>
+        <color rgb="FFD1E0B2"/>
+        <color rgb="FF00B050"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H4">
+    <cfRule type="colorScale" priority="8">
+      <colorScale>
+        <cfvo type="formula" val="0"/>
+        <cfvo type="formula" val="1"/>
+        <cfvo type="formula" val="10"/>
+        <color rgb="FFFF9F9F"/>
+        <color rgb="FFD1E0B2"/>
+        <color rgb="FF00B050"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H12">
+    <cfRule type="colorScale" priority="4">
+      <colorScale>
+        <cfvo type="formula" val="0"/>
+        <cfvo type="formula" val="1"/>
+        <cfvo type="formula" val="10"/>
+        <color rgb="FFFF9F9F"/>
+        <color rgb="FFD1E0B2"/>
+        <color rgb="FF00B050"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H12">
+    <cfRule type="colorScale" priority="3">
+      <colorScale>
+        <cfvo type="formula" val="0"/>
+        <cfvo type="formula" val="1"/>
+        <cfvo type="formula" val="10"/>
+        <color rgb="FFFF9F9F"/>
+        <color rgb="FFD1E0B2"/>
+        <color rgb="FF00B050"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G8">
+    <cfRule type="colorScale" priority="1">
+      <colorScale>
+        <cfvo type="formula" val="0"/>
+        <cfvo type="formula" val="1"/>
+        <cfvo type="formula" val="10"/>
+        <color rgb="FFFF9F9F"/>
+        <color rgb="FFD1E0B2"/>
+        <color rgb="FF00B050"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <legacyDrawing r:id="rId2"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{78C0D931-6437-407d-A8EE-F0AAD7539E65}">
+      <x14:conditionalFormattings>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="containsText" priority="44" operator="containsText" text="*-" id="{0DC7A5EC-971A-4EDC-8CE5-1619DEA4F9BD}">
+            <xm:f>NOT(ISERROR(SEARCH(("*-"),('2cents'!G3))))</xm:f>
+            <x14:dxf>
+              <fill>
+                <patternFill patternType="solid">
+                  <fgColor rgb="FF9BE5FF"/>
+                  <bgColor rgb="FF9BE5FF"/>
+                </patternFill>
+              </fill>
+            </x14:dxf>
+          </x14:cfRule>
+          <xm:sqref>G9:H9 G9:G12 H10:H11 G3:H7</xm:sqref>
+        </x14:conditionalFormatting>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="containsText" priority="12" operator="containsText" text="*-" id="{5131805A-A89E-473E-B7BD-A822378C43B9}">
+            <xm:f>NOT(ISERROR(SEARCH(("*-"),('2cents'!H8))))</xm:f>
+            <x14:dxf>
+              <fill>
+                <patternFill patternType="solid">
+                  <fgColor rgb="FF9BE5FF"/>
+                  <bgColor rgb="FF9BE5FF"/>
+                </patternFill>
+              </fill>
+            </x14:dxf>
+          </x14:cfRule>
+          <xm:sqref>H8</xm:sqref>
+        </x14:conditionalFormatting>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="containsText" priority="5" operator="containsText" text="*-" id="{93487D00-7C18-42CB-BF31-CF37EE529F5A}">
+            <xm:f>NOT(ISERROR(SEARCH(("*-"),('2cents'!H12))))</xm:f>
+            <x14:dxf>
+              <fill>
+                <patternFill patternType="solid">
+                  <fgColor rgb="FF9BE5FF"/>
+                  <bgColor rgb="FF9BE5FF"/>
+                </patternFill>
+              </fill>
+            </x14:dxf>
+          </x14:cfRule>
+          <xm:sqref>H12</xm:sqref>
+        </x14:conditionalFormatting>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="containsText" priority="2" operator="containsText" text="*-" id="{CA88C1C9-CD2D-435E-A828-9B74DF6E9132}">
+            <xm:f>NOT(ISERROR(SEARCH(("*-"),('2cents'!G8))))</xm:f>
             <x14:dxf>
               <fill>
                 <patternFill patternType="solid">
@@ -4298,52 +7103,52 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
-  <dimension ref="A1:I9"/>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0700-000000000000}">
+  <dimension ref="A1:T25"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="9" ySplit="2" topLeftCell="J3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="H1" sqref="H1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="I5" sqref="I5"/>
+      <selection pane="bottomRight" activeCell="F14" sqref="F14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="5.42578125" style="4" customWidth="1"/>
-    <col min="2" max="2" width="24.85546875" style="4" customWidth="1"/>
-    <col min="3" max="3" width="36.7109375" style="4" customWidth="1"/>
-    <col min="4" max="4" width="24.85546875" style="4" customWidth="1"/>
-    <col min="5" max="6" width="12.42578125" style="4" customWidth="1"/>
-    <col min="7" max="8" width="3.85546875" style="4" customWidth="1"/>
-    <col min="9" max="9" width="13.7109375" style="4" customWidth="1"/>
+    <col min="1" max="1" width="5.453125" style="4" customWidth="1"/>
+    <col min="2" max="2" width="24.81640625" style="4" customWidth="1"/>
+    <col min="3" max="3" width="36.7265625" style="4" customWidth="1"/>
+    <col min="4" max="4" width="24.81640625" style="4" customWidth="1"/>
+    <col min="5" max="6" width="12.453125" style="4" customWidth="1"/>
+    <col min="7" max="8" width="3.81640625" style="4" customWidth="1"/>
+    <col min="9" max="9" width="13.7265625" style="4" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="24" t="s">
+    <row r="1" spans="1:20" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A1" s="25" t="s">
         <v>1</v>
       </c>
-      <c r="B1" s="24" t="s">
+      <c r="B1" s="25" t="s">
         <v>2</v>
       </c>
-      <c r="C1" s="26" t="s">
+      <c r="C1" s="27" t="s">
         <v>3</v>
       </c>
-      <c r="D1" s="27"/>
-      <c r="E1" s="28" t="s">
+      <c r="D1" s="28"/>
+      <c r="E1" s="29" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="29"/>
-      <c r="G1" s="30" t="s">
-        <v>12</v>
-      </c>
-      <c r="H1" s="31"/>
+      <c r="F1" s="30"/>
+      <c r="G1" s="41" t="s">
+        <v>50</v>
+      </c>
+      <c r="H1" s="42"/>
       <c r="I1" s="2"/>
     </row>
-    <row r="2" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="25"/>
-      <c r="B2" s="25"/>
+    <row r="2" spans="1:20" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A2" s="26"/>
+      <c r="B2" s="26"/>
       <c r="C2" s="6" t="s">
         <v>5</v>
       </c>
@@ -4364,12 +7169,12 @@
       </c>
       <c r="I2" s="2"/>
     </row>
-    <row r="3" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:20" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A3" s="9">
         <v>2014</v>
       </c>
       <c r="B3" s="10" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="C3" s="23" t="s">
         <v>55</v>
@@ -4394,12 +7199,12 @@
         <v/>
       </c>
     </row>
-    <row r="4" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:20" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A4" s="9">
         <v>2015</v>
       </c>
       <c r="B4" s="10" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="C4" s="23" t="s">
         <v>55</v>
@@ -4410,13 +7215,13 @@
       <c r="E4" s="7" t="s">
         <v>0</v>
       </c>
-      <c r="F4" s="21" t="s">
-        <v>26</v>
+      <c r="F4" s="12" t="s">
+        <v>46</v>
       </c>
       <c r="G4" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="H4" s="1" t="s">
+      <c r="H4" s="20">
         <v>0</v>
       </c>
       <c r="I4" s="3" t="str">
@@ -4424,12 +7229,12 @@
         <v/>
       </c>
     </row>
-    <row r="5" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:20" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A5" s="9">
         <v>2016</v>
       </c>
       <c r="B5" s="10" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="C5" s="23" t="s">
         <v>55</v>
@@ -4443,7 +7248,7 @@
       <c r="F5" s="7" t="s">
         <v>0</v>
       </c>
-      <c r="G5" s="1" t="s">
+      <c r="G5" s="20">
         <v>0</v>
       </c>
       <c r="H5" s="1" t="s">
@@ -4454,12 +7259,12 @@
         <v/>
       </c>
     </row>
-    <row r="6" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:20" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A6" s="9">
         <v>2017</v>
       </c>
       <c r="B6" s="10" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="C6" s="23" t="s">
         <v>55</v>
@@ -4471,7 +7276,7 @@
         <v>0</v>
       </c>
       <c r="F6" s="12" t="s">
-        <v>41</v>
+        <v>47</v>
       </c>
       <c r="G6" s="1" t="s">
         <v>0</v>
@@ -4484,12 +7289,12 @@
         <v/>
       </c>
     </row>
-    <row r="7" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:20" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A7" s="9">
         <v>2018</v>
       </c>
       <c r="B7" s="10" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="C7" s="23" t="s">
         <v>55</v>
@@ -4498,7 +7303,7 @@
         <v>59</v>
       </c>
       <c r="E7" s="12" t="s">
-        <v>42</v>
+        <v>48</v>
       </c>
       <c r="F7" s="7" t="s">
         <v>0</v>
@@ -4514,12 +7319,12 @@
         <v/>
       </c>
     </row>
-    <row r="8" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:20" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A8" s="9">
         <v>2019</v>
       </c>
       <c r="B8" s="10" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="C8" s="23" t="s">
         <v>55</v>
@@ -4531,7 +7336,7 @@
         <v>0</v>
       </c>
       <c r="F8" s="12" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="G8" s="1" t="s">
         <v>0</v>
@@ -4544,12 +7349,12 @@
         <v/>
       </c>
     </row>
-    <row r="9" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:20" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A9" s="9">
         <v>2020</v>
       </c>
       <c r="B9" s="10" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="C9" s="23" t="s">
         <v>55</v>
@@ -4557,16 +7362,16 @@
       <c r="D9" s="11" t="s">
         <v>59</v>
       </c>
-      <c r="E9" s="7" t="s">
-        <v>0</v>
-      </c>
-      <c r="F9" s="12" t="s">
-        <v>69</v>
-      </c>
-      <c r="G9" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="H9" s="20">
+      <c r="E9" s="12" t="s">
+        <v>82</v>
+      </c>
+      <c r="F9" s="7" t="s">
+        <v>0</v>
+      </c>
+      <c r="G9" s="20">
+        <v>0</v>
+      </c>
+      <c r="H9" s="1" t="s">
         <v>0</v>
       </c>
       <c r="I9" s="3" t="str">
@@ -4574,16 +7379,115 @@
         <v/>
       </c>
     </row>
+    <row r="10" spans="1:20" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A10" s="9">
+        <v>2021</v>
+      </c>
+      <c r="B10" s="10" t="s">
+        <v>58</v>
+      </c>
+      <c r="C10" s="23" t="s">
+        <v>55</v>
+      </c>
+      <c r="D10" s="11" t="s">
+        <v>59</v>
+      </c>
+      <c r="E10" s="7" t="s">
+        <v>0</v>
+      </c>
+      <c r="F10" s="12" t="s">
+        <v>78</v>
+      </c>
+      <c r="G10" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="H10" s="20">
+        <v>0</v>
+      </c>
+      <c r="I10" s="3" t="str">
+        <f t="shared" ref="I10:I12" si="1">IF(OR(AND(G10&gt;1,G10&lt;&gt;"-"),AND(H10&gt;1,H10&lt;&gt;"-")),"Can exchange","")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="11" spans="1:20" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A11" s="9">
+        <v>2022</v>
+      </c>
+      <c r="B11" s="10" t="s">
+        <v>58</v>
+      </c>
+      <c r="C11" s="23" t="s">
+        <v>55</v>
+      </c>
+      <c r="D11" s="11" t="s">
+        <v>59</v>
+      </c>
+      <c r="E11" s="12" t="s">
+        <v>82</v>
+      </c>
+      <c r="F11" s="7" t="s">
+        <v>0</v>
+      </c>
+      <c r="G11" s="20">
+        <v>0</v>
+      </c>
+      <c r="H11" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="I11" s="3" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+    </row>
+    <row r="12" spans="1:20" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A12" s="9">
+        <v>2023</v>
+      </c>
+      <c r="B12" s="10" t="s">
+        <v>58</v>
+      </c>
+      <c r="C12" s="23" t="s">
+        <v>55</v>
+      </c>
+      <c r="D12" s="11" t="s">
+        <v>59</v>
+      </c>
+      <c r="E12" s="7" t="s">
+        <v>0</v>
+      </c>
+      <c r="F12" s="12" t="s">
+        <v>83</v>
+      </c>
+      <c r="G12" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="H12" s="20">
+        <v>0</v>
+      </c>
+      <c r="I12" s="3" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+    </row>
+    <row r="14" spans="1:20" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="S14" s="24"/>
+      <c r="T14" s="24"/>
+    </row>
+    <row r="25" spans="18:19" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="R25" s="24"/>
+      <c r="S25" s="24"/>
+    </row>
   </sheetData>
   <mergeCells count="5">
+    <mergeCell ref="E1:F1"/>
+    <mergeCell ref="G1:H1"/>
     <mergeCell ref="A1:A2"/>
     <mergeCell ref="B1:B2"/>
     <mergeCell ref="C1:D1"/>
-    <mergeCell ref="E1:F1"/>
-    <mergeCell ref="G1:H1"/>
   </mergeCells>
+  <phoneticPr fontId="9" type="noConversion"/>
   <conditionalFormatting sqref="G6">
-    <cfRule type="colorScale" priority="14">
+    <cfRule type="colorScale" priority="27">
       <colorScale>
         <cfvo type="formula" val="0"/>
         <cfvo type="formula" val="1"/>
@@ -4595,6 +7499,126 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H7">
+    <cfRule type="colorScale" priority="26">
+      <colorScale>
+        <cfvo type="formula" val="0"/>
+        <cfvo type="formula" val="1"/>
+        <cfvo type="formula" val="10"/>
+        <color rgb="FFFF9F9F"/>
+        <color rgb="FFD1E0B2"/>
+        <color rgb="FF00B050"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G7 G3">
+    <cfRule type="colorScale" priority="33">
+      <colorScale>
+        <cfvo type="formula" val="0"/>
+        <cfvo type="formula" val="1"/>
+        <cfvo type="formula" val="10"/>
+        <color rgb="FFFF9F9F"/>
+        <color rgb="FFD1E0B2"/>
+        <color rgb="FF00B050"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H6">
+    <cfRule type="colorScale" priority="31">
+      <colorScale>
+        <cfvo type="formula" val="0"/>
+        <cfvo type="formula" val="1"/>
+        <cfvo type="formula" val="10"/>
+        <color rgb="FFFF9F9F"/>
+        <color rgb="FFD1E0B2"/>
+        <color rgb="FF00B050"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H3">
+    <cfRule type="colorScale" priority="30">
+      <colorScale>
+        <cfvo type="formula" val="0"/>
+        <cfvo type="formula" val="1"/>
+        <cfvo type="formula" val="10"/>
+        <color rgb="FFFF9F9F"/>
+        <color rgb="FFD1E0B2"/>
+        <color rgb="FF00B050"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G4:G5">
+    <cfRule type="colorScale" priority="29">
+      <colorScale>
+        <cfvo type="formula" val="0"/>
+        <cfvo type="formula" val="1"/>
+        <cfvo type="formula" val="10"/>
+        <color rgb="FFFF9F9F"/>
+        <color rgb="FFD1E0B2"/>
+        <color rgb="FF00B050"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H4:H5">
+    <cfRule type="colorScale" priority="28">
+      <colorScale>
+        <cfvo type="formula" val="0"/>
+        <cfvo type="formula" val="1"/>
+        <cfvo type="formula" val="10"/>
+        <color rgb="FFFF9F9F"/>
+        <color rgb="FFD1E0B2"/>
+        <color rgb="FF00B050"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G5">
+    <cfRule type="colorScale" priority="25">
+      <colorScale>
+        <cfvo type="formula" val="0"/>
+        <cfvo type="formula" val="1"/>
+        <cfvo type="formula" val="10"/>
+        <color rgb="FFFF9F9F"/>
+        <color rgb="FFD1E0B2"/>
+        <color rgb="FF00B050"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H4">
+    <cfRule type="colorScale" priority="24">
+      <colorScale>
+        <cfvo type="formula" val="0"/>
+        <cfvo type="formula" val="1"/>
+        <cfvo type="formula" val="10"/>
+        <color rgb="FFFF9F9F"/>
+        <color rgb="FFD1E0B2"/>
+        <color rgb="FF00B050"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H4">
+    <cfRule type="colorScale" priority="23">
+      <colorScale>
+        <cfvo type="formula" val="0"/>
+        <cfvo type="formula" val="1"/>
+        <cfvo type="formula" val="10"/>
+        <color rgb="FFFF9F9F"/>
+        <color rgb="FFD1E0B2"/>
+        <color rgb="FF00B050"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G10 G8 G12">
+    <cfRule type="colorScale" priority="22">
+      <colorScale>
+        <cfvo type="formula" val="0"/>
+        <cfvo type="formula" val="1"/>
+        <cfvo type="formula" val="10"/>
+        <color rgb="FFFF9F9F"/>
+        <color rgb="FFD1E0B2"/>
+        <color rgb="FF00B050"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H10 H8 H12">
     <cfRule type="colorScale" priority="13">
       <colorScale>
         <cfvo type="formula" val="0"/>
@@ -4606,68 +7630,32 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="G3 G7">
-    <cfRule type="colorScale" priority="20">
-      <colorScale>
-        <cfvo type="formula" val="0"/>
-        <cfvo type="formula" val="1"/>
-        <cfvo type="formula" val="10"/>
-        <color rgb="FFFF9F9F"/>
-        <color rgb="FFD1E0B2"/>
-        <color rgb="FF00B050"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="H6">
-    <cfRule type="colorScale" priority="18">
-      <colorScale>
-        <cfvo type="formula" val="0"/>
-        <cfvo type="formula" val="1"/>
-        <cfvo type="formula" val="10"/>
-        <color rgb="FFFF9F9F"/>
-        <color rgb="FFD1E0B2"/>
-        <color rgb="FF00B050"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="H3">
-    <cfRule type="colorScale" priority="17">
-      <colorScale>
-        <cfvo type="formula" val="0"/>
-        <cfvo type="formula" val="1"/>
-        <cfvo type="formula" val="10"/>
-        <color rgb="FFFF9F9F"/>
-        <color rgb="FFD1E0B2"/>
-        <color rgb="FF00B050"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="G4:G5">
-    <cfRule type="colorScale" priority="16">
-      <colorScale>
-        <cfvo type="formula" val="0"/>
-        <cfvo type="formula" val="1"/>
-        <cfvo type="formula" val="10"/>
-        <color rgb="FFFF9F9F"/>
-        <color rgb="FFD1E0B2"/>
-        <color rgb="FF00B050"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="H4:H5">
-    <cfRule type="colorScale" priority="15">
-      <colorScale>
-        <cfvo type="formula" val="0"/>
-        <cfvo type="formula" val="1"/>
-        <cfvo type="formula" val="10"/>
-        <color rgb="FFFF9F9F"/>
-        <color rgb="FFD1E0B2"/>
-        <color rgb="FF00B050"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="G8">
-    <cfRule type="colorScale" priority="12">
+  <conditionalFormatting sqref="G11">
+    <cfRule type="colorScale" priority="7">
+      <colorScale>
+        <cfvo type="formula" val="0"/>
+        <cfvo type="formula" val="1"/>
+        <cfvo type="formula" val="10"/>
+        <color rgb="FFFF9F9F"/>
+        <color rgb="FFD1E0B2"/>
+        <color rgb="FF00B050"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H11">
+    <cfRule type="colorScale" priority="6">
+      <colorScale>
+        <cfvo type="formula" val="0"/>
+        <cfvo type="formula" val="1"/>
+        <cfvo type="formula" val="10"/>
+        <color rgb="FFFF9F9F"/>
+        <color rgb="FFD1E0B2"/>
+        <color rgb="FF00B050"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G9">
+    <cfRule type="colorScale" priority="3">
       <colorScale>
         <cfvo type="formula" val="0"/>
         <cfvo type="formula" val="1"/>
@@ -4679,30 +7667,6 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H9">
-    <cfRule type="colorScale" priority="3">
-      <colorScale>
-        <cfvo type="formula" val="0"/>
-        <cfvo type="formula" val="1"/>
-        <cfvo type="formula" val="10"/>
-        <color rgb="FFFF9F9F"/>
-        <color rgb="FFD1E0B2"/>
-        <color rgb="FF00B050"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="H8">
-    <cfRule type="colorScale" priority="5">
-      <colorScale>
-        <cfvo type="formula" val="0"/>
-        <cfvo type="formula" val="1"/>
-        <cfvo type="formula" val="10"/>
-        <color rgb="FFFF9F9F"/>
-        <color rgb="FFD1E0B2"/>
-        <color rgb="FF00B050"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="G9">
     <cfRule type="colorScale" priority="2">
       <colorScale>
         <cfvo type="formula" val="0"/>
@@ -4721,7 +7685,7 @@
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{78C0D931-6437-407d-A8EE-F0AAD7539E65}">
       <x14:conditionalFormattings>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="containsText" priority="19" operator="containsText" text="*-" id="{E5365921-B2DC-45EB-A6DD-757F3A3E2D52}">
+          <x14:cfRule type="containsText" priority="32" operator="containsText" text="*-" id="{04D89F84-3BA3-483A-AA4E-B60F8837EE70}">
             <xm:f>NOT(ISERROR(SEARCH(("*-"),('2cents'!G3))))</xm:f>
             <x14:dxf>
               <fill>
@@ -4732,10 +7696,10 @@
               </fill>
             </x14:dxf>
           </x14:cfRule>
-          <xm:sqref>G3:H7 H8:H9</xm:sqref>
+          <xm:sqref>G3:H7 H8 H12 H10</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="containsText" priority="11" operator="containsText" text="*-" id="{8AD0E4CB-0C61-4876-8F81-9B1AF1DE1B7D}">
+          <x14:cfRule type="containsText" priority="21" operator="containsText" text="*-" id="{E867007A-7BF4-486C-95A8-13206CAF972C}">
             <xm:f>NOT(ISERROR(SEARCH(("*-"),('1cent'!G8))))</xm:f>
             <x14:dxf>
               <fill>
@@ -4746,439 +7710,11 @@
               </fill>
             </x14:dxf>
           </x14:cfRule>
-          <xm:sqref>G8:G9</xm:sqref>
+          <xm:sqref>G8 G12 G10</xm:sqref>
         </x14:conditionalFormatting>
-      </x14:conditionalFormattings>
-    </ext>
-  </extLst>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
-  <dimension ref="A1:I9"/>
-  <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="9" ySplit="2" topLeftCell="J3" activePane="bottomRight" state="frozen"/>
-      <selection pane="topRight" activeCell="H1" sqref="H1"/>
-      <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="C22" sqref="C22"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="1" width="5.42578125" style="4" customWidth="1"/>
-    <col min="2" max="2" width="24.85546875" style="4" customWidth="1"/>
-    <col min="3" max="3" width="36.7109375" style="4" customWidth="1"/>
-    <col min="4" max="4" width="24.85546875" style="4" customWidth="1"/>
-    <col min="5" max="6" width="12.42578125" style="4" customWidth="1"/>
-    <col min="7" max="8" width="3.85546875" style="4" customWidth="1"/>
-    <col min="9" max="9" width="13.7109375" style="4" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="24" t="s">
-        <v>1</v>
-      </c>
-      <c r="B1" s="24" t="s">
-        <v>2</v>
-      </c>
-      <c r="C1" s="26" t="s">
-        <v>3</v>
-      </c>
-      <c r="D1" s="27"/>
-      <c r="E1" s="28" t="s">
-        <v>4</v>
-      </c>
-      <c r="F1" s="29"/>
-      <c r="G1" s="40" t="s">
-        <v>13</v>
-      </c>
-      <c r="H1" s="41"/>
-      <c r="I1" s="2"/>
-    </row>
-    <row r="2" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="25"/>
-      <c r="B2" s="25"/>
-      <c r="C2" s="6" t="s">
-        <v>5</v>
-      </c>
-      <c r="D2" s="6" t="s">
-        <v>6</v>
-      </c>
-      <c r="E2" s="8" t="s">
-        <v>24</v>
-      </c>
-      <c r="F2" s="8" t="s">
-        <v>25</v>
-      </c>
-      <c r="G2" s="19" t="s">
-        <v>24</v>
-      </c>
-      <c r="H2" s="19" t="s">
-        <v>25</v>
-      </c>
-      <c r="I2" s="2"/>
-    </row>
-    <row r="3" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="9">
-        <v>2014</v>
-      </c>
-      <c r="B3" s="10" t="s">
-        <v>58</v>
-      </c>
-      <c r="C3" s="23" t="s">
-        <v>55</v>
-      </c>
-      <c r="D3" s="11" t="s">
-        <v>59</v>
-      </c>
-      <c r="E3" s="12" t="s">
-        <v>43</v>
-      </c>
-      <c r="F3" s="7" t="s">
-        <v>0</v>
-      </c>
-      <c r="G3" s="20">
-        <v>0</v>
-      </c>
-      <c r="H3" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="I3" s="3" t="str">
-        <f>IF(OR(AND(G3&gt;1,G3&lt;&gt;"-"),AND(H3&gt;1,H3&lt;&gt;"-")),"Can exchange","")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="4" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="9">
-        <v>2015</v>
-      </c>
-      <c r="B4" s="10" t="s">
-        <v>58</v>
-      </c>
-      <c r="C4" s="23" t="s">
-        <v>55</v>
-      </c>
-      <c r="D4" s="11" t="s">
-        <v>59</v>
-      </c>
-      <c r="E4" s="7" t="s">
-        <v>0</v>
-      </c>
-      <c r="F4" s="21" t="s">
-        <v>26</v>
-      </c>
-      <c r="G4" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="H4" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="I4" s="3" t="str">
-        <f t="shared" ref="I4:I9" si="0">IF(OR(AND(G4&gt;1,G4&lt;&gt;"-"),AND(H4&gt;1,H4&lt;&gt;"-")),"Can exchange","")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="5" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="9">
-        <v>2016</v>
-      </c>
-      <c r="B5" s="10" t="s">
-        <v>58</v>
-      </c>
-      <c r="C5" s="23" t="s">
-        <v>55</v>
-      </c>
-      <c r="D5" s="11" t="s">
-        <v>59</v>
-      </c>
-      <c r="E5" s="12" t="s">
-        <v>44</v>
-      </c>
-      <c r="F5" s="7" t="s">
-        <v>0</v>
-      </c>
-      <c r="G5" s="20">
-        <v>0</v>
-      </c>
-      <c r="H5" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="I5" s="3" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-    </row>
-    <row r="6" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="9">
-        <v>2017</v>
-      </c>
-      <c r="B6" s="10" t="s">
-        <v>58</v>
-      </c>
-      <c r="C6" s="23" t="s">
-        <v>55</v>
-      </c>
-      <c r="D6" s="11" t="s">
-        <v>59</v>
-      </c>
-      <c r="E6" s="7" t="s">
-        <v>0</v>
-      </c>
-      <c r="F6" s="12" t="s">
-        <v>41</v>
-      </c>
-      <c r="G6" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="H6" s="20">
-        <v>0</v>
-      </c>
-      <c r="I6" s="3" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-    </row>
-    <row r="7" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="9">
-        <v>2018</v>
-      </c>
-      <c r="B7" s="10" t="s">
-        <v>58</v>
-      </c>
-      <c r="C7" s="23" t="s">
-        <v>55</v>
-      </c>
-      <c r="D7" s="11" t="s">
-        <v>59</v>
-      </c>
-      <c r="E7" s="21" t="s">
-        <v>45</v>
-      </c>
-      <c r="F7" s="7" t="s">
-        <v>0</v>
-      </c>
-      <c r="G7" s="20">
-        <v>0</v>
-      </c>
-      <c r="H7" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="I7" s="3" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-    </row>
-    <row r="8" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="9">
-        <v>2019</v>
-      </c>
-      <c r="B8" s="10" t="s">
-        <v>58</v>
-      </c>
-      <c r="C8" s="23" t="s">
-        <v>55</v>
-      </c>
-      <c r="D8" s="11" t="s">
-        <v>59</v>
-      </c>
-      <c r="E8" s="7" t="s">
-        <v>0</v>
-      </c>
-      <c r="F8" s="21" t="s">
-        <v>49</v>
-      </c>
-      <c r="G8" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="H8" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="I8" s="3" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-    </row>
-    <row r="9" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="9">
-        <v>2020</v>
-      </c>
-      <c r="B9" s="10" t="s">
-        <v>58</v>
-      </c>
-      <c r="C9" s="23" t="s">
-        <v>55</v>
-      </c>
-      <c r="D9" s="11" t="s">
-        <v>59</v>
-      </c>
-      <c r="E9" s="7" t="s">
-        <v>0</v>
-      </c>
-      <c r="F9" s="21" t="s">
-        <v>60</v>
-      </c>
-      <c r="G9" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="H9" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="I9" s="3" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-    </row>
-  </sheetData>
-  <mergeCells count="5">
-    <mergeCell ref="A1:A2"/>
-    <mergeCell ref="B1:B2"/>
-    <mergeCell ref="C1:D1"/>
-    <mergeCell ref="E1:F1"/>
-    <mergeCell ref="G1:H1"/>
-  </mergeCells>
-  <conditionalFormatting sqref="G6 H8">
-    <cfRule type="colorScale" priority="21">
-      <colorScale>
-        <cfvo type="formula" val="0"/>
-        <cfvo type="formula" val="1"/>
-        <cfvo type="formula" val="10"/>
-        <color rgb="FFFF9F9F"/>
-        <color rgb="FFD1E0B2"/>
-        <color rgb="FF00B050"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="H7">
-    <cfRule type="colorScale" priority="20">
-      <colorScale>
-        <cfvo type="formula" val="0"/>
-        <cfvo type="formula" val="1"/>
-        <cfvo type="formula" val="10"/>
-        <color rgb="FFFF9F9F"/>
-        <color rgb="FFD1E0B2"/>
-        <color rgb="FF00B050"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="G3 G7">
-    <cfRule type="colorScale" priority="27">
-      <colorScale>
-        <cfvo type="formula" val="0"/>
-        <cfvo type="formula" val="1"/>
-        <cfvo type="formula" val="10"/>
-        <color rgb="FFFF9F9F"/>
-        <color rgb="FFD1E0B2"/>
-        <color rgb="FF00B050"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="H6">
-    <cfRule type="colorScale" priority="25">
-      <colorScale>
-        <cfvo type="formula" val="0"/>
-        <cfvo type="formula" val="1"/>
-        <cfvo type="formula" val="10"/>
-        <color rgb="FFFF9F9F"/>
-        <color rgb="FFD1E0B2"/>
-        <color rgb="FF00B050"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="H3">
-    <cfRule type="colorScale" priority="24">
-      <colorScale>
-        <cfvo type="formula" val="0"/>
-        <cfvo type="formula" val="1"/>
-        <cfvo type="formula" val="10"/>
-        <color rgb="FFFF9F9F"/>
-        <color rgb="FFD1E0B2"/>
-        <color rgb="FF00B050"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="G4:G5">
-    <cfRule type="colorScale" priority="23">
-      <colorScale>
-        <cfvo type="formula" val="0"/>
-        <cfvo type="formula" val="1"/>
-        <cfvo type="formula" val="10"/>
-        <color rgb="FFFF9F9F"/>
-        <color rgb="FFD1E0B2"/>
-        <color rgb="FF00B050"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="H4:H5">
-    <cfRule type="colorScale" priority="22">
-      <colorScale>
-        <cfvo type="formula" val="0"/>
-        <cfvo type="formula" val="1"/>
-        <cfvo type="formula" val="10"/>
-        <color rgb="FFFF9F9F"/>
-        <color rgb="FFD1E0B2"/>
-        <color rgb="FF00B050"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="G5">
-    <cfRule type="colorScale" priority="19">
-      <colorScale>
-        <cfvo type="formula" val="0"/>
-        <cfvo type="formula" val="1"/>
-        <cfvo type="formula" val="10"/>
-        <color rgb="FFFF9F9F"/>
-        <color rgb="FFD1E0B2"/>
-        <color rgb="FF00B050"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="G8">
-    <cfRule type="colorScale" priority="9">
-      <colorScale>
-        <cfvo type="formula" val="0"/>
-        <cfvo type="formula" val="1"/>
-        <cfvo type="formula" val="10"/>
-        <color rgb="FFFF9F9F"/>
-        <color rgb="FFD1E0B2"/>
-        <color rgb="FF00B050"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="H9">
-    <cfRule type="colorScale" priority="3">
-      <colorScale>
-        <cfvo type="formula" val="0"/>
-        <cfvo type="formula" val="1"/>
-        <cfvo type="formula" val="10"/>
-        <color rgb="FFFF9F9F"/>
-        <color rgb="FFD1E0B2"/>
-        <color rgb="FF00B050"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="G9">
-    <cfRule type="colorScale" priority="1">
-      <colorScale>
-        <cfvo type="formula" val="0"/>
-        <cfvo type="formula" val="1"/>
-        <cfvo type="formula" val="10"/>
-        <color rgb="FFFF9F9F"/>
-        <color rgb="FFD1E0B2"/>
-        <color rgb="FF00B050"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
-  <legacyDrawing r:id="rId2"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{78C0D931-6437-407d-A8EE-F0AAD7539E65}">
-      <x14:conditionalFormattings>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="containsText" priority="26" operator="containsText" text="*-" id="{0DC7A5EC-971A-4EDC-8CE5-1619DEA4F9BD}">
-            <xm:f>NOT(ISERROR(SEARCH(("*-"),('2cents'!G3))))</xm:f>
+          <x14:cfRule type="containsText" priority="8" operator="containsText" text="*-" id="{B060F07E-9A5F-4943-9DD8-A5CA74F75759}">
+            <xm:f>NOT(ISERROR(SEARCH(("*-"),('2cents'!G11))))</xm:f>
             <x14:dxf>
               <fill>
                 <patternFill patternType="solid">
@@ -5188,11 +7724,11 @@
               </fill>
             </x14:dxf>
           </x14:cfRule>
-          <xm:sqref>G3:H7</xm:sqref>
+          <xm:sqref>G11</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="containsText" priority="10" operator="containsText" text="*-" id="{218E0F86-BC28-424E-997C-7EAC9B6476ED}">
-            <xm:f>NOT(ISERROR(SEARCH(("*-"),('2cents'!G9))))</xm:f>
+          <x14:cfRule type="containsText" priority="5" operator="containsText" text="*-" id="{0B4C5064-66B9-49E5-8885-525969F55537}">
+            <xm:f>NOT(ISERROR(SEARCH(("*-"),('1cent'!H11))))</xm:f>
             <x14:dxf>
               <fill>
                 <patternFill patternType="solid">
@@ -5202,24 +7738,10 @@
               </fill>
             </x14:dxf>
           </x14:cfRule>
-          <xm:sqref>G8:H8</xm:sqref>
+          <xm:sqref>H11</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="containsText" priority="4" operator="containsText" text="*-" id="{2CBFF8CB-FFA4-4CA8-B291-0F130A7DB6F3}">
-            <xm:f>NOT(ISERROR(SEARCH(("*-"),('2cents'!H9))))</xm:f>
-            <x14:dxf>
-              <fill>
-                <patternFill patternType="solid">
-                  <fgColor rgb="FF9BE5FF"/>
-                  <bgColor rgb="FF9BE5FF"/>
-                </patternFill>
-              </fill>
-            </x14:dxf>
-          </x14:cfRule>
-          <xm:sqref>H9</xm:sqref>
-        </x14:conditionalFormatting>
-        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="containsText" priority="2" operator="containsText" text="*-" id="{302857DC-45DD-446E-A573-BD0BA47DFF4E}">
+          <x14:cfRule type="containsText" priority="4" operator="containsText" text="*-" id="{33F7F4E6-9AFE-4F23-AA99-AE422C0FD292}">
             <xm:f>NOT(ISERROR(SEARCH(("*-"),('2cents'!G9))))</xm:f>
             <x14:dxf>
               <fill>
@@ -5232,515 +7754,9 @@
           </x14:cfRule>
           <xm:sqref>G9</xm:sqref>
         </x14:conditionalFormatting>
-      </x14:conditionalFormattings>
-    </ext>
-  </extLst>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0700-000000000000}">
-  <dimension ref="A1:I9"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <pane xSplit="9" ySplit="2" topLeftCell="J3" activePane="bottomRight" state="frozen"/>
-      <selection pane="topRight" activeCell="H1" sqref="H1"/>
-      <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="F12" sqref="F12"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="1" width="5.42578125" style="4" customWidth="1"/>
-    <col min="2" max="2" width="24.85546875" style="4" customWidth="1"/>
-    <col min="3" max="3" width="36.7109375" style="4" customWidth="1"/>
-    <col min="4" max="4" width="24.85546875" style="4" customWidth="1"/>
-    <col min="5" max="6" width="12.42578125" style="4" customWidth="1"/>
-    <col min="7" max="8" width="3.85546875" style="4" customWidth="1"/>
-    <col min="9" max="9" width="13.7109375" style="4" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="24" t="s">
-        <v>1</v>
-      </c>
-      <c r="B1" s="24" t="s">
-        <v>2</v>
-      </c>
-      <c r="C1" s="26" t="s">
-        <v>3</v>
-      </c>
-      <c r="D1" s="27"/>
-      <c r="E1" s="28" t="s">
-        <v>4</v>
-      </c>
-      <c r="F1" s="29"/>
-      <c r="G1" s="40" t="s">
-        <v>50</v>
-      </c>
-      <c r="H1" s="41"/>
-      <c r="I1" s="2"/>
-    </row>
-    <row r="2" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="25"/>
-      <c r="B2" s="25"/>
-      <c r="C2" s="6" t="s">
-        <v>5</v>
-      </c>
-      <c r="D2" s="6" t="s">
-        <v>6</v>
-      </c>
-      <c r="E2" s="8" t="s">
-        <v>24</v>
-      </c>
-      <c r="F2" s="8" t="s">
-        <v>25</v>
-      </c>
-      <c r="G2" s="19" t="s">
-        <v>24</v>
-      </c>
-      <c r="H2" s="19" t="s">
-        <v>25</v>
-      </c>
-      <c r="I2" s="2"/>
-    </row>
-    <row r="3" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="9">
-        <v>2014</v>
-      </c>
-      <c r="B3" s="10" t="s">
-        <v>58</v>
-      </c>
-      <c r="C3" s="23" t="s">
-        <v>55</v>
-      </c>
-      <c r="D3" s="11" t="s">
-        <v>59</v>
-      </c>
-      <c r="E3" s="12" t="s">
-        <v>40</v>
-      </c>
-      <c r="F3" s="7" t="s">
-        <v>0</v>
-      </c>
-      <c r="G3" s="20">
-        <v>0</v>
-      </c>
-      <c r="H3" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="I3" s="3" t="str">
-        <f>IF(OR(AND(G3&gt;1,G3&lt;&gt;"-"),AND(H3&gt;1,H3&lt;&gt;"-")),"Can exchange","")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="4" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="9">
-        <v>2015</v>
-      </c>
-      <c r="B4" s="10" t="s">
-        <v>58</v>
-      </c>
-      <c r="C4" s="23" t="s">
-        <v>55</v>
-      </c>
-      <c r="D4" s="11" t="s">
-        <v>59</v>
-      </c>
-      <c r="E4" s="7" t="s">
-        <v>0</v>
-      </c>
-      <c r="F4" s="12" t="s">
-        <v>46</v>
-      </c>
-      <c r="G4" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="H4" s="20">
-        <v>0</v>
-      </c>
-      <c r="I4" s="3" t="str">
-        <f t="shared" ref="I4:I9" si="0">IF(OR(AND(G4&gt;1,G4&lt;&gt;"-"),AND(H4&gt;1,H4&lt;&gt;"-")),"Can exchange","")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="5" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="9">
-        <v>2016</v>
-      </c>
-      <c r="B5" s="10" t="s">
-        <v>58</v>
-      </c>
-      <c r="C5" s="23" t="s">
-        <v>55</v>
-      </c>
-      <c r="D5" s="11" t="s">
-        <v>59</v>
-      </c>
-      <c r="E5" s="21" t="s">
-        <v>27</v>
-      </c>
-      <c r="F5" s="7" t="s">
-        <v>0</v>
-      </c>
-      <c r="G5" s="20">
-        <v>0</v>
-      </c>
-      <c r="H5" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="I5" s="3" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-    </row>
-    <row r="6" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="9">
-        <v>2017</v>
-      </c>
-      <c r="B6" s="10" t="s">
-        <v>58</v>
-      </c>
-      <c r="C6" s="23" t="s">
-        <v>55</v>
-      </c>
-      <c r="D6" s="11" t="s">
-        <v>59</v>
-      </c>
-      <c r="E6" s="7" t="s">
-        <v>0</v>
-      </c>
-      <c r="F6" s="12" t="s">
-        <v>47</v>
-      </c>
-      <c r="G6" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="H6" s="20">
-        <v>0</v>
-      </c>
-      <c r="I6" s="3" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-    </row>
-    <row r="7" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="9">
-        <v>2018</v>
-      </c>
-      <c r="B7" s="10" t="s">
-        <v>58</v>
-      </c>
-      <c r="C7" s="23" t="s">
-        <v>55</v>
-      </c>
-      <c r="D7" s="11" t="s">
-        <v>59</v>
-      </c>
-      <c r="E7" s="12" t="s">
-        <v>48</v>
-      </c>
-      <c r="F7" s="7" t="s">
-        <v>0</v>
-      </c>
-      <c r="G7" s="20">
-        <v>0</v>
-      </c>
-      <c r="H7" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="I7" s="3" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-    </row>
-    <row r="8" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="9">
-        <v>2019</v>
-      </c>
-      <c r="B8" s="10" t="s">
-        <v>58</v>
-      </c>
-      <c r="C8" s="23" t="s">
-        <v>55</v>
-      </c>
-      <c r="D8" s="11" t="s">
-        <v>59</v>
-      </c>
-      <c r="E8" s="7" t="s">
-        <v>0</v>
-      </c>
-      <c r="F8" s="12" t="s">
-        <v>71</v>
-      </c>
-      <c r="G8" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="H8" s="20">
-        <v>0</v>
-      </c>
-      <c r="I8" s="3" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-    </row>
-    <row r="9" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="9">
-        <v>2018</v>
-      </c>
-      <c r="B9" s="10" t="s">
-        <v>58</v>
-      </c>
-      <c r="C9" s="23" t="s">
-        <v>55</v>
-      </c>
-      <c r="D9" s="11" t="s">
-        <v>59</v>
-      </c>
-      <c r="E9" s="7" t="s">
-        <v>0</v>
-      </c>
-      <c r="F9" s="12" t="s">
-        <v>70</v>
-      </c>
-      <c r="G9" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="H9" s="20">
-        <v>0</v>
-      </c>
-      <c r="I9" s="3" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-    </row>
-  </sheetData>
-  <mergeCells count="5">
-    <mergeCell ref="E1:F1"/>
-    <mergeCell ref="G1:H1"/>
-    <mergeCell ref="A1:A2"/>
-    <mergeCell ref="B1:B2"/>
-    <mergeCell ref="C1:D1"/>
-  </mergeCells>
-  <conditionalFormatting sqref="G6">
-    <cfRule type="colorScale" priority="19">
-      <colorScale>
-        <cfvo type="formula" val="0"/>
-        <cfvo type="formula" val="1"/>
-        <cfvo type="formula" val="10"/>
-        <color rgb="FFFF9F9F"/>
-        <color rgb="FFD1E0B2"/>
-        <color rgb="FF00B050"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="H7">
-    <cfRule type="colorScale" priority="18">
-      <colorScale>
-        <cfvo type="formula" val="0"/>
-        <cfvo type="formula" val="1"/>
-        <cfvo type="formula" val="10"/>
-        <color rgb="FFFF9F9F"/>
-        <color rgb="FFD1E0B2"/>
-        <color rgb="FF00B050"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="G3 G7">
-    <cfRule type="colorScale" priority="25">
-      <colorScale>
-        <cfvo type="formula" val="0"/>
-        <cfvo type="formula" val="1"/>
-        <cfvo type="formula" val="10"/>
-        <color rgb="FFFF9F9F"/>
-        <color rgb="FFD1E0B2"/>
-        <color rgb="FF00B050"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="H6">
-    <cfRule type="colorScale" priority="23">
-      <colorScale>
-        <cfvo type="formula" val="0"/>
-        <cfvo type="formula" val="1"/>
-        <cfvo type="formula" val="10"/>
-        <color rgb="FFFF9F9F"/>
-        <color rgb="FFD1E0B2"/>
-        <color rgb="FF00B050"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="H3">
-    <cfRule type="colorScale" priority="22">
-      <colorScale>
-        <cfvo type="formula" val="0"/>
-        <cfvo type="formula" val="1"/>
-        <cfvo type="formula" val="10"/>
-        <color rgb="FFFF9F9F"/>
-        <color rgb="FFD1E0B2"/>
-        <color rgb="FF00B050"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="G4:G5">
-    <cfRule type="colorScale" priority="21">
-      <colorScale>
-        <cfvo type="formula" val="0"/>
-        <cfvo type="formula" val="1"/>
-        <cfvo type="formula" val="10"/>
-        <color rgb="FFFF9F9F"/>
-        <color rgb="FFD1E0B2"/>
-        <color rgb="FF00B050"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="H4:H5">
-    <cfRule type="colorScale" priority="20">
-      <colorScale>
-        <cfvo type="formula" val="0"/>
-        <cfvo type="formula" val="1"/>
-        <cfvo type="formula" val="10"/>
-        <color rgb="FFFF9F9F"/>
-        <color rgb="FFD1E0B2"/>
-        <color rgb="FF00B050"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="G5">
-    <cfRule type="colorScale" priority="17">
-      <colorScale>
-        <cfvo type="formula" val="0"/>
-        <cfvo type="formula" val="1"/>
-        <cfvo type="formula" val="10"/>
-        <color rgb="FFFF9F9F"/>
-        <color rgb="FFD1E0B2"/>
-        <color rgb="FF00B050"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="H4">
-    <cfRule type="colorScale" priority="16">
-      <colorScale>
-        <cfvo type="formula" val="0"/>
-        <cfvo type="formula" val="1"/>
-        <cfvo type="formula" val="10"/>
-        <color rgb="FFFF9F9F"/>
-        <color rgb="FFD1E0B2"/>
-        <color rgb="FF00B050"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="H4">
-    <cfRule type="colorScale" priority="15">
-      <colorScale>
-        <cfvo type="formula" val="0"/>
-        <cfvo type="formula" val="1"/>
-        <cfvo type="formula" val="10"/>
-        <color rgb="FFFF9F9F"/>
-        <color rgb="FFD1E0B2"/>
-        <color rgb="FF00B050"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="G8">
-    <cfRule type="colorScale" priority="14">
-      <colorScale>
-        <cfvo type="formula" val="0"/>
-        <cfvo type="formula" val="1"/>
-        <cfvo type="formula" val="10"/>
-        <color rgb="FFFF9F9F"/>
-        <color rgb="FFD1E0B2"/>
-        <color rgb="FF00B050"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="H8">
-    <cfRule type="colorScale" priority="5">
-      <colorScale>
-        <cfvo type="formula" val="0"/>
-        <cfvo type="formula" val="1"/>
-        <cfvo type="formula" val="10"/>
-        <color rgb="FFFF9F9F"/>
-        <color rgb="FFD1E0B2"/>
-        <color rgb="FF00B050"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="H9">
-    <cfRule type="colorScale" priority="3">
-      <colorScale>
-        <cfvo type="formula" val="0"/>
-        <cfvo type="formula" val="1"/>
-        <cfvo type="formula" val="10"/>
-        <color rgb="FFFF9F9F"/>
-        <color rgb="FFD1E0B2"/>
-        <color rgb="FF00B050"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="G9">
-    <cfRule type="colorScale" priority="2">
-      <colorScale>
-        <cfvo type="formula" val="0"/>
-        <cfvo type="formula" val="1"/>
-        <cfvo type="formula" val="10"/>
-        <color rgb="FFFF9F9F"/>
-        <color rgb="FFD1E0B2"/>
-        <color rgb="FF00B050"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
-  <legacyDrawing r:id="rId2"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{78C0D931-6437-407d-A8EE-F0AAD7539E65}">
-      <x14:conditionalFormattings>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="containsText" priority="24" operator="containsText" text="*-" id="{04D89F84-3BA3-483A-AA4E-B60F8837EE70}">
-            <xm:f>NOT(ISERROR(SEARCH(("*-"),('2cents'!G3))))</xm:f>
-            <x14:dxf>
-              <fill>
-                <patternFill patternType="solid">
-                  <fgColor rgb="FF9BE5FF"/>
-                  <bgColor rgb="FF9BE5FF"/>
-                </patternFill>
-              </fill>
-            </x14:dxf>
-          </x14:cfRule>
-          <xm:sqref>G3:H7</xm:sqref>
-        </x14:conditionalFormatting>
-        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="containsText" priority="13" operator="containsText" text="*-" id="{E867007A-7BF4-486C-95A8-13206CAF972C}">
-            <xm:f>NOT(ISERROR(SEARCH(("*-"),('1cent'!G8))))</xm:f>
-            <x14:dxf>
-              <fill>
-                <patternFill patternType="solid">
-                  <fgColor rgb="FF9BE5FF"/>
-                  <bgColor rgb="FF9BE5FF"/>
-                </patternFill>
-              </fill>
-            </x14:dxf>
-          </x14:cfRule>
-          <xm:sqref>G8</xm:sqref>
-        </x14:conditionalFormatting>
-        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="containsText" priority="6" operator="containsText" text="*-" id="{3AEC8CF6-C82A-4A7A-9992-9E2112331739}">
-            <xm:f>NOT(ISERROR(SEARCH(("*-"),('2cents'!H8))))</xm:f>
-            <x14:dxf>
-              <fill>
-                <patternFill patternType="solid">
-                  <fgColor rgb="FF9BE5FF"/>
-                  <bgColor rgb="FF9BE5FF"/>
-                </patternFill>
-              </fill>
-            </x14:dxf>
-          </x14:cfRule>
-          <xm:sqref>H8</xm:sqref>
-        </x14:conditionalFormatting>
-        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="containsText" priority="4" operator="containsText" text="*-" id="{9AD19DD5-0172-4B5E-A70F-024D8D61FC0D}">
-            <xm:f>NOT(ISERROR(SEARCH(("*-"),('2cents'!H9))))</xm:f>
+          <x14:cfRule type="containsText" priority="1" operator="containsText" text="*-" id="{3B3EDD6E-3564-45AF-97E8-54CCA654CDE0}">
+            <xm:f>NOT(ISERROR(SEARCH(("*-"),('1cent'!H9))))</xm:f>
             <x14:dxf>
               <fill>
                 <patternFill patternType="solid">
@@ -5751,20 +7767,6 @@
             </x14:dxf>
           </x14:cfRule>
           <xm:sqref>H9</xm:sqref>
-        </x14:conditionalFormatting>
-        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="containsText" priority="1" operator="containsText" text="*-" id="{53F55DA2-1E89-426D-9086-FA18C4976410}">
-            <xm:f>NOT(ISERROR(SEARCH(("*-"),('1cent'!G9))))</xm:f>
-            <x14:dxf>
-              <fill>
-                <patternFill patternType="solid">
-                  <fgColor rgb="FF9BE5FF"/>
-                  <bgColor rgb="FF9BE5FF"/>
-                </patternFill>
-              </fill>
-            </x14:dxf>
-          </x14:cfRule>
-          <xm:sqref>G9</xm:sqref>
         </x14:conditionalFormatting>
       </x14:conditionalFormattings>
     </ext>
@@ -5783,14 +7785,14 @@
       <selection pane="bottomRight" activeCell="B6" sqref="B6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="4.85546875" customWidth="1"/>
-    <col min="2" max="2" width="16.28515625" customWidth="1"/>
-    <col min="3" max="3" width="61.85546875" customWidth="1"/>
+    <col min="1" max="1" width="4.81640625" customWidth="1"/>
+    <col min="2" max="2" width="16.26953125" customWidth="1"/>
+    <col min="3" max="3" width="61.81640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A1" s="13" t="s">
         <v>14</v>
       </c>
@@ -5801,7 +7803,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="2" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A2" s="16">
         <v>1</v>
       </c>
@@ -5812,7 +7814,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="3" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A3" s="16">
         <v>2</v>
       </c>
@@ -5823,7 +7825,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="4" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A4" s="16">
         <v>3</v>
       </c>
@@ -5834,7 +7836,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="5" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A5" s="16">
         <v>4</v>
       </c>
@@ -5845,7 +7847,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="6" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A6" s="16">
         <v>5</v>
       </c>
@@ -5856,7 +7858,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="7" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A7" s="16">
         <v>6</v>
       </c>

--- a/Collections/EURO/Andorra/#EURO#Andorra#Regular#[2014-present]#circulation_quality%varieties.xlsx
+++ b/Collections/EURO/Andorra/#EURO#Andorra#Regular#[2014-present]#circulation_quality%varieties.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Lord_Alexator\Documents\CoinCollection\Collections\EURO\Andorra\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3F49A1A4-C61E-4D06-9BA1-FD9409C12A97}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F1019954-6BCD-412B-A64E-AD85BE842360}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="38620" windowHeight="21220" activeTab="7" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1210" yWindow="1460" windowWidth="28800" windowHeight="17740" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="1cent" sheetId="4" r:id="rId1"/>
@@ -642,9 +642,6 @@
     <t>Year</t>
   </si>
   <si>
-    <t>Series</t>
-  </si>
-  <si>
     <t>Type</t>
   </si>
   <si>
@@ -886,6 +883,9 @@
   </si>
   <si>
     <t>2.085.750</t>
+  </si>
+  <si>
+    <t>Subject</t>
   </si>
 </sst>
 </file>
@@ -1001,7 +1001,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="14">
+  <borders count="12">
     <border>
       <left/>
       <right/>
@@ -1125,30 +1125,6 @@
         <color rgb="FF000000"/>
       </left>
       <right style="thin">
-        <color auto="1"/>
-      </right>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF000000"/>
-      </left>
-      <right style="thin">
-        <color auto="1"/>
-      </right>
-      <top/>
-      <bottom style="thin">
-        <color auto="1"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF000000"/>
-      </left>
-      <right style="thin">
         <color rgb="FF000000"/>
       </right>
       <top/>
@@ -1174,7 +1150,7 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="43">
+  <cellXfs count="41">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -1264,12 +1240,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="5" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="5" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="6" fillId="5" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1300,15 +1270,7 @@
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
     <cellStyle name="Обычный 2" xfId="1" xr:uid="{00000000-0005-0000-0000-000002000000}"/>
   </cellStyles>
-  <dxfs count="84">
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FF9BE5FF"/>
-          <bgColor rgb="FF9BE5FF"/>
-        </patternFill>
-      </fill>
-    </dxf>
+  <dxfs count="83">
     <dxf>
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
@@ -1989,9 +1951,9 @@
     <filterColumn colId="2" hiddenButton="1"/>
   </autoFilter>
   <tableColumns count="3">
-    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" name="№" dataDxfId="3"/>
-    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0000-000002000000}" name="Link" dataDxfId="2" dataCellStyle="Гиперссылка"/>
-    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0000-000003000000}" name="Description (single table, table set, mintage, prices):" dataDxfId="1"/>
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" name="№" dataDxfId="2"/>
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0000-000002000000}" name="Link" dataDxfId="1" dataCellStyle="Гиперссылка"/>
+    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0000-000003000000}" name="Description (single table, table set, mintage, prices):" dataDxfId="0"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium9" showFirstColumn="1" showLastColumn="0" showRowStripes="0" showColumnStripes="0"/>
 </table>
@@ -2262,11 +2224,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:I12"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="9" ySplit="2" topLeftCell="J3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="H1" sqref="H1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="F9" sqref="F9"/>
+      <selection pane="bottomRight" activeCell="C16" sqref="C16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.35"/>
@@ -2285,18 +2247,18 @@
         <v>1</v>
       </c>
       <c r="B1" s="25" t="s">
+        <v>83</v>
+      </c>
+      <c r="C1" s="27" t="s">
         <v>2</v>
-      </c>
-      <c r="C1" s="27" t="s">
-        <v>3</v>
       </c>
       <c r="D1" s="28"/>
       <c r="E1" s="29" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="F1" s="30"/>
       <c r="G1" s="31" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="H1" s="32"/>
       <c r="I1" s="2"/>
@@ -2305,22 +2267,22 @@
       <c r="A2" s="26"/>
       <c r="B2" s="26"/>
       <c r="C2" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="D2" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="D2" s="6" t="s">
-        <v>6</v>
-      </c>
       <c r="E2" s="8" t="s">
+        <v>23</v>
+      </c>
+      <c r="F2" s="8" t="s">
         <v>24</v>
       </c>
-      <c r="F2" s="8" t="s">
-        <v>25</v>
-      </c>
       <c r="G2" s="19" t="s">
+        <v>23</v>
+      </c>
+      <c r="H2" s="19" t="s">
         <v>24</v>
-      </c>
-      <c r="H2" s="19" t="s">
-        <v>25</v>
       </c>
       <c r="I2" s="2"/>
     </row>
@@ -2329,14 +2291,14 @@
         <v>2014</v>
       </c>
       <c r="B3" s="10" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="C3" s="23" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="D3" s="11"/>
       <c r="E3" s="12" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="F3" s="7" t="s">
         <v>0</v>
@@ -2357,17 +2319,17 @@
         <v>2015</v>
       </c>
       <c r="B4" s="10" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="C4" s="23" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="D4" s="11"/>
       <c r="E4" s="7" t="s">
         <v>0</v>
       </c>
       <c r="F4" s="21" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="G4" s="1" t="s">
         <v>0</v>
@@ -2385,14 +2347,14 @@
         <v>2016</v>
       </c>
       <c r="B5" s="10" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="C5" s="23" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="D5" s="11"/>
       <c r="E5" s="21" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="F5" s="7" t="s">
         <v>0</v>
@@ -2413,17 +2375,17 @@
         <v>2017</v>
       </c>
       <c r="B6" s="10" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="C6" s="23" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="D6" s="11"/>
       <c r="E6" s="7" t="s">
         <v>0</v>
       </c>
       <c r="F6" s="12" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="G6" s="1" t="s">
         <v>0</v>
@@ -2441,14 +2403,14 @@
         <v>2018</v>
       </c>
       <c r="B7" s="10" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="C7" s="23" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="D7" s="11"/>
       <c r="E7" s="12" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="F7" s="7" t="s">
         <v>0</v>
@@ -2469,17 +2431,17 @@
         <v>2019</v>
       </c>
       <c r="B8" s="10" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="C8" s="23" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="D8" s="11"/>
       <c r="E8" s="7" t="s">
         <v>0</v>
       </c>
       <c r="F8" s="12" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="G8" s="1" t="s">
         <v>0</v>
@@ -2497,14 +2459,14 @@
         <v>2020</v>
       </c>
       <c r="B9" s="10" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="C9" s="23" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="D9" s="11"/>
       <c r="E9" s="21" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="F9" s="7" t="s">
         <v>0</v>
@@ -2525,17 +2487,17 @@
         <v>2021</v>
       </c>
       <c r="B10" s="10" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="C10" s="23" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="D10" s="11"/>
       <c r="E10" s="7" t="s">
         <v>0</v>
       </c>
       <c r="F10" s="12" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="G10" s="1" t="s">
         <v>0</v>
@@ -2553,14 +2515,14 @@
         <v>2022</v>
       </c>
       <c r="B11" s="10" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="C11" s="23" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="D11" s="11"/>
       <c r="E11" s="12" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="F11" s="7" t="s">
         <v>0</v>
@@ -2581,17 +2543,17 @@
         <v>2023</v>
       </c>
       <c r="B12" s="10" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="C12" s="23" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="D12" s="11"/>
       <c r="E12" s="7" t="s">
         <v>0</v>
       </c>
       <c r="F12" s="21" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="G12" s="1" t="s">
         <v>0</v>
@@ -2614,7 +2576,7 @@
   </mergeCells>
   <phoneticPr fontId="8" type="noConversion"/>
   <conditionalFormatting sqref="G3 G7">
-    <cfRule type="containsText" dxfId="83" priority="45" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="82" priority="45" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(G3))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -2631,7 +2593,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H6">
-    <cfRule type="containsText" dxfId="82" priority="41" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="81" priority="41" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(H6))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -2648,7 +2610,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H3">
-    <cfRule type="containsText" dxfId="81" priority="39" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="80" priority="39" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(H3))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -2665,7 +2627,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G4">
-    <cfRule type="containsText" dxfId="80" priority="37" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="79" priority="37" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(G4))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -2682,7 +2644,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H5">
-    <cfRule type="containsText" dxfId="79" priority="35" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="78" priority="35" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(H5))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -2699,7 +2661,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G6">
-    <cfRule type="containsText" dxfId="78" priority="33" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="77" priority="33" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(G6))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -2716,7 +2678,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H7">
-    <cfRule type="containsText" dxfId="77" priority="31" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="76" priority="31" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(H7))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -2733,7 +2695,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H9:H10">
-    <cfRule type="containsText" dxfId="76" priority="23" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="75" priority="23" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(H9))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -2750,7 +2712,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G10 G12">
-    <cfRule type="containsText" dxfId="75" priority="25" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="74" priority="25" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(G10))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -2767,7 +2729,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H8">
-    <cfRule type="containsText" dxfId="74" priority="15" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="73" priority="15" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(H8))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -2784,7 +2746,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G8">
-    <cfRule type="containsText" dxfId="73" priority="13" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="72" priority="13" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(G8))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -2801,7 +2763,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G11">
-    <cfRule type="containsText" dxfId="72" priority="11" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="71" priority="11" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(G11))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -2818,7 +2780,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H11">
-    <cfRule type="containsText" dxfId="71" priority="9" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="70" priority="9" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(H11))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -2958,7 +2920,7 @@
       <pane xSplit="9" ySplit="2" topLeftCell="K3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="H1" sqref="H1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="F9" sqref="F9"/>
+      <selection pane="bottomRight" activeCell="B1" sqref="B1:B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.35"/>
@@ -2977,18 +2939,18 @@
         <v>1</v>
       </c>
       <c r="B1" s="25" t="s">
+        <v>83</v>
+      </c>
+      <c r="C1" s="27" t="s">
         <v>2</v>
-      </c>
-      <c r="C1" s="27" t="s">
-        <v>3</v>
       </c>
       <c r="D1" s="28"/>
       <c r="E1" s="29" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="F1" s="30"/>
       <c r="G1" s="31" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="H1" s="32"/>
       <c r="I1" s="2"/>
@@ -2997,22 +2959,22 @@
       <c r="A2" s="26"/>
       <c r="B2" s="26"/>
       <c r="C2" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="D2" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="D2" s="6" t="s">
-        <v>6</v>
-      </c>
       <c r="E2" s="8" t="s">
+        <v>23</v>
+      </c>
+      <c r="F2" s="8" t="s">
         <v>24</v>
       </c>
-      <c r="F2" s="8" t="s">
-        <v>25</v>
-      </c>
       <c r="G2" s="19" t="s">
+        <v>23</v>
+      </c>
+      <c r="H2" s="19" t="s">
         <v>24</v>
-      </c>
-      <c r="H2" s="19" t="s">
-        <v>25</v>
       </c>
       <c r="I2" s="2"/>
     </row>
@@ -3021,14 +2983,14 @@
         <v>2014</v>
       </c>
       <c r="B3" s="10" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="C3" s="23" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="D3" s="5"/>
       <c r="E3" s="12" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="F3" s="7" t="s">
         <v>0</v>
@@ -3049,17 +3011,17 @@
         <v>2015</v>
       </c>
       <c r="B4" s="10" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="C4" s="23" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="D4" s="5"/>
       <c r="E4" s="7" t="s">
         <v>0</v>
       </c>
       <c r="F4" s="21" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="G4" s="1" t="s">
         <v>0</v>
@@ -3077,14 +3039,14 @@
         <v>2016</v>
       </c>
       <c r="B5" s="10" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="C5" s="23" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="D5" s="5"/>
       <c r="E5" s="21" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="F5" s="7" t="s">
         <v>0</v>
@@ -3105,17 +3067,17 @@
         <v>2017</v>
       </c>
       <c r="B6" s="10" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="C6" s="23" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="D6" s="5"/>
       <c r="E6" s="7" t="s">
         <v>0</v>
       </c>
       <c r="F6" s="12" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="G6" s="1" t="s">
         <v>0</v>
@@ -3133,14 +3095,14 @@
         <v>2018</v>
       </c>
       <c r="B7" s="10" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="C7" s="23" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="D7" s="5"/>
       <c r="E7" s="12" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="F7" s="7" t="s">
         <v>0</v>
@@ -3161,17 +3123,17 @@
         <v>2019</v>
       </c>
       <c r="B8" s="10" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="C8" s="23" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="D8" s="11"/>
       <c r="E8" s="7" t="s">
         <v>0</v>
       </c>
       <c r="F8" s="12" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="G8" s="1" t="s">
         <v>0</v>
@@ -3189,14 +3151,14 @@
         <v>2020</v>
       </c>
       <c r="B9" s="10" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="C9" s="23" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="D9" s="5"/>
       <c r="E9" s="21" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="F9" s="7" t="s">
         <v>0</v>
@@ -3217,17 +3179,17 @@
         <v>2021</v>
       </c>
       <c r="B10" s="10" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="C10" s="23" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="D10" s="5"/>
       <c r="E10" s="7" t="s">
         <v>0</v>
       </c>
       <c r="F10" s="12" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="G10" s="1" t="s">
         <v>0</v>
@@ -3245,14 +3207,14 @@
         <v>2022</v>
       </c>
       <c r="B11" s="10" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="C11" s="23" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="D11" s="5"/>
       <c r="E11" s="12" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="F11" s="7" t="s">
         <v>0</v>
@@ -3273,17 +3235,17 @@
         <v>2023</v>
       </c>
       <c r="B12" s="10" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="C12" s="23" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="D12" s="5"/>
       <c r="E12" s="7" t="s">
         <v>0</v>
       </c>
       <c r="F12" s="21" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="G12" s="1" t="s">
         <v>0</v>
@@ -3330,7 +3292,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G3 G7">
-    <cfRule type="containsText" dxfId="66" priority="43" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="65" priority="43" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(G3))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -3347,7 +3309,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H6">
-    <cfRule type="containsText" dxfId="65" priority="41" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="64" priority="41" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(H6))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -3364,7 +3326,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H3">
-    <cfRule type="containsText" dxfId="64" priority="39" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="63" priority="39" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(H3))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -3381,7 +3343,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G4">
-    <cfRule type="containsText" dxfId="63" priority="37" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="62" priority="37" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(G4))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -3398,7 +3360,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H5">
-    <cfRule type="containsText" dxfId="62" priority="35" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="61" priority="35" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(H5))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -3415,12 +3377,12 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G6">
-    <cfRule type="containsText" dxfId="61" priority="33" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="60" priority="33" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(G6))))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H7">
-    <cfRule type="containsText" dxfId="60" priority="31" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="59" priority="31" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(H7))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -3449,12 +3411,12 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G10 G12">
-    <cfRule type="containsText" dxfId="59" priority="23" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="58" priority="23" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(G10))))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H9">
-    <cfRule type="containsText" dxfId="58" priority="21" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="57" priority="21" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(H9))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -3471,7 +3433,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H8">
-    <cfRule type="containsText" dxfId="57" priority="19" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="56" priority="19" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(H8))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -3488,7 +3450,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G8">
-    <cfRule type="containsText" dxfId="56" priority="17" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="55" priority="17" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(G8))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -3505,7 +3467,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H10">
-    <cfRule type="containsText" dxfId="55" priority="15" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="54" priority="15" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(H10))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -3522,7 +3484,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G11">
-    <cfRule type="containsText" dxfId="54" priority="11" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="53" priority="11" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(G11))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -3539,7 +3501,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H11">
-    <cfRule type="containsText" dxfId="53" priority="9" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="52" priority="9" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(H11))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -3556,7 +3518,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H12">
-    <cfRule type="containsText" dxfId="52" priority="8" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="51" priority="8" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(H12))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -3573,7 +3535,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G9">
-    <cfRule type="containsText" dxfId="51" priority="6" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="50" priority="6" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(G9))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -3590,7 +3552,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G5">
-    <cfRule type="containsText" dxfId="50" priority="4" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="49" priority="4" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(G5))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -3607,7 +3569,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H4">
-    <cfRule type="containsText" dxfId="49" priority="2" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="48" priority="2" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(H4))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -3625,7 +3587,7 @@
       <pane xSplit="9" ySplit="2" topLeftCell="J3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="J1" sqref="J1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="F9" sqref="F9"/>
+      <selection pane="bottomRight" activeCell="B1" sqref="B1:B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.35"/>
@@ -3644,18 +3606,18 @@
         <v>1</v>
       </c>
       <c r="B1" s="25" t="s">
+        <v>83</v>
+      </c>
+      <c r="C1" s="27" t="s">
         <v>2</v>
-      </c>
-      <c r="C1" s="27" t="s">
-        <v>3</v>
       </c>
       <c r="D1" s="28"/>
       <c r="E1" s="29" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="F1" s="30"/>
       <c r="G1" s="31" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="H1" s="32"/>
       <c r="I1" s="2"/>
@@ -3664,22 +3626,22 @@
       <c r="A2" s="26"/>
       <c r="B2" s="26"/>
       <c r="C2" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="D2" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="D2" s="6" t="s">
-        <v>6</v>
-      </c>
       <c r="E2" s="8" t="s">
+        <v>23</v>
+      </c>
+      <c r="F2" s="8" t="s">
         <v>24</v>
       </c>
-      <c r="F2" s="8" t="s">
-        <v>25</v>
-      </c>
       <c r="G2" s="19" t="s">
+        <v>23</v>
+      </c>
+      <c r="H2" s="19" t="s">
         <v>24</v>
-      </c>
-      <c r="H2" s="19" t="s">
-        <v>25</v>
       </c>
       <c r="I2" s="2"/>
     </row>
@@ -3688,14 +3650,14 @@
         <v>2014</v>
       </c>
       <c r="B3" s="10" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="C3" s="23" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="D3" s="5"/>
       <c r="E3" s="12" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="F3" s="7" t="s">
         <v>0</v>
@@ -3716,17 +3678,17 @@
         <v>2015</v>
       </c>
       <c r="B4" s="10" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="C4" s="23" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="D4" s="5"/>
       <c r="E4" s="7" t="s">
         <v>0</v>
       </c>
       <c r="F4" s="21" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="G4" s="1" t="s">
         <v>0</v>
@@ -3744,14 +3706,14 @@
         <v>2016</v>
       </c>
       <c r="B5" s="10" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="C5" s="23" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="D5" s="5"/>
       <c r="E5" s="21" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="F5" s="7" t="s">
         <v>0</v>
@@ -3772,17 +3734,17 @@
         <v>2017</v>
       </c>
       <c r="B6" s="10" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="C6" s="23" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="D6" s="5"/>
       <c r="E6" s="7" t="s">
         <v>0</v>
       </c>
       <c r="F6" s="12" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="G6" s="1" t="s">
         <v>0</v>
@@ -3800,14 +3762,14 @@
         <v>2018</v>
       </c>
       <c r="B7" s="10" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="C7" s="23" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="D7" s="5"/>
       <c r="E7" s="12" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="F7" s="7" t="s">
         <v>0</v>
@@ -3828,17 +3790,17 @@
         <v>2019</v>
       </c>
       <c r="B8" s="10" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="C8" s="23" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="D8" s="11"/>
       <c r="E8" s="7" t="s">
         <v>0</v>
       </c>
       <c r="F8" s="12" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="G8" s="1" t="s">
         <v>0</v>
@@ -3853,14 +3815,14 @@
         <v>2020</v>
       </c>
       <c r="B9" s="10" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="C9" s="23" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="D9" s="11"/>
       <c r="E9" s="21" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="F9" s="7" t="s">
         <v>0</v>
@@ -3877,17 +3839,17 @@
         <v>2021</v>
       </c>
       <c r="B10" s="10" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="C10" s="23" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="D10" s="11"/>
       <c r="E10" s="7" t="s">
         <v>0</v>
       </c>
       <c r="F10" s="21" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="G10" s="1" t="s">
         <v>0</v>
@@ -3901,14 +3863,14 @@
         <v>2022</v>
       </c>
       <c r="B11" s="10" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="C11" s="23" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="D11" s="11"/>
       <c r="E11" s="12" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="F11" s="7" t="s">
         <v>0</v>
@@ -3925,17 +3887,17 @@
         <v>2023</v>
       </c>
       <c r="B12" s="10" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="C12" s="23" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="D12" s="11"/>
       <c r="E12" s="7" t="s">
         <v>0</v>
       </c>
       <c r="F12" s="21" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="G12" s="1" t="s">
         <v>0</v>
@@ -4315,7 +4277,7 @@
       <pane xSplit="9" ySplit="2" topLeftCell="J3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="H1" sqref="H1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="F9" sqref="F9"/>
+      <selection pane="bottomRight" activeCell="B1" sqref="B1:B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.35"/>
@@ -4333,43 +4295,43 @@
       <c r="A1" s="33" t="s">
         <v>1</v>
       </c>
-      <c r="B1" s="35" t="s">
+      <c r="B1" s="25" t="s">
+        <v>83</v>
+      </c>
+      <c r="C1" s="27" t="s">
         <v>2</v>
       </c>
-      <c r="C1" s="27" t="s">
+      <c r="D1" s="35"/>
+      <c r="E1" s="29" t="s">
         <v>3</v>
       </c>
-      <c r="D1" s="37"/>
-      <c r="E1" s="29" t="s">
-        <v>4</v>
-      </c>
-      <c r="F1" s="38"/>
-      <c r="G1" s="39" t="s">
-        <v>10</v>
-      </c>
-      <c r="H1" s="40"/>
+      <c r="F1" s="36"/>
+      <c r="G1" s="37" t="s">
+        <v>9</v>
+      </c>
+      <c r="H1" s="38"/>
       <c r="I1" s="2"/>
     </row>
     <row r="2" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A2" s="34"/>
-      <c r="B2" s="36"/>
+      <c r="B2" s="26"/>
       <c r="C2" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="D2" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="D2" s="6" t="s">
-        <v>6</v>
-      </c>
       <c r="E2" s="8" t="s">
+        <v>23</v>
+      </c>
+      <c r="F2" s="8" t="s">
         <v>24</v>
       </c>
-      <c r="F2" s="8" t="s">
-        <v>25</v>
-      </c>
       <c r="G2" s="19" t="s">
+        <v>23</v>
+      </c>
+      <c r="H2" s="19" t="s">
         <v>24</v>
-      </c>
-      <c r="H2" s="19" t="s">
-        <v>25</v>
       </c>
       <c r="I2" s="2"/>
     </row>
@@ -4378,16 +4340,16 @@
         <v>2014</v>
       </c>
       <c r="B3" s="10" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="C3" s="23" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="D3" s="11" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="E3" s="12" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="F3" s="7" t="s">
         <v>0</v>
@@ -4408,19 +4370,19 @@
         <v>2015</v>
       </c>
       <c r="B4" s="10" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="C4" s="23" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="D4" s="11" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="E4" s="7" t="s">
         <v>0</v>
       </c>
       <c r="F4" s="21" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="G4" s="1" t="s">
         <v>0</v>
@@ -4438,16 +4400,16 @@
         <v>2016</v>
       </c>
       <c r="B5" s="10" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="C5" s="23" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="D5" s="11" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="E5" s="21" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="F5" s="7" t="s">
         <v>0</v>
@@ -4468,19 +4430,19 @@
         <v>2017</v>
       </c>
       <c r="B6" s="10" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="C6" s="23" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="D6" s="11" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="E6" s="7" t="s">
         <v>0</v>
       </c>
       <c r="F6" s="12" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="G6" s="1" t="s">
         <v>0</v>
@@ -4498,16 +4460,16 @@
         <v>2018</v>
       </c>
       <c r="B7" s="10" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="C7" s="23" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="D7" s="11" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="E7" s="12" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="F7" s="7" t="s">
         <v>0</v>
@@ -4528,19 +4490,19 @@
         <v>2019</v>
       </c>
       <c r="B8" s="10" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="C8" s="23" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="D8" s="11" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="E8" s="7" t="s">
         <v>0</v>
       </c>
       <c r="F8" s="12" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="G8" s="1" t="s">
         <v>0</v>
@@ -4558,16 +4520,16 @@
         <v>2020</v>
       </c>
       <c r="B9" s="10" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="C9" s="23" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="D9" s="11" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="E9" s="12" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="F9" s="7" t="s">
         <v>0</v>
@@ -4588,19 +4550,19 @@
         <v>2021</v>
       </c>
       <c r="B10" s="10" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="C10" s="23" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="D10" s="11" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="E10" s="7" t="s">
         <v>0</v>
       </c>
       <c r="F10" s="12" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="G10" s="1" t="s">
         <v>0</v>
@@ -4618,16 +4580,16 @@
         <v>2022</v>
       </c>
       <c r="B11" s="10" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="C11" s="23" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="D11" s="11" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="E11" s="12" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="F11" s="7" t="s">
         <v>0</v>
@@ -4648,19 +4610,19 @@
         <v>2023</v>
       </c>
       <c r="B12" s="10" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="C12" s="23" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="D12" s="11" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="E12" s="7" t="s">
         <v>0</v>
       </c>
       <c r="F12" s="21" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="G12" s="1" t="s">
         <v>0</v>
@@ -5020,7 +4982,7 @@
       <pane xSplit="9" ySplit="2" topLeftCell="J3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="H1" sqref="H1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="F15" sqref="F15"/>
+      <selection pane="bottomRight" activeCell="B1" sqref="B1:B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.35"/>
@@ -5039,18 +5001,18 @@
         <v>1</v>
       </c>
       <c r="B1" s="25" t="s">
+        <v>83</v>
+      </c>
+      <c r="C1" s="27" t="s">
         <v>2</v>
-      </c>
-      <c r="C1" s="27" t="s">
-        <v>3</v>
       </c>
       <c r="D1" s="28"/>
       <c r="E1" s="29" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="F1" s="30"/>
       <c r="G1" s="31" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="H1" s="32"/>
       <c r="I1" s="2"/>
@@ -5059,22 +5021,22 @@
       <c r="A2" s="26"/>
       <c r="B2" s="26"/>
       <c r="C2" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="D2" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="D2" s="6" t="s">
-        <v>6</v>
-      </c>
       <c r="E2" s="8" t="s">
+        <v>23</v>
+      </c>
+      <c r="F2" s="8" t="s">
         <v>24</v>
       </c>
-      <c r="F2" s="8" t="s">
-        <v>25</v>
-      </c>
       <c r="G2" s="19" t="s">
+        <v>23</v>
+      </c>
+      <c r="H2" s="19" t="s">
         <v>24</v>
-      </c>
-      <c r="H2" s="19" t="s">
-        <v>25</v>
       </c>
       <c r="I2" s="2"/>
     </row>
@@ -5083,16 +5045,16 @@
         <v>2014</v>
       </c>
       <c r="B3" s="10" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="C3" s="23" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="D3" s="11" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="E3" s="12" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="F3" s="7" t="s">
         <v>0</v>
@@ -5113,19 +5075,19 @@
         <v>2015</v>
       </c>
       <c r="B4" s="10" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="C4" s="23" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="D4" s="11" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="E4" s="7" t="s">
         <v>0</v>
       </c>
       <c r="F4" s="21" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="G4" s="1" t="s">
         <v>0</v>
@@ -5143,16 +5105,16 @@
         <v>2016</v>
       </c>
       <c r="B5" s="10" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="C5" s="23" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="D5" s="11" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="E5" s="21" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="F5" s="7" t="s">
         <v>0</v>
@@ -5173,19 +5135,19 @@
         <v>2017</v>
       </c>
       <c r="B6" s="10" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="C6" s="23" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="D6" s="11" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="E6" s="7" t="s">
         <v>0</v>
       </c>
       <c r="F6" s="12" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="G6" s="1" t="s">
         <v>0</v>
@@ -5203,16 +5165,16 @@
         <v>2018</v>
       </c>
       <c r="B7" s="10" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="C7" s="23" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="D7" s="11" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="E7" s="12" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="F7" s="7" t="s">
         <v>0</v>
@@ -5233,19 +5195,19 @@
         <v>2019</v>
       </c>
       <c r="B8" s="10" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="C8" s="23" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="D8" s="11" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="E8" s="7" t="s">
         <v>0</v>
       </c>
       <c r="F8" s="12" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="G8" s="1" t="s">
         <v>0</v>
@@ -5263,16 +5225,16 @@
         <v>2020</v>
       </c>
       <c r="B9" s="10" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="C9" s="23" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="D9" s="11" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="E9" s="12" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="F9" s="7" t="s">
         <v>0</v>
@@ -5293,19 +5255,19 @@
         <v>2021</v>
       </c>
       <c r="B10" s="10" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="C10" s="23" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="D10" s="11" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="E10" s="7" t="s">
         <v>0</v>
       </c>
       <c r="F10" s="12" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="G10" s="1" t="s">
         <v>0</v>
@@ -5323,16 +5285,16 @@
         <v>2022</v>
       </c>
       <c r="B11" s="10" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="C11" s="23" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="D11" s="11" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="E11" s="12" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="F11" s="7" t="s">
         <v>0</v>
@@ -5353,19 +5315,19 @@
         <v>2023</v>
       </c>
       <c r="B12" s="10" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="C12" s="23" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="D12" s="11" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="E12" s="7" t="s">
         <v>0</v>
       </c>
       <c r="F12" s="21" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="G12" s="1" t="s">
         <v>0</v>
@@ -5709,7 +5671,7 @@
       <pane xSplit="9" ySplit="2" topLeftCell="J3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="H1" sqref="H1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="F9" sqref="F9"/>
+      <selection pane="bottomRight" activeCell="B1" sqref="B1:B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.35"/>
@@ -5728,18 +5690,18 @@
         <v>1</v>
       </c>
       <c r="B1" s="25" t="s">
+        <v>83</v>
+      </c>
+      <c r="C1" s="27" t="s">
         <v>2</v>
-      </c>
-      <c r="C1" s="27" t="s">
-        <v>3</v>
       </c>
       <c r="D1" s="28"/>
       <c r="E1" s="29" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="F1" s="30"/>
       <c r="G1" s="31" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="H1" s="32"/>
       <c r="I1" s="2"/>
@@ -5748,22 +5710,22 @@
       <c r="A2" s="26"/>
       <c r="B2" s="26"/>
       <c r="C2" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="D2" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="D2" s="6" t="s">
-        <v>6</v>
-      </c>
       <c r="E2" s="8" t="s">
+        <v>23</v>
+      </c>
+      <c r="F2" s="8" t="s">
         <v>24</v>
       </c>
-      <c r="F2" s="8" t="s">
-        <v>25</v>
-      </c>
       <c r="G2" s="19" t="s">
+        <v>23</v>
+      </c>
+      <c r="H2" s="19" t="s">
         <v>24</v>
-      </c>
-      <c r="H2" s="19" t="s">
-        <v>25</v>
       </c>
       <c r="I2" s="2"/>
     </row>
@@ -5772,16 +5734,16 @@
         <v>2014</v>
       </c>
       <c r="B3" s="10" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="C3" s="23" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="D3" s="11" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="E3" s="12" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="F3" s="7" t="s">
         <v>0</v>
@@ -5802,19 +5764,19 @@
         <v>2015</v>
       </c>
       <c r="B4" s="10" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="C4" s="23" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="D4" s="11" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="E4" s="7" t="s">
         <v>0</v>
       </c>
       <c r="F4" s="21" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="G4" s="1" t="s">
         <v>0</v>
@@ -5832,16 +5794,16 @@
         <v>2016</v>
       </c>
       <c r="B5" s="10" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="C5" s="23" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="D5" s="11" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="E5" s="21" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="F5" s="7" t="s">
         <v>0</v>
@@ -5862,19 +5824,19 @@
         <v>2017</v>
       </c>
       <c r="B6" s="10" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="C6" s="23" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="D6" s="11" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="E6" s="7" t="s">
         <v>0</v>
       </c>
       <c r="F6" s="12" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="G6" s="1" t="s">
         <v>0</v>
@@ -5892,16 +5854,16 @@
         <v>2018</v>
       </c>
       <c r="B7" s="10" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="C7" s="23" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="D7" s="11" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="E7" s="12" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="F7" s="7" t="s">
         <v>0</v>
@@ -5922,19 +5884,19 @@
         <v>2019</v>
       </c>
       <c r="B8" s="10" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="C8" s="23" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="D8" s="11" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="E8" s="7" t="s">
         <v>0</v>
       </c>
       <c r="F8" s="12" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="G8" s="1" t="s">
         <v>0</v>
@@ -5952,16 +5914,16 @@
         <v>2020</v>
       </c>
       <c r="B9" s="10" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="C9" s="23" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="D9" s="11" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="E9" s="12" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="F9" s="7" t="s">
         <v>0</v>
@@ -5982,19 +5944,19 @@
         <v>2021</v>
       </c>
       <c r="B10" s="10" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="C10" s="23" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="D10" s="11" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="E10" s="7" t="s">
         <v>0</v>
       </c>
       <c r="F10" s="12" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="G10" s="1" t="s">
         <v>0</v>
@@ -6012,16 +5974,16 @@
         <v>2022</v>
       </c>
       <c r="B11" s="10" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="C11" s="23" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="D11" s="11" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="E11" s="12" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="F11" s="7" t="s">
         <v>0</v>
@@ -6042,19 +6004,19 @@
         <v>2023</v>
       </c>
       <c r="B12" s="10" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="C12" s="23" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="D12" s="11" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="E12" s="7" t="s">
         <v>0</v>
       </c>
       <c r="F12" s="21" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="G12" s="1" t="s">
         <v>0</v>
@@ -6452,7 +6414,7 @@
       <pane xSplit="9" ySplit="2" topLeftCell="J3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="H1" sqref="H1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="G19" sqref="G19"/>
+      <selection pane="bottomRight" activeCell="B1" sqref="B1:B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.35"/>
@@ -6471,42 +6433,42 @@
         <v>1</v>
       </c>
       <c r="B1" s="25" t="s">
+        <v>83</v>
+      </c>
+      <c r="C1" s="27" t="s">
         <v>2</v>
-      </c>
-      <c r="C1" s="27" t="s">
-        <v>3</v>
       </c>
       <c r="D1" s="28"/>
       <c r="E1" s="29" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="F1" s="30"/>
-      <c r="G1" s="41" t="s">
-        <v>13</v>
-      </c>
-      <c r="H1" s="42"/>
+      <c r="G1" s="39" t="s">
+        <v>12</v>
+      </c>
+      <c r="H1" s="40"/>
       <c r="I1" s="2"/>
     </row>
     <row r="2" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A2" s="26"/>
       <c r="B2" s="26"/>
       <c r="C2" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="D2" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="D2" s="6" t="s">
-        <v>6</v>
-      </c>
       <c r="E2" s="8" t="s">
+        <v>23</v>
+      </c>
+      <c r="F2" s="8" t="s">
         <v>24</v>
       </c>
-      <c r="F2" s="8" t="s">
-        <v>25</v>
-      </c>
       <c r="G2" s="19" t="s">
+        <v>23</v>
+      </c>
+      <c r="H2" s="19" t="s">
         <v>24</v>
-      </c>
-      <c r="H2" s="19" t="s">
-        <v>25</v>
       </c>
       <c r="I2" s="2"/>
     </row>
@@ -6515,16 +6477,16 @@
         <v>2014</v>
       </c>
       <c r="B3" s="10" t="s">
+        <v>57</v>
+      </c>
+      <c r="C3" s="23" t="s">
+        <v>54</v>
+      </c>
+      <c r="D3" s="11" t="s">
         <v>58</v>
       </c>
-      <c r="C3" s="23" t="s">
-        <v>55</v>
-      </c>
-      <c r="D3" s="11" t="s">
-        <v>59</v>
-      </c>
       <c r="E3" s="12" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="F3" s="7" t="s">
         <v>0</v>
@@ -6545,19 +6507,19 @@
         <v>2015</v>
       </c>
       <c r="B4" s="10" t="s">
+        <v>57</v>
+      </c>
+      <c r="C4" s="23" t="s">
+        <v>54</v>
+      </c>
+      <c r="D4" s="11" t="s">
         <v>58</v>
       </c>
-      <c r="C4" s="23" t="s">
-        <v>55</v>
-      </c>
-      <c r="D4" s="11" t="s">
-        <v>59</v>
-      </c>
       <c r="E4" s="7" t="s">
         <v>0</v>
       </c>
       <c r="F4" s="21" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="G4" s="1" t="s">
         <v>0</v>
@@ -6575,16 +6537,16 @@
         <v>2016</v>
       </c>
       <c r="B5" s="10" t="s">
+        <v>57</v>
+      </c>
+      <c r="C5" s="23" t="s">
+        <v>54</v>
+      </c>
+      <c r="D5" s="11" t="s">
         <v>58</v>
       </c>
-      <c r="C5" s="23" t="s">
-        <v>55</v>
-      </c>
-      <c r="D5" s="11" t="s">
-        <v>59</v>
-      </c>
       <c r="E5" s="12" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F5" s="7" t="s">
         <v>0</v>
@@ -6605,19 +6567,19 @@
         <v>2017</v>
       </c>
       <c r="B6" s="10" t="s">
+        <v>57</v>
+      </c>
+      <c r="C6" s="23" t="s">
+        <v>54</v>
+      </c>
+      <c r="D6" s="11" t="s">
         <v>58</v>
       </c>
-      <c r="C6" s="23" t="s">
-        <v>55</v>
-      </c>
-      <c r="D6" s="11" t="s">
-        <v>59</v>
-      </c>
       <c r="E6" s="7" t="s">
         <v>0</v>
       </c>
       <c r="F6" s="12" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="G6" s="1" t="s">
         <v>0</v>
@@ -6635,16 +6597,16 @@
         <v>2018</v>
       </c>
       <c r="B7" s="10" t="s">
+        <v>57</v>
+      </c>
+      <c r="C7" s="23" t="s">
+        <v>54</v>
+      </c>
+      <c r="D7" s="11" t="s">
         <v>58</v>
       </c>
-      <c r="C7" s="23" t="s">
-        <v>55</v>
-      </c>
-      <c r="D7" s="11" t="s">
-        <v>59</v>
-      </c>
       <c r="E7" s="21" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F7" s="7" t="s">
         <v>0</v>
@@ -6665,19 +6627,19 @@
         <v>2019</v>
       </c>
       <c r="B8" s="10" t="s">
+        <v>57</v>
+      </c>
+      <c r="C8" s="23" t="s">
+        <v>54</v>
+      </c>
+      <c r="D8" s="11" t="s">
         <v>58</v>
       </c>
-      <c r="C8" s="23" t="s">
-        <v>55</v>
-      </c>
-      <c r="D8" s="11" t="s">
-        <v>59</v>
-      </c>
       <c r="E8" s="7" t="s">
         <v>0</v>
       </c>
       <c r="F8" s="21" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="G8" s="1" t="s">
         <v>0</v>
@@ -6695,16 +6657,16 @@
         <v>2020</v>
       </c>
       <c r="B9" s="10" t="s">
+        <v>57</v>
+      </c>
+      <c r="C9" s="23" t="s">
+        <v>54</v>
+      </c>
+      <c r="D9" s="11" t="s">
         <v>58</v>
       </c>
-      <c r="C9" s="23" t="s">
-        <v>55</v>
-      </c>
-      <c r="D9" s="11" t="s">
+      <c r="E9" s="21" t="s">
         <v>59</v>
-      </c>
-      <c r="E9" s="21" t="s">
-        <v>60</v>
       </c>
       <c r="F9" s="7" t="s">
         <v>0</v>
@@ -6725,19 +6687,19 @@
         <v>2021</v>
       </c>
       <c r="B10" s="10" t="s">
+        <v>57</v>
+      </c>
+      <c r="C10" s="23" t="s">
+        <v>54</v>
+      </c>
+      <c r="D10" s="11" t="s">
         <v>58</v>
       </c>
-      <c r="C10" s="23" t="s">
-        <v>55</v>
-      </c>
-      <c r="D10" s="11" t="s">
-        <v>59</v>
-      </c>
       <c r="E10" s="7" t="s">
         <v>0</v>
       </c>
       <c r="F10" s="21" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="G10" s="1" t="s">
         <v>0</v>
@@ -6755,16 +6717,16 @@
         <v>2022</v>
       </c>
       <c r="B11" s="10" t="s">
+        <v>57</v>
+      </c>
+      <c r="C11" s="23" t="s">
+        <v>54</v>
+      </c>
+      <c r="D11" s="11" t="s">
         <v>58</v>
       </c>
-      <c r="C11" s="23" t="s">
-        <v>55</v>
-      </c>
-      <c r="D11" s="11" t="s">
-        <v>59</v>
-      </c>
       <c r="E11" s="21" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="F11" s="7" t="s">
         <v>0</v>
@@ -6785,19 +6747,19 @@
         <v>2023</v>
       </c>
       <c r="B12" s="10" t="s">
+        <v>57</v>
+      </c>
+      <c r="C12" s="23" t="s">
+        <v>54</v>
+      </c>
+      <c r="D12" s="11" t="s">
         <v>58</v>
       </c>
-      <c r="C12" s="23" t="s">
-        <v>55</v>
-      </c>
-      <c r="D12" s="11" t="s">
-        <v>59</v>
-      </c>
       <c r="E12" s="7" t="s">
         <v>0</v>
       </c>
       <c r="F12" s="21" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="G12" s="1" t="s">
         <v>0</v>
@@ -7107,11 +7069,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0700-000000000000}">
   <dimension ref="A1:T25"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <pane xSplit="9" ySplit="2" topLeftCell="J3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="H1" sqref="H1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="F14" sqref="F14"/>
+      <selection pane="bottomRight" activeCell="B1" sqref="B1:B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.35"/>
@@ -7130,42 +7092,42 @@
         <v>1</v>
       </c>
       <c r="B1" s="25" t="s">
+        <v>83</v>
+      </c>
+      <c r="C1" s="27" t="s">
         <v>2</v>
-      </c>
-      <c r="C1" s="27" t="s">
-        <v>3</v>
       </c>
       <c r="D1" s="28"/>
       <c r="E1" s="29" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="F1" s="30"/>
-      <c r="G1" s="41" t="s">
-        <v>50</v>
-      </c>
-      <c r="H1" s="42"/>
+      <c r="G1" s="39" t="s">
+        <v>49</v>
+      </c>
+      <c r="H1" s="40"/>
       <c r="I1" s="2"/>
     </row>
     <row r="2" spans="1:20" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A2" s="26"/>
       <c r="B2" s="26"/>
       <c r="C2" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="D2" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="D2" s="6" t="s">
-        <v>6</v>
-      </c>
       <c r="E2" s="8" t="s">
+        <v>23</v>
+      </c>
+      <c r="F2" s="8" t="s">
         <v>24</v>
       </c>
-      <c r="F2" s="8" t="s">
-        <v>25</v>
-      </c>
       <c r="G2" s="19" t="s">
+        <v>23</v>
+      </c>
+      <c r="H2" s="19" t="s">
         <v>24</v>
-      </c>
-      <c r="H2" s="19" t="s">
-        <v>25</v>
       </c>
       <c r="I2" s="2"/>
     </row>
@@ -7174,16 +7136,16 @@
         <v>2014</v>
       </c>
       <c r="B3" s="10" t="s">
+        <v>57</v>
+      </c>
+      <c r="C3" s="23" t="s">
+        <v>54</v>
+      </c>
+      <c r="D3" s="11" t="s">
         <v>58</v>
       </c>
-      <c r="C3" s="23" t="s">
-        <v>55</v>
-      </c>
-      <c r="D3" s="11" t="s">
-        <v>59</v>
-      </c>
       <c r="E3" s="12" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="F3" s="7" t="s">
         <v>0</v>
@@ -7204,19 +7166,19 @@
         <v>2015</v>
       </c>
       <c r="B4" s="10" t="s">
+        <v>57</v>
+      </c>
+      <c r="C4" s="23" t="s">
+        <v>54</v>
+      </c>
+      <c r="D4" s="11" t="s">
         <v>58</v>
       </c>
-      <c r="C4" s="23" t="s">
-        <v>55</v>
-      </c>
-      <c r="D4" s="11" t="s">
-        <v>59</v>
-      </c>
       <c r="E4" s="7" t="s">
         <v>0</v>
       </c>
       <c r="F4" s="12" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="G4" s="1" t="s">
         <v>0</v>
@@ -7234,16 +7196,16 @@
         <v>2016</v>
       </c>
       <c r="B5" s="10" t="s">
+        <v>57</v>
+      </c>
+      <c r="C5" s="23" t="s">
+        <v>54</v>
+      </c>
+      <c r="D5" s="11" t="s">
         <v>58</v>
       </c>
-      <c r="C5" s="23" t="s">
-        <v>55</v>
-      </c>
-      <c r="D5" s="11" t="s">
-        <v>59</v>
-      </c>
       <c r="E5" s="21" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="F5" s="7" t="s">
         <v>0</v>
@@ -7264,19 +7226,19 @@
         <v>2017</v>
       </c>
       <c r="B6" s="10" t="s">
+        <v>57</v>
+      </c>
+      <c r="C6" s="23" t="s">
+        <v>54</v>
+      </c>
+      <c r="D6" s="11" t="s">
         <v>58</v>
       </c>
-      <c r="C6" s="23" t="s">
-        <v>55</v>
-      </c>
-      <c r="D6" s="11" t="s">
-        <v>59</v>
-      </c>
       <c r="E6" s="7" t="s">
         <v>0</v>
       </c>
       <c r="F6" s="12" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="G6" s="1" t="s">
         <v>0</v>
@@ -7294,16 +7256,16 @@
         <v>2018</v>
       </c>
       <c r="B7" s="10" t="s">
+        <v>57</v>
+      </c>
+      <c r="C7" s="23" t="s">
+        <v>54</v>
+      </c>
+      <c r="D7" s="11" t="s">
         <v>58</v>
       </c>
-      <c r="C7" s="23" t="s">
-        <v>55</v>
-      </c>
-      <c r="D7" s="11" t="s">
-        <v>59</v>
-      </c>
       <c r="E7" s="12" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="F7" s="7" t="s">
         <v>0</v>
@@ -7324,19 +7286,19 @@
         <v>2019</v>
       </c>
       <c r="B8" s="10" t="s">
+        <v>57</v>
+      </c>
+      <c r="C8" s="23" t="s">
+        <v>54</v>
+      </c>
+      <c r="D8" s="11" t="s">
         <v>58</v>
       </c>
-      <c r="C8" s="23" t="s">
-        <v>55</v>
-      </c>
-      <c r="D8" s="11" t="s">
-        <v>59</v>
-      </c>
       <c r="E8" s="7" t="s">
         <v>0</v>
       </c>
       <c r="F8" s="12" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="G8" s="1" t="s">
         <v>0</v>
@@ -7354,16 +7316,16 @@
         <v>2020</v>
       </c>
       <c r="B9" s="10" t="s">
+        <v>57</v>
+      </c>
+      <c r="C9" s="23" t="s">
+        <v>54</v>
+      </c>
+      <c r="D9" s="11" t="s">
         <v>58</v>
       </c>
-      <c r="C9" s="23" t="s">
-        <v>55</v>
-      </c>
-      <c r="D9" s="11" t="s">
-        <v>59</v>
-      </c>
       <c r="E9" s="12" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="F9" s="7" t="s">
         <v>0</v>
@@ -7384,19 +7346,19 @@
         <v>2021</v>
       </c>
       <c r="B10" s="10" t="s">
+        <v>57</v>
+      </c>
+      <c r="C10" s="23" t="s">
+        <v>54</v>
+      </c>
+      <c r="D10" s="11" t="s">
         <v>58</v>
       </c>
-      <c r="C10" s="23" t="s">
-        <v>55</v>
-      </c>
-      <c r="D10" s="11" t="s">
-        <v>59</v>
-      </c>
       <c r="E10" s="7" t="s">
         <v>0</v>
       </c>
       <c r="F10" s="12" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="G10" s="1" t="s">
         <v>0</v>
@@ -7414,16 +7376,16 @@
         <v>2022</v>
       </c>
       <c r="B11" s="10" t="s">
+        <v>57</v>
+      </c>
+      <c r="C11" s="23" t="s">
+        <v>54</v>
+      </c>
+      <c r="D11" s="11" t="s">
         <v>58</v>
       </c>
-      <c r="C11" s="23" t="s">
-        <v>55</v>
-      </c>
-      <c r="D11" s="11" t="s">
-        <v>59</v>
-      </c>
       <c r="E11" s="12" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="F11" s="7" t="s">
         <v>0</v>
@@ -7444,19 +7406,19 @@
         <v>2023</v>
       </c>
       <c r="B12" s="10" t="s">
+        <v>57</v>
+      </c>
+      <c r="C12" s="23" t="s">
+        <v>54</v>
+      </c>
+      <c r="D12" s="11" t="s">
         <v>58</v>
       </c>
-      <c r="C12" s="23" t="s">
-        <v>55</v>
-      </c>
-      <c r="D12" s="11" t="s">
-        <v>59</v>
-      </c>
       <c r="E12" s="7" t="s">
         <v>0</v>
       </c>
       <c r="F12" s="12" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="G12" s="1" t="s">
         <v>0</v>
@@ -7794,13 +7756,13 @@
   <sheetData>
     <row r="1" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A1" s="13" t="s">
+        <v>13</v>
+      </c>
+      <c r="B1" s="14" t="s">
         <v>14</v>
       </c>
-      <c r="B1" s="14" t="s">
+      <c r="C1" s="15" t="s">
         <v>15</v>
-      </c>
-      <c r="C1" s="15" t="s">
-        <v>16</v>
       </c>
     </row>
     <row r="2" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.35">
@@ -7808,10 +7770,10 @@
         <v>1</v>
       </c>
       <c r="B2" s="17" t="s">
+        <v>16</v>
+      </c>
+      <c r="C2" s="18" t="s">
         <v>17</v>
-      </c>
-      <c r="C2" s="18" t="s">
-        <v>18</v>
       </c>
     </row>
     <row r="3" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.35">
@@ -7819,10 +7781,10 @@
         <v>2</v>
       </c>
       <c r="B3" s="17" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C3" s="18" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="4" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.35">
@@ -7830,10 +7792,10 @@
         <v>3</v>
       </c>
       <c r="B4" s="17" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C4" s="18" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
     </row>
     <row r="5" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.35">
@@ -7841,10 +7803,10 @@
         <v>4</v>
       </c>
       <c r="B5" s="17" t="s">
+        <v>21</v>
+      </c>
+      <c r="C5" s="18" t="s">
         <v>22</v>
-      </c>
-      <c r="C5" s="18" t="s">
-        <v>23</v>
       </c>
     </row>
     <row r="6" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.35">
@@ -7852,10 +7814,10 @@
         <v>5</v>
       </c>
       <c r="B6" s="17" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="C6" s="22" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
     </row>
     <row r="7" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.35">
@@ -7863,10 +7825,10 @@
         <v>6</v>
       </c>
       <c r="B7" s="17" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="C7" s="22" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
     </row>
   </sheetData>

--- a/Collections/EURO/Andorra/#EURO#Andorra#Regular#[2014-present]#circulation_quality%varieties.xlsx
+++ b/Collections/EURO/Andorra/#EURO#Andorra#Regular#[2014-present]#circulation_quality%varieties.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Lord_Alexator\Documents\CoinCollection\Collections\EURO\Andorra\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F1019954-6BCD-412B-A64E-AD85BE842360}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0237C0C4-2E26-4C3A-917D-D3D70BC9B0F1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1210" yWindow="1460" windowWidth="28800" windowHeight="17740" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="38620" windowHeight="21220" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="1cent" sheetId="4" r:id="rId1"/>
@@ -23,6 +23,16 @@
     <sheet name="2€" sheetId="12" r:id="rId8"/>
     <sheet name="Links" sheetId="6" r:id="rId9"/>
   </sheets>
+  <definedNames>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="6" hidden="1">'1€'!$B$2:$F$2</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="3" hidden="1">'10cents'!$B$2:$F$2</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'1cent'!$B$2:$F$2</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="7" hidden="1">'2€'!$B$2:$F$2</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="4" hidden="1">'20cents'!$B$2:$F$2</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">'2cents'!$B$2:$F$2</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="5" hidden="1">'50cents'!$B$2:$F$2</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">'5cents'!$B$2:$F$2</definedName>
+  </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
@@ -634,7 +644,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="553" uniqueCount="84">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="553" uniqueCount="85">
   <si>
     <t>-</t>
   </si>
@@ -648,12 +658,6 @@
     <t>Mintage</t>
   </si>
   <si>
-    <t>Subtype_1</t>
-  </si>
-  <si>
-    <t>Subtype_2</t>
-  </si>
-  <si>
     <t>1cent</t>
   </si>
   <si>
@@ -886,6 +890,15 @@
   </si>
   <si>
     <t>Subject</t>
+  </si>
+  <si>
+    <t>Subtype_1#Special_marks_1</t>
+  </si>
+  <si>
+    <t>Subtype_2#Special_distinctions_1</t>
+  </si>
+  <si>
+    <t>Subtype_2#Map_of_Europe</t>
   </si>
 </sst>
 </file>
@@ -961,6 +974,8 @@
     <font>
       <sz val="8"/>
       <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="204"/>
     </font>
   </fonts>
   <fills count="7">
@@ -1150,7 +1165,7 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="41">
+  <cellXfs count="42">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -1216,6 +1231,9 @@
       <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
     </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="6" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -2224,65 +2242,64 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:I12"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <pane xSplit="9" ySplit="2" topLeftCell="J3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="H1" sqref="H1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="C16" sqref="C16"/>
+      <selection pane="bottomRight" activeCell="D2" sqref="A1:D2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="5.453125" style="4" customWidth="1"/>
-    <col min="2" max="2" width="24.81640625" style="4" customWidth="1"/>
-    <col min="3" max="3" width="36.7265625" style="4" customWidth="1"/>
-    <col min="4" max="4" width="24.81640625" style="4" customWidth="1"/>
-    <col min="5" max="6" width="12.453125" style="4" customWidth="1"/>
-    <col min="7" max="8" width="3.81640625" style="4" customWidth="1"/>
-    <col min="9" max="9" width="13.7265625" style="4" customWidth="1"/>
+    <col min="1" max="1" width="5.6328125" style="4" customWidth="1"/>
+    <col min="2" max="2" width="50.6328125" style="4" customWidth="1"/>
+    <col min="3" max="4" width="33.6328125" style="4" customWidth="1"/>
+    <col min="5" max="6" width="12.6328125" style="4" customWidth="1"/>
+    <col min="7" max="8" width="3.6328125" style="4" customWidth="1"/>
+    <col min="9" max="9" width="12.6328125" style="4" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A1" s="25" t="s">
+      <c r="A1" s="26" t="s">
         <v>1</v>
       </c>
-      <c r="B1" s="25" t="s">
+      <c r="B1" s="25"/>
+      <c r="C1" s="28" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="29"/>
+      <c r="E1" s="30" t="s">
+        <v>3</v>
+      </c>
+      <c r="F1" s="31"/>
+      <c r="G1" s="32" t="s">
+        <v>4</v>
+      </c>
+      <c r="H1" s="33"/>
+      <c r="I1" s="2"/>
+    </row>
+    <row r="2" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A2" s="27"/>
+      <c r="B2" s="25" t="s">
+        <v>81</v>
+      </c>
+      <c r="C2" s="6" t="s">
+        <v>82</v>
+      </c>
+      <c r="D2" s="6" t="s">
         <v>83</v>
       </c>
-      <c r="C1" s="27" t="s">
-        <v>2</v>
-      </c>
-      <c r="D1" s="28"/>
-      <c r="E1" s="29" t="s">
-        <v>3</v>
-      </c>
-      <c r="F1" s="30"/>
-      <c r="G1" s="31" t="s">
-        <v>6</v>
-      </c>
-      <c r="H1" s="32"/>
-      <c r="I1" s="2"/>
-    </row>
-    <row r="2" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A2" s="26"/>
-      <c r="B2" s="26"/>
-      <c r="C2" s="6" t="s">
-        <v>4</v>
-      </c>
-      <c r="D2" s="6" t="s">
-        <v>5</v>
-      </c>
       <c r="E2" s="8" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="F2" s="8" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="G2" s="19" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="H2" s="19" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="I2" s="2"/>
     </row>
@@ -2291,14 +2308,14 @@
         <v>2014</v>
       </c>
       <c r="B3" s="10" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="C3" s="23" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="D3" s="11"/>
       <c r="E3" s="12" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="F3" s="7" t="s">
         <v>0</v>
@@ -2319,17 +2336,17 @@
         <v>2015</v>
       </c>
       <c r="B4" s="10" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="C4" s="23" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="D4" s="11"/>
       <c r="E4" s="7" t="s">
         <v>0</v>
       </c>
       <c r="F4" s="21" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="G4" s="1" t="s">
         <v>0</v>
@@ -2347,14 +2364,14 @@
         <v>2016</v>
       </c>
       <c r="B5" s="10" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="C5" s="23" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="D5" s="11"/>
       <c r="E5" s="21" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="F5" s="7" t="s">
         <v>0</v>
@@ -2375,17 +2392,17 @@
         <v>2017</v>
       </c>
       <c r="B6" s="10" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="C6" s="23" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="D6" s="11"/>
       <c r="E6" s="7" t="s">
         <v>0</v>
       </c>
       <c r="F6" s="12" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="G6" s="1" t="s">
         <v>0</v>
@@ -2403,14 +2420,14 @@
         <v>2018</v>
       </c>
       <c r="B7" s="10" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="C7" s="23" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="D7" s="11"/>
       <c r="E7" s="12" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="F7" s="7" t="s">
         <v>0</v>
@@ -2431,17 +2448,17 @@
         <v>2019</v>
       </c>
       <c r="B8" s="10" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="C8" s="23" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="D8" s="11"/>
       <c r="E8" s="7" t="s">
         <v>0</v>
       </c>
       <c r="F8" s="12" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="G8" s="1" t="s">
         <v>0</v>
@@ -2459,14 +2476,14 @@
         <v>2020</v>
       </c>
       <c r="B9" s="10" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="C9" s="23" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="D9" s="11"/>
       <c r="E9" s="21" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="F9" s="7" t="s">
         <v>0</v>
@@ -2487,17 +2504,17 @@
         <v>2021</v>
       </c>
       <c r="B10" s="10" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="C10" s="23" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="D10" s="11"/>
       <c r="E10" s="7" t="s">
         <v>0</v>
       </c>
       <c r="F10" s="12" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="G10" s="1" t="s">
         <v>0</v>
@@ -2515,14 +2532,14 @@
         <v>2022</v>
       </c>
       <c r="B11" s="10" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="C11" s="23" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="D11" s="11"/>
       <c r="E11" s="12" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="F11" s="7" t="s">
         <v>0</v>
@@ -2543,17 +2560,17 @@
         <v>2023</v>
       </c>
       <c r="B12" s="10" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="C12" s="23" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="D12" s="11"/>
       <c r="E12" s="7" t="s">
         <v>0</v>
       </c>
       <c r="F12" s="21" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="G12" s="1" t="s">
         <v>0</v>
@@ -2567,9 +2584,9 @@
       </c>
     </row>
   </sheetData>
-  <mergeCells count="5">
+  <autoFilter ref="B2:F2" xr:uid="{00000000-0001-0000-0000-000000000000}"/>
+  <mergeCells count="4">
     <mergeCell ref="A1:A2"/>
-    <mergeCell ref="B1:B2"/>
     <mergeCell ref="C1:D1"/>
     <mergeCell ref="E1:F1"/>
     <mergeCell ref="G1:H1"/>
@@ -2920,61 +2937,60 @@
       <pane xSplit="9" ySplit="2" topLeftCell="K3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="H1" sqref="H1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="B1" sqref="B1:B2"/>
+      <selection pane="bottomRight" activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="5.453125" style="4" customWidth="1"/>
-    <col min="2" max="2" width="24.81640625" style="4" customWidth="1"/>
-    <col min="3" max="3" width="36.7265625" style="4" customWidth="1"/>
-    <col min="4" max="4" width="24.81640625" style="4" customWidth="1"/>
-    <col min="5" max="6" width="12.453125" style="4" customWidth="1"/>
-    <col min="7" max="8" width="3.81640625" style="4" customWidth="1"/>
-    <col min="9" max="9" width="13.7265625" style="4" customWidth="1"/>
+    <col min="1" max="1" width="5.6328125" style="4" customWidth="1"/>
+    <col min="2" max="2" width="50.6328125" style="4" customWidth="1"/>
+    <col min="3" max="4" width="33.6328125" style="4" customWidth="1"/>
+    <col min="5" max="6" width="12.6328125" style="4" customWidth="1"/>
+    <col min="7" max="8" width="3.6328125" style="4" customWidth="1"/>
+    <col min="9" max="9" width="12.6328125" style="4" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A1" s="25" t="s">
+      <c r="A1" s="26" t="s">
         <v>1</v>
       </c>
-      <c r="B1" s="25" t="s">
+      <c r="B1" s="25"/>
+      <c r="C1" s="28" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="29"/>
+      <c r="E1" s="30" t="s">
+        <v>3</v>
+      </c>
+      <c r="F1" s="31"/>
+      <c r="G1" s="32" t="s">
+        <v>5</v>
+      </c>
+      <c r="H1" s="33"/>
+      <c r="I1" s="2"/>
+    </row>
+    <row r="2" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A2" s="27"/>
+      <c r="B2" s="25" t="s">
+        <v>81</v>
+      </c>
+      <c r="C2" s="6" t="s">
+        <v>82</v>
+      </c>
+      <c r="D2" s="6" t="s">
         <v>83</v>
       </c>
-      <c r="C1" s="27" t="s">
-        <v>2</v>
-      </c>
-      <c r="D1" s="28"/>
-      <c r="E1" s="29" t="s">
-        <v>3</v>
-      </c>
-      <c r="F1" s="30"/>
-      <c r="G1" s="31" t="s">
-        <v>7</v>
-      </c>
-      <c r="H1" s="32"/>
-      <c r="I1" s="2"/>
-    </row>
-    <row r="2" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A2" s="26"/>
-      <c r="B2" s="26"/>
-      <c r="C2" s="6" t="s">
-        <v>4</v>
-      </c>
-      <c r="D2" s="6" t="s">
-        <v>5</v>
-      </c>
       <c r="E2" s="8" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="F2" s="8" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="G2" s="19" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="H2" s="19" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="I2" s="2"/>
     </row>
@@ -2983,14 +2999,14 @@
         <v>2014</v>
       </c>
       <c r="B3" s="10" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="C3" s="23" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="D3" s="5"/>
       <c r="E3" s="12" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="F3" s="7" t="s">
         <v>0</v>
@@ -3011,17 +3027,17 @@
         <v>2015</v>
       </c>
       <c r="B4" s="10" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="C4" s="23" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="D4" s="5"/>
       <c r="E4" s="7" t="s">
         <v>0</v>
       </c>
       <c r="F4" s="21" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="G4" s="1" t="s">
         <v>0</v>
@@ -3039,14 +3055,14 @@
         <v>2016</v>
       </c>
       <c r="B5" s="10" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="C5" s="23" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="D5" s="5"/>
       <c r="E5" s="21" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="F5" s="7" t="s">
         <v>0</v>
@@ -3067,17 +3083,17 @@
         <v>2017</v>
       </c>
       <c r="B6" s="10" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="C6" s="23" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="D6" s="5"/>
       <c r="E6" s="7" t="s">
         <v>0</v>
       </c>
       <c r="F6" s="12" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="G6" s="1" t="s">
         <v>0</v>
@@ -3095,14 +3111,14 @@
         <v>2018</v>
       </c>
       <c r="B7" s="10" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="C7" s="23" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="D7" s="5"/>
       <c r="E7" s="12" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="F7" s="7" t="s">
         <v>0</v>
@@ -3123,17 +3139,17 @@
         <v>2019</v>
       </c>
       <c r="B8" s="10" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="C8" s="23" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="D8" s="11"/>
       <c r="E8" s="7" t="s">
         <v>0</v>
       </c>
       <c r="F8" s="12" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="G8" s="1" t="s">
         <v>0</v>
@@ -3151,14 +3167,14 @@
         <v>2020</v>
       </c>
       <c r="B9" s="10" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="C9" s="23" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="D9" s="5"/>
       <c r="E9" s="21" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="F9" s="7" t="s">
         <v>0</v>
@@ -3179,17 +3195,17 @@
         <v>2021</v>
       </c>
       <c r="B10" s="10" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="C10" s="23" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="D10" s="5"/>
       <c r="E10" s="7" t="s">
         <v>0</v>
       </c>
       <c r="F10" s="12" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="G10" s="1" t="s">
         <v>0</v>
@@ -3207,14 +3223,14 @@
         <v>2022</v>
       </c>
       <c r="B11" s="10" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="C11" s="23" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="D11" s="5"/>
       <c r="E11" s="12" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="F11" s="7" t="s">
         <v>0</v>
@@ -3235,17 +3251,17 @@
         <v>2023</v>
       </c>
       <c r="B12" s="10" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="C12" s="23" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="D12" s="5"/>
       <c r="E12" s="7" t="s">
         <v>0</v>
       </c>
       <c r="F12" s="21" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="G12" s="1" t="s">
         <v>0</v>
@@ -3259,9 +3275,9 @@
       </c>
     </row>
   </sheetData>
-  <mergeCells count="5">
+  <autoFilter ref="B2:F2" xr:uid="{00000000-0001-0000-0100-000000000000}"/>
+  <mergeCells count="4">
     <mergeCell ref="A1:A2"/>
-    <mergeCell ref="B1:B2"/>
     <mergeCell ref="C1:D1"/>
     <mergeCell ref="E1:F1"/>
     <mergeCell ref="G1:H1"/>
@@ -3587,61 +3603,60 @@
       <pane xSplit="9" ySplit="2" topLeftCell="J3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="J1" sqref="J1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="B1" sqref="B1:B2"/>
+      <selection pane="bottomRight" activeCell="D16" sqref="A16:D16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="5.453125" style="4" customWidth="1"/>
-    <col min="2" max="2" width="24.81640625" style="4" customWidth="1"/>
-    <col min="3" max="3" width="36.7265625" style="4" customWidth="1"/>
-    <col min="4" max="4" width="24.81640625" style="4" customWidth="1"/>
-    <col min="5" max="6" width="12.453125" style="4" customWidth="1"/>
-    <col min="7" max="8" width="3.81640625" style="4" customWidth="1"/>
-    <col min="9" max="9" width="13.7265625" style="4" customWidth="1"/>
+    <col min="1" max="1" width="5.6328125" style="4" customWidth="1"/>
+    <col min="2" max="2" width="50.6328125" style="4" customWidth="1"/>
+    <col min="3" max="4" width="33.6328125" style="4" customWidth="1"/>
+    <col min="5" max="6" width="12.6328125" style="4" customWidth="1"/>
+    <col min="7" max="8" width="3.6328125" style="4" customWidth="1"/>
+    <col min="9" max="9" width="12.6328125" style="4" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A1" s="25" t="s">
+      <c r="A1" s="26" t="s">
         <v>1</v>
       </c>
-      <c r="B1" s="25" t="s">
+      <c r="B1" s="25"/>
+      <c r="C1" s="28" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="29"/>
+      <c r="E1" s="30" t="s">
+        <v>3</v>
+      </c>
+      <c r="F1" s="31"/>
+      <c r="G1" s="32" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" s="33"/>
+      <c r="I1" s="2"/>
+    </row>
+    <row r="2" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A2" s="27"/>
+      <c r="B2" s="25" t="s">
+        <v>81</v>
+      </c>
+      <c r="C2" s="6" t="s">
+        <v>82</v>
+      </c>
+      <c r="D2" s="6" t="s">
         <v>83</v>
       </c>
-      <c r="C1" s="27" t="s">
-        <v>2</v>
-      </c>
-      <c r="D1" s="28"/>
-      <c r="E1" s="29" t="s">
-        <v>3</v>
-      </c>
-      <c r="F1" s="30"/>
-      <c r="G1" s="31" t="s">
-        <v>8</v>
-      </c>
-      <c r="H1" s="32"/>
-      <c r="I1" s="2"/>
-    </row>
-    <row r="2" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A2" s="26"/>
-      <c r="B2" s="26"/>
-      <c r="C2" s="6" t="s">
-        <v>4</v>
-      </c>
-      <c r="D2" s="6" t="s">
-        <v>5</v>
-      </c>
       <c r="E2" s="8" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="F2" s="8" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="G2" s="19" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="H2" s="19" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="I2" s="2"/>
     </row>
@@ -3650,14 +3665,14 @@
         <v>2014</v>
       </c>
       <c r="B3" s="10" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="C3" s="23" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="D3" s="5"/>
       <c r="E3" s="12" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="F3" s="7" t="s">
         <v>0</v>
@@ -3678,17 +3693,17 @@
         <v>2015</v>
       </c>
       <c r="B4" s="10" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="C4" s="23" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="D4" s="5"/>
       <c r="E4" s="7" t="s">
         <v>0</v>
       </c>
       <c r="F4" s="21" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="G4" s="1" t="s">
         <v>0</v>
@@ -3706,14 +3721,14 @@
         <v>2016</v>
       </c>
       <c r="B5" s="10" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="C5" s="23" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="D5" s="5"/>
       <c r="E5" s="21" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="F5" s="7" t="s">
         <v>0</v>
@@ -3734,17 +3749,17 @@
         <v>2017</v>
       </c>
       <c r="B6" s="10" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="C6" s="23" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="D6" s="5"/>
       <c r="E6" s="7" t="s">
         <v>0</v>
       </c>
       <c r="F6" s="12" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="G6" s="1" t="s">
         <v>0</v>
@@ -3762,14 +3777,14 @@
         <v>2018</v>
       </c>
       <c r="B7" s="10" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="C7" s="23" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="D7" s="5"/>
       <c r="E7" s="12" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="F7" s="7" t="s">
         <v>0</v>
@@ -3790,17 +3805,17 @@
         <v>2019</v>
       </c>
       <c r="B8" s="10" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="C8" s="23" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="D8" s="11"/>
       <c r="E8" s="7" t="s">
         <v>0</v>
       </c>
       <c r="F8" s="12" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="G8" s="1" t="s">
         <v>0</v>
@@ -3815,14 +3830,14 @@
         <v>2020</v>
       </c>
       <c r="B9" s="10" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="C9" s="23" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="D9" s="11"/>
       <c r="E9" s="21" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="F9" s="7" t="s">
         <v>0</v>
@@ -3839,17 +3854,17 @@
         <v>2021</v>
       </c>
       <c r="B10" s="10" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="C10" s="23" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="D10" s="11"/>
       <c r="E10" s="7" t="s">
         <v>0</v>
       </c>
       <c r="F10" s="21" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="G10" s="1" t="s">
         <v>0</v>
@@ -3863,14 +3878,14 @@
         <v>2022</v>
       </c>
       <c r="B11" s="10" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="C11" s="23" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="D11" s="11"/>
       <c r="E11" s="12" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="F11" s="7" t="s">
         <v>0</v>
@@ -3887,17 +3902,17 @@
         <v>2023</v>
       </c>
       <c r="B12" s="10" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="C12" s="23" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="D12" s="11"/>
       <c r="E12" s="7" t="s">
         <v>0</v>
       </c>
       <c r="F12" s="21" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="G12" s="1" t="s">
         <v>0</v>
@@ -3907,9 +3922,9 @@
       </c>
     </row>
   </sheetData>
-  <mergeCells count="5">
+  <autoFilter ref="B2:F2" xr:uid="{00000000-0001-0000-0200-000000000000}"/>
+  <mergeCells count="4">
     <mergeCell ref="A1:A2"/>
-    <mergeCell ref="B1:B2"/>
     <mergeCell ref="C1:D1"/>
     <mergeCell ref="E1:F1"/>
     <mergeCell ref="G1:H1"/>
@@ -4273,65 +4288,64 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:I12"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="9" ySplit="2" topLeftCell="J3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="H1" sqref="H1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="B1" sqref="B1:B2"/>
+      <selection pane="bottomRight" activeCell="L25" sqref="L25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="5.453125" style="4" customWidth="1"/>
-    <col min="2" max="2" width="24.81640625" style="4" customWidth="1"/>
-    <col min="3" max="3" width="36.7265625" style="4" customWidth="1"/>
-    <col min="4" max="4" width="24.81640625" style="4" customWidth="1"/>
-    <col min="5" max="6" width="12.453125" style="4" customWidth="1"/>
-    <col min="7" max="8" width="3.81640625" style="4" customWidth="1"/>
-    <col min="9" max="9" width="13.7265625" style="4" customWidth="1"/>
+    <col min="1" max="1" width="5.6328125" style="4" customWidth="1"/>
+    <col min="2" max="2" width="50.6328125" style="4" customWidth="1"/>
+    <col min="3" max="4" width="33.6328125" style="4" customWidth="1"/>
+    <col min="5" max="6" width="12.6328125" style="4" customWidth="1"/>
+    <col min="7" max="8" width="3.6328125" style="4" customWidth="1"/>
+    <col min="9" max="9" width="12.6328125" style="4" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A1" s="33" t="s">
+      <c r="A1" s="34" t="s">
         <v>1</v>
       </c>
-      <c r="B1" s="25" t="s">
-        <v>83</v>
-      </c>
-      <c r="C1" s="27" t="s">
+      <c r="B1" s="25"/>
+      <c r="C1" s="28" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="35"/>
-      <c r="E1" s="29" t="s">
+      <c r="D1" s="36"/>
+      <c r="E1" s="30" t="s">
         <v>3</v>
       </c>
-      <c r="F1" s="36"/>
-      <c r="G1" s="37" t="s">
-        <v>9</v>
-      </c>
-      <c r="H1" s="38"/>
+      <c r="F1" s="37"/>
+      <c r="G1" s="38" t="s">
+        <v>7</v>
+      </c>
+      <c r="H1" s="39"/>
       <c r="I1" s="2"/>
     </row>
     <row r="2" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A2" s="34"/>
-      <c r="B2" s="26"/>
+      <c r="A2" s="35"/>
+      <c r="B2" s="25" t="s">
+        <v>81</v>
+      </c>
       <c r="C2" s="6" t="s">
-        <v>4</v>
+        <v>82</v>
       </c>
       <c r="D2" s="6" t="s">
-        <v>5</v>
+        <v>84</v>
       </c>
       <c r="E2" s="8" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="F2" s="8" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="G2" s="19" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="H2" s="19" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="I2" s="2"/>
     </row>
@@ -4340,16 +4354,16 @@
         <v>2014</v>
       </c>
       <c r="B3" s="10" t="s">
+        <v>54</v>
+      </c>
+      <c r="C3" s="23" t="s">
+        <v>52</v>
+      </c>
+      <c r="D3" s="11" t="s">
         <v>56</v>
       </c>
-      <c r="C3" s="23" t="s">
-        <v>54</v>
-      </c>
-      <c r="D3" s="11" t="s">
-        <v>58</v>
-      </c>
       <c r="E3" s="12" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="F3" s="7" t="s">
         <v>0</v>
@@ -4370,19 +4384,19 @@
         <v>2015</v>
       </c>
       <c r="B4" s="10" t="s">
+        <v>54</v>
+      </c>
+      <c r="C4" s="23" t="s">
+        <v>52</v>
+      </c>
+      <c r="D4" s="11" t="s">
         <v>56</v>
       </c>
-      <c r="C4" s="23" t="s">
-        <v>54</v>
-      </c>
-      <c r="D4" s="11" t="s">
-        <v>58</v>
-      </c>
       <c r="E4" s="7" t="s">
         <v>0</v>
       </c>
       <c r="F4" s="21" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="G4" s="1" t="s">
         <v>0</v>
@@ -4400,16 +4414,16 @@
         <v>2016</v>
       </c>
       <c r="B5" s="10" t="s">
+        <v>54</v>
+      </c>
+      <c r="C5" s="23" t="s">
+        <v>52</v>
+      </c>
+      <c r="D5" s="11" t="s">
         <v>56</v>
       </c>
-      <c r="C5" s="23" t="s">
-        <v>54</v>
-      </c>
-      <c r="D5" s="11" t="s">
-        <v>58</v>
-      </c>
       <c r="E5" s="21" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="F5" s="7" t="s">
         <v>0</v>
@@ -4430,19 +4444,19 @@
         <v>2017</v>
       </c>
       <c r="B6" s="10" t="s">
+        <v>54</v>
+      </c>
+      <c r="C6" s="23" t="s">
+        <v>52</v>
+      </c>
+      <c r="D6" s="11" t="s">
         <v>56</v>
       </c>
-      <c r="C6" s="23" t="s">
-        <v>54</v>
-      </c>
-      <c r="D6" s="11" t="s">
-        <v>58</v>
-      </c>
       <c r="E6" s="7" t="s">
         <v>0</v>
       </c>
       <c r="F6" s="12" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="G6" s="1" t="s">
         <v>0</v>
@@ -4460,16 +4474,16 @@
         <v>2018</v>
       </c>
       <c r="B7" s="10" t="s">
+        <v>54</v>
+      </c>
+      <c r="C7" s="23" t="s">
+        <v>52</v>
+      </c>
+      <c r="D7" s="11" t="s">
         <v>56</v>
       </c>
-      <c r="C7" s="23" t="s">
-        <v>54</v>
-      </c>
-      <c r="D7" s="11" t="s">
-        <v>58</v>
-      </c>
       <c r="E7" s="12" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="F7" s="7" t="s">
         <v>0</v>
@@ -4490,19 +4504,19 @@
         <v>2019</v>
       </c>
       <c r="B8" s="10" t="s">
+        <v>54</v>
+      </c>
+      <c r="C8" s="23" t="s">
+        <v>52</v>
+      </c>
+      <c r="D8" s="11" t="s">
         <v>56</v>
       </c>
-      <c r="C8" s="23" t="s">
-        <v>54</v>
-      </c>
-      <c r="D8" s="11" t="s">
-        <v>58</v>
-      </c>
       <c r="E8" s="7" t="s">
         <v>0</v>
       </c>
       <c r="F8" s="12" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="G8" s="1" t="s">
         <v>0</v>
@@ -4520,16 +4534,16 @@
         <v>2020</v>
       </c>
       <c r="B9" s="10" t="s">
+        <v>54</v>
+      </c>
+      <c r="C9" s="23" t="s">
+        <v>52</v>
+      </c>
+      <c r="D9" s="11" t="s">
         <v>56</v>
       </c>
-      <c r="C9" s="23" t="s">
-        <v>54</v>
-      </c>
-      <c r="D9" s="11" t="s">
-        <v>58</v>
-      </c>
       <c r="E9" s="12" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="F9" s="7" t="s">
         <v>0</v>
@@ -4550,19 +4564,19 @@
         <v>2021</v>
       </c>
       <c r="B10" s="10" t="s">
+        <v>54</v>
+      </c>
+      <c r="C10" s="23" t="s">
+        <v>52</v>
+      </c>
+      <c r="D10" s="11" t="s">
         <v>56</v>
       </c>
-      <c r="C10" s="23" t="s">
-        <v>54</v>
-      </c>
-      <c r="D10" s="11" t="s">
-        <v>58</v>
-      </c>
       <c r="E10" s="7" t="s">
         <v>0</v>
       </c>
       <c r="F10" s="12" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="G10" s="1" t="s">
         <v>0</v>
@@ -4580,16 +4594,16 @@
         <v>2022</v>
       </c>
       <c r="B11" s="10" t="s">
+        <v>54</v>
+      </c>
+      <c r="C11" s="23" t="s">
+        <v>52</v>
+      </c>
+      <c r="D11" s="11" t="s">
         <v>56</v>
       </c>
-      <c r="C11" s="23" t="s">
-        <v>54</v>
-      </c>
-      <c r="D11" s="11" t="s">
-        <v>58</v>
-      </c>
       <c r="E11" s="12" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="F11" s="7" t="s">
         <v>0</v>
@@ -4610,19 +4624,19 @@
         <v>2023</v>
       </c>
       <c r="B12" s="10" t="s">
+        <v>54</v>
+      </c>
+      <c r="C12" s="23" t="s">
+        <v>52</v>
+      </c>
+      <c r="D12" s="11" t="s">
         <v>56</v>
       </c>
-      <c r="C12" s="23" t="s">
-        <v>54</v>
-      </c>
-      <c r="D12" s="11" t="s">
-        <v>58</v>
-      </c>
       <c r="E12" s="7" t="s">
         <v>0</v>
       </c>
       <c r="F12" s="21" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="G12" s="1" t="s">
         <v>0</v>
@@ -4636,9 +4650,9 @@
       </c>
     </row>
   </sheetData>
-  <mergeCells count="5">
+  <autoFilter ref="B2:F2" xr:uid="{00000000-0001-0000-0300-000000000000}"/>
+  <mergeCells count="4">
     <mergeCell ref="A1:A2"/>
-    <mergeCell ref="B1:B2"/>
     <mergeCell ref="C1:D1"/>
     <mergeCell ref="E1:F1"/>
     <mergeCell ref="G1:H1"/>
@@ -4982,61 +4996,60 @@
       <pane xSplit="9" ySplit="2" topLeftCell="J3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="H1" sqref="H1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="B1" sqref="B1:B2"/>
+      <selection pane="bottomRight" activeCell="D15" sqref="A15:D15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="5.453125" style="4" customWidth="1"/>
-    <col min="2" max="2" width="24.81640625" style="4" customWidth="1"/>
-    <col min="3" max="3" width="36.7265625" style="4" customWidth="1"/>
-    <col min="4" max="4" width="24.81640625" style="4" customWidth="1"/>
-    <col min="5" max="6" width="12.453125" style="4" customWidth="1"/>
-    <col min="7" max="8" width="3.81640625" style="4" customWidth="1"/>
-    <col min="9" max="9" width="13.7265625" style="4" customWidth="1"/>
+    <col min="1" max="1" width="5.6328125" style="4" customWidth="1"/>
+    <col min="2" max="2" width="50.6328125" style="4" customWidth="1"/>
+    <col min="3" max="4" width="33.6328125" style="4" customWidth="1"/>
+    <col min="5" max="6" width="12.6328125" style="4" customWidth="1"/>
+    <col min="7" max="8" width="3.6328125" style="4" customWidth="1"/>
+    <col min="9" max="9" width="12.6328125" style="4" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A1" s="25" t="s">
+      <c r="A1" s="26" t="s">
         <v>1</v>
       </c>
-      <c r="B1" s="25" t="s">
-        <v>83</v>
-      </c>
-      <c r="C1" s="27" t="s">
+      <c r="B1" s="25"/>
+      <c r="C1" s="28" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="28"/>
-      <c r="E1" s="29" t="s">
+      <c r="D1" s="29"/>
+      <c r="E1" s="30" t="s">
         <v>3</v>
       </c>
-      <c r="F1" s="30"/>
-      <c r="G1" s="31" t="s">
-        <v>10</v>
-      </c>
-      <c r="H1" s="32"/>
+      <c r="F1" s="31"/>
+      <c r="G1" s="32" t="s">
+        <v>8</v>
+      </c>
+      <c r="H1" s="33"/>
       <c r="I1" s="2"/>
     </row>
     <row r="2" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A2" s="26"/>
-      <c r="B2" s="26"/>
+      <c r="A2" s="27"/>
+      <c r="B2" s="25" t="s">
+        <v>81</v>
+      </c>
       <c r="C2" s="6" t="s">
-        <v>4</v>
+        <v>82</v>
       </c>
       <c r="D2" s="6" t="s">
-        <v>5</v>
+        <v>84</v>
       </c>
       <c r="E2" s="8" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="F2" s="8" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="G2" s="19" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="H2" s="19" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="I2" s="2"/>
     </row>
@@ -5045,16 +5058,16 @@
         <v>2014</v>
       </c>
       <c r="B3" s="10" t="s">
+        <v>54</v>
+      </c>
+      <c r="C3" s="23" t="s">
+        <v>52</v>
+      </c>
+      <c r="D3" s="11" t="s">
         <v>56</v>
       </c>
-      <c r="C3" s="23" t="s">
-        <v>54</v>
-      </c>
-      <c r="D3" s="11" t="s">
-        <v>58</v>
-      </c>
       <c r="E3" s="12" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="F3" s="7" t="s">
         <v>0</v>
@@ -5075,19 +5088,19 @@
         <v>2015</v>
       </c>
       <c r="B4" s="10" t="s">
+        <v>54</v>
+      </c>
+      <c r="C4" s="23" t="s">
+        <v>52</v>
+      </c>
+      <c r="D4" s="11" t="s">
         <v>56</v>
       </c>
-      <c r="C4" s="23" t="s">
-        <v>54</v>
-      </c>
-      <c r="D4" s="11" t="s">
-        <v>58</v>
-      </c>
       <c r="E4" s="7" t="s">
         <v>0</v>
       </c>
       <c r="F4" s="21" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="G4" s="1" t="s">
         <v>0</v>
@@ -5105,16 +5118,16 @@
         <v>2016</v>
       </c>
       <c r="B5" s="10" t="s">
+        <v>54</v>
+      </c>
+      <c r="C5" s="23" t="s">
+        <v>52</v>
+      </c>
+      <c r="D5" s="11" t="s">
         <v>56</v>
       </c>
-      <c r="C5" s="23" t="s">
-        <v>54</v>
-      </c>
-      <c r="D5" s="11" t="s">
-        <v>58</v>
-      </c>
       <c r="E5" s="21" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="F5" s="7" t="s">
         <v>0</v>
@@ -5135,19 +5148,19 @@
         <v>2017</v>
       </c>
       <c r="B6" s="10" t="s">
+        <v>54</v>
+      </c>
+      <c r="C6" s="23" t="s">
+        <v>52</v>
+      </c>
+      <c r="D6" s="11" t="s">
         <v>56</v>
       </c>
-      <c r="C6" s="23" t="s">
-        <v>54</v>
-      </c>
-      <c r="D6" s="11" t="s">
-        <v>58</v>
-      </c>
       <c r="E6" s="7" t="s">
         <v>0</v>
       </c>
       <c r="F6" s="12" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="G6" s="1" t="s">
         <v>0</v>
@@ -5165,16 +5178,16 @@
         <v>2018</v>
       </c>
       <c r="B7" s="10" t="s">
+        <v>54</v>
+      </c>
+      <c r="C7" s="23" t="s">
+        <v>52</v>
+      </c>
+      <c r="D7" s="11" t="s">
         <v>56</v>
       </c>
-      <c r="C7" s="23" t="s">
-        <v>54</v>
-      </c>
-      <c r="D7" s="11" t="s">
-        <v>58</v>
-      </c>
       <c r="E7" s="12" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="F7" s="7" t="s">
         <v>0</v>
@@ -5195,19 +5208,19 @@
         <v>2019</v>
       </c>
       <c r="B8" s="10" t="s">
+        <v>54</v>
+      </c>
+      <c r="C8" s="23" t="s">
+        <v>52</v>
+      </c>
+      <c r="D8" s="11" t="s">
         <v>56</v>
       </c>
-      <c r="C8" s="23" t="s">
-        <v>54</v>
-      </c>
-      <c r="D8" s="11" t="s">
-        <v>58</v>
-      </c>
       <c r="E8" s="7" t="s">
         <v>0</v>
       </c>
       <c r="F8" s="12" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="G8" s="1" t="s">
         <v>0</v>
@@ -5225,16 +5238,16 @@
         <v>2020</v>
       </c>
       <c r="B9" s="10" t="s">
+        <v>54</v>
+      </c>
+      <c r="C9" s="23" t="s">
+        <v>52</v>
+      </c>
+      <c r="D9" s="11" t="s">
         <v>56</v>
       </c>
-      <c r="C9" s="23" t="s">
-        <v>54</v>
-      </c>
-      <c r="D9" s="11" t="s">
-        <v>58</v>
-      </c>
       <c r="E9" s="12" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="F9" s="7" t="s">
         <v>0</v>
@@ -5255,19 +5268,19 @@
         <v>2021</v>
       </c>
       <c r="B10" s="10" t="s">
+        <v>54</v>
+      </c>
+      <c r="C10" s="23" t="s">
+        <v>52</v>
+      </c>
+      <c r="D10" s="11" t="s">
         <v>56</v>
       </c>
-      <c r="C10" s="23" t="s">
-        <v>54</v>
-      </c>
-      <c r="D10" s="11" t="s">
-        <v>58</v>
-      </c>
       <c r="E10" s="7" t="s">
         <v>0</v>
       </c>
       <c r="F10" s="12" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="G10" s="1" t="s">
         <v>0</v>
@@ -5285,16 +5298,16 @@
         <v>2022</v>
       </c>
       <c r="B11" s="10" t="s">
+        <v>54</v>
+      </c>
+      <c r="C11" s="23" t="s">
+        <v>52</v>
+      </c>
+      <c r="D11" s="11" t="s">
         <v>56</v>
       </c>
-      <c r="C11" s="23" t="s">
-        <v>54</v>
-      </c>
-      <c r="D11" s="11" t="s">
-        <v>58</v>
-      </c>
       <c r="E11" s="12" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="F11" s="7" t="s">
         <v>0</v>
@@ -5315,19 +5328,19 @@
         <v>2023</v>
       </c>
       <c r="B12" s="10" t="s">
+        <v>54</v>
+      </c>
+      <c r="C12" s="23" t="s">
+        <v>52</v>
+      </c>
+      <c r="D12" s="11" t="s">
         <v>56</v>
       </c>
-      <c r="C12" s="23" t="s">
-        <v>54</v>
-      </c>
-      <c r="D12" s="11" t="s">
-        <v>58</v>
-      </c>
       <c r="E12" s="7" t="s">
         <v>0</v>
       </c>
       <c r="F12" s="21" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="G12" s="1" t="s">
         <v>0</v>
@@ -5341,9 +5354,9 @@
       </c>
     </row>
   </sheetData>
-  <mergeCells count="5">
+  <autoFilter ref="B2:F2" xr:uid="{00000000-0001-0000-0400-000000000000}"/>
+  <mergeCells count="4">
     <mergeCell ref="A1:A2"/>
-    <mergeCell ref="B1:B2"/>
     <mergeCell ref="C1:D1"/>
     <mergeCell ref="E1:F1"/>
     <mergeCell ref="G1:H1"/>
@@ -5671,61 +5684,60 @@
       <pane xSplit="9" ySplit="2" topLeftCell="J3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="H1" sqref="H1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="B1" sqref="B1:B2"/>
+      <selection pane="bottomRight" activeCell="D2" sqref="D2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="5.453125" style="4" customWidth="1"/>
-    <col min="2" max="2" width="24.81640625" style="4" customWidth="1"/>
-    <col min="3" max="3" width="36.7265625" style="4" customWidth="1"/>
-    <col min="4" max="4" width="24.81640625" style="4" customWidth="1"/>
-    <col min="5" max="6" width="12.453125" style="4" customWidth="1"/>
-    <col min="7" max="8" width="3.81640625" style="4" customWidth="1"/>
-    <col min="9" max="9" width="13.7265625" style="4" customWidth="1"/>
+    <col min="1" max="1" width="5.6328125" style="4" customWidth="1"/>
+    <col min="2" max="2" width="50.6328125" style="4" customWidth="1"/>
+    <col min="3" max="4" width="33.6328125" style="4" customWidth="1"/>
+    <col min="5" max="6" width="12.6328125" style="4" customWidth="1"/>
+    <col min="7" max="8" width="3.6328125" style="4" customWidth="1"/>
+    <col min="9" max="9" width="12.6328125" style="4" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A1" s="25" t="s">
+      <c r="A1" s="26" t="s">
         <v>1</v>
       </c>
-      <c r="B1" s="25" t="s">
-        <v>83</v>
-      </c>
-      <c r="C1" s="27" t="s">
+      <c r="B1" s="25"/>
+      <c r="C1" s="28" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="28"/>
-      <c r="E1" s="29" t="s">
+      <c r="D1" s="29"/>
+      <c r="E1" s="30" t="s">
         <v>3</v>
       </c>
-      <c r="F1" s="30"/>
-      <c r="G1" s="31" t="s">
-        <v>11</v>
-      </c>
-      <c r="H1" s="32"/>
+      <c r="F1" s="31"/>
+      <c r="G1" s="32" t="s">
+        <v>9</v>
+      </c>
+      <c r="H1" s="33"/>
       <c r="I1" s="2"/>
     </row>
     <row r="2" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A2" s="26"/>
-      <c r="B2" s="26"/>
+      <c r="A2" s="27"/>
+      <c r="B2" s="25" t="s">
+        <v>81</v>
+      </c>
       <c r="C2" s="6" t="s">
-        <v>4</v>
+        <v>82</v>
       </c>
       <c r="D2" s="6" t="s">
-        <v>5</v>
+        <v>84</v>
       </c>
       <c r="E2" s="8" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="F2" s="8" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="G2" s="19" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="H2" s="19" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="I2" s="2"/>
     </row>
@@ -5734,16 +5746,16 @@
         <v>2014</v>
       </c>
       <c r="B3" s="10" t="s">
+        <v>54</v>
+      </c>
+      <c r="C3" s="23" t="s">
+        <v>52</v>
+      </c>
+      <c r="D3" s="11" t="s">
         <v>56</v>
       </c>
-      <c r="C3" s="23" t="s">
-        <v>54</v>
-      </c>
-      <c r="D3" s="11" t="s">
-        <v>58</v>
-      </c>
       <c r="E3" s="12" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="F3" s="7" t="s">
         <v>0</v>
@@ -5764,19 +5776,19 @@
         <v>2015</v>
       </c>
       <c r="B4" s="10" t="s">
+        <v>54</v>
+      </c>
+      <c r="C4" s="23" t="s">
+        <v>52</v>
+      </c>
+      <c r="D4" s="11" t="s">
         <v>56</v>
       </c>
-      <c r="C4" s="23" t="s">
-        <v>54</v>
-      </c>
-      <c r="D4" s="11" t="s">
-        <v>58</v>
-      </c>
       <c r="E4" s="7" t="s">
         <v>0</v>
       </c>
       <c r="F4" s="21" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="G4" s="1" t="s">
         <v>0</v>
@@ -5794,16 +5806,16 @@
         <v>2016</v>
       </c>
       <c r="B5" s="10" t="s">
+        <v>54</v>
+      </c>
+      <c r="C5" s="23" t="s">
+        <v>52</v>
+      </c>
+      <c r="D5" s="11" t="s">
         <v>56</v>
       </c>
-      <c r="C5" s="23" t="s">
-        <v>54</v>
-      </c>
-      <c r="D5" s="11" t="s">
-        <v>58</v>
-      </c>
       <c r="E5" s="21" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="F5" s="7" t="s">
         <v>0</v>
@@ -5824,19 +5836,19 @@
         <v>2017</v>
       </c>
       <c r="B6" s="10" t="s">
+        <v>54</v>
+      </c>
+      <c r="C6" s="23" t="s">
+        <v>52</v>
+      </c>
+      <c r="D6" s="11" t="s">
         <v>56</v>
       </c>
-      <c r="C6" s="23" t="s">
-        <v>54</v>
-      </c>
-      <c r="D6" s="11" t="s">
-        <v>58</v>
-      </c>
       <c r="E6" s="7" t="s">
         <v>0</v>
       </c>
       <c r="F6" s="12" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="G6" s="1" t="s">
         <v>0</v>
@@ -5854,16 +5866,16 @@
         <v>2018</v>
       </c>
       <c r="B7" s="10" t="s">
+        <v>54</v>
+      </c>
+      <c r="C7" s="23" t="s">
+        <v>52</v>
+      </c>
+      <c r="D7" s="11" t="s">
         <v>56</v>
       </c>
-      <c r="C7" s="23" t="s">
-        <v>54</v>
-      </c>
-      <c r="D7" s="11" t="s">
-        <v>58</v>
-      </c>
       <c r="E7" s="12" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="F7" s="7" t="s">
         <v>0</v>
@@ -5884,19 +5896,19 @@
         <v>2019</v>
       </c>
       <c r="B8" s="10" t="s">
+        <v>54</v>
+      </c>
+      <c r="C8" s="23" t="s">
+        <v>52</v>
+      </c>
+      <c r="D8" s="11" t="s">
         <v>56</v>
       </c>
-      <c r="C8" s="23" t="s">
-        <v>54</v>
-      </c>
-      <c r="D8" s="11" t="s">
-        <v>58</v>
-      </c>
       <c r="E8" s="7" t="s">
         <v>0</v>
       </c>
       <c r="F8" s="12" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="G8" s="1" t="s">
         <v>0</v>
@@ -5914,16 +5926,16 @@
         <v>2020</v>
       </c>
       <c r="B9" s="10" t="s">
+        <v>54</v>
+      </c>
+      <c r="C9" s="23" t="s">
+        <v>52</v>
+      </c>
+      <c r="D9" s="11" t="s">
         <v>56</v>
       </c>
-      <c r="C9" s="23" t="s">
-        <v>54</v>
-      </c>
-      <c r="D9" s="11" t="s">
-        <v>58</v>
-      </c>
       <c r="E9" s="12" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="F9" s="7" t="s">
         <v>0</v>
@@ -5944,19 +5956,19 @@
         <v>2021</v>
       </c>
       <c r="B10" s="10" t="s">
+        <v>54</v>
+      </c>
+      <c r="C10" s="23" t="s">
+        <v>52</v>
+      </c>
+      <c r="D10" s="11" t="s">
         <v>56</v>
       </c>
-      <c r="C10" s="23" t="s">
-        <v>54</v>
-      </c>
-      <c r="D10" s="11" t="s">
-        <v>58</v>
-      </c>
       <c r="E10" s="7" t="s">
         <v>0</v>
       </c>
       <c r="F10" s="12" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="G10" s="1" t="s">
         <v>0</v>
@@ -5974,16 +5986,16 @@
         <v>2022</v>
       </c>
       <c r="B11" s="10" t="s">
+        <v>54</v>
+      </c>
+      <c r="C11" s="23" t="s">
+        <v>52</v>
+      </c>
+      <c r="D11" s="11" t="s">
         <v>56</v>
       </c>
-      <c r="C11" s="23" t="s">
-        <v>54</v>
-      </c>
-      <c r="D11" s="11" t="s">
-        <v>58</v>
-      </c>
       <c r="E11" s="12" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="F11" s="7" t="s">
         <v>0</v>
@@ -6004,19 +6016,19 @@
         <v>2023</v>
       </c>
       <c r="B12" s="10" t="s">
+        <v>54</v>
+      </c>
+      <c r="C12" s="23" t="s">
+        <v>52</v>
+      </c>
+      <c r="D12" s="11" t="s">
         <v>56</v>
       </c>
-      <c r="C12" s="23" t="s">
-        <v>54</v>
-      </c>
-      <c r="D12" s="11" t="s">
-        <v>58</v>
-      </c>
       <c r="E12" s="7" t="s">
         <v>0</v>
       </c>
       <c r="F12" s="21" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="G12" s="1" t="s">
         <v>0</v>
@@ -6030,9 +6042,9 @@
       </c>
     </row>
   </sheetData>
-  <mergeCells count="5">
+  <autoFilter ref="B2:F2" xr:uid="{00000000-0001-0000-0500-000000000000}"/>
+  <mergeCells count="4">
     <mergeCell ref="A1:A2"/>
-    <mergeCell ref="B1:B2"/>
     <mergeCell ref="C1:D1"/>
     <mergeCell ref="E1:F1"/>
     <mergeCell ref="G1:H1"/>
@@ -6414,61 +6426,60 @@
       <pane xSplit="9" ySplit="2" topLeftCell="J3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="H1" sqref="H1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="B1" sqref="B1:B2"/>
+      <selection pane="bottomRight" activeCell="B57" sqref="B57"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="5.453125" style="4" customWidth="1"/>
-    <col min="2" max="2" width="24.81640625" style="4" customWidth="1"/>
-    <col min="3" max="3" width="36.7265625" style="4" customWidth="1"/>
-    <col min="4" max="4" width="24.81640625" style="4" customWidth="1"/>
-    <col min="5" max="6" width="12.453125" style="4" customWidth="1"/>
-    <col min="7" max="8" width="3.81640625" style="4" customWidth="1"/>
-    <col min="9" max="9" width="13.7265625" style="4" customWidth="1"/>
+    <col min="1" max="1" width="5.6328125" style="4" customWidth="1"/>
+    <col min="2" max="2" width="50.6328125" style="4" customWidth="1"/>
+    <col min="3" max="4" width="33.6328125" style="4" customWidth="1"/>
+    <col min="5" max="6" width="12.6328125" style="4" customWidth="1"/>
+    <col min="7" max="8" width="3.6328125" style="4" customWidth="1"/>
+    <col min="9" max="9" width="12.6328125" style="4" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A1" s="25" t="s">
+      <c r="A1" s="26" t="s">
         <v>1</v>
       </c>
-      <c r="B1" s="25" t="s">
-        <v>83</v>
-      </c>
-      <c r="C1" s="27" t="s">
+      <c r="B1" s="25"/>
+      <c r="C1" s="28" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="28"/>
-      <c r="E1" s="29" t="s">
+      <c r="D1" s="29"/>
+      <c r="E1" s="30" t="s">
         <v>3</v>
       </c>
-      <c r="F1" s="30"/>
-      <c r="G1" s="39" t="s">
-        <v>12</v>
-      </c>
-      <c r="H1" s="40"/>
+      <c r="F1" s="31"/>
+      <c r="G1" s="40" t="s">
+        <v>10</v>
+      </c>
+      <c r="H1" s="41"/>
       <c r="I1" s="2"/>
     </row>
     <row r="2" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A2" s="26"/>
-      <c r="B2" s="26"/>
+      <c r="A2" s="27"/>
+      <c r="B2" s="25" t="s">
+        <v>81</v>
+      </c>
       <c r="C2" s="6" t="s">
-        <v>4</v>
+        <v>82</v>
       </c>
       <c r="D2" s="6" t="s">
-        <v>5</v>
+        <v>84</v>
       </c>
       <c r="E2" s="8" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="F2" s="8" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="G2" s="19" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="H2" s="19" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="I2" s="2"/>
     </row>
@@ -6477,16 +6488,16 @@
         <v>2014</v>
       </c>
       <c r="B3" s="10" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="C3" s="23" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="D3" s="11" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="E3" s="12" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="F3" s="7" t="s">
         <v>0</v>
@@ -6507,19 +6518,19 @@
         <v>2015</v>
       </c>
       <c r="B4" s="10" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="C4" s="23" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="D4" s="11" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="E4" s="7" t="s">
         <v>0</v>
       </c>
       <c r="F4" s="21" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="G4" s="1" t="s">
         <v>0</v>
@@ -6537,16 +6548,16 @@
         <v>2016</v>
       </c>
       <c r="B5" s="10" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="C5" s="23" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="D5" s="11" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="E5" s="12" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="F5" s="7" t="s">
         <v>0</v>
@@ -6567,19 +6578,19 @@
         <v>2017</v>
       </c>
       <c r="B6" s="10" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="C6" s="23" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="D6" s="11" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="E6" s="7" t="s">
         <v>0</v>
       </c>
       <c r="F6" s="12" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="G6" s="1" t="s">
         <v>0</v>
@@ -6597,16 +6608,16 @@
         <v>2018</v>
       </c>
       <c r="B7" s="10" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="C7" s="23" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="D7" s="11" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="E7" s="21" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="F7" s="7" t="s">
         <v>0</v>
@@ -6627,19 +6638,19 @@
         <v>2019</v>
       </c>
       <c r="B8" s="10" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="C8" s="23" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="D8" s="11" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="E8" s="7" t="s">
         <v>0</v>
       </c>
       <c r="F8" s="21" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="G8" s="1" t="s">
         <v>0</v>
@@ -6657,16 +6668,16 @@
         <v>2020</v>
       </c>
       <c r="B9" s="10" t="s">
+        <v>55</v>
+      </c>
+      <c r="C9" s="23" t="s">
+        <v>52</v>
+      </c>
+      <c r="D9" s="11" t="s">
+        <v>56</v>
+      </c>
+      <c r="E9" s="21" t="s">
         <v>57</v>
-      </c>
-      <c r="C9" s="23" t="s">
-        <v>54</v>
-      </c>
-      <c r="D9" s="11" t="s">
-        <v>58</v>
-      </c>
-      <c r="E9" s="21" t="s">
-        <v>59</v>
       </c>
       <c r="F9" s="7" t="s">
         <v>0</v>
@@ -6687,19 +6698,19 @@
         <v>2021</v>
       </c>
       <c r="B10" s="10" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="C10" s="23" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="D10" s="11" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="E10" s="7" t="s">
         <v>0</v>
       </c>
       <c r="F10" s="21" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="G10" s="1" t="s">
         <v>0</v>
@@ -6717,16 +6728,16 @@
         <v>2022</v>
       </c>
       <c r="B11" s="10" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="C11" s="23" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="D11" s="11" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="E11" s="21" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="F11" s="7" t="s">
         <v>0</v>
@@ -6747,19 +6758,19 @@
         <v>2023</v>
       </c>
       <c r="B12" s="10" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="C12" s="23" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="D12" s="11" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="E12" s="7" t="s">
         <v>0</v>
       </c>
       <c r="F12" s="21" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="G12" s="1" t="s">
         <v>0</v>
@@ -6773,9 +6784,9 @@
       </c>
     </row>
   </sheetData>
-  <mergeCells count="5">
+  <autoFilter ref="B2:F2" xr:uid="{00000000-0001-0000-0600-000000000000}"/>
+  <mergeCells count="4">
     <mergeCell ref="A1:A2"/>
-    <mergeCell ref="B1:B2"/>
     <mergeCell ref="C1:D1"/>
     <mergeCell ref="E1:F1"/>
     <mergeCell ref="G1:H1"/>
@@ -7073,61 +7084,60 @@
       <pane xSplit="9" ySplit="2" topLeftCell="J3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="H1" sqref="H1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="B1" sqref="B1:B2"/>
+      <selection pane="bottomRight" activeCell="D2" sqref="D2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="5.453125" style="4" customWidth="1"/>
-    <col min="2" max="2" width="24.81640625" style="4" customWidth="1"/>
-    <col min="3" max="3" width="36.7265625" style="4" customWidth="1"/>
-    <col min="4" max="4" width="24.81640625" style="4" customWidth="1"/>
-    <col min="5" max="6" width="12.453125" style="4" customWidth="1"/>
-    <col min="7" max="8" width="3.81640625" style="4" customWidth="1"/>
-    <col min="9" max="9" width="13.7265625" style="4" customWidth="1"/>
+    <col min="1" max="1" width="5.6328125" style="4" customWidth="1"/>
+    <col min="2" max="2" width="50.6328125" style="4" customWidth="1"/>
+    <col min="3" max="4" width="33.6328125" style="4" customWidth="1"/>
+    <col min="5" max="6" width="12.6328125" style="4" customWidth="1"/>
+    <col min="7" max="8" width="3.6328125" style="4" customWidth="1"/>
+    <col min="9" max="9" width="12.6328125" style="4" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:20" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A1" s="25" t="s">
+      <c r="A1" s="26" t="s">
         <v>1</v>
       </c>
-      <c r="B1" s="25" t="s">
-        <v>83</v>
-      </c>
-      <c r="C1" s="27" t="s">
+      <c r="B1" s="25"/>
+      <c r="C1" s="28" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="28"/>
-      <c r="E1" s="29" t="s">
+      <c r="D1" s="29"/>
+      <c r="E1" s="30" t="s">
         <v>3</v>
       </c>
-      <c r="F1" s="30"/>
-      <c r="G1" s="39" t="s">
-        <v>49</v>
-      </c>
-      <c r="H1" s="40"/>
+      <c r="F1" s="31"/>
+      <c r="G1" s="40" t="s">
+        <v>47</v>
+      </c>
+      <c r="H1" s="41"/>
       <c r="I1" s="2"/>
     </row>
     <row r="2" spans="1:20" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A2" s="26"/>
-      <c r="B2" s="26"/>
+      <c r="A2" s="27"/>
+      <c r="B2" s="25" t="s">
+        <v>81</v>
+      </c>
       <c r="C2" s="6" t="s">
-        <v>4</v>
+        <v>82</v>
       </c>
       <c r="D2" s="6" t="s">
-        <v>5</v>
+        <v>84</v>
       </c>
       <c r="E2" s="8" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="F2" s="8" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="G2" s="19" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="H2" s="19" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="I2" s="2"/>
     </row>
@@ -7136,16 +7146,16 @@
         <v>2014</v>
       </c>
       <c r="B3" s="10" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="C3" s="23" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="D3" s="11" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="E3" s="12" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="F3" s="7" t="s">
         <v>0</v>
@@ -7166,19 +7176,19 @@
         <v>2015</v>
       </c>
       <c r="B4" s="10" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="C4" s="23" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="D4" s="11" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="E4" s="7" t="s">
         <v>0</v>
       </c>
       <c r="F4" s="12" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="G4" s="1" t="s">
         <v>0</v>
@@ -7196,16 +7206,16 @@
         <v>2016</v>
       </c>
       <c r="B5" s="10" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="C5" s="23" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="D5" s="11" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="E5" s="21" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="F5" s="7" t="s">
         <v>0</v>
@@ -7226,19 +7236,19 @@
         <v>2017</v>
       </c>
       <c r="B6" s="10" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="C6" s="23" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="D6" s="11" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="E6" s="7" t="s">
         <v>0</v>
       </c>
       <c r="F6" s="12" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="G6" s="1" t="s">
         <v>0</v>
@@ -7256,16 +7266,16 @@
         <v>2018</v>
       </c>
       <c r="B7" s="10" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="C7" s="23" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="D7" s="11" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="E7" s="12" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="F7" s="7" t="s">
         <v>0</v>
@@ -7286,19 +7296,19 @@
         <v>2019</v>
       </c>
       <c r="B8" s="10" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="C8" s="23" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="D8" s="11" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="E8" s="7" t="s">
         <v>0</v>
       </c>
       <c r="F8" s="12" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="G8" s="1" t="s">
         <v>0</v>
@@ -7316,16 +7326,16 @@
         <v>2020</v>
       </c>
       <c r="B9" s="10" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="C9" s="23" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="D9" s="11" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="E9" s="12" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="F9" s="7" t="s">
         <v>0</v>
@@ -7346,19 +7356,19 @@
         <v>2021</v>
       </c>
       <c r="B10" s="10" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="C10" s="23" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="D10" s="11" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="E10" s="7" t="s">
         <v>0</v>
       </c>
       <c r="F10" s="12" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="G10" s="1" t="s">
         <v>0</v>
@@ -7376,16 +7386,16 @@
         <v>2022</v>
       </c>
       <c r="B11" s="10" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="C11" s="23" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="D11" s="11" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="E11" s="12" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="F11" s="7" t="s">
         <v>0</v>
@@ -7406,19 +7416,19 @@
         <v>2023</v>
       </c>
       <c r="B12" s="10" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="C12" s="23" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="D12" s="11" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="E12" s="7" t="s">
         <v>0</v>
       </c>
       <c r="F12" s="12" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="G12" s="1" t="s">
         <v>0</v>
@@ -7440,11 +7450,11 @@
       <c r="S25" s="24"/>
     </row>
   </sheetData>
-  <mergeCells count="5">
+  <autoFilter ref="B2:F2" xr:uid="{00000000-0001-0000-0700-000000000000}"/>
+  <mergeCells count="4">
     <mergeCell ref="E1:F1"/>
     <mergeCell ref="G1:H1"/>
     <mergeCell ref="A1:A2"/>
-    <mergeCell ref="B1:B2"/>
     <mergeCell ref="C1:D1"/>
   </mergeCells>
   <phoneticPr fontId="9" type="noConversion"/>
@@ -7756,13 +7766,13 @@
   <sheetData>
     <row r="1" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A1" s="13" t="s">
+        <v>11</v>
+      </c>
+      <c r="B1" s="14" t="s">
+        <v>12</v>
+      </c>
+      <c r="C1" s="15" t="s">
         <v>13</v>
-      </c>
-      <c r="B1" s="14" t="s">
-        <v>14</v>
-      </c>
-      <c r="C1" s="15" t="s">
-        <v>15</v>
       </c>
     </row>
     <row r="2" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.35">
@@ -7770,10 +7780,10 @@
         <v>1</v>
       </c>
       <c r="B2" s="17" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="C2" s="18" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
     </row>
     <row r="3" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.35">
@@ -7781,10 +7791,10 @@
         <v>2</v>
       </c>
       <c r="B3" s="17" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="C3" s="18" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
     </row>
     <row r="4" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.35">
@@ -7792,10 +7802,10 @@
         <v>3</v>
       </c>
       <c r="B4" s="17" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="C4" s="18" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
     </row>
     <row r="5" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.35">
@@ -7803,10 +7813,10 @@
         <v>4</v>
       </c>
       <c r="B5" s="17" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="C5" s="18" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
     </row>
     <row r="6" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.35">
@@ -7814,10 +7824,10 @@
         <v>5</v>
       </c>
       <c r="B6" s="17" t="s">
+        <v>48</v>
+      </c>
+      <c r="C6" s="22" t="s">
         <v>50</v>
-      </c>
-      <c r="C6" s="22" t="s">
-        <v>52</v>
       </c>
     </row>
     <row r="7" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.35">
@@ -7825,10 +7835,10 @@
         <v>6</v>
       </c>
       <c r="B7" s="17" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="C7" s="22" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
     </row>
   </sheetData>
